--- a/Data/Support Deck Tables.xlsx
+++ b/Data/Support Deck Tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Character Table" sheetId="1" r:id="rId1"/>
@@ -1687,32 +1687,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1721,27 +1696,9 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1781,144 +1738,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2207,7 +2026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L619"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -2264,11 +2083,11 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(G2:L2,"&lt;&gt;")</f>
+        <f t="shared" ref="D2:D65" si="0">COUNTIF(G2:L2,"&lt;&gt;")</f>
         <v>3</v>
       </c>
       <c r="E2">
-        <f>IF(G2="",0,VLOOKUP(G2,Affiliation_Table,3,FALSE))+IF(H2="",0,VLOOKUP(H2,Affiliation_Table,3,FALSE))+IF(I2="",0,VLOOKUP(I2,Affiliation_Table,3,FALSE))+IF(J2="",0,VLOOKUP(J2,Affiliation_Table,3,FALSE))+IF(K2="",0,VLOOKUP(K2,Affiliation_Table,3,FALSE))+IF(L2="",0,VLOOKUP(L2,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" ref="E2:E65" si="1">IF(G2="",0,VLOOKUP(G2,Affiliation_Table,3,FALSE))+IF(H2="",0,VLOOKUP(H2,Affiliation_Table,3,FALSE))+IF(I2="",0,VLOOKUP(I2,Affiliation_Table,3,FALSE))+IF(J2="",0,VLOOKUP(J2,Affiliation_Table,3,FALSE))+IF(K2="",0,VLOOKUP(K2,Affiliation_Table,3,FALSE))+IF(L2="",0,VLOOKUP(L2,Affiliation_Table,3,FALSE))</f>
         <v>32786</v>
       </c>
       <c r="F2">
@@ -2298,11 +2117,11 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <f>COUNTIF(G3:L3,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E3">
-        <f>IF(G3="",0,VLOOKUP(G3,Affiliation_Table,3,FALSE))+IF(H3="",0,VLOOKUP(H3,Affiliation_Table,3,FALSE))+IF(I3="",0,VLOOKUP(I3,Affiliation_Table,3,FALSE))+IF(J3="",0,VLOOKUP(J3,Affiliation_Table,3,FALSE))+IF(K3="",0,VLOOKUP(K3,Affiliation_Table,3,FALSE))+IF(L3="",0,VLOOKUP(L3,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>8193</v>
       </c>
       <c r="F3">
@@ -2330,11 +2149,11 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <f>COUNTIF(G4:L4,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E4">
-        <f>IF(G4="",0,VLOOKUP(G4,Affiliation_Table,3,FALSE))+IF(H4="",0,VLOOKUP(H4,Affiliation_Table,3,FALSE))+IF(I4="",0,VLOOKUP(I4,Affiliation_Table,3,FALSE))+IF(J4="",0,VLOOKUP(J4,Affiliation_Table,3,FALSE))+IF(K4="",0,VLOOKUP(K4,Affiliation_Table,3,FALSE))+IF(L4="",0,VLOOKUP(L4,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>8193</v>
       </c>
       <c r="F4">
@@ -2362,11 +2181,11 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <f>COUNTIF(G5:L5,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E5">
-        <f>IF(G5="",0,VLOOKUP(G5,Affiliation_Table,3,FALSE))+IF(H5="",0,VLOOKUP(H5,Affiliation_Table,3,FALSE))+IF(I5="",0,VLOOKUP(I5,Affiliation_Table,3,FALSE))+IF(J5="",0,VLOOKUP(J5,Affiliation_Table,3,FALSE))+IF(K5="",0,VLOOKUP(K5,Affiliation_Table,3,FALSE))+IF(L5="",0,VLOOKUP(L5,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>32786</v>
       </c>
       <c r="F5">
@@ -2396,11 +2215,11 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <f>COUNTIF(G6:L6,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E6">
-        <f>IF(G6="",0,VLOOKUP(G6,Affiliation_Table,3,FALSE))+IF(H6="",0,VLOOKUP(H6,Affiliation_Table,3,FALSE))+IF(I6="",0,VLOOKUP(I6,Affiliation_Table,3,FALSE))+IF(J6="",0,VLOOKUP(J6,Affiliation_Table,3,FALSE))+IF(K6="",0,VLOOKUP(K6,Affiliation_Table,3,FALSE))+IF(L6="",0,VLOOKUP(L6,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>32786</v>
       </c>
       <c r="F6">
@@ -2427,11 +2246,11 @@
         <v>27</v>
       </c>
       <c r="D7">
-        <f>COUNTIF(G7:L7,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E7">
-        <f>IF(G7="",0,VLOOKUP(G7,Affiliation_Table,3,FALSE))+IF(H7="",0,VLOOKUP(H7,Affiliation_Table,3,FALSE))+IF(I7="",0,VLOOKUP(I7,Affiliation_Table,3,FALSE))+IF(J7="",0,VLOOKUP(J7,Affiliation_Table,3,FALSE))+IF(K7="",0,VLOOKUP(K7,Affiliation_Table,3,FALSE))+IF(L7="",0,VLOOKUP(L7,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>294929</v>
       </c>
       <c r="F7">
@@ -2463,11 +2282,11 @@
         <v>36</v>
       </c>
       <c r="D8">
-        <f>COUNTIF(G8:L8,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E8">
-        <f>IF(G8="",0,VLOOKUP(G8,Affiliation_Table,3,FALSE))+IF(H8="",0,VLOOKUP(H8,Affiliation_Table,3,FALSE))+IF(I8="",0,VLOOKUP(I8,Affiliation_Table,3,FALSE))+IF(J8="",0,VLOOKUP(J8,Affiliation_Table,3,FALSE))+IF(K8="",0,VLOOKUP(K8,Affiliation_Table,3,FALSE))+IF(L8="",0,VLOOKUP(L8,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>294929</v>
       </c>
       <c r="F8">
@@ -2499,11 +2318,11 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <f>COUNTIF(G9:L9,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E9">
-        <f>IF(G9="",0,VLOOKUP(G9,Affiliation_Table,3,FALSE))+IF(H9="",0,VLOOKUP(H9,Affiliation_Table,3,FALSE))+IF(I9="",0,VLOOKUP(I9,Affiliation_Table,3,FALSE))+IF(J9="",0,VLOOKUP(J9,Affiliation_Table,3,FALSE))+IF(K9="",0,VLOOKUP(K9,Affiliation_Table,3,FALSE))+IF(L9="",0,VLOOKUP(L9,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>294929</v>
       </c>
       <c r="F9">
@@ -2535,11 +2354,11 @@
         <v>27</v>
       </c>
       <c r="D10">
-        <f>COUNTIF(G10:L10,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E10">
-        <f>IF(G10="",0,VLOOKUP(G10,Affiliation_Table,3,FALSE))+IF(H10="",0,VLOOKUP(H10,Affiliation_Table,3,FALSE))+IF(I10="",0,VLOOKUP(I10,Affiliation_Table,3,FALSE))+IF(J10="",0,VLOOKUP(J10,Affiliation_Table,3,FALSE))+IF(K10="",0,VLOOKUP(K10,Affiliation_Table,3,FALSE))+IF(L10="",0,VLOOKUP(L10,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>262209</v>
       </c>
       <c r="F10">
@@ -2569,11 +2388,11 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <f>COUNTIF(G11:L11,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E11">
-        <f>IF(G11="",0,VLOOKUP(G11,Affiliation_Table,3,FALSE))+IF(H11="",0,VLOOKUP(H11,Affiliation_Table,3,FALSE))+IF(I11="",0,VLOOKUP(I11,Affiliation_Table,3,FALSE))+IF(J11="",0,VLOOKUP(J11,Affiliation_Table,3,FALSE))+IF(K11="",0,VLOOKUP(K11,Affiliation_Table,3,FALSE))+IF(L11="",0,VLOOKUP(L11,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>294929</v>
       </c>
       <c r="F11">
@@ -2605,11 +2424,11 @@
         <v>40</v>
       </c>
       <c r="D12">
-        <f>COUNTIF(G12:L12,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E12">
-        <f>IF(G12="",0,VLOOKUP(G12,Affiliation_Table,3,FALSE))+IF(H12="",0,VLOOKUP(H12,Affiliation_Table,3,FALSE))+IF(I12="",0,VLOOKUP(I12,Affiliation_Table,3,FALSE))+IF(J12="",0,VLOOKUP(J12,Affiliation_Table,3,FALSE))+IF(K12="",0,VLOOKUP(K12,Affiliation_Table,3,FALSE))+IF(L12="",0,VLOOKUP(L12,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>278561</v>
       </c>
       <c r="F12">
@@ -2641,11 +2460,11 @@
         <v>36</v>
       </c>
       <c r="D13">
-        <f>COUNTIF(G13:L13,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E13">
-        <f>IF(G13="",0,VLOOKUP(G13,Affiliation_Table,3,FALSE))+IF(H13="",0,VLOOKUP(H13,Affiliation_Table,3,FALSE))+IF(I13="",0,VLOOKUP(I13,Affiliation_Table,3,FALSE))+IF(J13="",0,VLOOKUP(J13,Affiliation_Table,3,FALSE))+IF(K13="",0,VLOOKUP(K13,Affiliation_Table,3,FALSE))+IF(L13="",0,VLOOKUP(L13,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>65538</v>
       </c>
       <c r="F13">
@@ -2673,11 +2492,11 @@
         <v>19</v>
       </c>
       <c r="D14">
-        <f>COUNTIF(G14:L14,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E14">
-        <f>IF(G14="",0,VLOOKUP(G14,Affiliation_Table,3,FALSE))+IF(H14="",0,VLOOKUP(H14,Affiliation_Table,3,FALSE))+IF(I14="",0,VLOOKUP(I14,Affiliation_Table,3,FALSE))+IF(J14="",0,VLOOKUP(J14,Affiliation_Table,3,FALSE))+IF(K14="",0,VLOOKUP(K14,Affiliation_Table,3,FALSE))+IF(L14="",0,VLOOKUP(L14,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="F14">
@@ -2705,11 +2524,11 @@
         <v>28</v>
       </c>
       <c r="D15">
-        <f>COUNTIF(G15:L15,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E15">
-        <f>IF(G15="",0,VLOOKUP(G15,Affiliation_Table,3,FALSE))+IF(H15="",0,VLOOKUP(H15,Affiliation_Table,3,FALSE))+IF(I15="",0,VLOOKUP(I15,Affiliation_Table,3,FALSE))+IF(J15="",0,VLOOKUP(J15,Affiliation_Table,3,FALSE))+IF(K15="",0,VLOOKUP(K15,Affiliation_Table,3,FALSE))+IF(L15="",0,VLOOKUP(L15,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="F15">
@@ -2737,11 +2556,11 @@
         <v>37</v>
       </c>
       <c r="D16">
-        <f>COUNTIF(G16:L16,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E16">
-        <f>IF(G16="",0,VLOOKUP(G16,Affiliation_Table,3,FALSE))+IF(H16="",0,VLOOKUP(H16,Affiliation_Table,3,FALSE))+IF(I16="",0,VLOOKUP(I16,Affiliation_Table,3,FALSE))+IF(J16="",0,VLOOKUP(J16,Affiliation_Table,3,FALSE))+IF(K16="",0,VLOOKUP(K16,Affiliation_Table,3,FALSE))+IF(L16="",0,VLOOKUP(L16,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>32786</v>
       </c>
       <c r="F16">
@@ -2771,11 +2590,11 @@
         <v>22</v>
       </c>
       <c r="D17">
-        <f>COUNTIF(G17:L17,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E17">
-        <f>IF(G17="",0,VLOOKUP(G17,Affiliation_Table,3,FALSE))+IF(H17="",0,VLOOKUP(H17,Affiliation_Table,3,FALSE))+IF(I17="",0,VLOOKUP(I17,Affiliation_Table,3,FALSE))+IF(J17="",0,VLOOKUP(J17,Affiliation_Table,3,FALSE))+IF(K17="",0,VLOOKUP(K17,Affiliation_Table,3,FALSE))+IF(L17="",0,VLOOKUP(L17,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>2097156</v>
       </c>
       <c r="F17">
@@ -2803,11 +2622,11 @@
         <v>36</v>
       </c>
       <c r="D18">
-        <f>COUNTIF(G18:L18,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E18">
-        <f>IF(G18="",0,VLOOKUP(G18,Affiliation_Table,3,FALSE))+IF(H18="",0,VLOOKUP(H18,Affiliation_Table,3,FALSE))+IF(I18="",0,VLOOKUP(I18,Affiliation_Table,3,FALSE))+IF(J18="",0,VLOOKUP(J18,Affiliation_Table,3,FALSE))+IF(K18="",0,VLOOKUP(K18,Affiliation_Table,3,FALSE))+IF(L18="",0,VLOOKUP(L18,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>262161</v>
       </c>
       <c r="F18">
@@ -2837,11 +2656,11 @@
         <v>37</v>
       </c>
       <c r="D19">
-        <f>COUNTIF(G19:L19,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E19">
-        <f>IF(G19="",0,VLOOKUP(G19,Affiliation_Table,3,FALSE))+IF(H19="",0,VLOOKUP(H19,Affiliation_Table,3,FALSE))+IF(I19="",0,VLOOKUP(I19,Affiliation_Table,3,FALSE))+IF(J19="",0,VLOOKUP(J19,Affiliation_Table,3,FALSE))+IF(K19="",0,VLOOKUP(K19,Affiliation_Table,3,FALSE))+IF(L19="",0,VLOOKUP(L19,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>262161</v>
       </c>
       <c r="F19">
@@ -2868,11 +2687,11 @@
         <v>35</v>
       </c>
       <c r="D20">
-        <f>COUNTIF(G20:L20,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E20">
-        <f>IF(G20="",0,VLOOKUP(G20,Affiliation_Table,3,FALSE))+IF(H20="",0,VLOOKUP(H20,Affiliation_Table,3,FALSE))+IF(I20="",0,VLOOKUP(I20,Affiliation_Table,3,FALSE))+IF(J20="",0,VLOOKUP(J20,Affiliation_Table,3,FALSE))+IF(K20="",0,VLOOKUP(K20,Affiliation_Table,3,FALSE))+IF(L20="",0,VLOOKUP(L20,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>655489</v>
       </c>
       <c r="F20">
@@ -2902,11 +2721,11 @@
         <v>18</v>
       </c>
       <c r="D21">
-        <f>COUNTIF(G21:L21,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E21">
-        <f>IF(G21="",0,VLOOKUP(G21,Affiliation_Table,3,FALSE))+IF(H21="",0,VLOOKUP(H21,Affiliation_Table,3,FALSE))+IF(I21="",0,VLOOKUP(I21,Affiliation_Table,3,FALSE))+IF(J21="",0,VLOOKUP(J21,Affiliation_Table,3,FALSE))+IF(K21="",0,VLOOKUP(K21,Affiliation_Table,3,FALSE))+IF(L21="",0,VLOOKUP(L21,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>1572993</v>
       </c>
       <c r="F21">
@@ -2938,11 +2757,11 @@
         <v>29</v>
       </c>
       <c r="D22">
-        <f>COUNTIF(G22:L22,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E22">
-        <f>IF(G22="",0,VLOOKUP(G22,Affiliation_Table,3,FALSE))+IF(H22="",0,VLOOKUP(H22,Affiliation_Table,3,FALSE))+IF(I22="",0,VLOOKUP(I22,Affiliation_Table,3,FALSE))+IF(J22="",0,VLOOKUP(J22,Affiliation_Table,3,FALSE))+IF(K22="",0,VLOOKUP(K22,Affiliation_Table,3,FALSE))+IF(L22="",0,VLOOKUP(L22,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>1572993</v>
       </c>
       <c r="F22">
@@ -2974,11 +2793,11 @@
         <v>35</v>
       </c>
       <c r="D23">
-        <f>COUNTIF(G23:L23,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E23">
-        <f>IF(G23="",0,VLOOKUP(G23,Affiliation_Table,3,FALSE))+IF(H23="",0,VLOOKUP(H23,Affiliation_Table,3,FALSE))+IF(I23="",0,VLOOKUP(I23,Affiliation_Table,3,FALSE))+IF(J23="",0,VLOOKUP(J23,Affiliation_Table,3,FALSE))+IF(K23="",0,VLOOKUP(K23,Affiliation_Table,3,FALSE))+IF(L23="",0,VLOOKUP(L23,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="F23">
@@ -3002,11 +2821,11 @@
         <v>32</v>
       </c>
       <c r="D24">
-        <f>COUNTIF(G24:L24,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E24">
-        <f>IF(G24="",0,VLOOKUP(G24,Affiliation_Table,3,FALSE))+IF(H24="",0,VLOOKUP(H24,Affiliation_Table,3,FALSE))+IF(I24="",0,VLOOKUP(I24,Affiliation_Table,3,FALSE))+IF(J24="",0,VLOOKUP(J24,Affiliation_Table,3,FALSE))+IF(K24="",0,VLOOKUP(K24,Affiliation_Table,3,FALSE))+IF(L24="",0,VLOOKUP(L24,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>1572993</v>
       </c>
       <c r="F24">
@@ -3038,11 +2857,11 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <f>COUNTIF(G25:L25,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E25">
-        <f>IF(G25="",0,VLOOKUP(G25,Affiliation_Table,3,FALSE))+IF(H25="",0,VLOOKUP(H25,Affiliation_Table,3,FALSE))+IF(I25="",0,VLOOKUP(I25,Affiliation_Table,3,FALSE))+IF(J25="",0,VLOOKUP(J25,Affiliation_Table,3,FALSE))+IF(K25="",0,VLOOKUP(K25,Affiliation_Table,3,FALSE))+IF(L25="",0,VLOOKUP(L25,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="F25">
@@ -3070,11 +2889,11 @@
         <v>34</v>
       </c>
       <c r="D26">
-        <f>COUNTIF(G26:L26,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E26">
-        <f>IF(G26="",0,VLOOKUP(G26,Affiliation_Table,3,FALSE))+IF(H26="",0,VLOOKUP(H26,Affiliation_Table,3,FALSE))+IF(I26="",0,VLOOKUP(I26,Affiliation_Table,3,FALSE))+IF(J26="",0,VLOOKUP(J26,Affiliation_Table,3,FALSE))+IF(K26="",0,VLOOKUP(K26,Affiliation_Table,3,FALSE))+IF(L26="",0,VLOOKUP(L26,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="F26">
@@ -3098,11 +2917,11 @@
         <v>35</v>
       </c>
       <c r="D27">
-        <f>COUNTIF(G27:L27,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E27">
-        <f>IF(G27="",0,VLOOKUP(G27,Affiliation_Table,3,FALSE))+IF(H27="",0,VLOOKUP(H27,Affiliation_Table,3,FALSE))+IF(I27="",0,VLOOKUP(I27,Affiliation_Table,3,FALSE))+IF(J27="",0,VLOOKUP(J27,Affiliation_Table,3,FALSE))+IF(K27="",0,VLOOKUP(K27,Affiliation_Table,3,FALSE))+IF(L27="",0,VLOOKUP(L27,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>8196</v>
       </c>
       <c r="F27">
@@ -3130,11 +2949,11 @@
         <v>20</v>
       </c>
       <c r="D28">
-        <f>COUNTIF(G28:L28,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E28">
-        <f>IF(G28="",0,VLOOKUP(G28,Affiliation_Table,3,FALSE))+IF(H28="",0,VLOOKUP(H28,Affiliation_Table,3,FALSE))+IF(I28="",0,VLOOKUP(I28,Affiliation_Table,3,FALSE))+IF(J28="",0,VLOOKUP(J28,Affiliation_Table,3,FALSE))+IF(K28="",0,VLOOKUP(K28,Affiliation_Table,3,FALSE))+IF(L28="",0,VLOOKUP(L28,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>8196</v>
       </c>
       <c r="F28">
@@ -3162,11 +2981,11 @@
         <v>35</v>
       </c>
       <c r="D29">
-        <f>COUNTIF(G29:L29,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E29">
-        <f>IF(G29="",0,VLOOKUP(G29,Affiliation_Table,3,FALSE))+IF(H29="",0,VLOOKUP(H29,Affiliation_Table,3,FALSE))+IF(I29="",0,VLOOKUP(I29,Affiliation_Table,3,FALSE))+IF(J29="",0,VLOOKUP(J29,Affiliation_Table,3,FALSE))+IF(K29="",0,VLOOKUP(K29,Affiliation_Table,3,FALSE))+IF(L29="",0,VLOOKUP(L29,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="F29">
@@ -3194,11 +3013,11 @@
         <v>38</v>
       </c>
       <c r="D30">
-        <f>COUNTIF(G30:L30,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E30">
-        <f>IF(G30="",0,VLOOKUP(G30,Affiliation_Table,3,FALSE))+IF(H30="",0,VLOOKUP(H30,Affiliation_Table,3,FALSE))+IF(I30="",0,VLOOKUP(I30,Affiliation_Table,3,FALSE))+IF(J30="",0,VLOOKUP(J30,Affiliation_Table,3,FALSE))+IF(K30="",0,VLOOKUP(K30,Affiliation_Table,3,FALSE))+IF(L30="",0,VLOOKUP(L30,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="F30">
@@ -3222,11 +3041,11 @@
         <v>33</v>
       </c>
       <c r="D31">
-        <f>COUNTIF(G31:L31,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E31">
-        <f>IF(G31="",0,VLOOKUP(G31,Affiliation_Table,3,FALSE))+IF(H31="",0,VLOOKUP(H31,Affiliation_Table,3,FALSE))+IF(I31="",0,VLOOKUP(I31,Affiliation_Table,3,FALSE))+IF(J31="",0,VLOOKUP(J31,Affiliation_Table,3,FALSE))+IF(K31="",0,VLOOKUP(K31,Affiliation_Table,3,FALSE))+IF(L31="",0,VLOOKUP(L31,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>4194306</v>
       </c>
       <c r="F31">
@@ -3254,11 +3073,11 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <f>COUNTIF(G32:L32,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E32">
-        <f>IF(G32="",0,VLOOKUP(G32,Affiliation_Table,3,FALSE))+IF(H32="",0,VLOOKUP(H32,Affiliation_Table,3,FALSE))+IF(I32="",0,VLOOKUP(I32,Affiliation_Table,3,FALSE))+IF(J32="",0,VLOOKUP(J32,Affiliation_Table,3,FALSE))+IF(K32="",0,VLOOKUP(K32,Affiliation_Table,3,FALSE))+IF(L32="",0,VLOOKUP(L32,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>8193</v>
       </c>
       <c r="F32">
@@ -3282,11 +3101,11 @@
         <v>18</v>
       </c>
       <c r="D33">
-        <f>COUNTIF(G33:L33,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E33">
-        <f>IF(G33="",0,VLOOKUP(G33,Affiliation_Table,3,FALSE))+IF(H33="",0,VLOOKUP(H33,Affiliation_Table,3,FALSE))+IF(I33="",0,VLOOKUP(I33,Affiliation_Table,3,FALSE))+IF(J33="",0,VLOOKUP(J33,Affiliation_Table,3,FALSE))+IF(K33="",0,VLOOKUP(K33,Affiliation_Table,3,FALSE))+IF(L33="",0,VLOOKUP(L33,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>163841</v>
       </c>
       <c r="F33">
@@ -3316,11 +3135,11 @@
         <v>39</v>
       </c>
       <c r="D34">
-        <f>COUNTIF(G34:L34,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E34">
-        <f>IF(G34="",0,VLOOKUP(G34,Affiliation_Table,3,FALSE))+IF(H34="",0,VLOOKUP(H34,Affiliation_Table,3,FALSE))+IF(I34="",0,VLOOKUP(I34,Affiliation_Table,3,FALSE))+IF(J34="",0,VLOOKUP(J34,Affiliation_Table,3,FALSE))+IF(K34="",0,VLOOKUP(K34,Affiliation_Table,3,FALSE))+IF(L34="",0,VLOOKUP(L34,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>10616833</v>
       </c>
       <c r="F34">
@@ -3352,11 +3171,11 @@
         <v>28</v>
       </c>
       <c r="D35">
-        <f>COUNTIF(G35:L35,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E35">
-        <f>IF(G35="",0,VLOOKUP(G35,Affiliation_Table,3,FALSE))+IF(H35="",0,VLOOKUP(H35,Affiliation_Table,3,FALSE))+IF(I35="",0,VLOOKUP(I35,Affiliation_Table,3,FALSE))+IF(J35="",0,VLOOKUP(J35,Affiliation_Table,3,FALSE))+IF(K35="",0,VLOOKUP(K35,Affiliation_Table,3,FALSE))+IF(L35="",0,VLOOKUP(L35,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>163841</v>
       </c>
       <c r="F35">
@@ -3386,11 +3205,11 @@
         <v>33</v>
       </c>
       <c r="D36">
-        <f>COUNTIF(G36:L36,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E36">
-        <f>IF(G36="",0,VLOOKUP(G36,Affiliation_Table,3,FALSE))+IF(H36="",0,VLOOKUP(H36,Affiliation_Table,3,FALSE))+IF(I36="",0,VLOOKUP(I36,Affiliation_Table,3,FALSE))+IF(J36="",0,VLOOKUP(J36,Affiliation_Table,3,FALSE))+IF(K36="",0,VLOOKUP(K36,Affiliation_Table,3,FALSE))+IF(L36="",0,VLOOKUP(L36,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>139265</v>
       </c>
       <c r="F36">
@@ -3420,11 +3239,11 @@
         <v>34</v>
       </c>
       <c r="D37">
-        <f>COUNTIF(G37:L37,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E37">
-        <f>IF(G37="",0,VLOOKUP(G37,Affiliation_Table,3,FALSE))+IF(H37="",0,VLOOKUP(H37,Affiliation_Table,3,FALSE))+IF(I37="",0,VLOOKUP(I37,Affiliation_Table,3,FALSE))+IF(J37="",0,VLOOKUP(J37,Affiliation_Table,3,FALSE))+IF(K37="",0,VLOOKUP(K37,Affiliation_Table,3,FALSE))+IF(L37="",0,VLOOKUP(L37,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>33793</v>
       </c>
       <c r="F37">
@@ -3454,11 +3273,11 @@
         <v>35</v>
       </c>
       <c r="D38">
-        <f>COUNTIF(G38:L38,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E38">
-        <f>IF(G38="",0,VLOOKUP(G38,Affiliation_Table,3,FALSE))+IF(H38="",0,VLOOKUP(H38,Affiliation_Table,3,FALSE))+IF(I38="",0,VLOOKUP(I38,Affiliation_Table,3,FALSE))+IF(J38="",0,VLOOKUP(J38,Affiliation_Table,3,FALSE))+IF(K38="",0,VLOOKUP(K38,Affiliation_Table,3,FALSE))+IF(L38="",0,VLOOKUP(L38,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>33793</v>
       </c>
       <c r="F38">
@@ -3488,11 +3307,11 @@
         <v>28</v>
       </c>
       <c r="D39">
-        <f>COUNTIF(G39:L39,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E39">
-        <f>IF(G39="",0,VLOOKUP(G39,Affiliation_Table,3,FALSE))+IF(H39="",0,VLOOKUP(H39,Affiliation_Table,3,FALSE))+IF(I39="",0,VLOOKUP(I39,Affiliation_Table,3,FALSE))+IF(J39="",0,VLOOKUP(J39,Affiliation_Table,3,FALSE))+IF(K39="",0,VLOOKUP(K39,Affiliation_Table,3,FALSE))+IF(L39="",0,VLOOKUP(L39,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>50177</v>
       </c>
       <c r="F39">
@@ -3524,11 +3343,11 @@
         <v>35</v>
       </c>
       <c r="D40">
-        <f>COUNTIF(G40:L40,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E40">
-        <f>IF(G40="",0,VLOOKUP(G40,Affiliation_Table,3,FALSE))+IF(H40="",0,VLOOKUP(H40,Affiliation_Table,3,FALSE))+IF(I40="",0,VLOOKUP(I40,Affiliation_Table,3,FALSE))+IF(J40="",0,VLOOKUP(J40,Affiliation_Table,3,FALSE))+IF(K40="",0,VLOOKUP(K40,Affiliation_Table,3,FALSE))+IF(L40="",0,VLOOKUP(L40,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>33793</v>
       </c>
       <c r="F40">
@@ -3558,11 +3377,11 @@
         <v>35</v>
       </c>
       <c r="D41">
-        <f>COUNTIF(G41:L41,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E41">
-        <f>IF(G41="",0,VLOOKUP(G41,Affiliation_Table,3,FALSE))+IF(H41="",0,VLOOKUP(H41,Affiliation_Table,3,FALSE))+IF(I41="",0,VLOOKUP(I41,Affiliation_Table,3,FALSE))+IF(J41="",0,VLOOKUP(J41,Affiliation_Table,3,FALSE))+IF(K41="",0,VLOOKUP(K41,Affiliation_Table,3,FALSE))+IF(L41="",0,VLOOKUP(L41,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>33793</v>
       </c>
       <c r="F41">
@@ -3592,11 +3411,11 @@
         <v>28</v>
       </c>
       <c r="D42">
-        <f>COUNTIF(G42:L42,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E42">
-        <f>IF(G42="",0,VLOOKUP(G42,Affiliation_Table,3,FALSE))+IF(H42="",0,VLOOKUP(H42,Affiliation_Table,3,FALSE))+IF(I42="",0,VLOOKUP(I42,Affiliation_Table,3,FALSE))+IF(J42="",0,VLOOKUP(J42,Affiliation_Table,3,FALSE))+IF(K42="",0,VLOOKUP(K42,Affiliation_Table,3,FALSE))+IF(L42="",0,VLOOKUP(L42,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>33793</v>
       </c>
       <c r="F42">
@@ -3626,11 +3445,11 @@
         <v>37</v>
       </c>
       <c r="D43">
-        <f>COUNTIF(G43:L43,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E43">
-        <f>IF(G43="",0,VLOOKUP(G43,Affiliation_Table,3,FALSE))+IF(H43="",0,VLOOKUP(H43,Affiliation_Table,3,FALSE))+IF(I43="",0,VLOOKUP(I43,Affiliation_Table,3,FALSE))+IF(J43="",0,VLOOKUP(J43,Affiliation_Table,3,FALSE))+IF(K43="",0,VLOOKUP(K43,Affiliation_Table,3,FALSE))+IF(L43="",0,VLOOKUP(L43,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="F43">
@@ -3654,11 +3473,11 @@
         <v>18</v>
       </c>
       <c r="D44">
-        <f>COUNTIF(G44:L44,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E44">
-        <f>IF(G44="",0,VLOOKUP(G44,Affiliation_Table,3,FALSE))+IF(H44="",0,VLOOKUP(H44,Affiliation_Table,3,FALSE))+IF(I44="",0,VLOOKUP(I44,Affiliation_Table,3,FALSE))+IF(J44="",0,VLOOKUP(J44,Affiliation_Table,3,FALSE))+IF(K44="",0,VLOOKUP(K44,Affiliation_Table,3,FALSE))+IF(L44="",0,VLOOKUP(L44,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="F44">
@@ -3686,11 +3505,11 @@
         <v>20</v>
       </c>
       <c r="D45">
-        <f>COUNTIF(G45:L45,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E45">
-        <f>IF(G45="",0,VLOOKUP(G45,Affiliation_Table,3,FALSE))+IF(H45="",0,VLOOKUP(H45,Affiliation_Table,3,FALSE))+IF(I45="",0,VLOOKUP(I45,Affiliation_Table,3,FALSE))+IF(J45="",0,VLOOKUP(J45,Affiliation_Table,3,FALSE))+IF(K45="",0,VLOOKUP(K45,Affiliation_Table,3,FALSE))+IF(L45="",0,VLOOKUP(L45,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="F45">
@@ -3718,11 +3537,11 @@
         <v>38</v>
       </c>
       <c r="D46">
-        <f>COUNTIF(G46:L46,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E46">
-        <f>IF(G46="",0,VLOOKUP(G46,Affiliation_Table,3,FALSE))+IF(H46="",0,VLOOKUP(H46,Affiliation_Table,3,FALSE))+IF(I46="",0,VLOOKUP(I46,Affiliation_Table,3,FALSE))+IF(J46="",0,VLOOKUP(J46,Affiliation_Table,3,FALSE))+IF(K46="",0,VLOOKUP(K46,Affiliation_Table,3,FALSE))+IF(L46="",0,VLOOKUP(L46,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="F46">
@@ -3752,11 +3571,11 @@
         <v>40</v>
       </c>
       <c r="D47">
-        <f>COUNTIF(G47:L47,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E47">
-        <f>IF(G47="",0,VLOOKUP(G47,Affiliation_Table,3,FALSE))+IF(H47="",0,VLOOKUP(H47,Affiliation_Table,3,FALSE))+IF(I47="",0,VLOOKUP(I47,Affiliation_Table,3,FALSE))+IF(J47="",0,VLOOKUP(J47,Affiliation_Table,3,FALSE))+IF(K47="",0,VLOOKUP(K47,Affiliation_Table,3,FALSE))+IF(L47="",0,VLOOKUP(L47,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="F47">
@@ -3784,11 +3603,11 @@
         <v>34</v>
       </c>
       <c r="D48">
-        <f>COUNTIF(G48:L48,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E48">
-        <f>IF(G48="",0,VLOOKUP(G48,Affiliation_Table,3,FALSE))+IF(H48="",0,VLOOKUP(H48,Affiliation_Table,3,FALSE))+IF(I48="",0,VLOOKUP(I48,Affiliation_Table,3,FALSE))+IF(J48="",0,VLOOKUP(J48,Affiliation_Table,3,FALSE))+IF(K48="",0,VLOOKUP(K48,Affiliation_Table,3,FALSE))+IF(L48="",0,VLOOKUP(L48,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>53289</v>
       </c>
       <c r="F48">
@@ -3824,11 +3643,11 @@
         <v>40</v>
       </c>
       <c r="D49">
-        <f>COUNTIF(G49:L49,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E49">
-        <f>IF(G49="",0,VLOOKUP(G49,Affiliation_Table,3,FALSE))+IF(H49="",0,VLOOKUP(H49,Affiliation_Table,3,FALSE))+IF(I49="",0,VLOOKUP(I49,Affiliation_Table,3,FALSE))+IF(J49="",0,VLOOKUP(J49,Affiliation_Table,3,FALSE))+IF(K49="",0,VLOOKUP(K49,Affiliation_Table,3,FALSE))+IF(L49="",0,VLOOKUP(L49,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>53289</v>
       </c>
       <c r="F49">
@@ -3864,11 +3683,11 @@
         <v>39</v>
       </c>
       <c r="D50">
-        <f>COUNTIF(G50:L50,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E50">
-        <f>IF(G50="",0,VLOOKUP(G50,Affiliation_Table,3,FALSE))+IF(H50="",0,VLOOKUP(H50,Affiliation_Table,3,FALSE))+IF(I50="",0,VLOOKUP(I50,Affiliation_Table,3,FALSE))+IF(J50="",0,VLOOKUP(J50,Affiliation_Table,3,FALSE))+IF(K50="",0,VLOOKUP(K50,Affiliation_Table,3,FALSE))+IF(L50="",0,VLOOKUP(L50,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>20521</v>
       </c>
       <c r="F50">
@@ -3902,11 +3721,11 @@
         <v>20</v>
       </c>
       <c r="D51">
-        <f>COUNTIF(G51:L51,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E51">
-        <f>IF(G51="",0,VLOOKUP(G51,Affiliation_Table,3,FALSE))+IF(H51="",0,VLOOKUP(H51,Affiliation_Table,3,FALSE))+IF(I51="",0,VLOOKUP(I51,Affiliation_Table,3,FALSE))+IF(J51="",0,VLOOKUP(J51,Affiliation_Table,3,FALSE))+IF(K51="",0,VLOOKUP(K51,Affiliation_Table,3,FALSE))+IF(L51="",0,VLOOKUP(L51,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>16417</v>
       </c>
       <c r="F51">
@@ -3936,11 +3755,11 @@
         <v>26</v>
       </c>
       <c r="D52">
-        <f>COUNTIF(G52:L52,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E52">
-        <f>IF(G52="",0,VLOOKUP(G52,Affiliation_Table,3,FALSE))+IF(H52="",0,VLOOKUP(H52,Affiliation_Table,3,FALSE))+IF(I52="",0,VLOOKUP(I52,Affiliation_Table,3,FALSE))+IF(J52="",0,VLOOKUP(J52,Affiliation_Table,3,FALSE))+IF(K52="",0,VLOOKUP(K52,Affiliation_Table,3,FALSE))+IF(L52="",0,VLOOKUP(L52,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>16433</v>
       </c>
       <c r="F52">
@@ -3972,11 +3791,11 @@
         <v>32</v>
       </c>
       <c r="D53">
-        <f>COUNTIF(G53:L53,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E53">
-        <f>IF(G53="",0,VLOOKUP(G53,Affiliation_Table,3,FALSE))+IF(H53="",0,VLOOKUP(H53,Affiliation_Table,3,FALSE))+IF(I53="",0,VLOOKUP(I53,Affiliation_Table,3,FALSE))+IF(J53="",0,VLOOKUP(J53,Affiliation_Table,3,FALSE))+IF(K53="",0,VLOOKUP(K53,Affiliation_Table,3,FALSE))+IF(L53="",0,VLOOKUP(L53,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>16417</v>
       </c>
       <c r="F53">
@@ -4006,11 +3825,11 @@
         <v>39</v>
       </c>
       <c r="D54">
-        <f>COUNTIF(G54:L54,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E54">
-        <f>IF(G54="",0,VLOOKUP(G54,Affiliation_Table,3,FALSE))+IF(H54="",0,VLOOKUP(H54,Affiliation_Table,3,FALSE))+IF(I54="",0,VLOOKUP(I54,Affiliation_Table,3,FALSE))+IF(J54="",0,VLOOKUP(J54,Affiliation_Table,3,FALSE))+IF(K54="",0,VLOOKUP(K54,Affiliation_Table,3,FALSE))+IF(L54="",0,VLOOKUP(L54,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>16417</v>
       </c>
       <c r="F54">
@@ -4037,11 +3856,11 @@
         <v>35</v>
       </c>
       <c r="D55">
-        <f>COUNTIF(G55:L55,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E55">
-        <f>IF(G55="",0,VLOOKUP(G55,Affiliation_Table,3,FALSE))+IF(H55="",0,VLOOKUP(H55,Affiliation_Table,3,FALSE))+IF(I55="",0,VLOOKUP(I55,Affiliation_Table,3,FALSE))+IF(J55="",0,VLOOKUP(J55,Affiliation_Table,3,FALSE))+IF(K55="",0,VLOOKUP(K55,Affiliation_Table,3,FALSE))+IF(L55="",0,VLOOKUP(L55,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>16417</v>
       </c>
       <c r="F55">
@@ -4071,11 +3890,11 @@
         <v>35</v>
       </c>
       <c r="D56">
-        <f>COUNTIF(G56:L56,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E56">
-        <f>IF(G56="",0,VLOOKUP(G56,Affiliation_Table,3,FALSE))+IF(H56="",0,VLOOKUP(H56,Affiliation_Table,3,FALSE))+IF(I56="",0,VLOOKUP(I56,Affiliation_Table,3,FALSE))+IF(J56="",0,VLOOKUP(J56,Affiliation_Table,3,FALSE))+IF(K56="",0,VLOOKUP(K56,Affiliation_Table,3,FALSE))+IF(L56="",0,VLOOKUP(L56,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>16417</v>
       </c>
       <c r="F56">
@@ -4105,11 +3924,11 @@
         <v>39</v>
       </c>
       <c r="D57">
-        <f>COUNTIF(G57:L57,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E57">
-        <f>IF(G57="",0,VLOOKUP(G57,Affiliation_Table,3,FALSE))+IF(H57="",0,VLOOKUP(H57,Affiliation_Table,3,FALSE))+IF(I57="",0,VLOOKUP(I57,Affiliation_Table,3,FALSE))+IF(J57="",0,VLOOKUP(J57,Affiliation_Table,3,FALSE))+IF(K57="",0,VLOOKUP(K57,Affiliation_Table,3,FALSE))+IF(L57="",0,VLOOKUP(L57,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>16417</v>
       </c>
       <c r="F57">
@@ -4139,11 +3958,11 @@
         <v>18</v>
       </c>
       <c r="D58">
-        <f>COUNTIF(G58:L58,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E58">
-        <f>IF(G58="",0,VLOOKUP(G58,Affiliation_Table,3,FALSE))+IF(H58="",0,VLOOKUP(H58,Affiliation_Table,3,FALSE))+IF(I58="",0,VLOOKUP(I58,Affiliation_Table,3,FALSE))+IF(J58="",0,VLOOKUP(J58,Affiliation_Table,3,FALSE))+IF(K58="",0,VLOOKUP(K58,Affiliation_Table,3,FALSE))+IF(L58="",0,VLOOKUP(L58,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>16417</v>
       </c>
       <c r="F58">
@@ -4173,11 +3992,11 @@
         <v>33</v>
       </c>
       <c r="D59">
-        <f>COUNTIF(G59:L59,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E59">
-        <f>IF(G59="",0,VLOOKUP(G59,Affiliation_Table,3,FALSE))+IF(H59="",0,VLOOKUP(H59,Affiliation_Table,3,FALSE))+IF(I59="",0,VLOOKUP(I59,Affiliation_Table,3,FALSE))+IF(J59="",0,VLOOKUP(J59,Affiliation_Table,3,FALSE))+IF(K59="",0,VLOOKUP(K59,Affiliation_Table,3,FALSE))+IF(L59="",0,VLOOKUP(L59,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="F59">
@@ -4201,11 +4020,11 @@
         <v>39</v>
       </c>
       <c r="D60">
-        <f>COUNTIF(G60:L60,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E60">
-        <f>IF(G60="",0,VLOOKUP(G60,Affiliation_Table,3,FALSE))+IF(H60="",0,VLOOKUP(H60,Affiliation_Table,3,FALSE))+IF(I60="",0,VLOOKUP(I60,Affiliation_Table,3,FALSE))+IF(J60="",0,VLOOKUP(J60,Affiliation_Table,3,FALSE))+IF(K60="",0,VLOOKUP(K60,Affiliation_Table,3,FALSE))+IF(L60="",0,VLOOKUP(L60,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>16417</v>
       </c>
       <c r="F60">
@@ -4235,11 +4054,11 @@
         <v>42</v>
       </c>
       <c r="D61">
-        <f>COUNTIF(G61:L61,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E61">
-        <f>IF(G61="",0,VLOOKUP(G61,Affiliation_Table,3,FALSE))+IF(H61="",0,VLOOKUP(H61,Affiliation_Table,3,FALSE))+IF(I61="",0,VLOOKUP(I61,Affiliation_Table,3,FALSE))+IF(J61="",0,VLOOKUP(J61,Affiliation_Table,3,FALSE))+IF(K61="",0,VLOOKUP(K61,Affiliation_Table,3,FALSE))+IF(L61="",0,VLOOKUP(L61,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>16417</v>
       </c>
       <c r="F61">
@@ -4269,11 +4088,11 @@
         <v>18</v>
       </c>
       <c r="D62">
-        <f>COUNTIF(G62:L62,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E62">
-        <f>IF(G62="",0,VLOOKUP(G62,Affiliation_Table,3,FALSE))+IF(H62="",0,VLOOKUP(H62,Affiliation_Table,3,FALSE))+IF(I62="",0,VLOOKUP(I62,Affiliation_Table,3,FALSE))+IF(J62="",0,VLOOKUP(J62,Affiliation_Table,3,FALSE))+IF(K62="",0,VLOOKUP(K62,Affiliation_Table,3,FALSE))+IF(L62="",0,VLOOKUP(L62,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>16417</v>
       </c>
       <c r="F62">
@@ -4303,11 +4122,11 @@
         <v>36</v>
       </c>
       <c r="D63">
-        <f>COUNTIF(G63:L63,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E63">
-        <f>IF(G63="",0,VLOOKUP(G63,Affiliation_Table,3,FALSE))+IF(H63="",0,VLOOKUP(H63,Affiliation_Table,3,FALSE))+IF(I63="",0,VLOOKUP(I63,Affiliation_Table,3,FALSE))+IF(J63="",0,VLOOKUP(J63,Affiliation_Table,3,FALSE))+IF(K63="",0,VLOOKUP(K63,Affiliation_Table,3,FALSE))+IF(L63="",0,VLOOKUP(L63,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>16385</v>
       </c>
       <c r="F63">
@@ -4331,11 +4150,11 @@
         <v>31</v>
       </c>
       <c r="D64">
-        <f>COUNTIF(G64:L64,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E64">
-        <f>IF(G64="",0,VLOOKUP(G64,Affiliation_Table,3,FALSE))+IF(H64="",0,VLOOKUP(H64,Affiliation_Table,3,FALSE))+IF(I64="",0,VLOOKUP(I64,Affiliation_Table,3,FALSE))+IF(J64="",0,VLOOKUP(J64,Affiliation_Table,3,FALSE))+IF(K64="",0,VLOOKUP(K64,Affiliation_Table,3,FALSE))+IF(L64="",0,VLOOKUP(L64,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="F64">
@@ -4363,11 +4182,11 @@
         <v>32</v>
       </c>
       <c r="D65">
-        <f>COUNTIF(G65:L65,"&lt;&gt;")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E65">
-        <f>IF(G65="",0,VLOOKUP(G65,Affiliation_Table,3,FALSE))+IF(H65="",0,VLOOKUP(H65,Affiliation_Table,3,FALSE))+IF(I65="",0,VLOOKUP(I65,Affiliation_Table,3,FALSE))+IF(J65="",0,VLOOKUP(J65,Affiliation_Table,3,FALSE))+IF(K65="",0,VLOOKUP(K65,Affiliation_Table,3,FALSE))+IF(L65="",0,VLOOKUP(L65,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>16385</v>
       </c>
       <c r="F65">
@@ -4391,11 +4210,11 @@
         <v>19</v>
       </c>
       <c r="D66">
-        <f>COUNTIF(G66:L66,"&lt;&gt;")</f>
+        <f t="shared" ref="D66:D129" si="2">COUNTIF(G66:L66,"&lt;&gt;")</f>
         <v>3</v>
       </c>
       <c r="E66">
-        <f>IF(G66="",0,VLOOKUP(G66,Affiliation_Table,3,FALSE))+IF(H66="",0,VLOOKUP(H66,Affiliation_Table,3,FALSE))+IF(I66="",0,VLOOKUP(I66,Affiliation_Table,3,FALSE))+IF(J66="",0,VLOOKUP(J66,Affiliation_Table,3,FALSE))+IF(K66="",0,VLOOKUP(K66,Affiliation_Table,3,FALSE))+IF(L66="",0,VLOOKUP(L66,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" ref="E66:E129" si="3">IF(G66="",0,VLOOKUP(G66,Affiliation_Table,3,FALSE))+IF(H66="",0,VLOOKUP(H66,Affiliation_Table,3,FALSE))+IF(I66="",0,VLOOKUP(I66,Affiliation_Table,3,FALSE))+IF(J66="",0,VLOOKUP(J66,Affiliation_Table,3,FALSE))+IF(K66="",0,VLOOKUP(K66,Affiliation_Table,3,FALSE))+IF(L66="",0,VLOOKUP(L66,Affiliation_Table,3,FALSE))</f>
         <v>65569</v>
       </c>
       <c r="F66">
@@ -4425,11 +4244,11 @@
         <v>28</v>
       </c>
       <c r="D67">
-        <f>COUNTIF(G67:L67,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E67">
-        <f>IF(G67="",0,VLOOKUP(G67,Affiliation_Table,3,FALSE))+IF(H67="",0,VLOOKUP(H67,Affiliation_Table,3,FALSE))+IF(I67="",0,VLOOKUP(I67,Affiliation_Table,3,FALSE))+IF(J67="",0,VLOOKUP(J67,Affiliation_Table,3,FALSE))+IF(K67="",0,VLOOKUP(K67,Affiliation_Table,3,FALSE))+IF(L67="",0,VLOOKUP(L67,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>65569</v>
       </c>
       <c r="F67">
@@ -4459,11 +4278,11 @@
         <v>28</v>
       </c>
       <c r="D68">
-        <f>COUNTIF(G68:L68,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E68">
-        <f>IF(G68="",0,VLOOKUP(G68,Affiliation_Table,3,FALSE))+IF(H68="",0,VLOOKUP(H68,Affiliation_Table,3,FALSE))+IF(I68="",0,VLOOKUP(I68,Affiliation_Table,3,FALSE))+IF(J68="",0,VLOOKUP(J68,Affiliation_Table,3,FALSE))+IF(K68="",0,VLOOKUP(K68,Affiliation_Table,3,FALSE))+IF(L68="",0,VLOOKUP(L68,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>65569</v>
       </c>
       <c r="F68">
@@ -4493,11 +4312,11 @@
         <v>33</v>
       </c>
       <c r="D69">
-        <f>COUNTIF(G69:L69,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E69">
-        <f>IF(G69="",0,VLOOKUP(G69,Affiliation_Table,3,FALSE))+IF(H69="",0,VLOOKUP(H69,Affiliation_Table,3,FALSE))+IF(I69="",0,VLOOKUP(I69,Affiliation_Table,3,FALSE))+IF(J69="",0,VLOOKUP(J69,Affiliation_Table,3,FALSE))+IF(K69="",0,VLOOKUP(K69,Affiliation_Table,3,FALSE))+IF(L69="",0,VLOOKUP(L69,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>65569</v>
       </c>
       <c r="F69">
@@ -4527,11 +4346,11 @@
         <v>48</v>
       </c>
       <c r="D70">
-        <f>COUNTIF(G70:L70,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E70">
-        <f>IF(G70="",0,VLOOKUP(G70,Affiliation_Table,3,FALSE))+IF(H70="",0,VLOOKUP(H70,Affiliation_Table,3,FALSE))+IF(I70="",0,VLOOKUP(I70,Affiliation_Table,3,FALSE))+IF(J70="",0,VLOOKUP(J70,Affiliation_Table,3,FALSE))+IF(K70="",0,VLOOKUP(K70,Affiliation_Table,3,FALSE))+IF(L70="",0,VLOOKUP(L70,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>65540</v>
       </c>
       <c r="F70">
@@ -4559,11 +4378,11 @@
         <v>22</v>
       </c>
       <c r="D71">
-        <f>COUNTIF(G71:L71,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E71">
-        <f>IF(G71="",0,VLOOKUP(G71,Affiliation_Table,3,FALSE))+IF(H71="",0,VLOOKUP(H71,Affiliation_Table,3,FALSE))+IF(I71="",0,VLOOKUP(I71,Affiliation_Table,3,FALSE))+IF(J71="",0,VLOOKUP(J71,Affiliation_Table,3,FALSE))+IF(K71="",0,VLOOKUP(K71,Affiliation_Table,3,FALSE))+IF(L71="",0,VLOOKUP(L71,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>20513</v>
       </c>
       <c r="F71">
@@ -4595,11 +4414,11 @@
         <v>28</v>
       </c>
       <c r="D72">
-        <f>COUNTIF(G72:L72,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E72">
-        <f>IF(G72="",0,VLOOKUP(G72,Affiliation_Table,3,FALSE))+IF(H72="",0,VLOOKUP(H72,Affiliation_Table,3,FALSE))+IF(I72="",0,VLOOKUP(I72,Affiliation_Table,3,FALSE))+IF(J72="",0,VLOOKUP(J72,Affiliation_Table,3,FALSE))+IF(K72="",0,VLOOKUP(K72,Affiliation_Table,3,FALSE))+IF(L72="",0,VLOOKUP(L72,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>16385</v>
       </c>
       <c r="F72">
@@ -4627,11 +4446,11 @@
         <v>32</v>
       </c>
       <c r="D73">
-        <f>COUNTIF(G73:L73,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E73">
-        <f>IF(G73="",0,VLOOKUP(G73,Affiliation_Table,3,FALSE))+IF(H73="",0,VLOOKUP(H73,Affiliation_Table,3,FALSE))+IF(I73="",0,VLOOKUP(I73,Affiliation_Table,3,FALSE))+IF(J73="",0,VLOOKUP(J73,Affiliation_Table,3,FALSE))+IF(K73="",0,VLOOKUP(K73,Affiliation_Table,3,FALSE))+IF(L73="",0,VLOOKUP(L73,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>2097153</v>
       </c>
       <c r="F73">
@@ -4659,11 +4478,11 @@
         <v>33</v>
       </c>
       <c r="D74">
-        <f>COUNTIF(G74:L74,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E74">
-        <f>IF(G74="",0,VLOOKUP(G74,Affiliation_Table,3,FALSE))+IF(H74="",0,VLOOKUP(H74,Affiliation_Table,3,FALSE))+IF(I74="",0,VLOOKUP(I74,Affiliation_Table,3,FALSE))+IF(J74="",0,VLOOKUP(J74,Affiliation_Table,3,FALSE))+IF(K74="",0,VLOOKUP(K74,Affiliation_Table,3,FALSE))+IF(L74="",0,VLOOKUP(L74,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>4194305</v>
       </c>
       <c r="F74">
@@ -4691,11 +4510,11 @@
         <v>20</v>
       </c>
       <c r="D75">
-        <f>COUNTIF(G75:L75,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E75">
-        <f>IF(G75="",0,VLOOKUP(G75,Affiliation_Table,3,FALSE))+IF(H75="",0,VLOOKUP(H75,Affiliation_Table,3,FALSE))+IF(I75="",0,VLOOKUP(I75,Affiliation_Table,3,FALSE))+IF(J75="",0,VLOOKUP(J75,Affiliation_Table,3,FALSE))+IF(K75="",0,VLOOKUP(K75,Affiliation_Table,3,FALSE))+IF(L75="",0,VLOOKUP(L75,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>65541</v>
       </c>
       <c r="F75">
@@ -4725,11 +4544,11 @@
         <v>36</v>
       </c>
       <c r="D76">
-        <f>COUNTIF(G76:L76,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E76">
-        <f>IF(G76="",0,VLOOKUP(G76,Affiliation_Table,3,FALSE))+IF(H76="",0,VLOOKUP(H76,Affiliation_Table,3,FALSE))+IF(I76="",0,VLOOKUP(I76,Affiliation_Table,3,FALSE))+IF(J76="",0,VLOOKUP(J76,Affiliation_Table,3,FALSE))+IF(K76="",0,VLOOKUP(K76,Affiliation_Table,3,FALSE))+IF(L76="",0,VLOOKUP(L76,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>65541</v>
       </c>
       <c r="F76">
@@ -4756,11 +4575,11 @@
         <v>38</v>
       </c>
       <c r="D77">
-        <f>COUNTIF(G77:L77,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E77">
-        <f>IF(G77="",0,VLOOKUP(G77,Affiliation_Table,3,FALSE))+IF(H77="",0,VLOOKUP(H77,Affiliation_Table,3,FALSE))+IF(I77="",0,VLOOKUP(I77,Affiliation_Table,3,FALSE))+IF(J77="",0,VLOOKUP(J77,Affiliation_Table,3,FALSE))+IF(K77="",0,VLOOKUP(K77,Affiliation_Table,3,FALSE))+IF(L77="",0,VLOOKUP(L77,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>65541</v>
       </c>
       <c r="F77">
@@ -4790,11 +4609,11 @@
         <v>34</v>
       </c>
       <c r="D78">
-        <f>COUNTIF(G78:L78,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E78">
-        <f>IF(G78="",0,VLOOKUP(G78,Affiliation_Table,3,FALSE))+IF(H78="",0,VLOOKUP(H78,Affiliation_Table,3,FALSE))+IF(I78="",0,VLOOKUP(I78,Affiliation_Table,3,FALSE))+IF(J78="",0,VLOOKUP(J78,Affiliation_Table,3,FALSE))+IF(K78="",0,VLOOKUP(K78,Affiliation_Table,3,FALSE))+IF(L78="",0,VLOOKUP(L78,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>65541</v>
       </c>
       <c r="F78">
@@ -4824,11 +4643,11 @@
         <v>36</v>
       </c>
       <c r="D79">
-        <f>COUNTIF(G79:L79,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E79">
-        <f>IF(G79="",0,VLOOKUP(G79,Affiliation_Table,3,FALSE))+IF(H79="",0,VLOOKUP(H79,Affiliation_Table,3,FALSE))+IF(I79="",0,VLOOKUP(I79,Affiliation_Table,3,FALSE))+IF(J79="",0,VLOOKUP(J79,Affiliation_Table,3,FALSE))+IF(K79="",0,VLOOKUP(K79,Affiliation_Table,3,FALSE))+IF(L79="",0,VLOOKUP(L79,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>65541</v>
       </c>
       <c r="F79">
@@ -4858,11 +4677,11 @@
         <v>35</v>
       </c>
       <c r="D80">
-        <f>COUNTIF(G80:L80,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E80">
-        <f>IF(G80="",0,VLOOKUP(G80,Affiliation_Table,3,FALSE))+IF(H80="",0,VLOOKUP(H80,Affiliation_Table,3,FALSE))+IF(I80="",0,VLOOKUP(I80,Affiliation_Table,3,FALSE))+IF(J80="",0,VLOOKUP(J80,Affiliation_Table,3,FALSE))+IF(K80="",0,VLOOKUP(K80,Affiliation_Table,3,FALSE))+IF(L80="",0,VLOOKUP(L80,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>4194305</v>
       </c>
       <c r="F80">
@@ -4890,11 +4709,11 @@
         <v>53</v>
       </c>
       <c r="D81">
-        <f>COUNTIF(G81:L81,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E81">
-        <f>IF(G81="",0,VLOOKUP(G81,Affiliation_Table,3,FALSE))+IF(H81="",0,VLOOKUP(H81,Affiliation_Table,3,FALSE))+IF(I81="",0,VLOOKUP(I81,Affiliation_Table,3,FALSE))+IF(J81="",0,VLOOKUP(J81,Affiliation_Table,3,FALSE))+IF(K81="",0,VLOOKUP(K81,Affiliation_Table,3,FALSE))+IF(L81="",0,VLOOKUP(L81,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>4194305</v>
       </c>
       <c r="F81">
@@ -4918,11 +4737,11 @@
         <v>27</v>
       </c>
       <c r="D82">
-        <f>COUNTIF(G82:L82,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E82">
-        <f>IF(G82="",0,VLOOKUP(G82,Affiliation_Table,3,FALSE))+IF(H82="",0,VLOOKUP(H82,Affiliation_Table,3,FALSE))+IF(I82="",0,VLOOKUP(I82,Affiliation_Table,3,FALSE))+IF(J82="",0,VLOOKUP(J82,Affiliation_Table,3,FALSE))+IF(K82="",0,VLOOKUP(K82,Affiliation_Table,3,FALSE))+IF(L82="",0,VLOOKUP(L82,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>65540</v>
       </c>
       <c r="F82">
@@ -4950,11 +4769,11 @@
         <v>32</v>
       </c>
       <c r="D83">
-        <f>COUNTIF(G83:L83,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E83">
-        <f>IF(G83="",0,VLOOKUP(G83,Affiliation_Table,3,FALSE))+IF(H83="",0,VLOOKUP(H83,Affiliation_Table,3,FALSE))+IF(I83="",0,VLOOKUP(I83,Affiliation_Table,3,FALSE))+IF(J83="",0,VLOOKUP(J83,Affiliation_Table,3,FALSE))+IF(K83="",0,VLOOKUP(K83,Affiliation_Table,3,FALSE))+IF(L83="",0,VLOOKUP(L83,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>2097154</v>
       </c>
       <c r="F83">
@@ -4978,11 +4797,11 @@
         <v>28</v>
       </c>
       <c r="D84">
-        <f>COUNTIF(G84:L84,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E84">
-        <f>IF(G84="",0,VLOOKUP(G84,Affiliation_Table,3,FALSE))+IF(H84="",0,VLOOKUP(H84,Affiliation_Table,3,FALSE))+IF(I84="",0,VLOOKUP(I84,Affiliation_Table,3,FALSE))+IF(J84="",0,VLOOKUP(J84,Affiliation_Table,3,FALSE))+IF(K84="",0,VLOOKUP(K84,Affiliation_Table,3,FALSE))+IF(L84="",0,VLOOKUP(L84,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>16385</v>
       </c>
       <c r="F84">
@@ -5010,11 +4829,11 @@
         <v>25</v>
       </c>
       <c r="D85">
-        <f>COUNTIF(G85:L85,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E85">
-        <f>IF(G85="",0,VLOOKUP(G85,Affiliation_Table,3,FALSE))+IF(H85="",0,VLOOKUP(H85,Affiliation_Table,3,FALSE))+IF(I85="",0,VLOOKUP(I85,Affiliation_Table,3,FALSE))+IF(J85="",0,VLOOKUP(J85,Affiliation_Table,3,FALSE))+IF(K85="",0,VLOOKUP(K85,Affiliation_Table,3,FALSE))+IF(L85="",0,VLOOKUP(L85,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>16385</v>
       </c>
       <c r="F85">
@@ -5042,11 +4861,11 @@
         <v>128</v>
       </c>
       <c r="D86">
-        <f>COUNTIF(G86:L86,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E86">
-        <f>IF(G86="",0,VLOOKUP(G86,Affiliation_Table,3,FALSE))+IF(H86="",0,VLOOKUP(H86,Affiliation_Table,3,FALSE))+IF(I86="",0,VLOOKUP(I86,Affiliation_Table,3,FALSE))+IF(J86="",0,VLOOKUP(J86,Affiliation_Table,3,FALSE))+IF(K86="",0,VLOOKUP(K86,Affiliation_Table,3,FALSE))+IF(L86="",0,VLOOKUP(L86,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>16385</v>
       </c>
       <c r="F86">
@@ -5074,11 +4893,11 @@
         <v>18</v>
       </c>
       <c r="D87">
-        <f>COUNTIF(G87:L87,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E87">
-        <f>IF(G87="",0,VLOOKUP(G87,Affiliation_Table,3,FALSE))+IF(H87="",0,VLOOKUP(H87,Affiliation_Table,3,FALSE))+IF(I87="",0,VLOOKUP(I87,Affiliation_Table,3,FALSE))+IF(J87="",0,VLOOKUP(J87,Affiliation_Table,3,FALSE))+IF(K87="",0,VLOOKUP(K87,Affiliation_Table,3,FALSE))+IF(L87="",0,VLOOKUP(L87,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>8396801</v>
       </c>
       <c r="F87">
@@ -5108,11 +4927,11 @@
         <v>36</v>
       </c>
       <c r="D88">
-        <f>COUNTIF(G88:L88,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E88">
-        <f>IF(G88="",0,VLOOKUP(G88,Affiliation_Table,3,FALSE))+IF(H88="",0,VLOOKUP(H88,Affiliation_Table,3,FALSE))+IF(I88="",0,VLOOKUP(I88,Affiliation_Table,3,FALSE))+IF(J88="",0,VLOOKUP(J88,Affiliation_Table,3,FALSE))+IF(K88="",0,VLOOKUP(K88,Affiliation_Table,3,FALSE))+IF(L88="",0,VLOOKUP(L88,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>10485761</v>
       </c>
       <c r="F88">
@@ -5139,11 +4958,11 @@
         <v>32</v>
       </c>
       <c r="D89">
-        <f>COUNTIF(G89:L89,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E89">
-        <f>IF(G89="",0,VLOOKUP(G89,Affiliation_Table,3,FALSE))+IF(H89="",0,VLOOKUP(H89,Affiliation_Table,3,FALSE))+IF(I89="",0,VLOOKUP(I89,Affiliation_Table,3,FALSE))+IF(J89="",0,VLOOKUP(J89,Affiliation_Table,3,FALSE))+IF(K89="",0,VLOOKUP(K89,Affiliation_Table,3,FALSE))+IF(L89="",0,VLOOKUP(L89,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>8396801</v>
       </c>
       <c r="F89">
@@ -5173,11 +4992,11 @@
         <v>23</v>
       </c>
       <c r="D90">
-        <f>COUNTIF(G90:L90,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E90">
-        <f>IF(G90="",0,VLOOKUP(G90,Affiliation_Table,3,FALSE))+IF(H90="",0,VLOOKUP(H90,Affiliation_Table,3,FALSE))+IF(I90="",0,VLOOKUP(I90,Affiliation_Table,3,FALSE))+IF(J90="",0,VLOOKUP(J90,Affiliation_Table,3,FALSE))+IF(K90="",0,VLOOKUP(K90,Affiliation_Table,3,FALSE))+IF(L90="",0,VLOOKUP(L90,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>8396801</v>
       </c>
       <c r="F90">
@@ -5207,11 +5026,11 @@
         <v>40</v>
       </c>
       <c r="D91">
-        <f>COUNTIF(G91:L91,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E91">
-        <f>IF(G91="",0,VLOOKUP(G91,Affiliation_Table,3,FALSE))+IF(H91="",0,VLOOKUP(H91,Affiliation_Table,3,FALSE))+IF(I91="",0,VLOOKUP(I91,Affiliation_Table,3,FALSE))+IF(J91="",0,VLOOKUP(J91,Affiliation_Table,3,FALSE))+IF(K91="",0,VLOOKUP(K91,Affiliation_Table,3,FALSE))+IF(L91="",0,VLOOKUP(L91,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>132</v>
       </c>
       <c r="F91">
@@ -5239,11 +5058,11 @@
         <v>19</v>
       </c>
       <c r="D92">
-        <f>COUNTIF(G92:L92,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E92">
-        <f>IF(G92="",0,VLOOKUP(G92,Affiliation_Table,3,FALSE))+IF(H92="",0,VLOOKUP(H92,Affiliation_Table,3,FALSE))+IF(I92="",0,VLOOKUP(I92,Affiliation_Table,3,FALSE))+IF(J92="",0,VLOOKUP(J92,Affiliation_Table,3,FALSE))+IF(K92="",0,VLOOKUP(K92,Affiliation_Table,3,FALSE))+IF(L92="",0,VLOOKUP(L92,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>786433</v>
       </c>
       <c r="F92">
@@ -5273,11 +5092,11 @@
         <v>19</v>
       </c>
       <c r="D93">
-        <f>COUNTIF(G93:L93,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E93">
-        <f>IF(G93="",0,VLOOKUP(G93,Affiliation_Table,3,FALSE))+IF(H93="",0,VLOOKUP(H93,Affiliation_Table,3,FALSE))+IF(I93="",0,VLOOKUP(I93,Affiliation_Table,3,FALSE))+IF(J93="",0,VLOOKUP(J93,Affiliation_Table,3,FALSE))+IF(K93="",0,VLOOKUP(K93,Affiliation_Table,3,FALSE))+IF(L93="",0,VLOOKUP(L93,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>786433</v>
       </c>
       <c r="F93">
@@ -5307,11 +5126,11 @@
         <v>60</v>
       </c>
       <c r="D94">
-        <f>COUNTIF(G94:L94,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E94">
-        <f>IF(G94="",0,VLOOKUP(G94,Affiliation_Table,3,FALSE))+IF(H94="",0,VLOOKUP(H94,Affiliation_Table,3,FALSE))+IF(I94="",0,VLOOKUP(I94,Affiliation_Table,3,FALSE))+IF(J94="",0,VLOOKUP(J94,Affiliation_Table,3,FALSE))+IF(K94="",0,VLOOKUP(K94,Affiliation_Table,3,FALSE))+IF(L94="",0,VLOOKUP(L94,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>786433</v>
       </c>
       <c r="F94">
@@ -5341,11 +5160,11 @@
         <v>18</v>
       </c>
       <c r="D95">
-        <f>COUNTIF(G95:L95,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E95">
-        <f>IF(G95="",0,VLOOKUP(G95,Affiliation_Table,3,FALSE))+IF(H95="",0,VLOOKUP(H95,Affiliation_Table,3,FALSE))+IF(I95="",0,VLOOKUP(I95,Affiliation_Table,3,FALSE))+IF(J95="",0,VLOOKUP(J95,Affiliation_Table,3,FALSE))+IF(K95="",0,VLOOKUP(K95,Affiliation_Table,3,FALSE))+IF(L95="",0,VLOOKUP(L95,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>1114241</v>
       </c>
       <c r="F95">
@@ -5377,11 +5196,11 @@
         <v>34</v>
       </c>
       <c r="D96">
-        <f>COUNTIF(G96:L96,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E96">
-        <f>IF(G96="",0,VLOOKUP(G96,Affiliation_Table,3,FALSE))+IF(H96="",0,VLOOKUP(H96,Affiliation_Table,3,FALSE))+IF(I96="",0,VLOOKUP(I96,Affiliation_Table,3,FALSE))+IF(J96="",0,VLOOKUP(J96,Affiliation_Table,3,FALSE))+IF(K96="",0,VLOOKUP(K96,Affiliation_Table,3,FALSE))+IF(L96="",0,VLOOKUP(L96,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>1114241</v>
       </c>
       <c r="F96">
@@ -5413,11 +5232,11 @@
         <v>35</v>
       </c>
       <c r="D97">
-        <f>COUNTIF(G97:L97,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E97">
-        <f>IF(G97="",0,VLOOKUP(G97,Affiliation_Table,3,FALSE))+IF(H97="",0,VLOOKUP(H97,Affiliation_Table,3,FALSE))+IF(I97="",0,VLOOKUP(I97,Affiliation_Table,3,FALSE))+IF(J97="",0,VLOOKUP(J97,Affiliation_Table,3,FALSE))+IF(K97="",0,VLOOKUP(K97,Affiliation_Table,3,FALSE))+IF(L97="",0,VLOOKUP(L97,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>1114241</v>
       </c>
       <c r="F97">
@@ -5449,11 +5268,11 @@
         <v>16</v>
       </c>
       <c r="D98">
-        <f>COUNTIF(G98:L98,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E98">
-        <f>IF(G98="",0,VLOOKUP(G98,Affiliation_Table,3,FALSE))+IF(H98="",0,VLOOKUP(H98,Affiliation_Table,3,FALSE))+IF(I98="",0,VLOOKUP(I98,Affiliation_Table,3,FALSE))+IF(J98="",0,VLOOKUP(J98,Affiliation_Table,3,FALSE))+IF(K98="",0,VLOOKUP(K98,Affiliation_Table,3,FALSE))+IF(L98="",0,VLOOKUP(L98,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>6145</v>
       </c>
       <c r="F98">
@@ -5483,11 +5302,11 @@
         <v>29</v>
       </c>
       <c r="D99">
-        <f>COUNTIF(G99:L99,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E99">
-        <f>IF(G99="",0,VLOOKUP(G99,Affiliation_Table,3,FALSE))+IF(H99="",0,VLOOKUP(H99,Affiliation_Table,3,FALSE))+IF(I99="",0,VLOOKUP(I99,Affiliation_Table,3,FALSE))+IF(J99="",0,VLOOKUP(J99,Affiliation_Table,3,FALSE))+IF(K99="",0,VLOOKUP(K99,Affiliation_Table,3,FALSE))+IF(L99="",0,VLOOKUP(L99,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>38921</v>
       </c>
       <c r="F99">
@@ -5521,11 +5340,11 @@
         <v>33</v>
       </c>
       <c r="D100">
-        <f>COUNTIF(G100:L100,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E100">
-        <f>IF(G100="",0,VLOOKUP(G100,Affiliation_Table,3,FALSE))+IF(H100="",0,VLOOKUP(H100,Affiliation_Table,3,FALSE))+IF(I100="",0,VLOOKUP(I100,Affiliation_Table,3,FALSE))+IF(J100="",0,VLOOKUP(J100,Affiliation_Table,3,FALSE))+IF(K100="",0,VLOOKUP(K100,Affiliation_Table,3,FALSE))+IF(L100="",0,VLOOKUP(L100,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>8194</v>
       </c>
       <c r="F100">
@@ -5549,11 +5368,11 @@
         <v>36</v>
       </c>
       <c r="D101">
-        <f>COUNTIF(G101:L101,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E101">
-        <f>IF(G101="",0,VLOOKUP(G101,Affiliation_Table,3,FALSE))+IF(H101="",0,VLOOKUP(H101,Affiliation_Table,3,FALSE))+IF(I101="",0,VLOOKUP(I101,Affiliation_Table,3,FALSE))+IF(J101="",0,VLOOKUP(J101,Affiliation_Table,3,FALSE))+IF(K101="",0,VLOOKUP(K101,Affiliation_Table,3,FALSE))+IF(L101="",0,VLOOKUP(L101,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>32785</v>
       </c>
       <c r="F101">
@@ -5580,11 +5399,11 @@
         <v>37</v>
       </c>
       <c r="D102">
-        <f>COUNTIF(G102:L102,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E102">
-        <f>IF(G102="",0,VLOOKUP(G102,Affiliation_Table,3,FALSE))+IF(H102="",0,VLOOKUP(H102,Affiliation_Table,3,FALSE))+IF(I102="",0,VLOOKUP(I102,Affiliation_Table,3,FALSE))+IF(J102="",0,VLOOKUP(J102,Affiliation_Table,3,FALSE))+IF(K102="",0,VLOOKUP(K102,Affiliation_Table,3,FALSE))+IF(L102="",0,VLOOKUP(L102,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>32785</v>
       </c>
       <c r="F102">
@@ -5614,11 +5433,11 @@
         <v>32</v>
       </c>
       <c r="D103">
-        <f>COUNTIF(G103:L103,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E103">
-        <f>IF(G103="",0,VLOOKUP(G103,Affiliation_Table,3,FALSE))+IF(H103="",0,VLOOKUP(H103,Affiliation_Table,3,FALSE))+IF(I103="",0,VLOOKUP(I103,Affiliation_Table,3,FALSE))+IF(J103="",0,VLOOKUP(J103,Affiliation_Table,3,FALSE))+IF(K103="",0,VLOOKUP(K103,Affiliation_Table,3,FALSE))+IF(L103="",0,VLOOKUP(L103,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>4194305</v>
       </c>
       <c r="F103">
@@ -5646,11 +5465,11 @@
         <v>34</v>
       </c>
       <c r="D104">
-        <f>COUNTIF(G104:L104,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E104">
-        <f>IF(G104="",0,VLOOKUP(G104,Affiliation_Table,3,FALSE))+IF(H104="",0,VLOOKUP(H104,Affiliation_Table,3,FALSE))+IF(I104="",0,VLOOKUP(I104,Affiliation_Table,3,FALSE))+IF(J104="",0,VLOOKUP(J104,Affiliation_Table,3,FALSE))+IF(K104="",0,VLOOKUP(K104,Affiliation_Table,3,FALSE))+IF(L104="",0,VLOOKUP(L104,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>4194305</v>
       </c>
       <c r="F104">
@@ -5674,11 +5493,11 @@
         <v>43</v>
       </c>
       <c r="D105">
-        <f>COUNTIF(G105:L105,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E105">
-        <f>IF(G105="",0,VLOOKUP(G105,Affiliation_Table,3,FALSE))+IF(H105="",0,VLOOKUP(H105,Affiliation_Table,3,FALSE))+IF(I105="",0,VLOOKUP(I105,Affiliation_Table,3,FALSE))+IF(J105="",0,VLOOKUP(J105,Affiliation_Table,3,FALSE))+IF(K105="",0,VLOOKUP(K105,Affiliation_Table,3,FALSE))+IF(L105="",0,VLOOKUP(L105,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>4194305</v>
       </c>
       <c r="F105">
@@ -5702,11 +5521,11 @@
         <v>24</v>
       </c>
       <c r="D106">
-        <f>COUNTIF(G106:L106,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E106">
-        <f>IF(G106="",0,VLOOKUP(G106,Affiliation_Table,3,FALSE))+IF(H106="",0,VLOOKUP(H106,Affiliation_Table,3,FALSE))+IF(I106="",0,VLOOKUP(I106,Affiliation_Table,3,FALSE))+IF(J106="",0,VLOOKUP(J106,Affiliation_Table,3,FALSE))+IF(K106="",0,VLOOKUP(K106,Affiliation_Table,3,FALSE))+IF(L106="",0,VLOOKUP(L106,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>8193</v>
       </c>
       <c r="F106">
@@ -5734,11 +5553,11 @@
         <v>39</v>
       </c>
       <c r="D107">
-        <f>COUNTIF(G107:L107,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E107">
-        <f>IF(G107="",0,VLOOKUP(G107,Affiliation_Table,3,FALSE))+IF(H107="",0,VLOOKUP(H107,Affiliation_Table,3,FALSE))+IF(I107="",0,VLOOKUP(I107,Affiliation_Table,3,FALSE))+IF(J107="",0,VLOOKUP(J107,Affiliation_Table,3,FALSE))+IF(K107="",0,VLOOKUP(K107,Affiliation_Table,3,FALSE))+IF(L107="",0,VLOOKUP(L107,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>8193</v>
       </c>
       <c r="F107">
@@ -5766,11 +5585,11 @@
         <v>32</v>
       </c>
       <c r="D108">
-        <f>COUNTIF(G108:L108,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E108">
-        <f>IF(G108="",0,VLOOKUP(G108,Affiliation_Table,3,FALSE))+IF(H108="",0,VLOOKUP(H108,Affiliation_Table,3,FALSE))+IF(I108="",0,VLOOKUP(I108,Affiliation_Table,3,FALSE))+IF(J108="",0,VLOOKUP(J108,Affiliation_Table,3,FALSE))+IF(K108="",0,VLOOKUP(K108,Affiliation_Table,3,FALSE))+IF(L108="",0,VLOOKUP(L108,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>8194</v>
       </c>
       <c r="F108">
@@ -5798,11 +5617,11 @@
         <v>19</v>
       </c>
       <c r="D109">
-        <f>COUNTIF(G109:L109,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E109">
-        <f>IF(G109="",0,VLOOKUP(G109,Affiliation_Table,3,FALSE))+IF(H109="",0,VLOOKUP(H109,Affiliation_Table,3,FALSE))+IF(I109="",0,VLOOKUP(I109,Affiliation_Table,3,FALSE))+IF(J109="",0,VLOOKUP(J109,Affiliation_Table,3,FALSE))+IF(K109="",0,VLOOKUP(K109,Affiliation_Table,3,FALSE))+IF(L109="",0,VLOOKUP(L109,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>8194</v>
       </c>
       <c r="F109">
@@ -5830,11 +5649,11 @@
         <v>27</v>
       </c>
       <c r="D110">
-        <f>COUNTIF(G110:L110,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E110">
-        <f>IF(G110="",0,VLOOKUP(G110,Affiliation_Table,3,FALSE))+IF(H110="",0,VLOOKUP(H110,Affiliation_Table,3,FALSE))+IF(I110="",0,VLOOKUP(I110,Affiliation_Table,3,FALSE))+IF(J110="",0,VLOOKUP(J110,Affiliation_Table,3,FALSE))+IF(K110="",0,VLOOKUP(K110,Affiliation_Table,3,FALSE))+IF(L110="",0,VLOOKUP(L110,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>8194</v>
       </c>
       <c r="F110">
@@ -5862,11 +5681,11 @@
         <v>35</v>
       </c>
       <c r="D111">
-        <f>COUNTIF(G111:L111,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E111">
-        <f>IF(G111="",0,VLOOKUP(G111,Affiliation_Table,3,FALSE))+IF(H111="",0,VLOOKUP(H111,Affiliation_Table,3,FALSE))+IF(I111="",0,VLOOKUP(I111,Affiliation_Table,3,FALSE))+IF(J111="",0,VLOOKUP(J111,Affiliation_Table,3,FALSE))+IF(K111="",0,VLOOKUP(K111,Affiliation_Table,3,FALSE))+IF(L111="",0,VLOOKUP(L111,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>8194</v>
       </c>
       <c r="F111">
@@ -5890,11 +5709,11 @@
         <v>27</v>
       </c>
       <c r="D112">
-        <f>COUNTIF(G112:L112,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E112">
-        <f>IF(G112="",0,VLOOKUP(G112,Affiliation_Table,3,FALSE))+IF(H112="",0,VLOOKUP(H112,Affiliation_Table,3,FALSE))+IF(I112="",0,VLOOKUP(I112,Affiliation_Table,3,FALSE))+IF(J112="",0,VLOOKUP(J112,Affiliation_Table,3,FALSE))+IF(K112="",0,VLOOKUP(K112,Affiliation_Table,3,FALSE))+IF(L112="",0,VLOOKUP(L112,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>8194</v>
       </c>
       <c r="F112">
@@ -5922,11 +5741,11 @@
         <v>19</v>
       </c>
       <c r="D113">
-        <f>COUNTIF(G113:L113,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E113">
-        <f>IF(G113="",0,VLOOKUP(G113,Affiliation_Table,3,FALSE))+IF(H113="",0,VLOOKUP(H113,Affiliation_Table,3,FALSE))+IF(I113="",0,VLOOKUP(I113,Affiliation_Table,3,FALSE))+IF(J113="",0,VLOOKUP(J113,Affiliation_Table,3,FALSE))+IF(K113="",0,VLOOKUP(K113,Affiliation_Table,3,FALSE))+IF(L113="",0,VLOOKUP(L113,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>270353</v>
       </c>
       <c r="F113">
@@ -5958,11 +5777,11 @@
         <v>38</v>
       </c>
       <c r="D114">
-        <f>COUNTIF(G114:L114,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E114">
-        <f>IF(G114="",0,VLOOKUP(G114,Affiliation_Table,3,FALSE))+IF(H114="",0,VLOOKUP(H114,Affiliation_Table,3,FALSE))+IF(I114="",0,VLOOKUP(I114,Affiliation_Table,3,FALSE))+IF(J114="",0,VLOOKUP(J114,Affiliation_Table,3,FALSE))+IF(K114="",0,VLOOKUP(K114,Affiliation_Table,3,FALSE))+IF(L114="",0,VLOOKUP(L114,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>270353</v>
       </c>
       <c r="F114">
@@ -5994,11 +5813,11 @@
         <v>32</v>
       </c>
       <c r="D115">
-        <f>COUNTIF(G115:L115,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E115">
-        <f>IF(G115="",0,VLOOKUP(G115,Affiliation_Table,3,FALSE))+IF(H115="",0,VLOOKUP(H115,Affiliation_Table,3,FALSE))+IF(I115="",0,VLOOKUP(I115,Affiliation_Table,3,FALSE))+IF(J115="",0,VLOOKUP(J115,Affiliation_Table,3,FALSE))+IF(K115="",0,VLOOKUP(K115,Affiliation_Table,3,FALSE))+IF(L115="",0,VLOOKUP(L115,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>270353</v>
       </c>
       <c r="F115">
@@ -6028,11 +5847,11 @@
         <v>34</v>
       </c>
       <c r="D116">
-        <f>COUNTIF(G116:L116,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E116">
-        <f>IF(G116="",0,VLOOKUP(G116,Affiliation_Table,3,FALSE))+IF(H116="",0,VLOOKUP(H116,Affiliation_Table,3,FALSE))+IF(I116="",0,VLOOKUP(I116,Affiliation_Table,3,FALSE))+IF(J116="",0,VLOOKUP(J116,Affiliation_Table,3,FALSE))+IF(K116="",0,VLOOKUP(K116,Affiliation_Table,3,FALSE))+IF(L116="",0,VLOOKUP(L116,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>270353</v>
       </c>
       <c r="F116">
@@ -6064,11 +5883,11 @@
         <v>41</v>
       </c>
       <c r="D117">
-        <f>COUNTIF(G117:L117,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E117">
-        <f>IF(G117="",0,VLOOKUP(G117,Affiliation_Table,3,FALSE))+IF(H117="",0,VLOOKUP(H117,Affiliation_Table,3,FALSE))+IF(I117="",0,VLOOKUP(I117,Affiliation_Table,3,FALSE))+IF(J117="",0,VLOOKUP(J117,Affiliation_Table,3,FALSE))+IF(K117="",0,VLOOKUP(K117,Affiliation_Table,3,FALSE))+IF(L117="",0,VLOOKUP(L117,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>270353</v>
       </c>
       <c r="F117">
@@ -6100,11 +5919,11 @@
         <v>18</v>
       </c>
       <c r="D118">
-        <f>COUNTIF(G118:L118,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E118">
-        <f>IF(G118="",0,VLOOKUP(G118,Affiliation_Table,3,FALSE))+IF(H118="",0,VLOOKUP(H118,Affiliation_Table,3,FALSE))+IF(I118="",0,VLOOKUP(I118,Affiliation_Table,3,FALSE))+IF(J118="",0,VLOOKUP(J118,Affiliation_Table,3,FALSE))+IF(K118="",0,VLOOKUP(K118,Affiliation_Table,3,FALSE))+IF(L118="",0,VLOOKUP(L118,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>270353</v>
       </c>
       <c r="F118">
@@ -6136,11 +5955,11 @@
         <v>34</v>
       </c>
       <c r="D119">
-        <f>COUNTIF(G119:L119,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E119">
-        <f>IF(G119="",0,VLOOKUP(G119,Affiliation_Table,3,FALSE))+IF(H119="",0,VLOOKUP(H119,Affiliation_Table,3,FALSE))+IF(I119="",0,VLOOKUP(I119,Affiliation_Table,3,FALSE))+IF(J119="",0,VLOOKUP(J119,Affiliation_Table,3,FALSE))+IF(K119="",0,VLOOKUP(K119,Affiliation_Table,3,FALSE))+IF(L119="",0,VLOOKUP(L119,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>32786</v>
       </c>
       <c r="F119">
@@ -6170,11 +5989,11 @@
         <v>32</v>
       </c>
       <c r="D120">
-        <f>COUNTIF(G120:L120,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E120">
-        <f>IF(G120="",0,VLOOKUP(G120,Affiliation_Table,3,FALSE))+IF(H120="",0,VLOOKUP(H120,Affiliation_Table,3,FALSE))+IF(I120="",0,VLOOKUP(I120,Affiliation_Table,3,FALSE))+IF(J120="",0,VLOOKUP(J120,Affiliation_Table,3,FALSE))+IF(K120="",0,VLOOKUP(K120,Affiliation_Table,3,FALSE))+IF(L120="",0,VLOOKUP(L120,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>32785</v>
       </c>
       <c r="F120">
@@ -6204,11 +6023,11 @@
         <v>37</v>
       </c>
       <c r="D121">
-        <f>COUNTIF(G121:L121,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E121">
-        <f>IF(G121="",0,VLOOKUP(G121,Affiliation_Table,3,FALSE))+IF(H121="",0,VLOOKUP(H121,Affiliation_Table,3,FALSE))+IF(I121="",0,VLOOKUP(I121,Affiliation_Table,3,FALSE))+IF(J121="",0,VLOOKUP(J121,Affiliation_Table,3,FALSE))+IF(K121="",0,VLOOKUP(K121,Affiliation_Table,3,FALSE))+IF(L121="",0,VLOOKUP(L121,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>32785</v>
       </c>
       <c r="F121">
@@ -6238,11 +6057,11 @@
         <v>36</v>
       </c>
       <c r="D122">
-        <f>COUNTIF(G122:L122,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E122">
-        <f>IF(G122="",0,VLOOKUP(G122,Affiliation_Table,3,FALSE))+IF(H122="",0,VLOOKUP(H122,Affiliation_Table,3,FALSE))+IF(I122="",0,VLOOKUP(I122,Affiliation_Table,3,FALSE))+IF(J122="",0,VLOOKUP(J122,Affiliation_Table,3,FALSE))+IF(K122="",0,VLOOKUP(K122,Affiliation_Table,3,FALSE))+IF(L122="",0,VLOOKUP(L122,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>32785</v>
       </c>
       <c r="F122">
@@ -6272,11 +6091,11 @@
         <v>29</v>
       </c>
       <c r="D123">
-        <f>COUNTIF(G123:L123,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E123">
-        <f>IF(G123="",0,VLOOKUP(G123,Affiliation_Table,3,FALSE))+IF(H123="",0,VLOOKUP(H123,Affiliation_Table,3,FALSE))+IF(I123="",0,VLOOKUP(I123,Affiliation_Table,3,FALSE))+IF(J123="",0,VLOOKUP(J123,Affiliation_Table,3,FALSE))+IF(K123="",0,VLOOKUP(K123,Affiliation_Table,3,FALSE))+IF(L123="",0,VLOOKUP(L123,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>65540</v>
       </c>
       <c r="F123">
@@ -6304,11 +6123,11 @@
         <v>20</v>
       </c>
       <c r="D124">
-        <f>COUNTIF(G124:L124,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E124">
-        <f>IF(G124="",0,VLOOKUP(G124,Affiliation_Table,3,FALSE))+IF(H124="",0,VLOOKUP(H124,Affiliation_Table,3,FALSE))+IF(I124="",0,VLOOKUP(I124,Affiliation_Table,3,FALSE))+IF(J124="",0,VLOOKUP(J124,Affiliation_Table,3,FALSE))+IF(K124="",0,VLOOKUP(K124,Affiliation_Table,3,FALSE))+IF(L124="",0,VLOOKUP(L124,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>32785</v>
       </c>
       <c r="F124">
@@ -6338,11 +6157,11 @@
         <v>35</v>
       </c>
       <c r="D125">
-        <f>COUNTIF(G125:L125,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E125">
-        <f>IF(G125="",0,VLOOKUP(G125,Affiliation_Table,3,FALSE))+IF(H125="",0,VLOOKUP(H125,Affiliation_Table,3,FALSE))+IF(I125="",0,VLOOKUP(I125,Affiliation_Table,3,FALSE))+IF(J125="",0,VLOOKUP(J125,Affiliation_Table,3,FALSE))+IF(K125="",0,VLOOKUP(K125,Affiliation_Table,3,FALSE))+IF(L125="",0,VLOOKUP(L125,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>32785</v>
       </c>
       <c r="F125">
@@ -6372,11 +6191,11 @@
         <v>34</v>
       </c>
       <c r="D126">
-        <f>COUNTIF(G126:L126,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E126">
-        <f>IF(G126="",0,VLOOKUP(G126,Affiliation_Table,3,FALSE))+IF(H126="",0,VLOOKUP(H126,Affiliation_Table,3,FALSE))+IF(I126="",0,VLOOKUP(I126,Affiliation_Table,3,FALSE))+IF(J126="",0,VLOOKUP(J126,Affiliation_Table,3,FALSE))+IF(K126="",0,VLOOKUP(K126,Affiliation_Table,3,FALSE))+IF(L126="",0,VLOOKUP(L126,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>32785</v>
       </c>
       <c r="F126">
@@ -6403,11 +6222,11 @@
         <v>21</v>
       </c>
       <c r="D127">
-        <f>COUNTIF(G127:L127,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E127">
-        <f>IF(G127="",0,VLOOKUP(G127,Affiliation_Table,3,FALSE))+IF(H127="",0,VLOOKUP(H127,Affiliation_Table,3,FALSE))+IF(I127="",0,VLOOKUP(I127,Affiliation_Table,3,FALSE))+IF(J127="",0,VLOOKUP(J127,Affiliation_Table,3,FALSE))+IF(K127="",0,VLOOKUP(K127,Affiliation_Table,3,FALSE))+IF(L127="",0,VLOOKUP(L127,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="F127">
@@ -6435,11 +6254,11 @@
         <v>29</v>
       </c>
       <c r="D128">
-        <f>COUNTIF(G128:L128,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E128">
-        <f>IF(G128="",0,VLOOKUP(G128,Affiliation_Table,3,FALSE))+IF(H128="",0,VLOOKUP(H128,Affiliation_Table,3,FALSE))+IF(I128="",0,VLOOKUP(I128,Affiliation_Table,3,FALSE))+IF(J128="",0,VLOOKUP(J128,Affiliation_Table,3,FALSE))+IF(K128="",0,VLOOKUP(K128,Affiliation_Table,3,FALSE))+IF(L128="",0,VLOOKUP(L128,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>32785</v>
       </c>
       <c r="F128">
@@ -6469,11 +6288,11 @@
         <v>38</v>
       </c>
       <c r="D129">
-        <f>COUNTIF(G129:L129,"&lt;&gt;")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E129">
-        <f>IF(G129="",0,VLOOKUP(G129,Affiliation_Table,3,FALSE))+IF(H129="",0,VLOOKUP(H129,Affiliation_Table,3,FALSE))+IF(I129="",0,VLOOKUP(I129,Affiliation_Table,3,FALSE))+IF(J129="",0,VLOOKUP(J129,Affiliation_Table,3,FALSE))+IF(K129="",0,VLOOKUP(K129,Affiliation_Table,3,FALSE))+IF(L129="",0,VLOOKUP(L129,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="3"/>
         <v>32785</v>
       </c>
       <c r="F129">
@@ -6503,11 +6322,11 @@
         <v>28</v>
       </c>
       <c r="D130">
-        <f>COUNTIF(G130:L130,"&lt;&gt;")</f>
+        <f t="shared" ref="D130:D193" si="4">COUNTIF(G130:L130,"&lt;&gt;")</f>
         <v>2</v>
       </c>
       <c r="E130">
-        <f>IF(G130="",0,VLOOKUP(G130,Affiliation_Table,3,FALSE))+IF(H130="",0,VLOOKUP(H130,Affiliation_Table,3,FALSE))+IF(I130="",0,VLOOKUP(I130,Affiliation_Table,3,FALSE))+IF(J130="",0,VLOOKUP(J130,Affiliation_Table,3,FALSE))+IF(K130="",0,VLOOKUP(K130,Affiliation_Table,3,FALSE))+IF(L130="",0,VLOOKUP(L130,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" ref="E130:E193" si="5">IF(G130="",0,VLOOKUP(G130,Affiliation_Table,3,FALSE))+IF(H130="",0,VLOOKUP(H130,Affiliation_Table,3,FALSE))+IF(I130="",0,VLOOKUP(I130,Affiliation_Table,3,FALSE))+IF(J130="",0,VLOOKUP(J130,Affiliation_Table,3,FALSE))+IF(K130="",0,VLOOKUP(K130,Affiliation_Table,3,FALSE))+IF(L130="",0,VLOOKUP(L130,Affiliation_Table,3,FALSE))</f>
         <v>8388610</v>
       </c>
       <c r="F130">
@@ -6535,11 +6354,11 @@
         <v>33</v>
       </c>
       <c r="D131">
-        <f>COUNTIF(G131:L131,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E131">
-        <f>IF(G131="",0,VLOOKUP(G131,Affiliation_Table,3,FALSE))+IF(H131="",0,VLOOKUP(H131,Affiliation_Table,3,FALSE))+IF(I131="",0,VLOOKUP(I131,Affiliation_Table,3,FALSE))+IF(J131="",0,VLOOKUP(J131,Affiliation_Table,3,FALSE))+IF(K131="",0,VLOOKUP(K131,Affiliation_Table,3,FALSE))+IF(L131="",0,VLOOKUP(L131,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>8194</v>
       </c>
       <c r="F131">
@@ -6563,11 +6382,11 @@
         <v>24</v>
       </c>
       <c r="D132">
-        <f>COUNTIF(G132:L132,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E132">
-        <f>IF(G132="",0,VLOOKUP(G132,Affiliation_Table,3,FALSE))+IF(H132="",0,VLOOKUP(H132,Affiliation_Table,3,FALSE))+IF(I132="",0,VLOOKUP(I132,Affiliation_Table,3,FALSE))+IF(J132="",0,VLOOKUP(J132,Affiliation_Table,3,FALSE))+IF(K132="",0,VLOOKUP(K132,Affiliation_Table,3,FALSE))+IF(L132="",0,VLOOKUP(L132,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>65537</v>
       </c>
       <c r="F132">
@@ -6595,11 +6414,11 @@
         <v>31</v>
       </c>
       <c r="D133">
-        <f>COUNTIF(G133:L133,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E133">
-        <f>IF(G133="",0,VLOOKUP(G133,Affiliation_Table,3,FALSE))+IF(H133="",0,VLOOKUP(H133,Affiliation_Table,3,FALSE))+IF(I133="",0,VLOOKUP(I133,Affiliation_Table,3,FALSE))+IF(J133="",0,VLOOKUP(J133,Affiliation_Table,3,FALSE))+IF(K133="",0,VLOOKUP(K133,Affiliation_Table,3,FALSE))+IF(L133="",0,VLOOKUP(L133,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>32785</v>
       </c>
       <c r="F133">
@@ -6629,11 +6448,11 @@
         <v>40</v>
       </c>
       <c r="D134">
-        <f>COUNTIF(G134:L134,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E134">
-        <f>IF(G134="",0,VLOOKUP(G134,Affiliation_Table,3,FALSE))+IF(H134="",0,VLOOKUP(H134,Affiliation_Table,3,FALSE))+IF(I134="",0,VLOOKUP(I134,Affiliation_Table,3,FALSE))+IF(J134="",0,VLOOKUP(J134,Affiliation_Table,3,FALSE))+IF(K134="",0,VLOOKUP(K134,Affiliation_Table,3,FALSE))+IF(L134="",0,VLOOKUP(L134,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>32785</v>
       </c>
       <c r="F134">
@@ -6663,11 +6482,11 @@
         <v>19</v>
       </c>
       <c r="D135">
-        <f>COUNTIF(G135:L135,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E135">
-        <f>IF(G135="",0,VLOOKUP(G135,Affiliation_Table,3,FALSE))+IF(H135="",0,VLOOKUP(H135,Affiliation_Table,3,FALSE))+IF(I135="",0,VLOOKUP(I135,Affiliation_Table,3,FALSE))+IF(J135="",0,VLOOKUP(J135,Affiliation_Table,3,FALSE))+IF(K135="",0,VLOOKUP(K135,Affiliation_Table,3,FALSE))+IF(L135="",0,VLOOKUP(L135,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>32785</v>
       </c>
       <c r="F135">
@@ -6697,11 +6516,11 @@
         <v>35</v>
       </c>
       <c r="D136">
-        <f>COUNTIF(G136:L136,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E136">
-        <f>IF(G136="",0,VLOOKUP(G136,Affiliation_Table,3,FALSE))+IF(H136="",0,VLOOKUP(H136,Affiliation_Table,3,FALSE))+IF(I136="",0,VLOOKUP(I136,Affiliation_Table,3,FALSE))+IF(J136="",0,VLOOKUP(J136,Affiliation_Table,3,FALSE))+IF(K136="",0,VLOOKUP(K136,Affiliation_Table,3,FALSE))+IF(L136="",0,VLOOKUP(L136,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>32785</v>
       </c>
       <c r="F136">
@@ -6731,11 +6550,11 @@
         <v>39</v>
       </c>
       <c r="D137">
-        <f>COUNTIF(G137:L137,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E137">
-        <f>IF(G137="",0,VLOOKUP(G137,Affiliation_Table,3,FALSE))+IF(H137="",0,VLOOKUP(H137,Affiliation_Table,3,FALSE))+IF(I137="",0,VLOOKUP(I137,Affiliation_Table,3,FALSE))+IF(J137="",0,VLOOKUP(J137,Affiliation_Table,3,FALSE))+IF(K137="",0,VLOOKUP(K137,Affiliation_Table,3,FALSE))+IF(L137="",0,VLOOKUP(L137,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>33041</v>
       </c>
       <c r="F137">
@@ -6767,11 +6586,11 @@
         <v>27</v>
       </c>
       <c r="D138">
-        <f>COUNTIF(G138:L138,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E138">
-        <f>IF(G138="",0,VLOOKUP(G138,Affiliation_Table,3,FALSE))+IF(H138="",0,VLOOKUP(H138,Affiliation_Table,3,FALSE))+IF(I138="",0,VLOOKUP(I138,Affiliation_Table,3,FALSE))+IF(J138="",0,VLOOKUP(J138,Affiliation_Table,3,FALSE))+IF(K138="",0,VLOOKUP(K138,Affiliation_Table,3,FALSE))+IF(L138="",0,VLOOKUP(L138,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>36874</v>
       </c>
       <c r="F138">
@@ -6803,11 +6622,11 @@
         <v>29</v>
       </c>
       <c r="D139">
-        <f>COUNTIF(G139:L139,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E139">
-        <f>IF(G139="",0,VLOOKUP(G139,Affiliation_Table,3,FALSE))+IF(H139="",0,VLOOKUP(H139,Affiliation_Table,3,FALSE))+IF(I139="",0,VLOOKUP(I139,Affiliation_Table,3,FALSE))+IF(J139="",0,VLOOKUP(J139,Affiliation_Table,3,FALSE))+IF(K139="",0,VLOOKUP(K139,Affiliation_Table,3,FALSE))+IF(L139="",0,VLOOKUP(L139,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>36874</v>
       </c>
       <c r="F139">
@@ -6839,11 +6658,11 @@
         <v>17</v>
       </c>
       <c r="D140">
-        <f>COUNTIF(G140:L140,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E140">
-        <f>IF(G140="",0,VLOOKUP(G140,Affiliation_Table,3,FALSE))+IF(H140="",0,VLOOKUP(H140,Affiliation_Table,3,FALSE))+IF(I140="",0,VLOOKUP(I140,Affiliation_Table,3,FALSE))+IF(J140="",0,VLOOKUP(J140,Affiliation_Table,3,FALSE))+IF(K140="",0,VLOOKUP(K140,Affiliation_Table,3,FALSE))+IF(L140="",0,VLOOKUP(L140,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>36874</v>
       </c>
       <c r="F140">
@@ -6875,11 +6694,11 @@
         <v>19</v>
       </c>
       <c r="D141">
-        <f>COUNTIF(G141:L141,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E141">
-        <f>IF(G141="",0,VLOOKUP(G141,Affiliation_Table,3,FALSE))+IF(H141="",0,VLOOKUP(H141,Affiliation_Table,3,FALSE))+IF(I141="",0,VLOOKUP(I141,Affiliation_Table,3,FALSE))+IF(J141="",0,VLOOKUP(J141,Affiliation_Table,3,FALSE))+IF(K141="",0,VLOOKUP(K141,Affiliation_Table,3,FALSE))+IF(L141="",0,VLOOKUP(L141,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>32785</v>
       </c>
       <c r="F141">
@@ -6909,11 +6728,11 @@
         <v>35</v>
       </c>
       <c r="D142">
-        <f>COUNTIF(G142:L142,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E142">
-        <f>IF(G142="",0,VLOOKUP(G142,Affiliation_Table,3,FALSE))+IF(H142="",0,VLOOKUP(H142,Affiliation_Table,3,FALSE))+IF(I142="",0,VLOOKUP(I142,Affiliation_Table,3,FALSE))+IF(J142="",0,VLOOKUP(J142,Affiliation_Table,3,FALSE))+IF(K142="",0,VLOOKUP(K142,Affiliation_Table,3,FALSE))+IF(L142="",0,VLOOKUP(L142,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>32785</v>
       </c>
       <c r="F142">
@@ -6943,11 +6762,11 @@
         <v>33</v>
       </c>
       <c r="D143">
-        <f>COUNTIF(G143:L143,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E143">
-        <f>IF(G143="",0,VLOOKUP(G143,Affiliation_Table,3,FALSE))+IF(H143="",0,VLOOKUP(H143,Affiliation_Table,3,FALSE))+IF(I143="",0,VLOOKUP(I143,Affiliation_Table,3,FALSE))+IF(J143="",0,VLOOKUP(J143,Affiliation_Table,3,FALSE))+IF(K143="",0,VLOOKUP(K143,Affiliation_Table,3,FALSE))+IF(L143="",0,VLOOKUP(L143,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>1114113</v>
       </c>
       <c r="F143">
@@ -6977,11 +6796,11 @@
         <v>25</v>
       </c>
       <c r="D144">
-        <f>COUNTIF(G144:L144,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E144">
-        <f>IF(G144="",0,VLOOKUP(G144,Affiliation_Table,3,FALSE))+IF(H144="",0,VLOOKUP(H144,Affiliation_Table,3,FALSE))+IF(I144="",0,VLOOKUP(I144,Affiliation_Table,3,FALSE))+IF(J144="",0,VLOOKUP(J144,Affiliation_Table,3,FALSE))+IF(K144="",0,VLOOKUP(K144,Affiliation_Table,3,FALSE))+IF(L144="",0,VLOOKUP(L144,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>36866</v>
       </c>
       <c r="F144">
@@ -7011,11 +6830,11 @@
         <v>17</v>
       </c>
       <c r="D145">
-        <f>COUNTIF(G145:L145,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E145">
-        <f>IF(G145="",0,VLOOKUP(G145,Affiliation_Table,3,FALSE))+IF(H145="",0,VLOOKUP(H145,Affiliation_Table,3,FALSE))+IF(I145="",0,VLOOKUP(I145,Affiliation_Table,3,FALSE))+IF(J145="",0,VLOOKUP(J145,Affiliation_Table,3,FALSE))+IF(K145="",0,VLOOKUP(K145,Affiliation_Table,3,FALSE))+IF(L145="",0,VLOOKUP(L145,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>32785</v>
       </c>
       <c r="F145">
@@ -7045,11 +6864,11 @@
         <v>39</v>
       </c>
       <c r="D146">
-        <f>COUNTIF(G146:L146,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E146">
-        <f>IF(G146="",0,VLOOKUP(G146,Affiliation_Table,3,FALSE))+IF(H146="",0,VLOOKUP(H146,Affiliation_Table,3,FALSE))+IF(I146="",0,VLOOKUP(I146,Affiliation_Table,3,FALSE))+IF(J146="",0,VLOOKUP(J146,Affiliation_Table,3,FALSE))+IF(K146="",0,VLOOKUP(K146,Affiliation_Table,3,FALSE))+IF(L146="",0,VLOOKUP(L146,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>32785</v>
       </c>
       <c r="F146">
@@ -7079,11 +6898,11 @@
         <v>32</v>
       </c>
       <c r="D147">
-        <f>COUNTIF(G147:L147,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E147">
-        <f>IF(G147="",0,VLOOKUP(G147,Affiliation_Table,3,FALSE))+IF(H147="",0,VLOOKUP(H147,Affiliation_Table,3,FALSE))+IF(I147="",0,VLOOKUP(I147,Affiliation_Table,3,FALSE))+IF(J147="",0,VLOOKUP(J147,Affiliation_Table,3,FALSE))+IF(K147="",0,VLOOKUP(K147,Affiliation_Table,3,FALSE))+IF(L147="",0,VLOOKUP(L147,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>32785</v>
       </c>
       <c r="F147">
@@ -7113,11 +6932,11 @@
         <v>31</v>
       </c>
       <c r="D148">
-        <f>COUNTIF(G148:L148,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E148">
-        <f>IF(G148="",0,VLOOKUP(G148,Affiliation_Table,3,FALSE))+IF(H148="",0,VLOOKUP(H148,Affiliation_Table,3,FALSE))+IF(I148="",0,VLOOKUP(I148,Affiliation_Table,3,FALSE))+IF(J148="",0,VLOOKUP(J148,Affiliation_Table,3,FALSE))+IF(K148="",0,VLOOKUP(K148,Affiliation_Table,3,FALSE))+IF(L148="",0,VLOOKUP(L148,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>36868</v>
       </c>
       <c r="F148">
@@ -7147,11 +6966,11 @@
         <v>20</v>
       </c>
       <c r="D149">
-        <f>COUNTIF(G149:L149,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E149">
-        <f>IF(G149="",0,VLOOKUP(G149,Affiliation_Table,3,FALSE))+IF(H149="",0,VLOOKUP(H149,Affiliation_Table,3,FALSE))+IF(I149="",0,VLOOKUP(I149,Affiliation_Table,3,FALSE))+IF(J149="",0,VLOOKUP(J149,Affiliation_Table,3,FALSE))+IF(K149="",0,VLOOKUP(K149,Affiliation_Table,3,FALSE))+IF(L149="",0,VLOOKUP(L149,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>2097156</v>
       </c>
       <c r="F149">
@@ -7175,11 +6994,11 @@
         <v>29</v>
       </c>
       <c r="D150">
-        <f>COUNTIF(G150:L150,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E150">
-        <f>IF(G150="",0,VLOOKUP(G150,Affiliation_Table,3,FALSE))+IF(H150="",0,VLOOKUP(H150,Affiliation_Table,3,FALSE))+IF(I150="",0,VLOOKUP(I150,Affiliation_Table,3,FALSE))+IF(J150="",0,VLOOKUP(J150,Affiliation_Table,3,FALSE))+IF(K150="",0,VLOOKUP(K150,Affiliation_Table,3,FALSE))+IF(L150="",0,VLOOKUP(L150,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>32913</v>
       </c>
       <c r="F150">
@@ -7209,11 +7028,11 @@
         <v>37</v>
       </c>
       <c r="D151">
-        <f>COUNTIF(G151:L151,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E151">
-        <f>IF(G151="",0,VLOOKUP(G151,Affiliation_Table,3,FALSE))+IF(H151="",0,VLOOKUP(H151,Affiliation_Table,3,FALSE))+IF(I151="",0,VLOOKUP(I151,Affiliation_Table,3,FALSE))+IF(J151="",0,VLOOKUP(J151,Affiliation_Table,3,FALSE))+IF(K151="",0,VLOOKUP(K151,Affiliation_Table,3,FALSE))+IF(L151="",0,VLOOKUP(L151,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>786688</v>
       </c>
       <c r="F151">
@@ -7243,11 +7062,11 @@
         <v>31</v>
       </c>
       <c r="D152">
-        <f>COUNTIF(G152:L152,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E152">
-        <f>IF(G152="",0,VLOOKUP(G152,Affiliation_Table,3,FALSE))+IF(H152="",0,VLOOKUP(H152,Affiliation_Table,3,FALSE))+IF(I152="",0,VLOOKUP(I152,Affiliation_Table,3,FALSE))+IF(J152="",0,VLOOKUP(J152,Affiliation_Table,3,FALSE))+IF(K152="",0,VLOOKUP(K152,Affiliation_Table,3,FALSE))+IF(L152="",0,VLOOKUP(L152,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>2097154</v>
       </c>
       <c r="F152">
@@ -7275,11 +7094,11 @@
         <v>42</v>
       </c>
       <c r="D153">
-        <f>COUNTIF(G153:L153,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E153">
-        <f>IF(G153="",0,VLOOKUP(G153,Affiliation_Table,3,FALSE))+IF(H153="",0,VLOOKUP(H153,Affiliation_Table,3,FALSE))+IF(I153="",0,VLOOKUP(I153,Affiliation_Table,3,FALSE))+IF(J153="",0,VLOOKUP(J153,Affiliation_Table,3,FALSE))+IF(K153="",0,VLOOKUP(K153,Affiliation_Table,3,FALSE))+IF(L153="",0,VLOOKUP(L153,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>2097154</v>
       </c>
       <c r="F153">
@@ -7303,11 +7122,11 @@
         <v>33</v>
       </c>
       <c r="D154">
-        <f>COUNTIF(G154:L154,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E154">
-        <f>IF(G154="",0,VLOOKUP(G154,Affiliation_Table,3,FALSE))+IF(H154="",0,VLOOKUP(H154,Affiliation_Table,3,FALSE))+IF(I154="",0,VLOOKUP(I154,Affiliation_Table,3,FALSE))+IF(J154="",0,VLOOKUP(J154,Affiliation_Table,3,FALSE))+IF(K154="",0,VLOOKUP(K154,Affiliation_Table,3,FALSE))+IF(L154="",0,VLOOKUP(L154,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>65537</v>
       </c>
       <c r="F154">
@@ -7331,11 +7150,11 @@
         <v>28</v>
       </c>
       <c r="D155">
-        <f>COUNTIF(G155:L155,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E155">
-        <f>IF(G155="",0,VLOOKUP(G155,Affiliation_Table,3,FALSE))+IF(H155="",0,VLOOKUP(H155,Affiliation_Table,3,FALSE))+IF(I155="",0,VLOOKUP(I155,Affiliation_Table,3,FALSE))+IF(J155="",0,VLOOKUP(J155,Affiliation_Table,3,FALSE))+IF(K155="",0,VLOOKUP(K155,Affiliation_Table,3,FALSE))+IF(L155="",0,VLOOKUP(L155,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="F155">
@@ -7363,11 +7182,11 @@
         <v>24</v>
       </c>
       <c r="D156">
-        <f>COUNTIF(G156:L156,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E156">
-        <f>IF(G156="",0,VLOOKUP(G156,Affiliation_Table,3,FALSE))+IF(H156="",0,VLOOKUP(H156,Affiliation_Table,3,FALSE))+IF(I156="",0,VLOOKUP(I156,Affiliation_Table,3,FALSE))+IF(J156="",0,VLOOKUP(J156,Affiliation_Table,3,FALSE))+IF(K156="",0,VLOOKUP(K156,Affiliation_Table,3,FALSE))+IF(L156="",0,VLOOKUP(L156,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>36905</v>
       </c>
       <c r="F156">
@@ -7401,11 +7220,11 @@
         <v>35</v>
       </c>
       <c r="D157">
-        <f>COUNTIF(G157:L157,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E157">
-        <f>IF(G157="",0,VLOOKUP(G157,Affiliation_Table,3,FALSE))+IF(H157="",0,VLOOKUP(H157,Affiliation_Table,3,FALSE))+IF(I157="",0,VLOOKUP(I157,Affiliation_Table,3,FALSE))+IF(J157="",0,VLOOKUP(J157,Affiliation_Table,3,FALSE))+IF(K157="",0,VLOOKUP(K157,Affiliation_Table,3,FALSE))+IF(L157="",0,VLOOKUP(L157,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>32786</v>
       </c>
       <c r="F157">
@@ -7435,11 +7254,11 @@
         <v>37</v>
       </c>
       <c r="D158">
-        <f>COUNTIF(G158:L158,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E158">
-        <f>IF(G158="",0,VLOOKUP(G158,Affiliation_Table,3,FALSE))+IF(H158="",0,VLOOKUP(H158,Affiliation_Table,3,FALSE))+IF(I158="",0,VLOOKUP(I158,Affiliation_Table,3,FALSE))+IF(J158="",0,VLOOKUP(J158,Affiliation_Table,3,FALSE))+IF(K158="",0,VLOOKUP(K158,Affiliation_Table,3,FALSE))+IF(L158="",0,VLOOKUP(L158,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>32786</v>
       </c>
       <c r="F158">
@@ -7466,11 +7285,11 @@
         <v>35</v>
       </c>
       <c r="D159">
-        <f>COUNTIF(G159:L159,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E159">
-        <f>IF(G159="",0,VLOOKUP(G159,Affiliation_Table,3,FALSE))+IF(H159="",0,VLOOKUP(H159,Affiliation_Table,3,FALSE))+IF(I159="",0,VLOOKUP(I159,Affiliation_Table,3,FALSE))+IF(J159="",0,VLOOKUP(J159,Affiliation_Table,3,FALSE))+IF(K159="",0,VLOOKUP(K159,Affiliation_Table,3,FALSE))+IF(L159="",0,VLOOKUP(L159,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>16385</v>
       </c>
       <c r="F159">
@@ -7494,11 +7313,11 @@
         <v>26</v>
       </c>
       <c r="D160">
-        <f>COUNTIF(G160:L160,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E160">
-        <f>IF(G160="",0,VLOOKUP(G160,Affiliation_Table,3,FALSE))+IF(H160="",0,VLOOKUP(H160,Affiliation_Table,3,FALSE))+IF(I160="",0,VLOOKUP(I160,Affiliation_Table,3,FALSE))+IF(J160="",0,VLOOKUP(J160,Affiliation_Table,3,FALSE))+IF(K160="",0,VLOOKUP(K160,Affiliation_Table,3,FALSE))+IF(L160="",0,VLOOKUP(L160,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>36905</v>
       </c>
       <c r="F160">
@@ -7532,11 +7351,11 @@
         <v>35</v>
       </c>
       <c r="D161">
-        <f>COUNTIF(G161:L161,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E161">
-        <f>IF(G161="",0,VLOOKUP(G161,Affiliation_Table,3,FALSE))+IF(H161="",0,VLOOKUP(H161,Affiliation_Table,3,FALSE))+IF(I161="",0,VLOOKUP(I161,Affiliation_Table,3,FALSE))+IF(J161="",0,VLOOKUP(J161,Affiliation_Table,3,FALSE))+IF(K161="",0,VLOOKUP(K161,Affiliation_Table,3,FALSE))+IF(L161="",0,VLOOKUP(L161,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>513</v>
       </c>
       <c r="F161">
@@ -7560,11 +7379,11 @@
         <v>17</v>
       </c>
       <c r="D162">
-        <f>COUNTIF(G162:L162,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E162">
-        <f>IF(G162="",0,VLOOKUP(G162,Affiliation_Table,3,FALSE))+IF(H162="",0,VLOOKUP(H162,Affiliation_Table,3,FALSE))+IF(I162="",0,VLOOKUP(I162,Affiliation_Table,3,FALSE))+IF(J162="",0,VLOOKUP(J162,Affiliation_Table,3,FALSE))+IF(K162="",0,VLOOKUP(K162,Affiliation_Table,3,FALSE))+IF(L162="",0,VLOOKUP(L162,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>8193</v>
       </c>
       <c r="F162">
@@ -7592,11 +7411,11 @@
         <v>34</v>
       </c>
       <c r="D163">
-        <f>COUNTIF(G163:L163,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E163">
-        <f>IF(G163="",0,VLOOKUP(G163,Affiliation_Table,3,FALSE))+IF(H163="",0,VLOOKUP(H163,Affiliation_Table,3,FALSE))+IF(I163="",0,VLOOKUP(I163,Affiliation_Table,3,FALSE))+IF(J163="",0,VLOOKUP(J163,Affiliation_Table,3,FALSE))+IF(K163="",0,VLOOKUP(K163,Affiliation_Table,3,FALSE))+IF(L163="",0,VLOOKUP(L163,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="F163">
@@ -7624,11 +7443,11 @@
         <v>11</v>
       </c>
       <c r="D164">
-        <f>COUNTIF(G164:L164,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E164">
-        <f>IF(G164="",0,VLOOKUP(G164,Affiliation_Table,3,FALSE))+IF(H164="",0,VLOOKUP(H164,Affiliation_Table,3,FALSE))+IF(I164="",0,VLOOKUP(I164,Affiliation_Table,3,FALSE))+IF(J164="",0,VLOOKUP(J164,Affiliation_Table,3,FALSE))+IF(K164="",0,VLOOKUP(K164,Affiliation_Table,3,FALSE))+IF(L164="",0,VLOOKUP(L164,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
       <c r="F164">
@@ -7656,11 +7475,11 @@
         <v>15</v>
       </c>
       <c r="D165">
-        <f>COUNTIF(G165:L165,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E165">
-        <f>IF(G165="",0,VLOOKUP(G165,Affiliation_Table,3,FALSE))+IF(H165="",0,VLOOKUP(H165,Affiliation_Table,3,FALSE))+IF(I165="",0,VLOOKUP(I165,Affiliation_Table,3,FALSE))+IF(J165="",0,VLOOKUP(J165,Affiliation_Table,3,FALSE))+IF(K165="",0,VLOOKUP(K165,Affiliation_Table,3,FALSE))+IF(L165="",0,VLOOKUP(L165,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>32786</v>
       </c>
       <c r="F165">
@@ -7690,11 +7509,11 @@
         <v>13</v>
       </c>
       <c r="D166">
-        <f>COUNTIF(G166:L166,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E166">
-        <f>IF(G166="",0,VLOOKUP(G166,Affiliation_Table,3,FALSE))+IF(H166="",0,VLOOKUP(H166,Affiliation_Table,3,FALSE))+IF(I166="",0,VLOOKUP(I166,Affiliation_Table,3,FALSE))+IF(J166="",0,VLOOKUP(J166,Affiliation_Table,3,FALSE))+IF(K166="",0,VLOOKUP(K166,Affiliation_Table,3,FALSE))+IF(L166="",0,VLOOKUP(L166,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>32786</v>
       </c>
       <c r="F166">
@@ -7724,11 +7543,11 @@
         <v>16</v>
       </c>
       <c r="D167">
-        <f>COUNTIF(G167:L167,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E167">
-        <f>IF(G167="",0,VLOOKUP(G167,Affiliation_Table,3,FALSE))+IF(H167="",0,VLOOKUP(H167,Affiliation_Table,3,FALSE))+IF(I167="",0,VLOOKUP(I167,Affiliation_Table,3,FALSE))+IF(J167="",0,VLOOKUP(J167,Affiliation_Table,3,FALSE))+IF(K167="",0,VLOOKUP(K167,Affiliation_Table,3,FALSE))+IF(L167="",0,VLOOKUP(L167,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>2097153</v>
       </c>
       <c r="F167">
@@ -7752,11 +7571,11 @@
         <v>13</v>
       </c>
       <c r="D168">
-        <f>COUNTIF(G168:L168,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E168">
-        <f>IF(G168="",0,VLOOKUP(G168,Affiliation_Table,3,FALSE))+IF(H168="",0,VLOOKUP(H168,Affiliation_Table,3,FALSE))+IF(I168="",0,VLOOKUP(I168,Affiliation_Table,3,FALSE))+IF(J168="",0,VLOOKUP(J168,Affiliation_Table,3,FALSE))+IF(K168="",0,VLOOKUP(K168,Affiliation_Table,3,FALSE))+IF(L168="",0,VLOOKUP(L168,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>32785</v>
       </c>
       <c r="F168">
@@ -7786,11 +7605,11 @@
         <v>10</v>
       </c>
       <c r="D169">
-        <f>COUNTIF(G169:L169,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E169">
-        <f>IF(G169="",0,VLOOKUP(G169,Affiliation_Table,3,FALSE))+IF(H169="",0,VLOOKUP(H169,Affiliation_Table,3,FALSE))+IF(I169="",0,VLOOKUP(I169,Affiliation_Table,3,FALSE))+IF(J169="",0,VLOOKUP(J169,Affiliation_Table,3,FALSE))+IF(K169="",0,VLOOKUP(K169,Affiliation_Table,3,FALSE))+IF(L169="",0,VLOOKUP(L169,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>262145</v>
       </c>
       <c r="F169">
@@ -7818,11 +7637,11 @@
         <v>19</v>
       </c>
       <c r="D170">
-        <f>COUNTIF(G170:L170,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E170">
-        <f>IF(G170="",0,VLOOKUP(G170,Affiliation_Table,3,FALSE))+IF(H170="",0,VLOOKUP(H170,Affiliation_Table,3,FALSE))+IF(I170="",0,VLOOKUP(I170,Affiliation_Table,3,FALSE))+IF(J170="",0,VLOOKUP(J170,Affiliation_Table,3,FALSE))+IF(K170="",0,VLOOKUP(K170,Affiliation_Table,3,FALSE))+IF(L170="",0,VLOOKUP(L170,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>33793</v>
       </c>
       <c r="F170">
@@ -7852,11 +7671,11 @@
         <v>12</v>
       </c>
       <c r="D171">
-        <f>COUNTIF(G171:L171,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E171">
-        <f>IF(G171="",0,VLOOKUP(G171,Affiliation_Table,3,FALSE))+IF(H171="",0,VLOOKUP(H171,Affiliation_Table,3,FALSE))+IF(I171="",0,VLOOKUP(I171,Affiliation_Table,3,FALSE))+IF(J171="",0,VLOOKUP(J171,Affiliation_Table,3,FALSE))+IF(K171="",0,VLOOKUP(K171,Affiliation_Table,3,FALSE))+IF(L171="",0,VLOOKUP(L171,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="F171">
@@ -7884,11 +7703,11 @@
         <v>22</v>
       </c>
       <c r="D172">
-        <f>COUNTIF(G172:L172,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E172">
-        <f>IF(G172="",0,VLOOKUP(G172,Affiliation_Table,3,FALSE))+IF(H172="",0,VLOOKUP(H172,Affiliation_Table,3,FALSE))+IF(I172="",0,VLOOKUP(I172,Affiliation_Table,3,FALSE))+IF(J172="",0,VLOOKUP(J172,Affiliation_Table,3,FALSE))+IF(K172="",0,VLOOKUP(K172,Affiliation_Table,3,FALSE))+IF(L172="",0,VLOOKUP(L172,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="F172">
@@ -7916,11 +7735,11 @@
         <v>16</v>
       </c>
       <c r="D173">
-        <f>COUNTIF(G173:L173,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E173">
-        <f>IF(G173="",0,VLOOKUP(G173,Affiliation_Table,3,FALSE))+IF(H173="",0,VLOOKUP(H173,Affiliation_Table,3,FALSE))+IF(I173="",0,VLOOKUP(I173,Affiliation_Table,3,FALSE))+IF(J173="",0,VLOOKUP(J173,Affiliation_Table,3,FALSE))+IF(K173="",0,VLOOKUP(K173,Affiliation_Table,3,FALSE))+IF(L173="",0,VLOOKUP(L173,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>8388609</v>
       </c>
       <c r="F173">
@@ -7948,11 +7767,11 @@
         <v>18</v>
       </c>
       <c r="D174">
-        <f>COUNTIF(G174:L174,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E174">
-        <f>IF(G174="",0,VLOOKUP(G174,Affiliation_Table,3,FALSE))+IF(H174="",0,VLOOKUP(H174,Affiliation_Table,3,FALSE))+IF(I174="",0,VLOOKUP(I174,Affiliation_Table,3,FALSE))+IF(J174="",0,VLOOKUP(J174,Affiliation_Table,3,FALSE))+IF(K174="",0,VLOOKUP(K174,Affiliation_Table,3,FALSE))+IF(L174="",0,VLOOKUP(L174,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>524417</v>
       </c>
       <c r="F174">
@@ -7982,11 +7801,11 @@
         <v>30</v>
       </c>
       <c r="D175">
-        <f>COUNTIF(G175:L175,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E175">
-        <f>IF(G175="",0,VLOOKUP(G175,Affiliation_Table,3,FALSE))+IF(H175="",0,VLOOKUP(H175,Affiliation_Table,3,FALSE))+IF(I175="",0,VLOOKUP(I175,Affiliation_Table,3,FALSE))+IF(J175="",0,VLOOKUP(J175,Affiliation_Table,3,FALSE))+IF(K175="",0,VLOOKUP(K175,Affiliation_Table,3,FALSE))+IF(L175="",0,VLOOKUP(L175,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>32786</v>
       </c>
       <c r="F175">
@@ -8016,11 +7835,11 @@
         <v>13</v>
       </c>
       <c r="D176">
-        <f>COUNTIF(G176:L176,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E176">
-        <f>IF(G176="",0,VLOOKUP(G176,Affiliation_Table,3,FALSE))+IF(H176="",0,VLOOKUP(H176,Affiliation_Table,3,FALSE))+IF(I176="",0,VLOOKUP(I176,Affiliation_Table,3,FALSE))+IF(J176="",0,VLOOKUP(J176,Affiliation_Table,3,FALSE))+IF(K176="",0,VLOOKUP(K176,Affiliation_Table,3,FALSE))+IF(L176="",0,VLOOKUP(L176,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>262161</v>
       </c>
       <c r="F176">
@@ -8050,11 +7869,11 @@
         <v>13</v>
       </c>
       <c r="D177">
-        <f>COUNTIF(G177:L177,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E177">
-        <f>IF(G177="",0,VLOOKUP(G177,Affiliation_Table,3,FALSE))+IF(H177="",0,VLOOKUP(H177,Affiliation_Table,3,FALSE))+IF(I177="",0,VLOOKUP(I177,Affiliation_Table,3,FALSE))+IF(J177="",0,VLOOKUP(J177,Affiliation_Table,3,FALSE))+IF(K177="",0,VLOOKUP(K177,Affiliation_Table,3,FALSE))+IF(L177="",0,VLOOKUP(L177,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>262161</v>
       </c>
       <c r="F177">
@@ -8084,11 +7903,11 @@
         <v>10</v>
       </c>
       <c r="D178">
-        <f>COUNTIF(G178:L178,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E178">
-        <f>IF(G178="",0,VLOOKUP(G178,Affiliation_Table,3,FALSE))+IF(H178="",0,VLOOKUP(H178,Affiliation_Table,3,FALSE))+IF(I178="",0,VLOOKUP(I178,Affiliation_Table,3,FALSE))+IF(J178="",0,VLOOKUP(J178,Affiliation_Table,3,FALSE))+IF(K178="",0,VLOOKUP(K178,Affiliation_Table,3,FALSE))+IF(L178="",0,VLOOKUP(L178,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>786433</v>
       </c>
       <c r="F178">
@@ -8118,11 +7937,11 @@
         <v>19</v>
       </c>
       <c r="D179">
-        <f>COUNTIF(G179:L179,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E179">
-        <f>IF(G179="",0,VLOOKUP(G179,Affiliation_Table,3,FALSE))+IF(H179="",0,VLOOKUP(H179,Affiliation_Table,3,FALSE))+IF(I179="",0,VLOOKUP(I179,Affiliation_Table,3,FALSE))+IF(J179="",0,VLOOKUP(J179,Affiliation_Table,3,FALSE))+IF(K179="",0,VLOOKUP(K179,Affiliation_Table,3,FALSE))+IF(L179="",0,VLOOKUP(L179,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>786433</v>
       </c>
       <c r="F179">
@@ -8152,11 +7971,11 @@
         <v>14</v>
       </c>
       <c r="D180">
-        <f>COUNTIF(G180:L180,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E180">
-        <f>IF(G180="",0,VLOOKUP(G180,Affiliation_Table,3,FALSE))+IF(H180="",0,VLOOKUP(H180,Affiliation_Table,3,FALSE))+IF(I180="",0,VLOOKUP(I180,Affiliation_Table,3,FALSE))+IF(J180="",0,VLOOKUP(J180,Affiliation_Table,3,FALSE))+IF(K180="",0,VLOOKUP(K180,Affiliation_Table,3,FALSE))+IF(L180="",0,VLOOKUP(L180,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>1572993</v>
       </c>
       <c r="F180">
@@ -8188,11 +8007,11 @@
         <v>17</v>
       </c>
       <c r="D181">
-        <f>COUNTIF(G181:L181,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E181">
-        <f>IF(G181="",0,VLOOKUP(G181,Affiliation_Table,3,FALSE))+IF(H181="",0,VLOOKUP(H181,Affiliation_Table,3,FALSE))+IF(I181="",0,VLOOKUP(I181,Affiliation_Table,3,FALSE))+IF(J181="",0,VLOOKUP(J181,Affiliation_Table,3,FALSE))+IF(K181="",0,VLOOKUP(K181,Affiliation_Table,3,FALSE))+IF(L181="",0,VLOOKUP(L181,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>8193</v>
       </c>
       <c r="F181">
@@ -8216,11 +8035,11 @@
         <v>15</v>
       </c>
       <c r="D182">
-        <f>COUNTIF(G182:L182,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E182">
-        <f>IF(G182="",0,VLOOKUP(G182,Affiliation_Table,3,FALSE))+IF(H182="",0,VLOOKUP(H182,Affiliation_Table,3,FALSE))+IF(I182="",0,VLOOKUP(I182,Affiliation_Table,3,FALSE))+IF(J182="",0,VLOOKUP(J182,Affiliation_Table,3,FALSE))+IF(K182="",0,VLOOKUP(K182,Affiliation_Table,3,FALSE))+IF(L182="",0,VLOOKUP(L182,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>6145</v>
       </c>
       <c r="F182">
@@ -8250,11 +8069,11 @@
         <v>11</v>
       </c>
       <c r="D183">
-        <f>COUNTIF(G183:L183,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E183">
-        <f>IF(G183="",0,VLOOKUP(G183,Affiliation_Table,3,FALSE))+IF(H183="",0,VLOOKUP(H183,Affiliation_Table,3,FALSE))+IF(I183="",0,VLOOKUP(I183,Affiliation_Table,3,FALSE))+IF(J183="",0,VLOOKUP(J183,Affiliation_Table,3,FALSE))+IF(K183="",0,VLOOKUP(K183,Affiliation_Table,3,FALSE))+IF(L183="",0,VLOOKUP(L183,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>129</v>
       </c>
       <c r="F183">
@@ -8282,11 +8101,11 @@
         <v>11</v>
       </c>
       <c r="D184">
-        <f>COUNTIF(G184:L184,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E184">
-        <f>IF(G184="",0,VLOOKUP(G184,Affiliation_Table,3,FALSE))+IF(H184="",0,VLOOKUP(H184,Affiliation_Table,3,FALSE))+IF(I184="",0,VLOOKUP(I184,Affiliation_Table,3,FALSE))+IF(J184="",0,VLOOKUP(J184,Affiliation_Table,3,FALSE))+IF(K184="",0,VLOOKUP(K184,Affiliation_Table,3,FALSE))+IF(L184="",0,VLOOKUP(L184,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>8322</v>
       </c>
       <c r="F184">
@@ -8316,11 +8135,11 @@
         <v>18</v>
       </c>
       <c r="D185">
-        <f>COUNTIF(G185:L185,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E185">
-        <f>IF(G185="",0,VLOOKUP(G185,Affiliation_Table,3,FALSE))+IF(H185="",0,VLOOKUP(H185,Affiliation_Table,3,FALSE))+IF(I185="",0,VLOOKUP(I185,Affiliation_Table,3,FALSE))+IF(J185="",0,VLOOKUP(J185,Affiliation_Table,3,FALSE))+IF(K185="",0,VLOOKUP(K185,Affiliation_Table,3,FALSE))+IF(L185="",0,VLOOKUP(L185,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>8322</v>
       </c>
       <c r="F185">
@@ -8350,11 +8169,11 @@
         <v>17</v>
       </c>
       <c r="D186">
-        <f>COUNTIF(G186:L186,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E186">
-        <f>IF(G186="",0,VLOOKUP(G186,Affiliation_Table,3,FALSE))+IF(H186="",0,VLOOKUP(H186,Affiliation_Table,3,FALSE))+IF(I186="",0,VLOOKUP(I186,Affiliation_Table,3,FALSE))+IF(J186="",0,VLOOKUP(J186,Affiliation_Table,3,FALSE))+IF(K186="",0,VLOOKUP(K186,Affiliation_Table,3,FALSE))+IF(L186="",0,VLOOKUP(L186,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>65540</v>
       </c>
       <c r="F186">
@@ -8382,11 +8201,11 @@
         <v>10</v>
       </c>
       <c r="D187">
-        <f>COUNTIF(G187:L187,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E187">
-        <f>IF(G187="",0,VLOOKUP(G187,Affiliation_Table,3,FALSE))+IF(H187="",0,VLOOKUP(H187,Affiliation_Table,3,FALSE))+IF(I187="",0,VLOOKUP(I187,Affiliation_Table,3,FALSE))+IF(J187="",0,VLOOKUP(J187,Affiliation_Table,3,FALSE))+IF(K187="",0,VLOOKUP(K187,Affiliation_Table,3,FALSE))+IF(L187="",0,VLOOKUP(L187,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>294916</v>
       </c>
       <c r="F187">
@@ -8416,11 +8235,11 @@
         <v>21</v>
       </c>
       <c r="D188">
-        <f>COUNTIF(G188:L188,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E188">
-        <f>IF(G188="",0,VLOOKUP(G188,Affiliation_Table,3,FALSE))+IF(H188="",0,VLOOKUP(H188,Affiliation_Table,3,FALSE))+IF(I188="",0,VLOOKUP(I188,Affiliation_Table,3,FALSE))+IF(J188="",0,VLOOKUP(J188,Affiliation_Table,3,FALSE))+IF(K188="",0,VLOOKUP(K188,Affiliation_Table,3,FALSE))+IF(L188="",0,VLOOKUP(L188,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>36865</v>
       </c>
       <c r="F188">
@@ -8450,11 +8269,11 @@
         <v>16</v>
       </c>
       <c r="D189">
-        <f>COUNTIF(G189:L189,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E189">
-        <f>IF(G189="",0,VLOOKUP(G189,Affiliation_Table,3,FALSE))+IF(H189="",0,VLOOKUP(H189,Affiliation_Table,3,FALSE))+IF(I189="",0,VLOOKUP(I189,Affiliation_Table,3,FALSE))+IF(J189="",0,VLOOKUP(J189,Affiliation_Table,3,FALSE))+IF(K189="",0,VLOOKUP(K189,Affiliation_Table,3,FALSE))+IF(L189="",0,VLOOKUP(L189,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>4194306</v>
       </c>
       <c r="F189">
@@ -8482,11 +8301,11 @@
         <v>18</v>
       </c>
       <c r="D190">
-        <f>COUNTIF(G190:L190,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E190">
-        <f>IF(G190="",0,VLOOKUP(G190,Affiliation_Table,3,FALSE))+IF(H190="",0,VLOOKUP(H190,Affiliation_Table,3,FALSE))+IF(I190="",0,VLOOKUP(I190,Affiliation_Table,3,FALSE))+IF(J190="",0,VLOOKUP(J190,Affiliation_Table,3,FALSE))+IF(K190="",0,VLOOKUP(K190,Affiliation_Table,3,FALSE))+IF(L190="",0,VLOOKUP(L190,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>4097</v>
       </c>
       <c r="F190">
@@ -8514,11 +8333,11 @@
         <v>12</v>
       </c>
       <c r="D191">
-        <f>COUNTIF(G191:L191,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E191">
-        <f>IF(G191="",0,VLOOKUP(G191,Affiliation_Table,3,FALSE))+IF(H191="",0,VLOOKUP(H191,Affiliation_Table,3,FALSE))+IF(I191="",0,VLOOKUP(I191,Affiliation_Table,3,FALSE))+IF(J191="",0,VLOOKUP(J191,Affiliation_Table,3,FALSE))+IF(K191="",0,VLOOKUP(K191,Affiliation_Table,3,FALSE))+IF(L191="",0,VLOOKUP(L191,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>139265</v>
       </c>
       <c r="F191">
@@ -8548,11 +8367,11 @@
         <v>33</v>
       </c>
       <c r="D192">
-        <f>COUNTIF(G192:L192,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E192">
-        <f>IF(G192="",0,VLOOKUP(G192,Affiliation_Table,3,FALSE))+IF(H192="",0,VLOOKUP(H192,Affiliation_Table,3,FALSE))+IF(I192="",0,VLOOKUP(I192,Affiliation_Table,3,FALSE))+IF(J192="",0,VLOOKUP(J192,Affiliation_Table,3,FALSE))+IF(K192="",0,VLOOKUP(K192,Affiliation_Table,3,FALSE))+IF(L192="",0,VLOOKUP(L192,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>139265</v>
       </c>
       <c r="F192">
@@ -8582,11 +8401,11 @@
         <v>16</v>
       </c>
       <c r="D193">
-        <f>COUNTIF(G193:L193,"&lt;&gt;")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E193">
-        <f>IF(G193="",0,VLOOKUP(G193,Affiliation_Table,3,FALSE))+IF(H193="",0,VLOOKUP(H193,Affiliation_Table,3,FALSE))+IF(I193="",0,VLOOKUP(I193,Affiliation_Table,3,FALSE))+IF(J193="",0,VLOOKUP(J193,Affiliation_Table,3,FALSE))+IF(K193="",0,VLOOKUP(K193,Affiliation_Table,3,FALSE))+IF(L193="",0,VLOOKUP(L193,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>32785</v>
       </c>
       <c r="F193">
@@ -8616,11 +8435,11 @@
         <v>14</v>
       </c>
       <c r="D194">
-        <f>COUNTIF(G194:L194,"&lt;&gt;")</f>
+        <f t="shared" ref="D194:D257" si="6">COUNTIF(G194:L194,"&lt;&gt;")</f>
         <v>3</v>
       </c>
       <c r="E194">
-        <f>IF(G194="",0,VLOOKUP(G194,Affiliation_Table,3,FALSE))+IF(H194="",0,VLOOKUP(H194,Affiliation_Table,3,FALSE))+IF(I194="",0,VLOOKUP(I194,Affiliation_Table,3,FALSE))+IF(J194="",0,VLOOKUP(J194,Affiliation_Table,3,FALSE))+IF(K194="",0,VLOOKUP(K194,Affiliation_Table,3,FALSE))+IF(L194="",0,VLOOKUP(L194,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" ref="E194:E257" si="7">IF(G194="",0,VLOOKUP(G194,Affiliation_Table,3,FALSE))+IF(H194="",0,VLOOKUP(H194,Affiliation_Table,3,FALSE))+IF(I194="",0,VLOOKUP(I194,Affiliation_Table,3,FALSE))+IF(J194="",0,VLOOKUP(J194,Affiliation_Table,3,FALSE))+IF(K194="",0,VLOOKUP(K194,Affiliation_Table,3,FALSE))+IF(L194="",0,VLOOKUP(L194,Affiliation_Table,3,FALSE))</f>
         <v>33793</v>
       </c>
       <c r="F194">
@@ -8650,11 +8469,11 @@
         <v>14</v>
       </c>
       <c r="D195">
-        <f>COUNTIF(G195:L195,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E195">
-        <f>IF(G195="",0,VLOOKUP(G195,Affiliation_Table,3,FALSE))+IF(H195="",0,VLOOKUP(H195,Affiliation_Table,3,FALSE))+IF(I195="",0,VLOOKUP(I195,Affiliation_Table,3,FALSE))+IF(J195="",0,VLOOKUP(J195,Affiliation_Table,3,FALSE))+IF(K195="",0,VLOOKUP(K195,Affiliation_Table,3,FALSE))+IF(L195="",0,VLOOKUP(L195,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>33793</v>
       </c>
       <c r="F195">
@@ -8684,11 +8503,11 @@
         <v>13</v>
       </c>
       <c r="D196">
-        <f>COUNTIF(G196:L196,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E196">
-        <f>IF(G196="",0,VLOOKUP(G196,Affiliation_Table,3,FALSE))+IF(H196="",0,VLOOKUP(H196,Affiliation_Table,3,FALSE))+IF(I196="",0,VLOOKUP(I196,Affiliation_Table,3,FALSE))+IF(J196="",0,VLOOKUP(J196,Affiliation_Table,3,FALSE))+IF(K196="",0,VLOOKUP(K196,Affiliation_Table,3,FALSE))+IF(L196="",0,VLOOKUP(L196,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>33793</v>
       </c>
       <c r="F196">
@@ -8718,11 +8537,11 @@
         <v>13</v>
       </c>
       <c r="D197">
-        <f>COUNTIF(G197:L197,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E197">
-        <f>IF(G197="",0,VLOOKUP(G197,Affiliation_Table,3,FALSE))+IF(H197="",0,VLOOKUP(H197,Affiliation_Table,3,FALSE))+IF(I197="",0,VLOOKUP(I197,Affiliation_Table,3,FALSE))+IF(J197="",0,VLOOKUP(J197,Affiliation_Table,3,FALSE))+IF(K197="",0,VLOOKUP(K197,Affiliation_Table,3,FALSE))+IF(L197="",0,VLOOKUP(L197,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>33793</v>
       </c>
       <c r="F197">
@@ -8752,11 +8571,11 @@
         <v>12</v>
       </c>
       <c r="D198">
-        <f>COUNTIF(G198:L198,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E198">
-        <f>IF(G198="",0,VLOOKUP(G198,Affiliation_Table,3,FALSE))+IF(H198="",0,VLOOKUP(H198,Affiliation_Table,3,FALSE))+IF(I198="",0,VLOOKUP(I198,Affiliation_Table,3,FALSE))+IF(J198="",0,VLOOKUP(J198,Affiliation_Table,3,FALSE))+IF(K198="",0,VLOOKUP(K198,Affiliation_Table,3,FALSE))+IF(L198="",0,VLOOKUP(L198,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>33793</v>
       </c>
       <c r="F198">
@@ -8786,11 +8605,11 @@
         <v>12</v>
       </c>
       <c r="D199">
-        <f>COUNTIF(G199:L199,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E199">
-        <f>IF(G199="",0,VLOOKUP(G199,Affiliation_Table,3,FALSE))+IF(H199="",0,VLOOKUP(H199,Affiliation_Table,3,FALSE))+IF(I199="",0,VLOOKUP(I199,Affiliation_Table,3,FALSE))+IF(J199="",0,VLOOKUP(J199,Affiliation_Table,3,FALSE))+IF(K199="",0,VLOOKUP(K199,Affiliation_Table,3,FALSE))+IF(L199="",0,VLOOKUP(L199,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>33793</v>
       </c>
       <c r="F199">
@@ -8820,11 +8639,11 @@
         <v>14</v>
       </c>
       <c r="D200">
-        <f>COUNTIF(G200:L200,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E200">
-        <f>IF(G200="",0,VLOOKUP(G200,Affiliation_Table,3,FALSE))+IF(H200="",0,VLOOKUP(H200,Affiliation_Table,3,FALSE))+IF(I200="",0,VLOOKUP(I200,Affiliation_Table,3,FALSE))+IF(J200="",0,VLOOKUP(J200,Affiliation_Table,3,FALSE))+IF(K200="",0,VLOOKUP(K200,Affiliation_Table,3,FALSE))+IF(L200="",0,VLOOKUP(L200,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>33793</v>
       </c>
       <c r="F200">
@@ -8854,11 +8673,11 @@
         <v>14</v>
       </c>
       <c r="D201">
-        <f>COUNTIF(G201:L201,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E201">
-        <f>IF(G201="",0,VLOOKUP(G201,Affiliation_Table,3,FALSE))+IF(H201="",0,VLOOKUP(H201,Affiliation_Table,3,FALSE))+IF(I201="",0,VLOOKUP(I201,Affiliation_Table,3,FALSE))+IF(J201="",0,VLOOKUP(J201,Affiliation_Table,3,FALSE))+IF(K201="",0,VLOOKUP(K201,Affiliation_Table,3,FALSE))+IF(L201="",0,VLOOKUP(L201,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>33793</v>
       </c>
       <c r="F201">
@@ -8888,11 +8707,11 @@
         <v>14</v>
       </c>
       <c r="D202">
-        <f>COUNTIF(G202:L202,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E202">
-        <f>IF(G202="",0,VLOOKUP(G202,Affiliation_Table,3,FALSE))+IF(H202="",0,VLOOKUP(H202,Affiliation_Table,3,FALSE))+IF(I202="",0,VLOOKUP(I202,Affiliation_Table,3,FALSE))+IF(J202="",0,VLOOKUP(J202,Affiliation_Table,3,FALSE))+IF(K202="",0,VLOOKUP(K202,Affiliation_Table,3,FALSE))+IF(L202="",0,VLOOKUP(L202,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>33793</v>
       </c>
       <c r="F202">
@@ -8922,11 +8741,11 @@
         <v>14</v>
       </c>
       <c r="D203">
-        <f>COUNTIF(G203:L203,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E203">
-        <f>IF(G203="",0,VLOOKUP(G203,Affiliation_Table,3,FALSE))+IF(H203="",0,VLOOKUP(H203,Affiliation_Table,3,FALSE))+IF(I203="",0,VLOOKUP(I203,Affiliation_Table,3,FALSE))+IF(J203="",0,VLOOKUP(J203,Affiliation_Table,3,FALSE))+IF(K203="",0,VLOOKUP(K203,Affiliation_Table,3,FALSE))+IF(L203="",0,VLOOKUP(L203,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>33793</v>
       </c>
       <c r="F203">
@@ -8956,11 +8775,11 @@
         <v>18</v>
       </c>
       <c r="D204">
-        <f>COUNTIF(G204:L204,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E204">
-        <f>IF(G204="",0,VLOOKUP(G204,Affiliation_Table,3,FALSE))+IF(H204="",0,VLOOKUP(H204,Affiliation_Table,3,FALSE))+IF(I204="",0,VLOOKUP(I204,Affiliation_Table,3,FALSE))+IF(J204="",0,VLOOKUP(J204,Affiliation_Table,3,FALSE))+IF(K204="",0,VLOOKUP(K204,Affiliation_Table,3,FALSE))+IF(L204="",0,VLOOKUP(L204,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>33793</v>
       </c>
       <c r="F204">
@@ -8990,11 +8809,11 @@
         <v>16</v>
       </c>
       <c r="D205">
-        <f>COUNTIF(G205:L205,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E205">
-        <f>IF(G205="",0,VLOOKUP(G205,Affiliation_Table,3,FALSE))+IF(H205="",0,VLOOKUP(H205,Affiliation_Table,3,FALSE))+IF(I205="",0,VLOOKUP(I205,Affiliation_Table,3,FALSE))+IF(J205="",0,VLOOKUP(J205,Affiliation_Table,3,FALSE))+IF(K205="",0,VLOOKUP(K205,Affiliation_Table,3,FALSE))+IF(L205="",0,VLOOKUP(L205,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>33793</v>
       </c>
       <c r="F205">
@@ -9021,11 +8840,11 @@
         <v>16</v>
       </c>
       <c r="D206">
-        <f>COUNTIF(G206:L206,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E206">
-        <f>IF(G206="",0,VLOOKUP(G206,Affiliation_Table,3,FALSE))+IF(H206="",0,VLOOKUP(H206,Affiliation_Table,3,FALSE))+IF(I206="",0,VLOOKUP(I206,Affiliation_Table,3,FALSE))+IF(J206="",0,VLOOKUP(J206,Affiliation_Table,3,FALSE))+IF(K206="",0,VLOOKUP(K206,Affiliation_Table,3,FALSE))+IF(L206="",0,VLOOKUP(L206,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>16385</v>
       </c>
       <c r="F206">
@@ -9049,11 +8868,11 @@
         <v>17</v>
       </c>
       <c r="D207">
-        <f>COUNTIF(G207:L207,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="E207">
-        <f>IF(G207="",0,VLOOKUP(G207,Affiliation_Table,3,FALSE))+IF(H207="",0,VLOOKUP(H207,Affiliation_Table,3,FALSE))+IF(I207="",0,VLOOKUP(I207,Affiliation_Table,3,FALSE))+IF(J207="",0,VLOOKUP(J207,Affiliation_Table,3,FALSE))+IF(K207="",0,VLOOKUP(K207,Affiliation_Table,3,FALSE))+IF(L207="",0,VLOOKUP(L207,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>20521</v>
       </c>
       <c r="F207">
@@ -9087,11 +8906,11 @@
         <v>13</v>
       </c>
       <c r="D208">
-        <f>COUNTIF(G208:L208,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E208">
-        <f>IF(G208="",0,VLOOKUP(G208,Affiliation_Table,3,FALSE))+IF(H208="",0,VLOOKUP(H208,Affiliation_Table,3,FALSE))+IF(I208="",0,VLOOKUP(I208,Affiliation_Table,3,FALSE))+IF(J208="",0,VLOOKUP(J208,Affiliation_Table,3,FALSE))+IF(K208="",0,VLOOKUP(K208,Affiliation_Table,3,FALSE))+IF(L208="",0,VLOOKUP(L208,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>16417</v>
       </c>
       <c r="F208">
@@ -9121,11 +8940,11 @@
         <v>32</v>
       </c>
       <c r="D209">
-        <f>COUNTIF(G209:L209,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E209">
-        <f>IF(G209="",0,VLOOKUP(G209,Affiliation_Table,3,FALSE))+IF(H209="",0,VLOOKUP(H209,Affiliation_Table,3,FALSE))+IF(I209="",0,VLOOKUP(I209,Affiliation_Table,3,FALSE))+IF(J209="",0,VLOOKUP(J209,Affiliation_Table,3,FALSE))+IF(K209="",0,VLOOKUP(K209,Affiliation_Table,3,FALSE))+IF(L209="",0,VLOOKUP(L209,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>16388</v>
       </c>
       <c r="F209">
@@ -9153,11 +8972,11 @@
         <v>18</v>
       </c>
       <c r="D210">
-        <f>COUNTIF(G210:L210,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E210">
-        <f>IF(G210="",0,VLOOKUP(G210,Affiliation_Table,3,FALSE))+IF(H210="",0,VLOOKUP(H210,Affiliation_Table,3,FALSE))+IF(I210="",0,VLOOKUP(I210,Affiliation_Table,3,FALSE))+IF(J210="",0,VLOOKUP(J210,Affiliation_Table,3,FALSE))+IF(K210="",0,VLOOKUP(K210,Affiliation_Table,3,FALSE))+IF(L210="",0,VLOOKUP(L210,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>129</v>
       </c>
       <c r="F210">
@@ -9181,11 +9000,11 @@
         <v>16</v>
       </c>
       <c r="D211">
-        <f>COUNTIF(G211:L211,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E211">
-        <f>IF(G211="",0,VLOOKUP(G211,Affiliation_Table,3,FALSE))+IF(H211="",0,VLOOKUP(H211,Affiliation_Table,3,FALSE))+IF(I211="",0,VLOOKUP(I211,Affiliation_Table,3,FALSE))+IF(J211="",0,VLOOKUP(J211,Affiliation_Table,3,FALSE))+IF(K211="",0,VLOOKUP(K211,Affiliation_Table,3,FALSE))+IF(L211="",0,VLOOKUP(L211,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>65569</v>
       </c>
       <c r="F211">
@@ -9215,11 +9034,11 @@
         <v>14</v>
       </c>
       <c r="D212">
-        <f>COUNTIF(G212:L212,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E212">
-        <f>IF(G212="",0,VLOOKUP(G212,Affiliation_Table,3,FALSE))+IF(H212="",0,VLOOKUP(H212,Affiliation_Table,3,FALSE))+IF(I212="",0,VLOOKUP(I212,Affiliation_Table,3,FALSE))+IF(J212="",0,VLOOKUP(J212,Affiliation_Table,3,FALSE))+IF(K212="",0,VLOOKUP(K212,Affiliation_Table,3,FALSE))+IF(L212="",0,VLOOKUP(L212,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>65540</v>
       </c>
       <c r="F212">
@@ -9247,11 +9066,11 @@
         <v>18</v>
       </c>
       <c r="D213">
-        <f>COUNTIF(G213:L213,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E213">
-        <f>IF(G213="",0,VLOOKUP(G213,Affiliation_Table,3,FALSE))+IF(H213="",0,VLOOKUP(H213,Affiliation_Table,3,FALSE))+IF(I213="",0,VLOOKUP(I213,Affiliation_Table,3,FALSE))+IF(J213="",0,VLOOKUP(J213,Affiliation_Table,3,FALSE))+IF(K213="",0,VLOOKUP(K213,Affiliation_Table,3,FALSE))+IF(L213="",0,VLOOKUP(L213,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>32772</v>
       </c>
       <c r="F213">
@@ -9279,11 +9098,11 @@
         <v>23</v>
       </c>
       <c r="D214">
-        <f>COUNTIF(G214:L214,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E214">
-        <f>IF(G214="",0,VLOOKUP(G214,Affiliation_Table,3,FALSE))+IF(H214="",0,VLOOKUP(H214,Affiliation_Table,3,FALSE))+IF(I214="",0,VLOOKUP(I214,Affiliation_Table,3,FALSE))+IF(J214="",0,VLOOKUP(J214,Affiliation_Table,3,FALSE))+IF(K214="",0,VLOOKUP(K214,Affiliation_Table,3,FALSE))+IF(L214="",0,VLOOKUP(L214,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>33793</v>
       </c>
       <c r="F214">
@@ -9310,11 +9129,11 @@
         <v>15</v>
       </c>
       <c r="D215">
-        <f>COUNTIF(G215:L215,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E215">
-        <f>IF(G215="",0,VLOOKUP(G215,Affiliation_Table,3,FALSE))+IF(H215="",0,VLOOKUP(H215,Affiliation_Table,3,FALSE))+IF(I215="",0,VLOOKUP(I215,Affiliation_Table,3,FALSE))+IF(J215="",0,VLOOKUP(J215,Affiliation_Table,3,FALSE))+IF(K215="",0,VLOOKUP(K215,Affiliation_Table,3,FALSE))+IF(L215="",0,VLOOKUP(L215,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>16385</v>
       </c>
       <c r="F215">
@@ -9342,11 +9161,11 @@
         <v>34</v>
       </c>
       <c r="D216">
-        <f>COUNTIF(G216:L216,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E216">
-        <f>IF(G216="",0,VLOOKUP(G216,Affiliation_Table,3,FALSE))+IF(H216="",0,VLOOKUP(H216,Affiliation_Table,3,FALSE))+IF(I216="",0,VLOOKUP(I216,Affiliation_Table,3,FALSE))+IF(J216="",0,VLOOKUP(J216,Affiliation_Table,3,FALSE))+IF(K216="",0,VLOOKUP(K216,Affiliation_Table,3,FALSE))+IF(L216="",0,VLOOKUP(L216,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>65540</v>
       </c>
       <c r="F216">
@@ -9370,11 +9189,11 @@
         <v>15</v>
       </c>
       <c r="D217">
-        <f>COUNTIF(G217:L217,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E217">
-        <f>IF(G217="",0,VLOOKUP(G217,Affiliation_Table,3,FALSE))+IF(H217="",0,VLOOKUP(H217,Affiliation_Table,3,FALSE))+IF(I217="",0,VLOOKUP(I217,Affiliation_Table,3,FALSE))+IF(J217="",0,VLOOKUP(J217,Affiliation_Table,3,FALSE))+IF(K217="",0,VLOOKUP(K217,Affiliation_Table,3,FALSE))+IF(L217="",0,VLOOKUP(L217,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>2097153</v>
       </c>
       <c r="F217">
@@ -9402,11 +9221,11 @@
         <v>14</v>
       </c>
       <c r="D218">
-        <f>COUNTIF(G218:L218,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E218">
-        <f>IF(G218="",0,VLOOKUP(G218,Affiliation_Table,3,FALSE))+IF(H218="",0,VLOOKUP(H218,Affiliation_Table,3,FALSE))+IF(I218="",0,VLOOKUP(I218,Affiliation_Table,3,FALSE))+IF(J218="",0,VLOOKUP(J218,Affiliation_Table,3,FALSE))+IF(K218="",0,VLOOKUP(K218,Affiliation_Table,3,FALSE))+IF(L218="",0,VLOOKUP(L218,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>4194305</v>
       </c>
       <c r="F218">
@@ -9434,11 +9253,11 @@
         <v>18</v>
       </c>
       <c r="D219">
-        <f>COUNTIF(G219:L219,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E219">
-        <f>IF(G219="",0,VLOOKUP(G219,Affiliation_Table,3,FALSE))+IF(H219="",0,VLOOKUP(H219,Affiliation_Table,3,FALSE))+IF(I219="",0,VLOOKUP(I219,Affiliation_Table,3,FALSE))+IF(J219="",0,VLOOKUP(J219,Affiliation_Table,3,FALSE))+IF(K219="",0,VLOOKUP(K219,Affiliation_Table,3,FALSE))+IF(L219="",0,VLOOKUP(L219,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>8193</v>
       </c>
       <c r="F219">
@@ -9466,11 +9285,11 @@
         <v>14</v>
       </c>
       <c r="D220">
-        <f>COUNTIF(G220:L220,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E220">
-        <f>IF(G220="",0,VLOOKUP(G220,Affiliation_Table,3,FALSE))+IF(H220="",0,VLOOKUP(H220,Affiliation_Table,3,FALSE))+IF(I220="",0,VLOOKUP(I220,Affiliation_Table,3,FALSE))+IF(J220="",0,VLOOKUP(J220,Affiliation_Table,3,FALSE))+IF(K220="",0,VLOOKUP(K220,Affiliation_Table,3,FALSE))+IF(L220="",0,VLOOKUP(L220,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="F220">
@@ -9498,11 +9317,11 @@
         <v>15</v>
       </c>
       <c r="D221">
-        <f>COUNTIF(G221:L221,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E221">
-        <f>IF(G221="",0,VLOOKUP(G221,Affiliation_Table,3,FALSE))+IF(H221="",0,VLOOKUP(H221,Affiliation_Table,3,FALSE))+IF(I221="",0,VLOOKUP(I221,Affiliation_Table,3,FALSE))+IF(J221="",0,VLOOKUP(J221,Affiliation_Table,3,FALSE))+IF(K221="",0,VLOOKUP(K221,Affiliation_Table,3,FALSE))+IF(L221="",0,VLOOKUP(L221,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>8193</v>
       </c>
       <c r="F221">
@@ -9530,11 +9349,11 @@
         <v>15</v>
       </c>
       <c r="D222">
-        <f>COUNTIF(G222:L222,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E222">
-        <f>IF(G222="",0,VLOOKUP(G222,Affiliation_Table,3,FALSE))+IF(H222="",0,VLOOKUP(H222,Affiliation_Table,3,FALSE))+IF(I222="",0,VLOOKUP(I222,Affiliation_Table,3,FALSE))+IF(J222="",0,VLOOKUP(J222,Affiliation_Table,3,FALSE))+IF(K222="",0,VLOOKUP(K222,Affiliation_Table,3,FALSE))+IF(L222="",0,VLOOKUP(L222,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>65541</v>
       </c>
       <c r="F222">
@@ -9564,11 +9383,11 @@
         <v>14</v>
       </c>
       <c r="D223">
-        <f>COUNTIF(G223:L223,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E223">
-        <f>IF(G223="",0,VLOOKUP(G223,Affiliation_Table,3,FALSE))+IF(H223="",0,VLOOKUP(H223,Affiliation_Table,3,FALSE))+IF(I223="",0,VLOOKUP(I223,Affiliation_Table,3,FALSE))+IF(J223="",0,VLOOKUP(J223,Affiliation_Table,3,FALSE))+IF(K223="",0,VLOOKUP(K223,Affiliation_Table,3,FALSE))+IF(L223="",0,VLOOKUP(L223,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>8193</v>
       </c>
       <c r="F223">
@@ -9596,11 +9415,11 @@
         <v>16</v>
       </c>
       <c r="D224">
-        <f>COUNTIF(G224:L224,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E224">
-        <f>IF(G224="",0,VLOOKUP(G224,Affiliation_Table,3,FALSE))+IF(H224="",0,VLOOKUP(H224,Affiliation_Table,3,FALSE))+IF(I224="",0,VLOOKUP(I224,Affiliation_Table,3,FALSE))+IF(J224="",0,VLOOKUP(J224,Affiliation_Table,3,FALSE))+IF(K224="",0,VLOOKUP(K224,Affiliation_Table,3,FALSE))+IF(L224="",0,VLOOKUP(L224,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>16385</v>
       </c>
       <c r="F224">
@@ -9628,11 +9447,11 @@
         <v>14</v>
       </c>
       <c r="D225">
-        <f>COUNTIF(G225:L225,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E225">
-        <f>IF(G225="",0,VLOOKUP(G225,Affiliation_Table,3,FALSE))+IF(H225="",0,VLOOKUP(H225,Affiliation_Table,3,FALSE))+IF(I225="",0,VLOOKUP(I225,Affiliation_Table,3,FALSE))+IF(J225="",0,VLOOKUP(J225,Affiliation_Table,3,FALSE))+IF(K225="",0,VLOOKUP(K225,Affiliation_Table,3,FALSE))+IF(L225="",0,VLOOKUP(L225,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>16385</v>
       </c>
       <c r="F225">
@@ -9660,11 +9479,11 @@
         <v>10</v>
       </c>
       <c r="D226">
-        <f>COUNTIF(G226:L226,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E226">
-        <f>IF(G226="",0,VLOOKUP(G226,Affiliation_Table,3,FALSE))+IF(H226="",0,VLOOKUP(H226,Affiliation_Table,3,FALSE))+IF(I226="",0,VLOOKUP(I226,Affiliation_Table,3,FALSE))+IF(J226="",0,VLOOKUP(J226,Affiliation_Table,3,FALSE))+IF(K226="",0,VLOOKUP(K226,Affiliation_Table,3,FALSE))+IF(L226="",0,VLOOKUP(L226,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>16385</v>
       </c>
       <c r="F226">
@@ -9692,11 +9511,11 @@
         <v>12</v>
       </c>
       <c r="D227">
-        <f>COUNTIF(G227:L227,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E227">
-        <f>IF(G227="",0,VLOOKUP(G227,Affiliation_Table,3,FALSE))+IF(H227="",0,VLOOKUP(H227,Affiliation_Table,3,FALSE))+IF(I227="",0,VLOOKUP(I227,Affiliation_Table,3,FALSE))+IF(J227="",0,VLOOKUP(J227,Affiliation_Table,3,FALSE))+IF(K227="",0,VLOOKUP(K227,Affiliation_Table,3,FALSE))+IF(L227="",0,VLOOKUP(L227,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>8193</v>
       </c>
       <c r="F227">
@@ -9724,11 +9543,11 @@
         <v>16</v>
       </c>
       <c r="D228">
-        <f>COUNTIF(G228:L228,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E228">
-        <f>IF(G228="",0,VLOOKUP(G228,Affiliation_Table,3,FALSE))+IF(H228="",0,VLOOKUP(H228,Affiliation_Table,3,FALSE))+IF(I228="",0,VLOOKUP(I228,Affiliation_Table,3,FALSE))+IF(J228="",0,VLOOKUP(J228,Affiliation_Table,3,FALSE))+IF(K228="",0,VLOOKUP(K228,Affiliation_Table,3,FALSE))+IF(L228="",0,VLOOKUP(L228,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>8193</v>
       </c>
       <c r="F228">
@@ -9756,11 +9575,11 @@
         <v>17</v>
       </c>
       <c r="D229">
-        <f>COUNTIF(G229:L229,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E229">
-        <f>IF(G229="",0,VLOOKUP(G229,Affiliation_Table,3,FALSE))+IF(H229="",0,VLOOKUP(H229,Affiliation_Table,3,FALSE))+IF(I229="",0,VLOOKUP(I229,Affiliation_Table,3,FALSE))+IF(J229="",0,VLOOKUP(J229,Affiliation_Table,3,FALSE))+IF(K229="",0,VLOOKUP(K229,Affiliation_Table,3,FALSE))+IF(L229="",0,VLOOKUP(L229,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>2097153</v>
       </c>
       <c r="F229">
@@ -9788,11 +9607,11 @@
         <v>20</v>
       </c>
       <c r="D230">
-        <f>COUNTIF(G230:L230,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E230">
-        <f>IF(G230="",0,VLOOKUP(G230,Affiliation_Table,3,FALSE))+IF(H230="",0,VLOOKUP(H230,Affiliation_Table,3,FALSE))+IF(I230="",0,VLOOKUP(I230,Affiliation_Table,3,FALSE))+IF(J230="",0,VLOOKUP(J230,Affiliation_Table,3,FALSE))+IF(K230="",0,VLOOKUP(K230,Affiliation_Table,3,FALSE))+IF(L230="",0,VLOOKUP(L230,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>33793</v>
       </c>
       <c r="F230">
@@ -9822,11 +9641,11 @@
         <v>19</v>
       </c>
       <c r="D231">
-        <f>COUNTIF(G231:L231,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E231">
-        <f>IF(G231="",0,VLOOKUP(G231,Affiliation_Table,3,FALSE))+IF(H231="",0,VLOOKUP(H231,Affiliation_Table,3,FALSE))+IF(I231="",0,VLOOKUP(I231,Affiliation_Table,3,FALSE))+IF(J231="",0,VLOOKUP(J231,Affiliation_Table,3,FALSE))+IF(K231="",0,VLOOKUP(K231,Affiliation_Table,3,FALSE))+IF(L231="",0,VLOOKUP(L231,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>132</v>
       </c>
       <c r="F231">
@@ -9854,11 +9673,11 @@
         <v>11</v>
       </c>
       <c r="D232">
-        <f>COUNTIF(G232:L232,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E232">
-        <f>IF(G232="",0,VLOOKUP(G232,Affiliation_Table,3,FALSE))+IF(H232="",0,VLOOKUP(H232,Affiliation_Table,3,FALSE))+IF(I232="",0,VLOOKUP(I232,Affiliation_Table,3,FALSE))+IF(J232="",0,VLOOKUP(J232,Affiliation_Table,3,FALSE))+IF(K232="",0,VLOOKUP(K232,Affiliation_Table,3,FALSE))+IF(L232="",0,VLOOKUP(L232,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>132</v>
       </c>
       <c r="F232">
@@ -9886,11 +9705,11 @@
         <v>15</v>
       </c>
       <c r="D233">
-        <f>COUNTIF(G233:L233,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E233">
-        <f>IF(G233="",0,VLOOKUP(G233,Affiliation_Table,3,FALSE))+IF(H233="",0,VLOOKUP(H233,Affiliation_Table,3,FALSE))+IF(I233="",0,VLOOKUP(I233,Affiliation_Table,3,FALSE))+IF(J233="",0,VLOOKUP(J233,Affiliation_Table,3,FALSE))+IF(K233="",0,VLOOKUP(K233,Affiliation_Table,3,FALSE))+IF(L233="",0,VLOOKUP(L233,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>786433</v>
       </c>
       <c r="F233">
@@ -9920,11 +9739,11 @@
         <v>14</v>
       </c>
       <c r="D234">
-        <f>COUNTIF(G234:L234,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E234">
-        <f>IF(G234="",0,VLOOKUP(G234,Affiliation_Table,3,FALSE))+IF(H234="",0,VLOOKUP(H234,Affiliation_Table,3,FALSE))+IF(I234="",0,VLOOKUP(I234,Affiliation_Table,3,FALSE))+IF(J234="",0,VLOOKUP(J234,Affiliation_Table,3,FALSE))+IF(K234="",0,VLOOKUP(K234,Affiliation_Table,3,FALSE))+IF(L234="",0,VLOOKUP(L234,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>8193</v>
       </c>
       <c r="F234">
@@ -9952,11 +9771,11 @@
         <v>15</v>
       </c>
       <c r="D235">
-        <f>COUNTIF(G235:L235,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E235">
-        <f>IF(G235="",0,VLOOKUP(G235,Affiliation_Table,3,FALSE))+IF(H235="",0,VLOOKUP(H235,Affiliation_Table,3,FALSE))+IF(I235="",0,VLOOKUP(I235,Affiliation_Table,3,FALSE))+IF(J235="",0,VLOOKUP(J235,Affiliation_Table,3,FALSE))+IF(K235="",0,VLOOKUP(K235,Affiliation_Table,3,FALSE))+IF(L235="",0,VLOOKUP(L235,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>1114241</v>
       </c>
       <c r="F235">
@@ -9988,11 +9807,11 @@
         <v>15</v>
       </c>
       <c r="D236">
-        <f>COUNTIF(G236:L236,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E236">
-        <f>IF(G236="",0,VLOOKUP(G236,Affiliation_Table,3,FALSE))+IF(H236="",0,VLOOKUP(H236,Affiliation_Table,3,FALSE))+IF(I236="",0,VLOOKUP(I236,Affiliation_Table,3,FALSE))+IF(J236="",0,VLOOKUP(J236,Affiliation_Table,3,FALSE))+IF(K236="",0,VLOOKUP(K236,Affiliation_Table,3,FALSE))+IF(L236="",0,VLOOKUP(L236,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>32785</v>
       </c>
       <c r="F236">
@@ -10022,11 +9841,11 @@
         <v>15</v>
       </c>
       <c r="D237">
-        <f>COUNTIF(G237:L237,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E237">
-        <f>IF(G237="",0,VLOOKUP(G237,Affiliation_Table,3,FALSE))+IF(H237="",0,VLOOKUP(H237,Affiliation_Table,3,FALSE))+IF(I237="",0,VLOOKUP(I237,Affiliation_Table,3,FALSE))+IF(J237="",0,VLOOKUP(J237,Affiliation_Table,3,FALSE))+IF(K237="",0,VLOOKUP(K237,Affiliation_Table,3,FALSE))+IF(L237="",0,VLOOKUP(L237,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>32785</v>
       </c>
       <c r="F237">
@@ -10056,11 +9875,11 @@
         <v>14</v>
       </c>
       <c r="D238">
-        <f>COUNTIF(G238:L238,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E238">
-        <f>IF(G238="",0,VLOOKUP(G238,Affiliation_Table,3,FALSE))+IF(H238="",0,VLOOKUP(H238,Affiliation_Table,3,FALSE))+IF(I238="",0,VLOOKUP(I238,Affiliation_Table,3,FALSE))+IF(J238="",0,VLOOKUP(J238,Affiliation_Table,3,FALSE))+IF(K238="",0,VLOOKUP(K238,Affiliation_Table,3,FALSE))+IF(L238="",0,VLOOKUP(L238,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>4194305</v>
       </c>
       <c r="F238">
@@ -10084,11 +9903,11 @@
         <v>15</v>
       </c>
       <c r="D239">
-        <f>COUNTIF(G239:L239,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E239">
-        <f>IF(G239="",0,VLOOKUP(G239,Affiliation_Table,3,FALSE))+IF(H239="",0,VLOOKUP(H239,Affiliation_Table,3,FALSE))+IF(I239="",0,VLOOKUP(I239,Affiliation_Table,3,FALSE))+IF(J239="",0,VLOOKUP(J239,Affiliation_Table,3,FALSE))+IF(K239="",0,VLOOKUP(K239,Affiliation_Table,3,FALSE))+IF(L239="",0,VLOOKUP(L239,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>8193</v>
       </c>
       <c r="F239">
@@ -10116,11 +9935,11 @@
         <v>16</v>
       </c>
       <c r="D240">
-        <f>COUNTIF(G240:L240,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E240">
-        <f>IF(G240="",0,VLOOKUP(G240,Affiliation_Table,3,FALSE))+IF(H240="",0,VLOOKUP(H240,Affiliation_Table,3,FALSE))+IF(I240="",0,VLOOKUP(I240,Affiliation_Table,3,FALSE))+IF(J240="",0,VLOOKUP(J240,Affiliation_Table,3,FALSE))+IF(K240="",0,VLOOKUP(K240,Affiliation_Table,3,FALSE))+IF(L240="",0,VLOOKUP(L240,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>8193</v>
       </c>
       <c r="F240">
@@ -10148,11 +9967,11 @@
         <v>14</v>
       </c>
       <c r="D241">
-        <f>COUNTIF(G241:L241,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E241">
-        <f>IF(G241="",0,VLOOKUP(G241,Affiliation_Table,3,FALSE))+IF(H241="",0,VLOOKUP(H241,Affiliation_Table,3,FALSE))+IF(I241="",0,VLOOKUP(I241,Affiliation_Table,3,FALSE))+IF(J241="",0,VLOOKUP(J241,Affiliation_Table,3,FALSE))+IF(K241="",0,VLOOKUP(K241,Affiliation_Table,3,FALSE))+IF(L241="",0,VLOOKUP(L241,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>8194</v>
       </c>
       <c r="F241">
@@ -10180,11 +9999,11 @@
         <v>14</v>
       </c>
       <c r="D242">
-        <f>COUNTIF(G242:L242,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E242">
-        <f>IF(G242="",0,VLOOKUP(G242,Affiliation_Table,3,FALSE))+IF(H242="",0,VLOOKUP(H242,Affiliation_Table,3,FALSE))+IF(I242="",0,VLOOKUP(I242,Affiliation_Table,3,FALSE))+IF(J242="",0,VLOOKUP(J242,Affiliation_Table,3,FALSE))+IF(K242="",0,VLOOKUP(K242,Affiliation_Table,3,FALSE))+IF(L242="",0,VLOOKUP(L242,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>8194</v>
       </c>
       <c r="F242">
@@ -10212,11 +10031,11 @@
         <v>18</v>
       </c>
       <c r="D243">
-        <f>COUNTIF(G243:L243,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E243">
-        <f>IF(G243="",0,VLOOKUP(G243,Affiliation_Table,3,FALSE))+IF(H243="",0,VLOOKUP(H243,Affiliation_Table,3,FALSE))+IF(I243="",0,VLOOKUP(I243,Affiliation_Table,3,FALSE))+IF(J243="",0,VLOOKUP(J243,Affiliation_Table,3,FALSE))+IF(K243="",0,VLOOKUP(K243,Affiliation_Table,3,FALSE))+IF(L243="",0,VLOOKUP(L243,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>270353</v>
       </c>
       <c r="F243">
@@ -10248,11 +10067,11 @@
         <v>15</v>
       </c>
       <c r="D244">
-        <f>COUNTIF(G244:L244,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E244">
-        <f>IF(G244="",0,VLOOKUP(G244,Affiliation_Table,3,FALSE))+IF(H244="",0,VLOOKUP(H244,Affiliation_Table,3,FALSE))+IF(I244="",0,VLOOKUP(I244,Affiliation_Table,3,FALSE))+IF(J244="",0,VLOOKUP(J244,Affiliation_Table,3,FALSE))+IF(K244="",0,VLOOKUP(K244,Affiliation_Table,3,FALSE))+IF(L244="",0,VLOOKUP(L244,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>270353</v>
       </c>
       <c r="F244">
@@ -10284,11 +10103,11 @@
         <v>13</v>
       </c>
       <c r="D245">
-        <f>COUNTIF(G245:L245,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E245">
-        <f>IF(G245="",0,VLOOKUP(G245,Affiliation_Table,3,FALSE))+IF(H245="",0,VLOOKUP(H245,Affiliation_Table,3,FALSE))+IF(I245="",0,VLOOKUP(I245,Affiliation_Table,3,FALSE))+IF(J245="",0,VLOOKUP(J245,Affiliation_Table,3,FALSE))+IF(K245="",0,VLOOKUP(K245,Affiliation_Table,3,FALSE))+IF(L245="",0,VLOOKUP(L245,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>32786</v>
       </c>
       <c r="F245">
@@ -10318,11 +10137,11 @@
         <v>15</v>
       </c>
       <c r="D246">
-        <f>COUNTIF(G246:L246,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E246">
-        <f>IF(G246="",0,VLOOKUP(G246,Affiliation_Table,3,FALSE))+IF(H246="",0,VLOOKUP(H246,Affiliation_Table,3,FALSE))+IF(I246="",0,VLOOKUP(I246,Affiliation_Table,3,FALSE))+IF(J246="",0,VLOOKUP(J246,Affiliation_Table,3,FALSE))+IF(K246="",0,VLOOKUP(K246,Affiliation_Table,3,FALSE))+IF(L246="",0,VLOOKUP(L246,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>32785</v>
       </c>
       <c r="F246">
@@ -10352,11 +10171,11 @@
         <v>14</v>
       </c>
       <c r="D247">
-        <f>COUNTIF(G247:L247,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E247">
-        <f>IF(G247="",0,VLOOKUP(G247,Affiliation_Table,3,FALSE))+IF(H247="",0,VLOOKUP(H247,Affiliation_Table,3,FALSE))+IF(I247="",0,VLOOKUP(I247,Affiliation_Table,3,FALSE))+IF(J247="",0,VLOOKUP(J247,Affiliation_Table,3,FALSE))+IF(K247="",0,VLOOKUP(K247,Affiliation_Table,3,FALSE))+IF(L247="",0,VLOOKUP(L247,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>65540</v>
       </c>
       <c r="F247">
@@ -10384,11 +10203,11 @@
         <v>17</v>
       </c>
       <c r="D248">
-        <f>COUNTIF(G248:L248,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E248">
-        <f>IF(G248="",0,VLOOKUP(G248,Affiliation_Table,3,FALSE))+IF(H248="",0,VLOOKUP(H248,Affiliation_Table,3,FALSE))+IF(I248="",0,VLOOKUP(I248,Affiliation_Table,3,FALSE))+IF(J248="",0,VLOOKUP(J248,Affiliation_Table,3,FALSE))+IF(K248="",0,VLOOKUP(K248,Affiliation_Table,3,FALSE))+IF(L248="",0,VLOOKUP(L248,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>32785</v>
       </c>
       <c r="F248">
@@ -10418,11 +10237,11 @@
         <v>19</v>
       </c>
       <c r="D249">
-        <f>COUNTIF(G249:L249,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E249">
-        <f>IF(G249="",0,VLOOKUP(G249,Affiliation_Table,3,FALSE))+IF(H249="",0,VLOOKUP(H249,Affiliation_Table,3,FALSE))+IF(I249="",0,VLOOKUP(I249,Affiliation_Table,3,FALSE))+IF(J249="",0,VLOOKUP(J249,Affiliation_Table,3,FALSE))+IF(K249="",0,VLOOKUP(K249,Affiliation_Table,3,FALSE))+IF(L249="",0,VLOOKUP(L249,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>4194305</v>
       </c>
       <c r="F249">
@@ -10450,11 +10269,11 @@
         <v>15</v>
       </c>
       <c r="D250">
-        <f>COUNTIF(G250:L250,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E250">
-        <f>IF(G250="",0,VLOOKUP(G250,Affiliation_Table,3,FALSE))+IF(H250="",0,VLOOKUP(H250,Affiliation_Table,3,FALSE))+IF(I250="",0,VLOOKUP(I250,Affiliation_Table,3,FALSE))+IF(J250="",0,VLOOKUP(J250,Affiliation_Table,3,FALSE))+IF(K250="",0,VLOOKUP(K250,Affiliation_Table,3,FALSE))+IF(L250="",0,VLOOKUP(L250,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>16385</v>
       </c>
       <c r="F250">
@@ -10482,11 +10301,11 @@
         <v>20</v>
       </c>
       <c r="D251">
-        <f>COUNTIF(G251:L251,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E251">
-        <f>IF(G251="",0,VLOOKUP(G251,Affiliation_Table,3,FALSE))+IF(H251="",0,VLOOKUP(H251,Affiliation_Table,3,FALSE))+IF(I251="",0,VLOOKUP(I251,Affiliation_Table,3,FALSE))+IF(J251="",0,VLOOKUP(J251,Affiliation_Table,3,FALSE))+IF(K251="",0,VLOOKUP(K251,Affiliation_Table,3,FALSE))+IF(L251="",0,VLOOKUP(L251,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>32778</v>
       </c>
       <c r="F251">
@@ -10516,11 +10335,11 @@
         <v>18</v>
       </c>
       <c r="D252">
-        <f>COUNTIF(G252:L252,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E252">
-        <f>IF(G252="",0,VLOOKUP(G252,Affiliation_Table,3,FALSE))+IF(H252="",0,VLOOKUP(H252,Affiliation_Table,3,FALSE))+IF(I252="",0,VLOOKUP(I252,Affiliation_Table,3,FALSE))+IF(J252="",0,VLOOKUP(J252,Affiliation_Table,3,FALSE))+IF(K252="",0,VLOOKUP(K252,Affiliation_Table,3,FALSE))+IF(L252="",0,VLOOKUP(L252,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>8193</v>
       </c>
       <c r="F252">
@@ -10544,11 +10363,11 @@
         <v>14</v>
       </c>
       <c r="D253">
-        <f>COUNTIF(G253:L253,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E253">
-        <f>IF(G253="",0,VLOOKUP(G253,Affiliation_Table,3,FALSE))+IF(H253="",0,VLOOKUP(H253,Affiliation_Table,3,FALSE))+IF(I253="",0,VLOOKUP(I253,Affiliation_Table,3,FALSE))+IF(J253="",0,VLOOKUP(J253,Affiliation_Table,3,FALSE))+IF(K253="",0,VLOOKUP(K253,Affiliation_Table,3,FALSE))+IF(L253="",0,VLOOKUP(L253,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>65537</v>
       </c>
       <c r="F253">
@@ -10576,11 +10395,11 @@
         <v>14</v>
       </c>
       <c r="D254">
-        <f>COUNTIF(G254:L254,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E254">
-        <f>IF(G254="",0,VLOOKUP(G254,Affiliation_Table,3,FALSE))+IF(H254="",0,VLOOKUP(H254,Affiliation_Table,3,FALSE))+IF(I254="",0,VLOOKUP(I254,Affiliation_Table,3,FALSE))+IF(J254="",0,VLOOKUP(J254,Affiliation_Table,3,FALSE))+IF(K254="",0,VLOOKUP(K254,Affiliation_Table,3,FALSE))+IF(L254="",0,VLOOKUP(L254,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>32785</v>
       </c>
       <c r="F254">
@@ -10610,11 +10429,11 @@
         <v>20</v>
       </c>
       <c r="D255">
-        <f>COUNTIF(G255:L255,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E255">
-        <f>IF(G255="",0,VLOOKUP(G255,Affiliation_Table,3,FALSE))+IF(H255="",0,VLOOKUP(H255,Affiliation_Table,3,FALSE))+IF(I255="",0,VLOOKUP(I255,Affiliation_Table,3,FALSE))+IF(J255="",0,VLOOKUP(J255,Affiliation_Table,3,FALSE))+IF(K255="",0,VLOOKUP(K255,Affiliation_Table,3,FALSE))+IF(L255="",0,VLOOKUP(L255,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>32777</v>
       </c>
       <c r="F255">
@@ -10644,11 +10463,11 @@
         <v>21</v>
       </c>
       <c r="D256">
-        <f>COUNTIF(G256:L256,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E256">
-        <f>IF(G256="",0,VLOOKUP(G256,Affiliation_Table,3,FALSE))+IF(H256="",0,VLOOKUP(H256,Affiliation_Table,3,FALSE))+IF(I256="",0,VLOOKUP(I256,Affiliation_Table,3,FALSE))+IF(J256="",0,VLOOKUP(J256,Affiliation_Table,3,FALSE))+IF(K256="",0,VLOOKUP(K256,Affiliation_Table,3,FALSE))+IF(L256="",0,VLOOKUP(L256,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>8193</v>
       </c>
       <c r="F256">
@@ -10676,11 +10495,11 @@
         <v>14</v>
       </c>
       <c r="D257">
-        <f>COUNTIF(G257:L257,"&lt;&gt;")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E257">
-        <f>IF(G257="",0,VLOOKUP(G257,Affiliation_Table,3,FALSE))+IF(H257="",0,VLOOKUP(H257,Affiliation_Table,3,FALSE))+IF(I257="",0,VLOOKUP(I257,Affiliation_Table,3,FALSE))+IF(J257="",0,VLOOKUP(J257,Affiliation_Table,3,FALSE))+IF(K257="",0,VLOOKUP(K257,Affiliation_Table,3,FALSE))+IF(L257="",0,VLOOKUP(L257,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>36866</v>
       </c>
       <c r="F257">
@@ -10710,11 +10529,11 @@
         <v>15</v>
       </c>
       <c r="D258">
-        <f>COUNTIF(G258:L258,"&lt;&gt;")</f>
+        <f t="shared" ref="D258:D321" si="8">COUNTIF(G258:L258,"&lt;&gt;")</f>
         <v>3</v>
       </c>
       <c r="E258">
-        <f>IF(G258="",0,VLOOKUP(G258,Affiliation_Table,3,FALSE))+IF(H258="",0,VLOOKUP(H258,Affiliation_Table,3,FALSE))+IF(I258="",0,VLOOKUP(I258,Affiliation_Table,3,FALSE))+IF(J258="",0,VLOOKUP(J258,Affiliation_Table,3,FALSE))+IF(K258="",0,VLOOKUP(K258,Affiliation_Table,3,FALSE))+IF(L258="",0,VLOOKUP(L258,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" ref="E258:E321" si="9">IF(G258="",0,VLOOKUP(G258,Affiliation_Table,3,FALSE))+IF(H258="",0,VLOOKUP(H258,Affiliation_Table,3,FALSE))+IF(I258="",0,VLOOKUP(I258,Affiliation_Table,3,FALSE))+IF(J258="",0,VLOOKUP(J258,Affiliation_Table,3,FALSE))+IF(K258="",0,VLOOKUP(K258,Affiliation_Table,3,FALSE))+IF(L258="",0,VLOOKUP(L258,Affiliation_Table,3,FALSE))</f>
         <v>32785</v>
       </c>
       <c r="F258">
@@ -10744,11 +10563,11 @@
         <v>16</v>
       </c>
       <c r="D259">
-        <f>COUNTIF(G259:L259,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E259">
-        <f>IF(G259="",0,VLOOKUP(G259,Affiliation_Table,3,FALSE))+IF(H259="",0,VLOOKUP(H259,Affiliation_Table,3,FALSE))+IF(I259="",0,VLOOKUP(I259,Affiliation_Table,3,FALSE))+IF(J259="",0,VLOOKUP(J259,Affiliation_Table,3,FALSE))+IF(K259="",0,VLOOKUP(K259,Affiliation_Table,3,FALSE))+IF(L259="",0,VLOOKUP(L259,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>2097153</v>
       </c>
       <c r="F259">
@@ -10776,11 +10595,11 @@
         <v>18</v>
       </c>
       <c r="D260">
-        <f>COUNTIF(G260:L260,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E260">
-        <f>IF(G260="",0,VLOOKUP(G260,Affiliation_Table,3,FALSE))+IF(H260="",0,VLOOKUP(H260,Affiliation_Table,3,FALSE))+IF(I260="",0,VLOOKUP(I260,Affiliation_Table,3,FALSE))+IF(J260="",0,VLOOKUP(J260,Affiliation_Table,3,FALSE))+IF(K260="",0,VLOOKUP(K260,Affiliation_Table,3,FALSE))+IF(L260="",0,VLOOKUP(L260,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>36866</v>
       </c>
       <c r="F260">
@@ -10810,11 +10629,11 @@
         <v>19</v>
       </c>
       <c r="D261">
-        <f>COUNTIF(G261:L261,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E261">
-        <f>IF(G261="",0,VLOOKUP(G261,Affiliation_Table,3,FALSE))+IF(H261="",0,VLOOKUP(H261,Affiliation_Table,3,FALSE))+IF(I261="",0,VLOOKUP(I261,Affiliation_Table,3,FALSE))+IF(J261="",0,VLOOKUP(J261,Affiliation_Table,3,FALSE))+IF(K261="",0,VLOOKUP(K261,Affiliation_Table,3,FALSE))+IF(L261="",0,VLOOKUP(L261,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>36866</v>
       </c>
       <c r="F261">
@@ -10844,11 +10663,11 @@
         <v>10</v>
       </c>
       <c r="D262">
-        <f>COUNTIF(G262:L262,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E262">
-        <f>IF(G262="",0,VLOOKUP(G262,Affiliation_Table,3,FALSE))+IF(H262="",0,VLOOKUP(H262,Affiliation_Table,3,FALSE))+IF(I262="",0,VLOOKUP(I262,Affiliation_Table,3,FALSE))+IF(J262="",0,VLOOKUP(J262,Affiliation_Table,3,FALSE))+IF(K262="",0,VLOOKUP(K262,Affiliation_Table,3,FALSE))+IF(L262="",0,VLOOKUP(L262,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>36868</v>
       </c>
       <c r="F262">
@@ -10878,11 +10697,11 @@
         <v>30</v>
       </c>
       <c r="D263">
-        <f>COUNTIF(G263:L263,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E263">
-        <f>IF(G263="",0,VLOOKUP(G263,Affiliation_Table,3,FALSE))+IF(H263="",0,VLOOKUP(H263,Affiliation_Table,3,FALSE))+IF(I263="",0,VLOOKUP(I263,Affiliation_Table,3,FALSE))+IF(J263="",0,VLOOKUP(J263,Affiliation_Table,3,FALSE))+IF(K263="",0,VLOOKUP(K263,Affiliation_Table,3,FALSE))+IF(L263="",0,VLOOKUP(L263,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>36868</v>
       </c>
       <c r="F263">
@@ -10912,11 +10731,11 @@
         <v>18</v>
       </c>
       <c r="D264">
-        <f>COUNTIF(G264:L264,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E264">
-        <f>IF(G264="",0,VLOOKUP(G264,Affiliation_Table,3,FALSE))+IF(H264="",0,VLOOKUP(H264,Affiliation_Table,3,FALSE))+IF(I264="",0,VLOOKUP(I264,Affiliation_Table,3,FALSE))+IF(J264="",0,VLOOKUP(J264,Affiliation_Table,3,FALSE))+IF(K264="",0,VLOOKUP(K264,Affiliation_Table,3,FALSE))+IF(L264="",0,VLOOKUP(L264,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>786688</v>
       </c>
       <c r="F264">
@@ -10946,11 +10765,11 @@
         <v>16</v>
       </c>
       <c r="D265">
-        <f>COUNTIF(G265:L265,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E265">
-        <f>IF(G265="",0,VLOOKUP(G265,Affiliation_Table,3,FALSE))+IF(H265="",0,VLOOKUP(H265,Affiliation_Table,3,FALSE))+IF(I265="",0,VLOOKUP(I265,Affiliation_Table,3,FALSE))+IF(J265="",0,VLOOKUP(J265,Affiliation_Table,3,FALSE))+IF(K265="",0,VLOOKUP(K265,Affiliation_Table,3,FALSE))+IF(L265="",0,VLOOKUP(L265,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>2097154</v>
       </c>
       <c r="F265">
@@ -10978,11 +10797,11 @@
         <v>15</v>
       </c>
       <c r="D266">
-        <f>COUNTIF(G266:L266,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E266">
-        <f>IF(G266="",0,VLOOKUP(G266,Affiliation_Table,3,FALSE))+IF(H266="",0,VLOOKUP(H266,Affiliation_Table,3,FALSE))+IF(I266="",0,VLOOKUP(I266,Affiliation_Table,3,FALSE))+IF(J266="",0,VLOOKUP(J266,Affiliation_Table,3,FALSE))+IF(K266="",0,VLOOKUP(K266,Affiliation_Table,3,FALSE))+IF(L266="",0,VLOOKUP(L266,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>32785</v>
       </c>
       <c r="F266">
@@ -11012,11 +10831,11 @@
         <v>18</v>
       </c>
       <c r="D267">
-        <f>COUNTIF(G267:L267,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E267">
-        <f>IF(G267="",0,VLOOKUP(G267,Affiliation_Table,3,FALSE))+IF(H267="",0,VLOOKUP(H267,Affiliation_Table,3,FALSE))+IF(I267="",0,VLOOKUP(I267,Affiliation_Table,3,FALSE))+IF(J267="",0,VLOOKUP(J267,Affiliation_Table,3,FALSE))+IF(K267="",0,VLOOKUP(K267,Affiliation_Table,3,FALSE))+IF(L267="",0,VLOOKUP(L267,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>65537</v>
       </c>
       <c r="F267">
@@ -11044,11 +10863,11 @@
         <v>19</v>
       </c>
       <c r="D268">
-        <f>COUNTIF(G268:L268,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E268">
-        <f>IF(G268="",0,VLOOKUP(G268,Affiliation_Table,3,FALSE))+IF(H268="",0,VLOOKUP(H268,Affiliation_Table,3,FALSE))+IF(I268="",0,VLOOKUP(I268,Affiliation_Table,3,FALSE))+IF(J268="",0,VLOOKUP(J268,Affiliation_Table,3,FALSE))+IF(K268="",0,VLOOKUP(K268,Affiliation_Table,3,FALSE))+IF(L268="",0,VLOOKUP(L268,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>16641</v>
       </c>
       <c r="F268">
@@ -11078,11 +10897,11 @@
         <v>16</v>
       </c>
       <c r="D269">
-        <f>COUNTIF(G269:L269,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E269">
-        <f>IF(G269="",0,VLOOKUP(G269,Affiliation_Table,3,FALSE))+IF(H269="",0,VLOOKUP(H269,Affiliation_Table,3,FALSE))+IF(I269="",0,VLOOKUP(I269,Affiliation_Table,3,FALSE))+IF(J269="",0,VLOOKUP(J269,Affiliation_Table,3,FALSE))+IF(K269="",0,VLOOKUP(K269,Affiliation_Table,3,FALSE))+IF(L269="",0,VLOOKUP(L269,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>16385</v>
       </c>
       <c r="F269">
@@ -11110,11 +10929,11 @@
         <v>9</v>
       </c>
       <c r="D270">
-        <f>COUNTIF(G270:L270,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E270">
-        <f>IF(G270="",0,VLOOKUP(G270,Affiliation_Table,3,FALSE))+IF(H270="",0,VLOOKUP(H270,Affiliation_Table,3,FALSE))+IF(I270="",0,VLOOKUP(I270,Affiliation_Table,3,FALSE))+IF(J270="",0,VLOOKUP(J270,Affiliation_Table,3,FALSE))+IF(K270="",0,VLOOKUP(K270,Affiliation_Table,3,FALSE))+IF(L270="",0,VLOOKUP(L270,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="F270">
@@ -11142,11 +10961,11 @@
         <v>14</v>
       </c>
       <c r="D271">
-        <f>COUNTIF(G271:L271,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E271">
-        <f>IF(G271="",0,VLOOKUP(G271,Affiliation_Table,3,FALSE))+IF(H271="",0,VLOOKUP(H271,Affiliation_Table,3,FALSE))+IF(I271="",0,VLOOKUP(I271,Affiliation_Table,3,FALSE))+IF(J271="",0,VLOOKUP(J271,Affiliation_Table,3,FALSE))+IF(K271="",0,VLOOKUP(K271,Affiliation_Table,3,FALSE))+IF(L271="",0,VLOOKUP(L271,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>32769</v>
       </c>
       <c r="F271">
@@ -11174,11 +10993,11 @@
         <v>14</v>
       </c>
       <c r="D272">
-        <f>COUNTIF(G272:L272,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E272">
-        <f>IF(G272="",0,VLOOKUP(G272,Affiliation_Table,3,FALSE))+IF(H272="",0,VLOOKUP(H272,Affiliation_Table,3,FALSE))+IF(I272="",0,VLOOKUP(I272,Affiliation_Table,3,FALSE))+IF(J272="",0,VLOOKUP(J272,Affiliation_Table,3,FALSE))+IF(K272="",0,VLOOKUP(K272,Affiliation_Table,3,FALSE))+IF(L272="",0,VLOOKUP(L272,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>32786</v>
       </c>
       <c r="F272">
@@ -11208,11 +11027,11 @@
         <v>13</v>
       </c>
       <c r="D273">
-        <f>COUNTIF(G273:L273,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E273">
-        <f>IF(G273="",0,VLOOKUP(G273,Affiliation_Table,3,FALSE))+IF(H273="",0,VLOOKUP(H273,Affiliation_Table,3,FALSE))+IF(I273="",0,VLOOKUP(I273,Affiliation_Table,3,FALSE))+IF(J273="",0,VLOOKUP(J273,Affiliation_Table,3,FALSE))+IF(K273="",0,VLOOKUP(K273,Affiliation_Table,3,FALSE))+IF(L273="",0,VLOOKUP(L273,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>16385</v>
       </c>
       <c r="F273">
@@ -11240,11 +11059,11 @@
         <v>16</v>
       </c>
       <c r="D274">
-        <f>COUNTIF(G274:L274,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E274">
-        <f>IF(G274="",0,VLOOKUP(G274,Affiliation_Table,3,FALSE))+IF(H274="",0,VLOOKUP(H274,Affiliation_Table,3,FALSE))+IF(I274="",0,VLOOKUP(I274,Affiliation_Table,3,FALSE))+IF(J274="",0,VLOOKUP(J274,Affiliation_Table,3,FALSE))+IF(K274="",0,VLOOKUP(K274,Affiliation_Table,3,FALSE))+IF(L274="",0,VLOOKUP(L274,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>65538</v>
       </c>
       <c r="F274">
@@ -11272,11 +11091,11 @@
         <v>20</v>
       </c>
       <c r="D275">
-        <f>COUNTIF(G275:L275,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E275">
-        <f>IF(G275="",0,VLOOKUP(G275,Affiliation_Table,3,FALSE))+IF(H275="",0,VLOOKUP(H275,Affiliation_Table,3,FALSE))+IF(I275="",0,VLOOKUP(I275,Affiliation_Table,3,FALSE))+IF(J275="",0,VLOOKUP(J275,Affiliation_Table,3,FALSE))+IF(K275="",0,VLOOKUP(K275,Affiliation_Table,3,FALSE))+IF(L275="",0,VLOOKUP(L275,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>16385</v>
       </c>
       <c r="F275">
@@ -11304,11 +11123,11 @@
         <v>18</v>
       </c>
       <c r="D276">
-        <f>COUNTIF(G276:L276,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E276">
-        <f>IF(G276="",0,VLOOKUP(G276,Affiliation_Table,3,FALSE))+IF(H276="",0,VLOOKUP(H276,Affiliation_Table,3,FALSE))+IF(I276="",0,VLOOKUP(I276,Affiliation_Table,3,FALSE))+IF(J276="",0,VLOOKUP(J276,Affiliation_Table,3,FALSE))+IF(K276="",0,VLOOKUP(K276,Affiliation_Table,3,FALSE))+IF(L276="",0,VLOOKUP(L276,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>16385</v>
       </c>
       <c r="F276">
@@ -11336,11 +11155,11 @@
         <v>18</v>
       </c>
       <c r="D277">
-        <f>COUNTIF(G277:L277,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E277">
-        <f>IF(G277="",0,VLOOKUP(G277,Affiliation_Table,3,FALSE))+IF(H277="",0,VLOOKUP(H277,Affiliation_Table,3,FALSE))+IF(I277="",0,VLOOKUP(I277,Affiliation_Table,3,FALSE))+IF(J277="",0,VLOOKUP(J277,Affiliation_Table,3,FALSE))+IF(K277="",0,VLOOKUP(K277,Affiliation_Table,3,FALSE))+IF(L277="",0,VLOOKUP(L277,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>36905</v>
       </c>
       <c r="F277">
@@ -11374,11 +11193,11 @@
         <v>15</v>
       </c>
       <c r="D278">
-        <f>COUNTIF(G278:L278,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E278">
-        <f>IF(G278="",0,VLOOKUP(G278,Affiliation_Table,3,FALSE))+IF(H278="",0,VLOOKUP(H278,Affiliation_Table,3,FALSE))+IF(I278="",0,VLOOKUP(I278,Affiliation_Table,3,FALSE))+IF(J278="",0,VLOOKUP(J278,Affiliation_Table,3,FALSE))+IF(K278="",0,VLOOKUP(K278,Affiliation_Table,3,FALSE))+IF(L278="",0,VLOOKUP(L278,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>65540</v>
       </c>
       <c r="F278">
@@ -11406,11 +11225,11 @@
         <v>16</v>
       </c>
       <c r="D279">
-        <f>COUNTIF(G279:L279,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E279">
-        <f>IF(G279="",0,VLOOKUP(G279,Affiliation_Table,3,FALSE))+IF(H279="",0,VLOOKUP(H279,Affiliation_Table,3,FALSE))+IF(I279="",0,VLOOKUP(I279,Affiliation_Table,3,FALSE))+IF(J279="",0,VLOOKUP(J279,Affiliation_Table,3,FALSE))+IF(K279="",0,VLOOKUP(K279,Affiliation_Table,3,FALSE))+IF(L279="",0,VLOOKUP(L279,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>163841</v>
       </c>
       <c r="F279">
@@ -11440,11 +11259,11 @@
         <v>15</v>
       </c>
       <c r="D280">
-        <f>COUNTIF(G280:L280,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E280">
-        <f>IF(G280="",0,VLOOKUP(G280,Affiliation_Table,3,FALSE))+IF(H280="",0,VLOOKUP(H280,Affiliation_Table,3,FALSE))+IF(I280="",0,VLOOKUP(I280,Affiliation_Table,3,FALSE))+IF(J280="",0,VLOOKUP(J280,Affiliation_Table,3,FALSE))+IF(K280="",0,VLOOKUP(K280,Affiliation_Table,3,FALSE))+IF(L280="",0,VLOOKUP(L280,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>8388609</v>
       </c>
       <c r="F280">
@@ -11468,11 +11287,11 @@
         <v>2</v>
       </c>
       <c r="D281">
-        <f>COUNTIF(G281:L281,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E281">
-        <f>IF(G281="",0,VLOOKUP(G281,Affiliation_Table,3,FALSE))+IF(H281="",0,VLOOKUP(H281,Affiliation_Table,3,FALSE))+IF(I281="",0,VLOOKUP(I281,Affiliation_Table,3,FALSE))+IF(J281="",0,VLOOKUP(J281,Affiliation_Table,3,FALSE))+IF(K281="",0,VLOOKUP(K281,Affiliation_Table,3,FALSE))+IF(L281="",0,VLOOKUP(L281,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="F281">
@@ -11500,11 +11319,11 @@
         <v>13</v>
       </c>
       <c r="D282">
-        <f>COUNTIF(G282:L282,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E282">
-        <f>IF(G282="",0,VLOOKUP(G282,Affiliation_Table,3,FALSE))+IF(H282="",0,VLOOKUP(H282,Affiliation_Table,3,FALSE))+IF(I282="",0,VLOOKUP(I282,Affiliation_Table,3,FALSE))+IF(J282="",0,VLOOKUP(J282,Affiliation_Table,3,FALSE))+IF(K282="",0,VLOOKUP(K282,Affiliation_Table,3,FALSE))+IF(L282="",0,VLOOKUP(L282,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>16385</v>
       </c>
       <c r="F282">
@@ -11532,11 +11351,11 @@
         <v>18</v>
       </c>
       <c r="D283">
-        <f>COUNTIF(G283:L283,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E283">
-        <f>IF(G283="",0,VLOOKUP(G283,Affiliation_Table,3,FALSE))+IF(H283="",0,VLOOKUP(H283,Affiliation_Table,3,FALSE))+IF(I283="",0,VLOOKUP(I283,Affiliation_Table,3,FALSE))+IF(J283="",0,VLOOKUP(J283,Affiliation_Table,3,FALSE))+IF(K283="",0,VLOOKUP(K283,Affiliation_Table,3,FALSE))+IF(L283="",0,VLOOKUP(L283,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>32769</v>
       </c>
       <c r="F283">
@@ -11564,11 +11383,11 @@
         <v>18</v>
       </c>
       <c r="D284">
-        <f>COUNTIF(G284:L284,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E284">
-        <f>IF(G284="",0,VLOOKUP(G284,Affiliation_Table,3,FALSE))+IF(H284="",0,VLOOKUP(H284,Affiliation_Table,3,FALSE))+IF(I284="",0,VLOOKUP(I284,Affiliation_Table,3,FALSE))+IF(J284="",0,VLOOKUP(J284,Affiliation_Table,3,FALSE))+IF(K284="",0,VLOOKUP(K284,Affiliation_Table,3,FALSE))+IF(L284="",0,VLOOKUP(L284,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>65537</v>
       </c>
       <c r="F284">
@@ -11596,11 +11415,11 @@
         <v>19</v>
       </c>
       <c r="D285">
-        <f>COUNTIF(G285:L285,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E285">
-        <f>IF(G285="",0,VLOOKUP(G285,Affiliation_Table,3,FALSE))+IF(H285="",0,VLOOKUP(H285,Affiliation_Table,3,FALSE))+IF(I285="",0,VLOOKUP(I285,Affiliation_Table,3,FALSE))+IF(J285="",0,VLOOKUP(J285,Affiliation_Table,3,FALSE))+IF(K285="",0,VLOOKUP(K285,Affiliation_Table,3,FALSE))+IF(L285="",0,VLOOKUP(L285,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>65540</v>
       </c>
       <c r="F285">
@@ -11628,11 +11447,11 @@
         <v>15</v>
       </c>
       <c r="D286">
-        <f>COUNTIF(G286:L286,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E286">
-        <f>IF(G286="",0,VLOOKUP(G286,Affiliation_Table,3,FALSE))+IF(H286="",0,VLOOKUP(H286,Affiliation_Table,3,FALSE))+IF(I286="",0,VLOOKUP(I286,Affiliation_Table,3,FALSE))+IF(J286="",0,VLOOKUP(J286,Affiliation_Table,3,FALSE))+IF(K286="",0,VLOOKUP(K286,Affiliation_Table,3,FALSE))+IF(L286="",0,VLOOKUP(L286,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>32785</v>
       </c>
       <c r="F286">
@@ -11659,11 +11478,11 @@
         <v>13</v>
       </c>
       <c r="D287">
-        <f>COUNTIF(G287:L287,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E287">
-        <f>IF(G287="",0,VLOOKUP(G287,Affiliation_Table,3,FALSE))+IF(H287="",0,VLOOKUP(H287,Affiliation_Table,3,FALSE))+IF(I287="",0,VLOOKUP(I287,Affiliation_Table,3,FALSE))+IF(J287="",0,VLOOKUP(J287,Affiliation_Table,3,FALSE))+IF(K287="",0,VLOOKUP(K287,Affiliation_Table,3,FALSE))+IF(L287="",0,VLOOKUP(L287,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>513</v>
       </c>
       <c r="F287">
@@ -11691,11 +11510,11 @@
         <v>13</v>
       </c>
       <c r="D288">
-        <f>COUNTIF(G288:L288,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E288">
-        <f>IF(G288="",0,VLOOKUP(G288,Affiliation_Table,3,FALSE))+IF(H288="",0,VLOOKUP(H288,Affiliation_Table,3,FALSE))+IF(I288="",0,VLOOKUP(I288,Affiliation_Table,3,FALSE))+IF(J288="",0,VLOOKUP(J288,Affiliation_Table,3,FALSE))+IF(K288="",0,VLOOKUP(K288,Affiliation_Table,3,FALSE))+IF(L288="",0,VLOOKUP(L288,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>130</v>
       </c>
       <c r="F288">
@@ -11723,11 +11542,11 @@
         <v>11</v>
       </c>
       <c r="D289">
-        <f>COUNTIF(G289:L289,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E289">
-        <f>IF(G289="",0,VLOOKUP(G289,Affiliation_Table,3,FALSE))+IF(H289="",0,VLOOKUP(H289,Affiliation_Table,3,FALSE))+IF(I289="",0,VLOOKUP(I289,Affiliation_Table,3,FALSE))+IF(J289="",0,VLOOKUP(J289,Affiliation_Table,3,FALSE))+IF(K289="",0,VLOOKUP(K289,Affiliation_Table,3,FALSE))+IF(L289="",0,VLOOKUP(L289,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>129</v>
       </c>
       <c r="F289">
@@ -11755,11 +11574,11 @@
         <v>20</v>
       </c>
       <c r="D290">
-        <f>COUNTIF(G290:L290,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E290">
-        <f>IF(G290="",0,VLOOKUP(G290,Affiliation_Table,3,FALSE))+IF(H290="",0,VLOOKUP(H290,Affiliation_Table,3,FALSE))+IF(I290="",0,VLOOKUP(I290,Affiliation_Table,3,FALSE))+IF(J290="",0,VLOOKUP(J290,Affiliation_Table,3,FALSE))+IF(K290="",0,VLOOKUP(K290,Affiliation_Table,3,FALSE))+IF(L290="",0,VLOOKUP(L290,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="F290">
@@ -11785,11 +11604,11 @@
         <v>10</v>
       </c>
       <c r="D291">
-        <f>COUNTIF(G291:L291,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E291">
-        <f>IF(G291="",0,VLOOKUP(G291,Affiliation_Table,3,FALSE))+IF(H291="",0,VLOOKUP(H291,Affiliation_Table,3,FALSE))+IF(I291="",0,VLOOKUP(I291,Affiliation_Table,3,FALSE))+IF(J291="",0,VLOOKUP(J291,Affiliation_Table,3,FALSE))+IF(K291="",0,VLOOKUP(K291,Affiliation_Table,3,FALSE))+IF(L291="",0,VLOOKUP(L291,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>32786</v>
       </c>
       <c r="F291">
@@ -11819,11 +11638,11 @@
         <v>12</v>
       </c>
       <c r="D292">
-        <f>COUNTIF(G292:L292,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E292">
-        <f>IF(G292="",0,VLOOKUP(G292,Affiliation_Table,3,FALSE))+IF(H292="",0,VLOOKUP(H292,Affiliation_Table,3,FALSE))+IF(I292="",0,VLOOKUP(I292,Affiliation_Table,3,FALSE))+IF(J292="",0,VLOOKUP(J292,Affiliation_Table,3,FALSE))+IF(K292="",0,VLOOKUP(K292,Affiliation_Table,3,FALSE))+IF(L292="",0,VLOOKUP(L292,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>32786</v>
       </c>
       <c r="F292">
@@ -11853,11 +11672,11 @@
         <v>16</v>
       </c>
       <c r="D293">
-        <f>COUNTIF(G293:L293,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E293">
-        <f>IF(G293="",0,VLOOKUP(G293,Affiliation_Table,3,FALSE))+IF(H293="",0,VLOOKUP(H293,Affiliation_Table,3,FALSE))+IF(I293="",0,VLOOKUP(I293,Affiliation_Table,3,FALSE))+IF(J293="",0,VLOOKUP(J293,Affiliation_Table,3,FALSE))+IF(K293="",0,VLOOKUP(K293,Affiliation_Table,3,FALSE))+IF(L293="",0,VLOOKUP(L293,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>256</v>
       </c>
       <c r="F293">
@@ -11883,11 +11702,11 @@
         <v>7</v>
       </c>
       <c r="D294">
-        <f>COUNTIF(G294:L294,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E294">
-        <f>IF(G294="",0,VLOOKUP(G294,Affiliation_Table,3,FALSE))+IF(H294="",0,VLOOKUP(H294,Affiliation_Table,3,FALSE))+IF(I294="",0,VLOOKUP(I294,Affiliation_Table,3,FALSE))+IF(J294="",0,VLOOKUP(J294,Affiliation_Table,3,FALSE))+IF(K294="",0,VLOOKUP(K294,Affiliation_Table,3,FALSE))+IF(L294="",0,VLOOKUP(L294,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>8193</v>
       </c>
       <c r="F294">
@@ -11915,11 +11734,11 @@
         <v>7</v>
       </c>
       <c r="D295">
-        <f>COUNTIF(G295:L295,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E295">
-        <f>IF(G295="",0,VLOOKUP(G295,Affiliation_Table,3,FALSE))+IF(H295="",0,VLOOKUP(H295,Affiliation_Table,3,FALSE))+IF(I295="",0,VLOOKUP(I295,Affiliation_Table,3,FALSE))+IF(J295="",0,VLOOKUP(J295,Affiliation_Table,3,FALSE))+IF(K295="",0,VLOOKUP(K295,Affiliation_Table,3,FALSE))+IF(L295="",0,VLOOKUP(L295,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>16385</v>
       </c>
       <c r="F295">
@@ -11947,11 +11766,11 @@
         <v>7</v>
       </c>
       <c r="D296">
-        <f>COUNTIF(G296:L296,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E296">
-        <f>IF(G296="",0,VLOOKUP(G296,Affiliation_Table,3,FALSE))+IF(H296="",0,VLOOKUP(H296,Affiliation_Table,3,FALSE))+IF(I296="",0,VLOOKUP(I296,Affiliation_Table,3,FALSE))+IF(J296="",0,VLOOKUP(J296,Affiliation_Table,3,FALSE))+IF(K296="",0,VLOOKUP(K296,Affiliation_Table,3,FALSE))+IF(L296="",0,VLOOKUP(L296,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>16385</v>
       </c>
       <c r="F296">
@@ -11979,11 +11798,11 @@
         <v>12</v>
       </c>
       <c r="D297">
-        <f>COUNTIF(G297:L297,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E297">
-        <f>IF(G297="",0,VLOOKUP(G297,Affiliation_Table,3,FALSE))+IF(H297="",0,VLOOKUP(H297,Affiliation_Table,3,FALSE))+IF(I297="",0,VLOOKUP(I297,Affiliation_Table,3,FALSE))+IF(J297="",0,VLOOKUP(J297,Affiliation_Table,3,FALSE))+IF(K297="",0,VLOOKUP(K297,Affiliation_Table,3,FALSE))+IF(L297="",0,VLOOKUP(L297,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>32786</v>
       </c>
       <c r="F297">
@@ -12013,11 +11832,11 @@
         <v>10</v>
       </c>
       <c r="D298">
-        <f>COUNTIF(G298:L298,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E298">
-        <f>IF(G298="",0,VLOOKUP(G298,Affiliation_Table,3,FALSE))+IF(H298="",0,VLOOKUP(H298,Affiliation_Table,3,FALSE))+IF(I298="",0,VLOOKUP(I298,Affiliation_Table,3,FALSE))+IF(J298="",0,VLOOKUP(J298,Affiliation_Table,3,FALSE))+IF(K298="",0,VLOOKUP(K298,Affiliation_Table,3,FALSE))+IF(L298="",0,VLOOKUP(L298,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>294929</v>
       </c>
       <c r="F298">
@@ -12049,11 +11868,11 @@
         <v>10</v>
       </c>
       <c r="D299">
-        <f>COUNTIF(G299:L299,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E299">
-        <f>IF(G299="",0,VLOOKUP(G299,Affiliation_Table,3,FALSE))+IF(H299="",0,VLOOKUP(H299,Affiliation_Table,3,FALSE))+IF(I299="",0,VLOOKUP(I299,Affiliation_Table,3,FALSE))+IF(J299="",0,VLOOKUP(J299,Affiliation_Table,3,FALSE))+IF(K299="",0,VLOOKUP(K299,Affiliation_Table,3,FALSE))+IF(L299="",0,VLOOKUP(L299,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>294929</v>
       </c>
       <c r="F299">
@@ -12085,11 +11904,11 @@
         <v>11</v>
       </c>
       <c r="D300">
-        <f>COUNTIF(G300:L300,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E300">
-        <f>IF(G300="",0,VLOOKUP(G300,Affiliation_Table,3,FALSE))+IF(H300="",0,VLOOKUP(H300,Affiliation_Table,3,FALSE))+IF(I300="",0,VLOOKUP(I300,Affiliation_Table,3,FALSE))+IF(J300="",0,VLOOKUP(J300,Affiliation_Table,3,FALSE))+IF(K300="",0,VLOOKUP(K300,Affiliation_Table,3,FALSE))+IF(L300="",0,VLOOKUP(L300,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>262177</v>
       </c>
       <c r="F300">
@@ -12119,11 +11938,11 @@
         <v>13</v>
       </c>
       <c r="D301">
-        <f>COUNTIF(G301:L301,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E301">
-        <f>IF(G301="",0,VLOOKUP(G301,Affiliation_Table,3,FALSE))+IF(H301="",0,VLOOKUP(H301,Affiliation_Table,3,FALSE))+IF(I301="",0,VLOOKUP(I301,Affiliation_Table,3,FALSE))+IF(J301="",0,VLOOKUP(J301,Affiliation_Table,3,FALSE))+IF(K301="",0,VLOOKUP(K301,Affiliation_Table,3,FALSE))+IF(L301="",0,VLOOKUP(L301,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>65540</v>
       </c>
       <c r="F301">
@@ -12147,11 +11966,11 @@
         <v>14</v>
       </c>
       <c r="D302">
-        <f>COUNTIF(G302:L302,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E302">
-        <f>IF(G302="",0,VLOOKUP(G302,Affiliation_Table,3,FALSE))+IF(H302="",0,VLOOKUP(H302,Affiliation_Table,3,FALSE))+IF(I302="",0,VLOOKUP(I302,Affiliation_Table,3,FALSE))+IF(J302="",0,VLOOKUP(J302,Affiliation_Table,3,FALSE))+IF(K302="",0,VLOOKUP(K302,Affiliation_Table,3,FALSE))+IF(L302="",0,VLOOKUP(L302,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>33793</v>
       </c>
       <c r="F302">
@@ -12178,11 +11997,11 @@
         <v>12</v>
       </c>
       <c r="D303">
-        <f>COUNTIF(G303:L303,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E303">
-        <f>IF(G303="",0,VLOOKUP(G303,Affiliation_Table,3,FALSE))+IF(H303="",0,VLOOKUP(H303,Affiliation_Table,3,FALSE))+IF(I303="",0,VLOOKUP(I303,Affiliation_Table,3,FALSE))+IF(J303="",0,VLOOKUP(J303,Affiliation_Table,3,FALSE))+IF(K303="",0,VLOOKUP(K303,Affiliation_Table,3,FALSE))+IF(L303="",0,VLOOKUP(L303,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>65570</v>
       </c>
       <c r="F303">
@@ -12212,11 +12031,11 @@
         <v>16</v>
       </c>
       <c r="D304">
-        <f>COUNTIF(G304:L304,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E304">
-        <f>IF(G304="",0,VLOOKUP(G304,Affiliation_Table,3,FALSE))+IF(H304="",0,VLOOKUP(H304,Affiliation_Table,3,FALSE))+IF(I304="",0,VLOOKUP(I304,Affiliation_Table,3,FALSE))+IF(J304="",0,VLOOKUP(J304,Affiliation_Table,3,FALSE))+IF(K304="",0,VLOOKUP(K304,Affiliation_Table,3,FALSE))+IF(L304="",0,VLOOKUP(L304,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>65540</v>
       </c>
       <c r="F304">
@@ -12244,11 +12063,11 @@
         <v>11</v>
       </c>
       <c r="D305">
-        <f>COUNTIF(G305:L305,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E305">
-        <f>IF(G305="",0,VLOOKUP(G305,Affiliation_Table,3,FALSE))+IF(H305="",0,VLOOKUP(H305,Affiliation_Table,3,FALSE))+IF(I305="",0,VLOOKUP(I305,Affiliation_Table,3,FALSE))+IF(J305="",0,VLOOKUP(J305,Affiliation_Table,3,FALSE))+IF(K305="",0,VLOOKUP(K305,Affiliation_Table,3,FALSE))+IF(L305="",0,VLOOKUP(L305,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>16385</v>
       </c>
       <c r="F305">
@@ -12276,11 +12095,11 @@
         <v>12</v>
       </c>
       <c r="D306">
-        <f>COUNTIF(G306:L306,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E306">
-        <f>IF(G306="",0,VLOOKUP(G306,Affiliation_Table,3,FALSE))+IF(H306="",0,VLOOKUP(H306,Affiliation_Table,3,FALSE))+IF(I306="",0,VLOOKUP(I306,Affiliation_Table,3,FALSE))+IF(J306="",0,VLOOKUP(J306,Affiliation_Table,3,FALSE))+IF(K306="",0,VLOOKUP(K306,Affiliation_Table,3,FALSE))+IF(L306="",0,VLOOKUP(L306,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>16385</v>
       </c>
       <c r="F306">
@@ -12308,11 +12127,11 @@
         <v>8</v>
       </c>
       <c r="D307">
-        <f>COUNTIF(G307:L307,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E307">
-        <f>IF(G307="",0,VLOOKUP(G307,Affiliation_Table,3,FALSE))+IF(H307="",0,VLOOKUP(H307,Affiliation_Table,3,FALSE))+IF(I307="",0,VLOOKUP(I307,Affiliation_Table,3,FALSE))+IF(J307="",0,VLOOKUP(J307,Affiliation_Table,3,FALSE))+IF(K307="",0,VLOOKUP(K307,Affiliation_Table,3,FALSE))+IF(L307="",0,VLOOKUP(L307,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>65540</v>
       </c>
       <c r="F307">
@@ -12340,11 +12159,11 @@
         <v>11</v>
       </c>
       <c r="D308">
-        <f>COUNTIF(G308:L308,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E308">
-        <f>IF(G308="",0,VLOOKUP(G308,Affiliation_Table,3,FALSE))+IF(H308="",0,VLOOKUP(H308,Affiliation_Table,3,FALSE))+IF(I308="",0,VLOOKUP(I308,Affiliation_Table,3,FALSE))+IF(J308="",0,VLOOKUP(J308,Affiliation_Table,3,FALSE))+IF(K308="",0,VLOOKUP(K308,Affiliation_Table,3,FALSE))+IF(L308="",0,VLOOKUP(L308,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>65540</v>
       </c>
       <c r="F308">
@@ -12372,11 +12191,11 @@
         <v>8</v>
       </c>
       <c r="D309">
-        <f>COUNTIF(G309:L309,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E309">
-        <f>IF(G309="",0,VLOOKUP(G309,Affiliation_Table,3,FALSE))+IF(H309="",0,VLOOKUP(H309,Affiliation_Table,3,FALSE))+IF(I309="",0,VLOOKUP(I309,Affiliation_Table,3,FALSE))+IF(J309="",0,VLOOKUP(J309,Affiliation_Table,3,FALSE))+IF(K309="",0,VLOOKUP(K309,Affiliation_Table,3,FALSE))+IF(L309="",0,VLOOKUP(L309,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>65540</v>
       </c>
       <c r="F309">
@@ -12404,11 +12223,11 @@
         <v>9</v>
       </c>
       <c r="D310">
-        <f>COUNTIF(G310:L310,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E310">
-        <f>IF(G310="",0,VLOOKUP(G310,Affiliation_Table,3,FALSE))+IF(H310="",0,VLOOKUP(H310,Affiliation_Table,3,FALSE))+IF(I310="",0,VLOOKUP(I310,Affiliation_Table,3,FALSE))+IF(J310="",0,VLOOKUP(J310,Affiliation_Table,3,FALSE))+IF(K310="",0,VLOOKUP(K310,Affiliation_Table,3,FALSE))+IF(L310="",0,VLOOKUP(L310,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>65540</v>
       </c>
       <c r="F310">
@@ -12436,11 +12255,11 @@
         <v>13</v>
       </c>
       <c r="D311">
-        <f>COUNTIF(G311:L311,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E311">
-        <f>IF(G311="",0,VLOOKUP(G311,Affiliation_Table,3,FALSE))+IF(H311="",0,VLOOKUP(H311,Affiliation_Table,3,FALSE))+IF(I311="",0,VLOOKUP(I311,Affiliation_Table,3,FALSE))+IF(J311="",0,VLOOKUP(J311,Affiliation_Table,3,FALSE))+IF(K311="",0,VLOOKUP(K311,Affiliation_Table,3,FALSE))+IF(L311="",0,VLOOKUP(L311,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>32777</v>
       </c>
       <c r="F311">
@@ -12470,11 +12289,11 @@
         <v>10</v>
       </c>
       <c r="D312">
-        <f>COUNTIF(G312:L312,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E312">
-        <f>IF(G312="",0,VLOOKUP(G312,Affiliation_Table,3,FALSE))+IF(H312="",0,VLOOKUP(H312,Affiliation_Table,3,FALSE))+IF(I312="",0,VLOOKUP(I312,Affiliation_Table,3,FALSE))+IF(J312="",0,VLOOKUP(J312,Affiliation_Table,3,FALSE))+IF(K312="",0,VLOOKUP(K312,Affiliation_Table,3,FALSE))+IF(L312="",0,VLOOKUP(L312,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>32786</v>
       </c>
       <c r="F312">
@@ -12504,11 +12323,11 @@
         <v>13</v>
       </c>
       <c r="D313">
-        <f>COUNTIF(G313:L313,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E313">
-        <f>IF(G313="",0,VLOOKUP(G313,Affiliation_Table,3,FALSE))+IF(H313="",0,VLOOKUP(H313,Affiliation_Table,3,FALSE))+IF(I313="",0,VLOOKUP(I313,Affiliation_Table,3,FALSE))+IF(J313="",0,VLOOKUP(J313,Affiliation_Table,3,FALSE))+IF(K313="",0,VLOOKUP(K313,Affiliation_Table,3,FALSE))+IF(L313="",0,VLOOKUP(L313,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>16385</v>
       </c>
       <c r="F313">
@@ -12532,11 +12351,11 @@
         <v>16</v>
       </c>
       <c r="D314">
-        <f>COUNTIF(G314:L314,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E314">
-        <f>IF(G314="",0,VLOOKUP(G314,Affiliation_Table,3,FALSE))+IF(H314="",0,VLOOKUP(H314,Affiliation_Table,3,FALSE))+IF(I314="",0,VLOOKUP(I314,Affiliation_Table,3,FALSE))+IF(J314="",0,VLOOKUP(J314,Affiliation_Table,3,FALSE))+IF(K314="",0,VLOOKUP(K314,Affiliation_Table,3,FALSE))+IF(L314="",0,VLOOKUP(L314,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>65540</v>
       </c>
       <c r="F314">
@@ -12564,11 +12383,11 @@
         <v>11</v>
       </c>
       <c r="D315">
-        <f>COUNTIF(G315:L315,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E315">
-        <f>IF(G315="",0,VLOOKUP(G315,Affiliation_Table,3,FALSE))+IF(H315="",0,VLOOKUP(H315,Affiliation_Table,3,FALSE))+IF(I315="",0,VLOOKUP(I315,Affiliation_Table,3,FALSE))+IF(J315="",0,VLOOKUP(J315,Affiliation_Table,3,FALSE))+IF(K315="",0,VLOOKUP(K315,Affiliation_Table,3,FALSE))+IF(L315="",0,VLOOKUP(L315,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>2097156</v>
       </c>
       <c r="F315">
@@ -12596,11 +12415,11 @@
         <v>10</v>
       </c>
       <c r="D316">
-        <f>COUNTIF(G316:L316,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E316">
-        <f>IF(G316="",0,VLOOKUP(G316,Affiliation_Table,3,FALSE))+IF(H316="",0,VLOOKUP(H316,Affiliation_Table,3,FALSE))+IF(I316="",0,VLOOKUP(I316,Affiliation_Table,3,FALSE))+IF(J316="",0,VLOOKUP(J316,Affiliation_Table,3,FALSE))+IF(K316="",0,VLOOKUP(K316,Affiliation_Table,3,FALSE))+IF(L316="",0,VLOOKUP(L316,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>1572993</v>
       </c>
       <c r="F316">
@@ -12632,11 +12451,11 @@
         <v>12</v>
       </c>
       <c r="D317">
-        <f>COUNTIF(G317:L317,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E317">
-        <f>IF(G317="",0,VLOOKUP(G317,Affiliation_Table,3,FALSE))+IF(H317="",0,VLOOKUP(H317,Affiliation_Table,3,FALSE))+IF(I317="",0,VLOOKUP(I317,Affiliation_Table,3,FALSE))+IF(J317="",0,VLOOKUP(J317,Affiliation_Table,3,FALSE))+IF(K317="",0,VLOOKUP(K317,Affiliation_Table,3,FALSE))+IF(L317="",0,VLOOKUP(L317,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>1572993</v>
       </c>
       <c r="F317">
@@ -12668,11 +12487,11 @@
         <v>9</v>
       </c>
       <c r="D318">
-        <f>COUNTIF(G318:L318,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E318">
-        <f>IF(G318="",0,VLOOKUP(G318,Affiliation_Table,3,FALSE))+IF(H318="",0,VLOOKUP(H318,Affiliation_Table,3,FALSE))+IF(I318="",0,VLOOKUP(I318,Affiliation_Table,3,FALSE))+IF(J318="",0,VLOOKUP(J318,Affiliation_Table,3,FALSE))+IF(K318="",0,VLOOKUP(K318,Affiliation_Table,3,FALSE))+IF(L318="",0,VLOOKUP(L318,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>6145</v>
       </c>
       <c r="F318">
@@ -12702,11 +12521,11 @@
         <v>13</v>
       </c>
       <c r="D319">
-        <f>COUNTIF(G319:L319,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E319">
-        <f>IF(G319="",0,VLOOKUP(G319,Affiliation_Table,3,FALSE))+IF(H319="",0,VLOOKUP(H319,Affiliation_Table,3,FALSE))+IF(I319="",0,VLOOKUP(I319,Affiliation_Table,3,FALSE))+IF(J319="",0,VLOOKUP(J319,Affiliation_Table,3,FALSE))+IF(K319="",0,VLOOKUP(K319,Affiliation_Table,3,FALSE))+IF(L319="",0,VLOOKUP(L319,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>32770</v>
       </c>
       <c r="F319">
@@ -12730,11 +12549,11 @@
         <v>12</v>
       </c>
       <c r="D320">
-        <f>COUNTIF(G320:L320,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E320">
-        <f>IF(G320="",0,VLOOKUP(G320,Affiliation_Table,3,FALSE))+IF(H320="",0,VLOOKUP(H320,Affiliation_Table,3,FALSE))+IF(I320="",0,VLOOKUP(I320,Affiliation_Table,3,FALSE))+IF(J320="",0,VLOOKUP(J320,Affiliation_Table,3,FALSE))+IF(K320="",0,VLOOKUP(K320,Affiliation_Table,3,FALSE))+IF(L320="",0,VLOOKUP(L320,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>32786</v>
       </c>
       <c r="F320">
@@ -12764,11 +12583,11 @@
         <v>10</v>
       </c>
       <c r="D321">
-        <f>COUNTIF(G321:L321,"&lt;&gt;")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E321">
-        <f>IF(G321="",0,VLOOKUP(G321,Affiliation_Table,3,FALSE))+IF(H321="",0,VLOOKUP(H321,Affiliation_Table,3,FALSE))+IF(I321="",0,VLOOKUP(I321,Affiliation_Table,3,FALSE))+IF(J321="",0,VLOOKUP(J321,Affiliation_Table,3,FALSE))+IF(K321="",0,VLOOKUP(K321,Affiliation_Table,3,FALSE))+IF(L321="",0,VLOOKUP(L321,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>65540</v>
       </c>
       <c r="F321">
@@ -12796,11 +12615,11 @@
         <v>11</v>
       </c>
       <c r="D322">
-        <f>COUNTIF(G322:L322,"&lt;&gt;")</f>
+        <f t="shared" ref="D322:D385" si="10">COUNTIF(G322:L322,"&lt;&gt;")</f>
         <v>2</v>
       </c>
       <c r="E322">
-        <f>IF(G322="",0,VLOOKUP(G322,Affiliation_Table,3,FALSE))+IF(H322="",0,VLOOKUP(H322,Affiliation_Table,3,FALSE))+IF(I322="",0,VLOOKUP(I322,Affiliation_Table,3,FALSE))+IF(J322="",0,VLOOKUP(J322,Affiliation_Table,3,FALSE))+IF(K322="",0,VLOOKUP(K322,Affiliation_Table,3,FALSE))+IF(L322="",0,VLOOKUP(L322,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" ref="E322:E385" si="11">IF(G322="",0,VLOOKUP(G322,Affiliation_Table,3,FALSE))+IF(H322="",0,VLOOKUP(H322,Affiliation_Table,3,FALSE))+IF(I322="",0,VLOOKUP(I322,Affiliation_Table,3,FALSE))+IF(J322="",0,VLOOKUP(J322,Affiliation_Table,3,FALSE))+IF(K322="",0,VLOOKUP(K322,Affiliation_Table,3,FALSE))+IF(L322="",0,VLOOKUP(L322,Affiliation_Table,3,FALSE))</f>
         <v>32772</v>
       </c>
       <c r="F322">
@@ -12828,11 +12647,11 @@
         <v>12</v>
       </c>
       <c r="D323">
-        <f>COUNTIF(G323:L323,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E323">
-        <f>IF(G323="",0,VLOOKUP(G323,Affiliation_Table,3,FALSE))+IF(H323="",0,VLOOKUP(H323,Affiliation_Table,3,FALSE))+IF(I323="",0,VLOOKUP(I323,Affiliation_Table,3,FALSE))+IF(J323="",0,VLOOKUP(J323,Affiliation_Table,3,FALSE))+IF(K323="",0,VLOOKUP(K323,Affiliation_Table,3,FALSE))+IF(L323="",0,VLOOKUP(L323,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>2097156</v>
       </c>
       <c r="F323">
@@ -12860,11 +12679,11 @@
         <v>7</v>
       </c>
       <c r="D324">
-        <f>COUNTIF(G324:L324,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E324">
-        <f>IF(G324="",0,VLOOKUP(G324,Affiliation_Table,3,FALSE))+IF(H324="",0,VLOOKUP(H324,Affiliation_Table,3,FALSE))+IF(I324="",0,VLOOKUP(I324,Affiliation_Table,3,FALSE))+IF(J324="",0,VLOOKUP(J324,Affiliation_Table,3,FALSE))+IF(K324="",0,VLOOKUP(K324,Affiliation_Table,3,FALSE))+IF(L324="",0,VLOOKUP(L324,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>262148</v>
       </c>
       <c r="F324">
@@ -12892,11 +12711,11 @@
         <v>8</v>
       </c>
       <c r="D325">
-        <f>COUNTIF(G325:L325,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E325">
-        <f>IF(G325="",0,VLOOKUP(G325,Affiliation_Table,3,FALSE))+IF(H325="",0,VLOOKUP(H325,Affiliation_Table,3,FALSE))+IF(I325="",0,VLOOKUP(I325,Affiliation_Table,3,FALSE))+IF(J325="",0,VLOOKUP(J325,Affiliation_Table,3,FALSE))+IF(K325="",0,VLOOKUP(K325,Affiliation_Table,3,FALSE))+IF(L325="",0,VLOOKUP(L325,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="F325">
@@ -12922,11 +12741,11 @@
         <v>10</v>
       </c>
       <c r="D326">
-        <f>COUNTIF(G326:L326,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E326">
-        <f>IF(G326="",0,VLOOKUP(G326,Affiliation_Table,3,FALSE))+IF(H326="",0,VLOOKUP(H326,Affiliation_Table,3,FALSE))+IF(I326="",0,VLOOKUP(I326,Affiliation_Table,3,FALSE))+IF(J326="",0,VLOOKUP(J326,Affiliation_Table,3,FALSE))+IF(K326="",0,VLOOKUP(K326,Affiliation_Table,3,FALSE))+IF(L326="",0,VLOOKUP(L326,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>8193</v>
       </c>
       <c r="F326">
@@ -12954,11 +12773,11 @@
         <v>13</v>
       </c>
       <c r="D327">
-        <f>COUNTIF(G327:L327,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E327">
-        <f>IF(G327="",0,VLOOKUP(G327,Affiliation_Table,3,FALSE))+IF(H327="",0,VLOOKUP(H327,Affiliation_Table,3,FALSE))+IF(I327="",0,VLOOKUP(I327,Affiliation_Table,3,FALSE))+IF(J327="",0,VLOOKUP(J327,Affiliation_Table,3,FALSE))+IF(K327="",0,VLOOKUP(K327,Affiliation_Table,3,FALSE))+IF(L327="",0,VLOOKUP(L327,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>16385</v>
       </c>
       <c r="F327">
@@ -12986,11 +12805,11 @@
         <v>10</v>
       </c>
       <c r="D328">
-        <f>COUNTIF(G328:L328,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E328">
-        <f>IF(G328="",0,VLOOKUP(G328,Affiliation_Table,3,FALSE))+IF(H328="",0,VLOOKUP(H328,Affiliation_Table,3,FALSE))+IF(I328="",0,VLOOKUP(I328,Affiliation_Table,3,FALSE))+IF(J328="",0,VLOOKUP(J328,Affiliation_Table,3,FALSE))+IF(K328="",0,VLOOKUP(K328,Affiliation_Table,3,FALSE))+IF(L328="",0,VLOOKUP(L328,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>36865</v>
       </c>
       <c r="F328">
@@ -13020,11 +12839,11 @@
         <v>16</v>
       </c>
       <c r="D329">
-        <f>COUNTIF(G329:L329,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E329">
-        <f>IF(G329="",0,VLOOKUP(G329,Affiliation_Table,3,FALSE))+IF(H329="",0,VLOOKUP(H329,Affiliation_Table,3,FALSE))+IF(I329="",0,VLOOKUP(I329,Affiliation_Table,3,FALSE))+IF(J329="",0,VLOOKUP(J329,Affiliation_Table,3,FALSE))+IF(K329="",0,VLOOKUP(K329,Affiliation_Table,3,FALSE))+IF(L329="",0,VLOOKUP(L329,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>6145</v>
       </c>
       <c r="F329">
@@ -13054,11 +12873,11 @@
         <v>9</v>
       </c>
       <c r="D330">
-        <f>COUNTIF(G330:L330,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E330">
-        <f>IF(G330="",0,VLOOKUP(G330,Affiliation_Table,3,FALSE))+IF(H330="",0,VLOOKUP(H330,Affiliation_Table,3,FALSE))+IF(I330="",0,VLOOKUP(I330,Affiliation_Table,3,FALSE))+IF(J330="",0,VLOOKUP(J330,Affiliation_Table,3,FALSE))+IF(K330="",0,VLOOKUP(K330,Affiliation_Table,3,FALSE))+IF(L330="",0,VLOOKUP(L330,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>36865</v>
       </c>
       <c r="F330">
@@ -13088,11 +12907,11 @@
         <v>11</v>
       </c>
       <c r="D331">
-        <f>COUNTIF(G331:L331,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E331">
-        <f>IF(G331="",0,VLOOKUP(G331,Affiliation_Table,3,FALSE))+IF(H331="",0,VLOOKUP(H331,Affiliation_Table,3,FALSE))+IF(I331="",0,VLOOKUP(I331,Affiliation_Table,3,FALSE))+IF(J331="",0,VLOOKUP(J331,Affiliation_Table,3,FALSE))+IF(K331="",0,VLOOKUP(K331,Affiliation_Table,3,FALSE))+IF(L331="",0,VLOOKUP(L331,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>513</v>
       </c>
       <c r="F331">
@@ -13120,11 +12939,11 @@
         <v>11</v>
       </c>
       <c r="D332">
-        <f>COUNTIF(G332:L332,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E332">
-        <f>IF(G332="",0,VLOOKUP(G332,Affiliation_Table,3,FALSE))+IF(H332="",0,VLOOKUP(H332,Affiliation_Table,3,FALSE))+IF(I332="",0,VLOOKUP(I332,Affiliation_Table,3,FALSE))+IF(J332="",0,VLOOKUP(J332,Affiliation_Table,3,FALSE))+IF(K332="",0,VLOOKUP(K332,Affiliation_Table,3,FALSE))+IF(L332="",0,VLOOKUP(L332,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>33793</v>
       </c>
       <c r="F332">
@@ -13154,11 +12973,11 @@
         <v>11</v>
       </c>
       <c r="D333">
-        <f>COUNTIF(G333:L333,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E333">
-        <f>IF(G333="",0,VLOOKUP(G333,Affiliation_Table,3,FALSE))+IF(H333="",0,VLOOKUP(H333,Affiliation_Table,3,FALSE))+IF(I333="",0,VLOOKUP(I333,Affiliation_Table,3,FALSE))+IF(J333="",0,VLOOKUP(J333,Affiliation_Table,3,FALSE))+IF(K333="",0,VLOOKUP(K333,Affiliation_Table,3,FALSE))+IF(L333="",0,VLOOKUP(L333,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>33793</v>
       </c>
       <c r="F333">
@@ -13188,11 +13007,11 @@
         <v>12</v>
       </c>
       <c r="D334">
-        <f>COUNTIF(G334:L334,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E334">
-        <f>IF(G334="",0,VLOOKUP(G334,Affiliation_Table,3,FALSE))+IF(H334="",0,VLOOKUP(H334,Affiliation_Table,3,FALSE))+IF(I334="",0,VLOOKUP(I334,Affiliation_Table,3,FALSE))+IF(J334="",0,VLOOKUP(J334,Affiliation_Table,3,FALSE))+IF(K334="",0,VLOOKUP(K334,Affiliation_Table,3,FALSE))+IF(L334="",0,VLOOKUP(L334,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>33793</v>
       </c>
       <c r="F334">
@@ -13222,11 +13041,11 @@
         <v>9</v>
       </c>
       <c r="D335">
-        <f>COUNTIF(G335:L335,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E335">
-        <f>IF(G335="",0,VLOOKUP(G335,Affiliation_Table,3,FALSE))+IF(H335="",0,VLOOKUP(H335,Affiliation_Table,3,FALSE))+IF(I335="",0,VLOOKUP(I335,Affiliation_Table,3,FALSE))+IF(J335="",0,VLOOKUP(J335,Affiliation_Table,3,FALSE))+IF(K335="",0,VLOOKUP(K335,Affiliation_Table,3,FALSE))+IF(L335="",0,VLOOKUP(L335,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>33793</v>
       </c>
       <c r="F335">
@@ -13256,11 +13075,11 @@
         <v>12</v>
       </c>
       <c r="D336">
-        <f>COUNTIF(G336:L336,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E336">
-        <f>IF(G336="",0,VLOOKUP(G336,Affiliation_Table,3,FALSE))+IF(H336="",0,VLOOKUP(H336,Affiliation_Table,3,FALSE))+IF(I336="",0,VLOOKUP(I336,Affiliation_Table,3,FALSE))+IF(J336="",0,VLOOKUP(J336,Affiliation_Table,3,FALSE))+IF(K336="",0,VLOOKUP(K336,Affiliation_Table,3,FALSE))+IF(L336="",0,VLOOKUP(L336,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>33793</v>
       </c>
       <c r="F336">
@@ -13290,11 +13109,11 @@
         <v>11</v>
       </c>
       <c r="D337">
-        <f>COUNTIF(G337:L337,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E337">
-        <f>IF(G337="",0,VLOOKUP(G337,Affiliation_Table,3,FALSE))+IF(H337="",0,VLOOKUP(H337,Affiliation_Table,3,FALSE))+IF(I337="",0,VLOOKUP(I337,Affiliation_Table,3,FALSE))+IF(J337="",0,VLOOKUP(J337,Affiliation_Table,3,FALSE))+IF(K337="",0,VLOOKUP(K337,Affiliation_Table,3,FALSE))+IF(L337="",0,VLOOKUP(L337,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>33793</v>
       </c>
       <c r="F337">
@@ -13324,11 +13143,11 @@
         <v>13</v>
       </c>
       <c r="D338">
-        <f>COUNTIF(G338:L338,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E338">
-        <f>IF(G338="",0,VLOOKUP(G338,Affiliation_Table,3,FALSE))+IF(H338="",0,VLOOKUP(H338,Affiliation_Table,3,FALSE))+IF(I338="",0,VLOOKUP(I338,Affiliation_Table,3,FALSE))+IF(J338="",0,VLOOKUP(J338,Affiliation_Table,3,FALSE))+IF(K338="",0,VLOOKUP(K338,Affiliation_Table,3,FALSE))+IF(L338="",0,VLOOKUP(L338,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>33793</v>
       </c>
       <c r="F338">
@@ -13358,11 +13177,11 @@
         <v>12</v>
       </c>
       <c r="D339">
-        <f>COUNTIF(G339:L339,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E339">
-        <f>IF(G339="",0,VLOOKUP(G339,Affiliation_Table,3,FALSE))+IF(H339="",0,VLOOKUP(H339,Affiliation_Table,3,FALSE))+IF(I339="",0,VLOOKUP(I339,Affiliation_Table,3,FALSE))+IF(J339="",0,VLOOKUP(J339,Affiliation_Table,3,FALSE))+IF(K339="",0,VLOOKUP(K339,Affiliation_Table,3,FALSE))+IF(L339="",0,VLOOKUP(L339,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>33793</v>
       </c>
       <c r="F339">
@@ -13392,11 +13211,11 @@
         <v>11</v>
       </c>
       <c r="D340">
-        <f>COUNTIF(G340:L340,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E340">
-        <f>IF(G340="",0,VLOOKUP(G340,Affiliation_Table,3,FALSE))+IF(H340="",0,VLOOKUP(H340,Affiliation_Table,3,FALSE))+IF(I340="",0,VLOOKUP(I340,Affiliation_Table,3,FALSE))+IF(J340="",0,VLOOKUP(J340,Affiliation_Table,3,FALSE))+IF(K340="",0,VLOOKUP(K340,Affiliation_Table,3,FALSE))+IF(L340="",0,VLOOKUP(L340,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>33793</v>
       </c>
       <c r="F340">
@@ -13426,11 +13245,11 @@
         <v>10</v>
       </c>
       <c r="D341">
-        <f>COUNTIF(G341:L341,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E341">
-        <f>IF(G341="",0,VLOOKUP(G341,Affiliation_Table,3,FALSE))+IF(H341="",0,VLOOKUP(H341,Affiliation_Table,3,FALSE))+IF(I341="",0,VLOOKUP(I341,Affiliation_Table,3,FALSE))+IF(J341="",0,VLOOKUP(J341,Affiliation_Table,3,FALSE))+IF(K341="",0,VLOOKUP(K341,Affiliation_Table,3,FALSE))+IF(L341="",0,VLOOKUP(L341,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>33793</v>
       </c>
       <c r="F341">
@@ -13460,11 +13279,11 @@
         <v>11</v>
       </c>
       <c r="D342">
-        <f>COUNTIF(G342:L342,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E342">
-        <f>IF(G342="",0,VLOOKUP(G342,Affiliation_Table,3,FALSE))+IF(H342="",0,VLOOKUP(H342,Affiliation_Table,3,FALSE))+IF(I342="",0,VLOOKUP(I342,Affiliation_Table,3,FALSE))+IF(J342="",0,VLOOKUP(J342,Affiliation_Table,3,FALSE))+IF(K342="",0,VLOOKUP(K342,Affiliation_Table,3,FALSE))+IF(L342="",0,VLOOKUP(L342,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>32785</v>
       </c>
       <c r="F342">
@@ -13494,11 +13313,11 @@
         <v>11</v>
       </c>
       <c r="D343">
-        <f>COUNTIF(G343:L343,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E343">
-        <f>IF(G343="",0,VLOOKUP(G343,Affiliation_Table,3,FALSE))+IF(H343="",0,VLOOKUP(H343,Affiliation_Table,3,FALSE))+IF(I343="",0,VLOOKUP(I343,Affiliation_Table,3,FALSE))+IF(J343="",0,VLOOKUP(J343,Affiliation_Table,3,FALSE))+IF(K343="",0,VLOOKUP(K343,Affiliation_Table,3,FALSE))+IF(L343="",0,VLOOKUP(L343,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>16385</v>
       </c>
       <c r="F343">
@@ -13526,11 +13345,11 @@
         <v>12</v>
       </c>
       <c r="D344">
-        <f>COUNTIF(G344:L344,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E344">
-        <f>IF(G344="",0,VLOOKUP(G344,Affiliation_Table,3,FALSE))+IF(H344="",0,VLOOKUP(H344,Affiliation_Table,3,FALSE))+IF(I344="",0,VLOOKUP(I344,Affiliation_Table,3,FALSE))+IF(J344="",0,VLOOKUP(J344,Affiliation_Table,3,FALSE))+IF(K344="",0,VLOOKUP(K344,Affiliation_Table,3,FALSE))+IF(L344="",0,VLOOKUP(L344,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>8193</v>
       </c>
       <c r="F344">
@@ -13558,11 +13377,11 @@
         <v>12</v>
       </c>
       <c r="D345">
-        <f>COUNTIF(G345:L345,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E345">
-        <f>IF(G345="",0,VLOOKUP(G345,Affiliation_Table,3,FALSE))+IF(H345="",0,VLOOKUP(H345,Affiliation_Table,3,FALSE))+IF(I345="",0,VLOOKUP(I345,Affiliation_Table,3,FALSE))+IF(J345="",0,VLOOKUP(J345,Affiliation_Table,3,FALSE))+IF(K345="",0,VLOOKUP(K345,Affiliation_Table,3,FALSE))+IF(L345="",0,VLOOKUP(L345,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="F345">
@@ -13590,11 +13409,11 @@
         <v>12</v>
       </c>
       <c r="D346">
-        <f>COUNTIF(G346:L346,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="E346">
-        <f>IF(G346="",0,VLOOKUP(G346,Affiliation_Table,3,FALSE))+IF(H346="",0,VLOOKUP(H346,Affiliation_Table,3,FALSE))+IF(I346="",0,VLOOKUP(I346,Affiliation_Table,3,FALSE))+IF(J346="",0,VLOOKUP(J346,Affiliation_Table,3,FALSE))+IF(K346="",0,VLOOKUP(K346,Affiliation_Table,3,FALSE))+IF(L346="",0,VLOOKUP(L346,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>53289</v>
       </c>
       <c r="F346">
@@ -13630,11 +13449,11 @@
         <v>11</v>
       </c>
       <c r="D347">
-        <f>COUNTIF(G347:L347,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E347">
-        <f>IF(G347="",0,VLOOKUP(G347,Affiliation_Table,3,FALSE))+IF(H347="",0,VLOOKUP(H347,Affiliation_Table,3,FALSE))+IF(I347="",0,VLOOKUP(I347,Affiliation_Table,3,FALSE))+IF(J347="",0,VLOOKUP(J347,Affiliation_Table,3,FALSE))+IF(K347="",0,VLOOKUP(K347,Affiliation_Table,3,FALSE))+IF(L347="",0,VLOOKUP(L347,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>16417</v>
       </c>
       <c r="F347">
@@ -13664,11 +13483,11 @@
         <v>9</v>
       </c>
       <c r="D348">
-        <f>COUNTIF(G348:L348,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E348">
-        <f>IF(G348="",0,VLOOKUP(G348,Affiliation_Table,3,FALSE))+IF(H348="",0,VLOOKUP(H348,Affiliation_Table,3,FALSE))+IF(I348="",0,VLOOKUP(I348,Affiliation_Table,3,FALSE))+IF(J348="",0,VLOOKUP(J348,Affiliation_Table,3,FALSE))+IF(K348="",0,VLOOKUP(K348,Affiliation_Table,3,FALSE))+IF(L348="",0,VLOOKUP(L348,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>262145</v>
       </c>
       <c r="F348">
@@ -13696,11 +13515,11 @@
         <v>6</v>
       </c>
       <c r="D349">
-        <f>COUNTIF(G349:L349,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E349">
-        <f>IF(G349="",0,VLOOKUP(G349,Affiliation_Table,3,FALSE))+IF(H349="",0,VLOOKUP(H349,Affiliation_Table,3,FALSE))+IF(I349="",0,VLOOKUP(I349,Affiliation_Table,3,FALSE))+IF(J349="",0,VLOOKUP(J349,Affiliation_Table,3,FALSE))+IF(K349="",0,VLOOKUP(K349,Affiliation_Table,3,FALSE))+IF(L349="",0,VLOOKUP(L349,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>65537</v>
       </c>
       <c r="F349">
@@ -13728,11 +13547,11 @@
         <v>14</v>
       </c>
       <c r="D350">
-        <f>COUNTIF(G350:L350,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E350">
-        <f>IF(G350="",0,VLOOKUP(G350,Affiliation_Table,3,FALSE))+IF(H350="",0,VLOOKUP(H350,Affiliation_Table,3,FALSE))+IF(I350="",0,VLOOKUP(I350,Affiliation_Table,3,FALSE))+IF(J350="",0,VLOOKUP(J350,Affiliation_Table,3,FALSE))+IF(K350="",0,VLOOKUP(K350,Affiliation_Table,3,FALSE))+IF(L350="",0,VLOOKUP(L350,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>16385</v>
       </c>
       <c r="F350">
@@ -13760,11 +13579,11 @@
         <v>11</v>
       </c>
       <c r="D351">
-        <f>COUNTIF(G351:L351,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E351">
-        <f>IF(G351="",0,VLOOKUP(G351,Affiliation_Table,3,FALSE))+IF(H351="",0,VLOOKUP(H351,Affiliation_Table,3,FALSE))+IF(I351="",0,VLOOKUP(I351,Affiliation_Table,3,FALSE))+IF(J351="",0,VLOOKUP(J351,Affiliation_Table,3,FALSE))+IF(K351="",0,VLOOKUP(K351,Affiliation_Table,3,FALSE))+IF(L351="",0,VLOOKUP(L351,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>32786</v>
       </c>
       <c r="F351">
@@ -13794,11 +13613,11 @@
         <v>6</v>
       </c>
       <c r="D352">
-        <f>COUNTIF(G352:L352,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E352">
-        <f>IF(G352="",0,VLOOKUP(G352,Affiliation_Table,3,FALSE))+IF(H352="",0,VLOOKUP(H352,Affiliation_Table,3,FALSE))+IF(I352="",0,VLOOKUP(I352,Affiliation_Table,3,FALSE))+IF(J352="",0,VLOOKUP(J352,Affiliation_Table,3,FALSE))+IF(K352="",0,VLOOKUP(K352,Affiliation_Table,3,FALSE))+IF(L352="",0,VLOOKUP(L352,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>32769</v>
       </c>
       <c r="F352">
@@ -13826,11 +13645,11 @@
         <v>11</v>
       </c>
       <c r="D353">
-        <f>COUNTIF(G353:L353,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E353">
-        <f>IF(G353="",0,VLOOKUP(G353,Affiliation_Table,3,FALSE))+IF(H353="",0,VLOOKUP(H353,Affiliation_Table,3,FALSE))+IF(I353="",0,VLOOKUP(I353,Affiliation_Table,3,FALSE))+IF(J353="",0,VLOOKUP(J353,Affiliation_Table,3,FALSE))+IF(K353="",0,VLOOKUP(K353,Affiliation_Table,3,FALSE))+IF(L353="",0,VLOOKUP(L353,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>65569</v>
       </c>
       <c r="F353">
@@ -13860,11 +13679,11 @@
         <v>20</v>
       </c>
       <c r="D354">
-        <f>COUNTIF(G354:L354,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E354">
-        <f>IF(G354="",0,VLOOKUP(G354,Affiliation_Table,3,FALSE))+IF(H354="",0,VLOOKUP(H354,Affiliation_Table,3,FALSE))+IF(I354="",0,VLOOKUP(I354,Affiliation_Table,3,FALSE))+IF(J354="",0,VLOOKUP(J354,Affiliation_Table,3,FALSE))+IF(K354="",0,VLOOKUP(K354,Affiliation_Table,3,FALSE))+IF(L354="",0,VLOOKUP(L354,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>2097154</v>
       </c>
       <c r="F354">
@@ -13888,11 +13707,11 @@
         <v>10</v>
       </c>
       <c r="D355">
-        <f>COUNTIF(G355:L355,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E355">
-        <f>IF(G355="",0,VLOOKUP(G355,Affiliation_Table,3,FALSE))+IF(H355="",0,VLOOKUP(H355,Affiliation_Table,3,FALSE))+IF(I355="",0,VLOOKUP(I355,Affiliation_Table,3,FALSE))+IF(J355="",0,VLOOKUP(J355,Affiliation_Table,3,FALSE))+IF(K355="",0,VLOOKUP(K355,Affiliation_Table,3,FALSE))+IF(L355="",0,VLOOKUP(L355,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="F355">
@@ -13920,11 +13739,11 @@
         <v>9</v>
       </c>
       <c r="D356">
-        <f>COUNTIF(G356:L356,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E356">
-        <f>IF(G356="",0,VLOOKUP(G356,Affiliation_Table,3,FALSE))+IF(H356="",0,VLOOKUP(H356,Affiliation_Table,3,FALSE))+IF(I356="",0,VLOOKUP(I356,Affiliation_Table,3,FALSE))+IF(J356="",0,VLOOKUP(J356,Affiliation_Table,3,FALSE))+IF(K356="",0,VLOOKUP(K356,Affiliation_Table,3,FALSE))+IF(L356="",0,VLOOKUP(L356,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>65540</v>
       </c>
       <c r="F356">
@@ -13952,11 +13771,11 @@
         <v>10</v>
       </c>
       <c r="D357">
-        <f>COUNTIF(G357:L357,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E357">
-        <f>IF(G357="",0,VLOOKUP(G357,Affiliation_Table,3,FALSE))+IF(H357="",0,VLOOKUP(H357,Affiliation_Table,3,FALSE))+IF(I357="",0,VLOOKUP(I357,Affiliation_Table,3,FALSE))+IF(J357="",0,VLOOKUP(J357,Affiliation_Table,3,FALSE))+IF(K357="",0,VLOOKUP(K357,Affiliation_Table,3,FALSE))+IF(L357="",0,VLOOKUP(L357,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>786436</v>
       </c>
       <c r="F357">
@@ -13986,11 +13805,11 @@
         <v>15</v>
       </c>
       <c r="D358">
-        <f>COUNTIF(G358:L358,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E358">
-        <f>IF(G358="",0,VLOOKUP(G358,Affiliation_Table,3,FALSE))+IF(H358="",0,VLOOKUP(H358,Affiliation_Table,3,FALSE))+IF(I358="",0,VLOOKUP(I358,Affiliation_Table,3,FALSE))+IF(J358="",0,VLOOKUP(J358,Affiliation_Table,3,FALSE))+IF(K358="",0,VLOOKUP(K358,Affiliation_Table,3,FALSE))+IF(L358="",0,VLOOKUP(L358,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>2304</v>
       </c>
       <c r="F358">
@@ -14018,11 +13837,11 @@
         <v>11</v>
       </c>
       <c r="D359">
-        <f>COUNTIF(G359:L359,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E359">
-        <f>IF(G359="",0,VLOOKUP(G359,Affiliation_Table,3,FALSE))+IF(H359="",0,VLOOKUP(H359,Affiliation_Table,3,FALSE))+IF(I359="",0,VLOOKUP(I359,Affiliation_Table,3,FALSE))+IF(J359="",0,VLOOKUP(J359,Affiliation_Table,3,FALSE))+IF(K359="",0,VLOOKUP(K359,Affiliation_Table,3,FALSE))+IF(L359="",0,VLOOKUP(L359,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>4194305</v>
       </c>
       <c r="F359">
@@ -14050,11 +13869,11 @@
         <v>12</v>
       </c>
       <c r="D360">
-        <f>COUNTIF(G360:L360,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E360">
-        <f>IF(G360="",0,VLOOKUP(G360,Affiliation_Table,3,FALSE))+IF(H360="",0,VLOOKUP(H360,Affiliation_Table,3,FALSE))+IF(I360="",0,VLOOKUP(I360,Affiliation_Table,3,FALSE))+IF(J360="",0,VLOOKUP(J360,Affiliation_Table,3,FALSE))+IF(K360="",0,VLOOKUP(K360,Affiliation_Table,3,FALSE))+IF(L360="",0,VLOOKUP(L360,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>4194305</v>
       </c>
       <c r="F360">
@@ -14082,11 +13901,11 @@
         <v>10</v>
       </c>
       <c r="D361">
-        <f>COUNTIF(G361:L361,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E361">
-        <f>IF(G361="",0,VLOOKUP(G361,Affiliation_Table,3,FALSE))+IF(H361="",0,VLOOKUP(H361,Affiliation_Table,3,FALSE))+IF(I361="",0,VLOOKUP(I361,Affiliation_Table,3,FALSE))+IF(J361="",0,VLOOKUP(J361,Affiliation_Table,3,FALSE))+IF(K361="",0,VLOOKUP(K361,Affiliation_Table,3,FALSE))+IF(L361="",0,VLOOKUP(L361,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>4194305</v>
       </c>
       <c r="F361">
@@ -14114,11 +13933,11 @@
         <v>22</v>
       </c>
       <c r="D362">
-        <f>COUNTIF(G362:L362,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E362">
-        <f>IF(G362="",0,VLOOKUP(G362,Affiliation_Table,3,FALSE))+IF(H362="",0,VLOOKUP(H362,Affiliation_Table,3,FALSE))+IF(I362="",0,VLOOKUP(I362,Affiliation_Table,3,FALSE))+IF(J362="",0,VLOOKUP(J362,Affiliation_Table,3,FALSE))+IF(K362="",0,VLOOKUP(K362,Affiliation_Table,3,FALSE))+IF(L362="",0,VLOOKUP(L362,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>49156</v>
       </c>
       <c r="F362">
@@ -14148,11 +13967,11 @@
         <v>21</v>
       </c>
       <c r="D363">
-        <f>COUNTIF(G363:L363,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E363">
-        <f>IF(G363="",0,VLOOKUP(G363,Affiliation_Table,3,FALSE))+IF(H363="",0,VLOOKUP(H363,Affiliation_Table,3,FALSE))+IF(I363="",0,VLOOKUP(I363,Affiliation_Table,3,FALSE))+IF(J363="",0,VLOOKUP(J363,Affiliation_Table,3,FALSE))+IF(K363="",0,VLOOKUP(K363,Affiliation_Table,3,FALSE))+IF(L363="",0,VLOOKUP(L363,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>4100</v>
       </c>
       <c r="F363">
@@ -14180,11 +13999,11 @@
         <v>12</v>
       </c>
       <c r="D364">
-        <f>COUNTIF(G364:L364,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E364">
-        <f>IF(G364="",0,VLOOKUP(G364,Affiliation_Table,3,FALSE))+IF(H364="",0,VLOOKUP(H364,Affiliation_Table,3,FALSE))+IF(I364="",0,VLOOKUP(I364,Affiliation_Table,3,FALSE))+IF(J364="",0,VLOOKUP(J364,Affiliation_Table,3,FALSE))+IF(K364="",0,VLOOKUP(K364,Affiliation_Table,3,FALSE))+IF(L364="",0,VLOOKUP(L364,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>786433</v>
       </c>
       <c r="F364">
@@ -14214,11 +14033,11 @@
         <v>8</v>
       </c>
       <c r="D365">
-        <f>COUNTIF(G365:L365,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E365">
-        <f>IF(G365="",0,VLOOKUP(G365,Affiliation_Table,3,FALSE))+IF(H365="",0,VLOOKUP(H365,Affiliation_Table,3,FALSE))+IF(I365="",0,VLOOKUP(I365,Affiliation_Table,3,FALSE))+IF(J365="",0,VLOOKUP(J365,Affiliation_Table,3,FALSE))+IF(K365="",0,VLOOKUP(K365,Affiliation_Table,3,FALSE))+IF(L365="",0,VLOOKUP(L365,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>6145</v>
       </c>
       <c r="F365">
@@ -14248,11 +14067,11 @@
         <v>11</v>
       </c>
       <c r="D366">
-        <f>COUNTIF(G366:L366,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E366">
-        <f>IF(G366="",0,VLOOKUP(G366,Affiliation_Table,3,FALSE))+IF(H366="",0,VLOOKUP(H366,Affiliation_Table,3,FALSE))+IF(I366="",0,VLOOKUP(I366,Affiliation_Table,3,FALSE))+IF(J366="",0,VLOOKUP(J366,Affiliation_Table,3,FALSE))+IF(K366="",0,VLOOKUP(K366,Affiliation_Table,3,FALSE))+IF(L366="",0,VLOOKUP(L366,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>65541</v>
       </c>
       <c r="F366">
@@ -14282,11 +14101,11 @@
         <v>12</v>
       </c>
       <c r="D367">
-        <f>COUNTIF(G367:L367,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E367">
-        <f>IF(G367="",0,VLOOKUP(G367,Affiliation_Table,3,FALSE))+IF(H367="",0,VLOOKUP(H367,Affiliation_Table,3,FALSE))+IF(I367="",0,VLOOKUP(I367,Affiliation_Table,3,FALSE))+IF(J367="",0,VLOOKUP(J367,Affiliation_Table,3,FALSE))+IF(K367="",0,VLOOKUP(K367,Affiliation_Table,3,FALSE))+IF(L367="",0,VLOOKUP(L367,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>8193</v>
       </c>
       <c r="F367">
@@ -14314,11 +14133,11 @@
         <v>12</v>
       </c>
       <c r="D368">
-        <f>COUNTIF(G368:L368,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E368">
-        <f>IF(G368="",0,VLOOKUP(G368,Affiliation_Table,3,FALSE))+IF(H368="",0,VLOOKUP(H368,Affiliation_Table,3,FALSE))+IF(I368="",0,VLOOKUP(I368,Affiliation_Table,3,FALSE))+IF(J368="",0,VLOOKUP(J368,Affiliation_Table,3,FALSE))+IF(K368="",0,VLOOKUP(K368,Affiliation_Table,3,FALSE))+IF(L368="",0,VLOOKUP(L368,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>16385</v>
       </c>
       <c r="F368">
@@ -14346,11 +14165,11 @@
         <v>8</v>
       </c>
       <c r="D369">
-        <f>COUNTIF(G369:L369,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="E369">
-        <f>IF(G369="",0,VLOOKUP(G369,Affiliation_Table,3,FALSE))+IF(H369="",0,VLOOKUP(H369,Affiliation_Table,3,FALSE))+IF(I369="",0,VLOOKUP(I369,Affiliation_Table,3,FALSE))+IF(J369="",0,VLOOKUP(J369,Affiliation_Table,3,FALSE))+IF(K369="",0,VLOOKUP(K369,Affiliation_Table,3,FALSE))+IF(L369="",0,VLOOKUP(L369,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>786561</v>
       </c>
       <c r="F369">
@@ -14382,11 +14201,11 @@
         <v>9</v>
       </c>
       <c r="D370">
-        <f>COUNTIF(G370:L370,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E370">
-        <f>IF(G370="",0,VLOOKUP(G370,Affiliation_Table,3,FALSE))+IF(H370="",0,VLOOKUP(H370,Affiliation_Table,3,FALSE))+IF(I370="",0,VLOOKUP(I370,Affiliation_Table,3,FALSE))+IF(J370="",0,VLOOKUP(J370,Affiliation_Table,3,FALSE))+IF(K370="",0,VLOOKUP(K370,Affiliation_Table,3,FALSE))+IF(L370="",0,VLOOKUP(L370,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>8193</v>
       </c>
       <c r="F370">
@@ -14414,11 +14233,11 @@
         <v>9</v>
       </c>
       <c r="D371">
-        <f>COUNTIF(G371:L371,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E371">
-        <f>IF(G371="",0,VLOOKUP(G371,Affiliation_Table,3,FALSE))+IF(H371="",0,VLOOKUP(H371,Affiliation_Table,3,FALSE))+IF(I371="",0,VLOOKUP(I371,Affiliation_Table,3,FALSE))+IF(J371="",0,VLOOKUP(J371,Affiliation_Table,3,FALSE))+IF(K371="",0,VLOOKUP(K371,Affiliation_Table,3,FALSE))+IF(L371="",0,VLOOKUP(L371,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>132</v>
       </c>
       <c r="F371">
@@ -14446,11 +14265,11 @@
         <v>11</v>
       </c>
       <c r="D372">
-        <f>COUNTIF(G372:L372,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E372">
-        <f>IF(G372="",0,VLOOKUP(G372,Affiliation_Table,3,FALSE))+IF(H372="",0,VLOOKUP(H372,Affiliation_Table,3,FALSE))+IF(I372="",0,VLOOKUP(I372,Affiliation_Table,3,FALSE))+IF(J372="",0,VLOOKUP(J372,Affiliation_Table,3,FALSE))+IF(K372="",0,VLOOKUP(K372,Affiliation_Table,3,FALSE))+IF(L372="",0,VLOOKUP(L372,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>786433</v>
       </c>
       <c r="F372">
@@ -14480,11 +14299,11 @@
         <v>10</v>
       </c>
       <c r="D373">
-        <f>COUNTIF(G373:L373,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="E373">
-        <f>IF(G373="",0,VLOOKUP(G373,Affiliation_Table,3,FALSE))+IF(H373="",0,VLOOKUP(H373,Affiliation_Table,3,FALSE))+IF(I373="",0,VLOOKUP(I373,Affiliation_Table,3,FALSE))+IF(J373="",0,VLOOKUP(J373,Affiliation_Table,3,FALSE))+IF(K373="",0,VLOOKUP(K373,Affiliation_Table,3,FALSE))+IF(L373="",0,VLOOKUP(L373,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>1114241</v>
       </c>
       <c r="F373">
@@ -14516,11 +14335,11 @@
         <v>6</v>
       </c>
       <c r="D374">
-        <f>COUNTIF(G374:L374,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E374">
-        <f>IF(G374="",0,VLOOKUP(G374,Affiliation_Table,3,FALSE))+IF(H374="",0,VLOOKUP(H374,Affiliation_Table,3,FALSE))+IF(I374="",0,VLOOKUP(I374,Affiliation_Table,3,FALSE))+IF(J374="",0,VLOOKUP(J374,Affiliation_Table,3,FALSE))+IF(K374="",0,VLOOKUP(K374,Affiliation_Table,3,FALSE))+IF(L374="",0,VLOOKUP(L374,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>6145</v>
       </c>
       <c r="F374">
@@ -14550,11 +14369,11 @@
         <v>11</v>
       </c>
       <c r="D375">
-        <f>COUNTIF(G375:L375,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E375">
-        <f>IF(G375="",0,VLOOKUP(G375,Affiliation_Table,3,FALSE))+IF(H375="",0,VLOOKUP(H375,Affiliation_Table,3,FALSE))+IF(I375="",0,VLOOKUP(I375,Affiliation_Table,3,FALSE))+IF(J375="",0,VLOOKUP(J375,Affiliation_Table,3,FALSE))+IF(K375="",0,VLOOKUP(K375,Affiliation_Table,3,FALSE))+IF(L375="",0,VLOOKUP(L375,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>2097154</v>
       </c>
       <c r="F375">
@@ -14582,11 +14401,11 @@
         <v>8</v>
       </c>
       <c r="D376">
-        <f>COUNTIF(G376:L376,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E376">
-        <f>IF(G376="",0,VLOOKUP(G376,Affiliation_Table,3,FALSE))+IF(H376="",0,VLOOKUP(H376,Affiliation_Table,3,FALSE))+IF(I376="",0,VLOOKUP(I376,Affiliation_Table,3,FALSE))+IF(J376="",0,VLOOKUP(J376,Affiliation_Table,3,FALSE))+IF(K376="",0,VLOOKUP(K376,Affiliation_Table,3,FALSE))+IF(L376="",0,VLOOKUP(L376,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>32786</v>
       </c>
       <c r="F376">
@@ -14616,11 +14435,11 @@
         <v>13</v>
       </c>
       <c r="D377">
-        <f>COUNTIF(G377:L377,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E377">
-        <f>IF(G377="",0,VLOOKUP(G377,Affiliation_Table,3,FALSE))+IF(H377="",0,VLOOKUP(H377,Affiliation_Table,3,FALSE))+IF(I377="",0,VLOOKUP(I377,Affiliation_Table,3,FALSE))+IF(J377="",0,VLOOKUP(J377,Affiliation_Table,3,FALSE))+IF(K377="",0,VLOOKUP(K377,Affiliation_Table,3,FALSE))+IF(L377="",0,VLOOKUP(L377,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>8196</v>
       </c>
       <c r="F377">
@@ -14644,11 +14463,11 @@
         <v>12</v>
       </c>
       <c r="D378">
-        <f>COUNTIF(G378:L378,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E378">
-        <f>IF(G378="",0,VLOOKUP(G378,Affiliation_Table,3,FALSE))+IF(H378="",0,VLOOKUP(H378,Affiliation_Table,3,FALSE))+IF(I378="",0,VLOOKUP(I378,Affiliation_Table,3,FALSE))+IF(J378="",0,VLOOKUP(J378,Affiliation_Table,3,FALSE))+IF(K378="",0,VLOOKUP(K378,Affiliation_Table,3,FALSE))+IF(L378="",0,VLOOKUP(L378,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>32785</v>
       </c>
       <c r="F378">
@@ -14678,11 +14497,11 @@
         <v>9</v>
       </c>
       <c r="D379">
-        <f>COUNTIF(G379:L379,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E379">
-        <f>IF(G379="",0,VLOOKUP(G379,Affiliation_Table,3,FALSE))+IF(H379="",0,VLOOKUP(H379,Affiliation_Table,3,FALSE))+IF(I379="",0,VLOOKUP(I379,Affiliation_Table,3,FALSE))+IF(J379="",0,VLOOKUP(J379,Affiliation_Table,3,FALSE))+IF(K379="",0,VLOOKUP(K379,Affiliation_Table,3,FALSE))+IF(L379="",0,VLOOKUP(L379,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>163841</v>
       </c>
       <c r="F379">
@@ -14712,11 +14531,11 @@
         <v>8</v>
       </c>
       <c r="D380">
-        <f>COUNTIF(G380:L380,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E380">
-        <f>IF(G380="",0,VLOOKUP(G380,Affiliation_Table,3,FALSE))+IF(H380="",0,VLOOKUP(H380,Affiliation_Table,3,FALSE))+IF(I380="",0,VLOOKUP(I380,Affiliation_Table,3,FALSE))+IF(J380="",0,VLOOKUP(J380,Affiliation_Table,3,FALSE))+IF(K380="",0,VLOOKUP(K380,Affiliation_Table,3,FALSE))+IF(L380="",0,VLOOKUP(L380,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>32769</v>
       </c>
       <c r="F380">
@@ -14744,11 +14563,11 @@
         <v>8</v>
       </c>
       <c r="D381">
-        <f>COUNTIF(G381:L381,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E381">
-        <f>IF(G381="",0,VLOOKUP(G381,Affiliation_Table,3,FALSE))+IF(H381="",0,VLOOKUP(H381,Affiliation_Table,3,FALSE))+IF(I381="",0,VLOOKUP(I381,Affiliation_Table,3,FALSE))+IF(J381="",0,VLOOKUP(J381,Affiliation_Table,3,FALSE))+IF(K381="",0,VLOOKUP(K381,Affiliation_Table,3,FALSE))+IF(L381="",0,VLOOKUP(L381,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>8202</v>
       </c>
       <c r="F381">
@@ -14778,11 +14597,11 @@
         <v>12</v>
       </c>
       <c r="D382">
-        <f>COUNTIF(G382:L382,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E382">
-        <f>IF(G382="",0,VLOOKUP(G382,Affiliation_Table,3,FALSE))+IF(H382="",0,VLOOKUP(H382,Affiliation_Table,3,FALSE))+IF(I382="",0,VLOOKUP(I382,Affiliation_Table,3,FALSE))+IF(J382="",0,VLOOKUP(J382,Affiliation_Table,3,FALSE))+IF(K382="",0,VLOOKUP(K382,Affiliation_Table,3,FALSE))+IF(L382="",0,VLOOKUP(L382,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>8194</v>
       </c>
       <c r="F382">
@@ -14810,11 +14629,11 @@
         <v>8</v>
       </c>
       <c r="D383">
-        <f>COUNTIF(G383:L383,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E383">
-        <f>IF(G383="",0,VLOOKUP(G383,Affiliation_Table,3,FALSE))+IF(H383="",0,VLOOKUP(H383,Affiliation_Table,3,FALSE))+IF(I383="",0,VLOOKUP(I383,Affiliation_Table,3,FALSE))+IF(J383="",0,VLOOKUP(J383,Affiliation_Table,3,FALSE))+IF(K383="",0,VLOOKUP(K383,Affiliation_Table,3,FALSE))+IF(L383="",0,VLOOKUP(L383,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>8202</v>
       </c>
       <c r="F383">
@@ -14844,11 +14663,11 @@
         <v>11</v>
       </c>
       <c r="D384">
-        <f>COUNTIF(G384:L384,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E384">
-        <f>IF(G384="",0,VLOOKUP(G384,Affiliation_Table,3,FALSE))+IF(H384="",0,VLOOKUP(H384,Affiliation_Table,3,FALSE))+IF(I384="",0,VLOOKUP(I384,Affiliation_Table,3,FALSE))+IF(J384="",0,VLOOKUP(J384,Affiliation_Table,3,FALSE))+IF(K384="",0,VLOOKUP(K384,Affiliation_Table,3,FALSE))+IF(L384="",0,VLOOKUP(L384,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>8202</v>
       </c>
       <c r="F384">
@@ -14878,11 +14697,11 @@
         <v>14</v>
       </c>
       <c r="D385">
-        <f>COUNTIF(G385:L385,"&lt;&gt;")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E385">
-        <f>IF(G385="",0,VLOOKUP(G385,Affiliation_Table,3,FALSE))+IF(H385="",0,VLOOKUP(H385,Affiliation_Table,3,FALSE))+IF(I385="",0,VLOOKUP(I385,Affiliation_Table,3,FALSE))+IF(J385="",0,VLOOKUP(J385,Affiliation_Table,3,FALSE))+IF(K385="",0,VLOOKUP(K385,Affiliation_Table,3,FALSE))+IF(L385="",0,VLOOKUP(L385,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>65540</v>
       </c>
       <c r="F385">
@@ -14910,11 +14729,11 @@
         <v>7</v>
       </c>
       <c r="D386">
-        <f>COUNTIF(G386:L386,"&lt;&gt;")</f>
+        <f t="shared" ref="D386:D449" si="12">COUNTIF(G386:L386,"&lt;&gt;")</f>
         <v>1</v>
       </c>
       <c r="E386">
-        <f>IF(G386="",0,VLOOKUP(G386,Affiliation_Table,3,FALSE))+IF(H386="",0,VLOOKUP(H386,Affiliation_Table,3,FALSE))+IF(I386="",0,VLOOKUP(I386,Affiliation_Table,3,FALSE))+IF(J386="",0,VLOOKUP(J386,Affiliation_Table,3,FALSE))+IF(K386="",0,VLOOKUP(K386,Affiliation_Table,3,FALSE))+IF(L386="",0,VLOOKUP(L386,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" ref="E386:E449" si="13">IF(G386="",0,VLOOKUP(G386,Affiliation_Table,3,FALSE))+IF(H386="",0,VLOOKUP(H386,Affiliation_Table,3,FALSE))+IF(I386="",0,VLOOKUP(I386,Affiliation_Table,3,FALSE))+IF(J386="",0,VLOOKUP(J386,Affiliation_Table,3,FALSE))+IF(K386="",0,VLOOKUP(K386,Affiliation_Table,3,FALSE))+IF(L386="",0,VLOOKUP(L386,Affiliation_Table,3,FALSE))</f>
         <v>1</v>
       </c>
       <c r="F386">
@@ -14940,11 +14759,11 @@
         <v>10</v>
       </c>
       <c r="D387">
-        <f>COUNTIF(G387:L387,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E387">
-        <f>IF(G387="",0,VLOOKUP(G387,Affiliation_Table,3,FALSE))+IF(H387="",0,VLOOKUP(H387,Affiliation_Table,3,FALSE))+IF(I387="",0,VLOOKUP(I387,Affiliation_Table,3,FALSE))+IF(J387="",0,VLOOKUP(J387,Affiliation_Table,3,FALSE))+IF(K387="",0,VLOOKUP(K387,Affiliation_Table,3,FALSE))+IF(L387="",0,VLOOKUP(L387,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>513</v>
       </c>
       <c r="F387">
@@ -14972,11 +14791,11 @@
         <v>6</v>
       </c>
       <c r="D388">
-        <f>COUNTIF(G388:L388,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E388">
-        <f>IF(G388="",0,VLOOKUP(G388,Affiliation_Table,3,FALSE))+IF(H388="",0,VLOOKUP(H388,Affiliation_Table,3,FALSE))+IF(I388="",0,VLOOKUP(I388,Affiliation_Table,3,FALSE))+IF(J388="",0,VLOOKUP(J388,Affiliation_Table,3,FALSE))+IF(K388="",0,VLOOKUP(K388,Affiliation_Table,3,FALSE))+IF(L388="",0,VLOOKUP(L388,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>65545</v>
       </c>
       <c r="F388">
@@ -15006,11 +14825,11 @@
         <v>10</v>
       </c>
       <c r="D389">
-        <f>COUNTIF(G389:L389,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E389">
-        <f>IF(G389="",0,VLOOKUP(G389,Affiliation_Table,3,FALSE))+IF(H389="",0,VLOOKUP(H389,Affiliation_Table,3,FALSE))+IF(I389="",0,VLOOKUP(I389,Affiliation_Table,3,FALSE))+IF(J389="",0,VLOOKUP(J389,Affiliation_Table,3,FALSE))+IF(K389="",0,VLOOKUP(K389,Affiliation_Table,3,FALSE))+IF(L389="",0,VLOOKUP(L389,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>270337</v>
       </c>
       <c r="F389">
@@ -15040,11 +14859,11 @@
         <v>13</v>
       </c>
       <c r="D390">
-        <f>COUNTIF(G390:L390,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="E390">
-        <f>IF(G390="",0,VLOOKUP(G390,Affiliation_Table,3,FALSE))+IF(H390="",0,VLOOKUP(H390,Affiliation_Table,3,FALSE))+IF(I390="",0,VLOOKUP(I390,Affiliation_Table,3,FALSE))+IF(J390="",0,VLOOKUP(J390,Affiliation_Table,3,FALSE))+IF(K390="",0,VLOOKUP(K390,Affiliation_Table,3,FALSE))+IF(L390="",0,VLOOKUP(L390,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>270609</v>
       </c>
       <c r="F390">
@@ -15078,11 +14897,11 @@
         <v>12</v>
       </c>
       <c r="D391">
-        <f>COUNTIF(G391:L391,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E391">
-        <f>IF(G391="",0,VLOOKUP(G391,Affiliation_Table,3,FALSE))+IF(H391="",0,VLOOKUP(H391,Affiliation_Table,3,FALSE))+IF(I391="",0,VLOOKUP(I391,Affiliation_Table,3,FALSE))+IF(J391="",0,VLOOKUP(J391,Affiliation_Table,3,FALSE))+IF(K391="",0,VLOOKUP(K391,Affiliation_Table,3,FALSE))+IF(L391="",0,VLOOKUP(L391,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>32786</v>
       </c>
       <c r="F391">
@@ -15112,11 +14931,11 @@
         <v>12</v>
       </c>
       <c r="D392">
-        <f>COUNTIF(G392:L392,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E392">
-        <f>IF(G392="",0,VLOOKUP(G392,Affiliation_Table,3,FALSE))+IF(H392="",0,VLOOKUP(H392,Affiliation_Table,3,FALSE))+IF(I392="",0,VLOOKUP(I392,Affiliation_Table,3,FALSE))+IF(J392="",0,VLOOKUP(J392,Affiliation_Table,3,FALSE))+IF(K392="",0,VLOOKUP(K392,Affiliation_Table,3,FALSE))+IF(L392="",0,VLOOKUP(L392,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>32785</v>
       </c>
       <c r="F392">
@@ -15146,11 +14965,11 @@
         <v>10</v>
       </c>
       <c r="D393">
-        <f>COUNTIF(G393:L393,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E393">
-        <f>IF(G393="",0,VLOOKUP(G393,Affiliation_Table,3,FALSE))+IF(H393="",0,VLOOKUP(H393,Affiliation_Table,3,FALSE))+IF(I393="",0,VLOOKUP(I393,Affiliation_Table,3,FALSE))+IF(J393="",0,VLOOKUP(J393,Affiliation_Table,3,FALSE))+IF(K393="",0,VLOOKUP(K393,Affiliation_Table,3,FALSE))+IF(L393="",0,VLOOKUP(L393,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>65540</v>
       </c>
       <c r="F393">
@@ -15178,11 +14997,11 @@
         <v>14</v>
       </c>
       <c r="D394">
-        <f>COUNTIF(G394:L394,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E394">
-        <f>IF(G394="",0,VLOOKUP(G394,Affiliation_Table,3,FALSE))+IF(H394="",0,VLOOKUP(H394,Affiliation_Table,3,FALSE))+IF(I394="",0,VLOOKUP(I394,Affiliation_Table,3,FALSE))+IF(J394="",0,VLOOKUP(J394,Affiliation_Table,3,FALSE))+IF(K394="",0,VLOOKUP(K394,Affiliation_Table,3,FALSE))+IF(L394="",0,VLOOKUP(L394,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>786433</v>
       </c>
       <c r="F394">
@@ -15212,11 +15031,11 @@
         <v>13</v>
       </c>
       <c r="D395">
-        <f>COUNTIF(G395:L395,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E395">
-        <f>IF(G395="",0,VLOOKUP(G395,Affiliation_Table,3,FALSE))+IF(H395="",0,VLOOKUP(H395,Affiliation_Table,3,FALSE))+IF(I395="",0,VLOOKUP(I395,Affiliation_Table,3,FALSE))+IF(J395="",0,VLOOKUP(J395,Affiliation_Table,3,FALSE))+IF(K395="",0,VLOOKUP(K395,Affiliation_Table,3,FALSE))+IF(L395="",0,VLOOKUP(L395,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>32777</v>
       </c>
       <c r="F395">
@@ -15246,11 +15065,11 @@
         <v>12</v>
       </c>
       <c r="D396">
-        <f>COUNTIF(G396:L396,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E396">
-        <f>IF(G396="",0,VLOOKUP(G396,Affiliation_Table,3,FALSE))+IF(H396="",0,VLOOKUP(H396,Affiliation_Table,3,FALSE))+IF(I396="",0,VLOOKUP(I396,Affiliation_Table,3,FALSE))+IF(J396="",0,VLOOKUP(J396,Affiliation_Table,3,FALSE))+IF(K396="",0,VLOOKUP(K396,Affiliation_Table,3,FALSE))+IF(L396="",0,VLOOKUP(L396,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>32785</v>
       </c>
       <c r="F396">
@@ -15280,11 +15099,11 @@
         <v>13</v>
       </c>
       <c r="D397">
-        <f>COUNTIF(G397:L397,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E397">
-        <f>IF(G397="",0,VLOOKUP(G397,Affiliation_Table,3,FALSE))+IF(H397="",0,VLOOKUP(H397,Affiliation_Table,3,FALSE))+IF(I397="",0,VLOOKUP(I397,Affiliation_Table,3,FALSE))+IF(J397="",0,VLOOKUP(J397,Affiliation_Table,3,FALSE))+IF(K397="",0,VLOOKUP(K397,Affiliation_Table,3,FALSE))+IF(L397="",0,VLOOKUP(L397,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>8194</v>
       </c>
       <c r="F397">
@@ -15312,11 +15131,11 @@
         <v>9</v>
       </c>
       <c r="D398">
-        <f>COUNTIF(G398:L398,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E398">
-        <f>IF(G398="",0,VLOOKUP(G398,Affiliation_Table,3,FALSE))+IF(H398="",0,VLOOKUP(H398,Affiliation_Table,3,FALSE))+IF(I398="",0,VLOOKUP(I398,Affiliation_Table,3,FALSE))+IF(J398="",0,VLOOKUP(J398,Affiliation_Table,3,FALSE))+IF(K398="",0,VLOOKUP(K398,Affiliation_Table,3,FALSE))+IF(L398="",0,VLOOKUP(L398,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>262145</v>
       </c>
       <c r="F398">
@@ -15344,11 +15163,11 @@
         <v>16</v>
       </c>
       <c r="D399">
-        <f>COUNTIF(G399:L399,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E399">
-        <f>IF(G399="",0,VLOOKUP(G399,Affiliation_Table,3,FALSE))+IF(H399="",0,VLOOKUP(H399,Affiliation_Table,3,FALSE))+IF(I399="",0,VLOOKUP(I399,Affiliation_Table,3,FALSE))+IF(J399="",0,VLOOKUP(J399,Affiliation_Table,3,FALSE))+IF(K399="",0,VLOOKUP(K399,Affiliation_Table,3,FALSE))+IF(L399="",0,VLOOKUP(L399,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>256</v>
       </c>
       <c r="F399">
@@ -15374,11 +15193,11 @@
         <v>8</v>
       </c>
       <c r="D400">
-        <f>COUNTIF(G400:L400,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E400">
-        <f>IF(G400="",0,VLOOKUP(G400,Affiliation_Table,3,FALSE))+IF(H400="",0,VLOOKUP(H400,Affiliation_Table,3,FALSE))+IF(I400="",0,VLOOKUP(I400,Affiliation_Table,3,FALSE))+IF(J400="",0,VLOOKUP(J400,Affiliation_Table,3,FALSE))+IF(K400="",0,VLOOKUP(K400,Affiliation_Table,3,FALSE))+IF(L400="",0,VLOOKUP(L400,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>32785</v>
       </c>
       <c r="F400">
@@ -15408,11 +15227,11 @@
         <v>12</v>
       </c>
       <c r="D401">
-        <f>COUNTIF(G401:L401,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E401">
-        <f>IF(G401="",0,VLOOKUP(G401,Affiliation_Table,3,FALSE))+IF(H401="",0,VLOOKUP(H401,Affiliation_Table,3,FALSE))+IF(I401="",0,VLOOKUP(I401,Affiliation_Table,3,FALSE))+IF(J401="",0,VLOOKUP(J401,Affiliation_Table,3,FALSE))+IF(K401="",0,VLOOKUP(K401,Affiliation_Table,3,FALSE))+IF(L401="",0,VLOOKUP(L401,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>8193</v>
       </c>
       <c r="F401">
@@ -15440,11 +15259,11 @@
         <v>8</v>
       </c>
       <c r="D402">
-        <f>COUNTIF(G402:L402,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E402">
-        <f>IF(G402="",0,VLOOKUP(G402,Affiliation_Table,3,FALSE))+IF(H402="",0,VLOOKUP(H402,Affiliation_Table,3,FALSE))+IF(I402="",0,VLOOKUP(I402,Affiliation_Table,3,FALSE))+IF(J402="",0,VLOOKUP(J402,Affiliation_Table,3,FALSE))+IF(K402="",0,VLOOKUP(K402,Affiliation_Table,3,FALSE))+IF(L402="",0,VLOOKUP(L402,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>65537</v>
       </c>
       <c r="F402">
@@ -15472,11 +15291,11 @@
         <v>11</v>
       </c>
       <c r="D403">
-        <f>COUNTIF(G403:L403,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E403">
-        <f>IF(G403="",0,VLOOKUP(G403,Affiliation_Table,3,FALSE))+IF(H403="",0,VLOOKUP(H403,Affiliation_Table,3,FALSE))+IF(I403="",0,VLOOKUP(I403,Affiliation_Table,3,FALSE))+IF(J403="",0,VLOOKUP(J403,Affiliation_Table,3,FALSE))+IF(K403="",0,VLOOKUP(K403,Affiliation_Table,3,FALSE))+IF(L403="",0,VLOOKUP(L403,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>32785</v>
       </c>
       <c r="F403">
@@ -15506,11 +15325,11 @@
         <v>10</v>
       </c>
       <c r="D404">
-        <f>COUNTIF(G404:L404,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E404">
-        <f>IF(G404="",0,VLOOKUP(G404,Affiliation_Table,3,FALSE))+IF(H404="",0,VLOOKUP(H404,Affiliation_Table,3,FALSE))+IF(I404="",0,VLOOKUP(I404,Affiliation_Table,3,FALSE))+IF(J404="",0,VLOOKUP(J404,Affiliation_Table,3,FALSE))+IF(K404="",0,VLOOKUP(K404,Affiliation_Table,3,FALSE))+IF(L404="",0,VLOOKUP(L404,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>32785</v>
       </c>
       <c r="F404">
@@ -15540,11 +15359,11 @@
         <v>15</v>
       </c>
       <c r="D405">
-        <f>COUNTIF(G405:L405,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E405">
-        <f>IF(G405="",0,VLOOKUP(G405,Affiliation_Table,3,FALSE))+IF(H405="",0,VLOOKUP(H405,Affiliation_Table,3,FALSE))+IF(I405="",0,VLOOKUP(I405,Affiliation_Table,3,FALSE))+IF(J405="",0,VLOOKUP(J405,Affiliation_Table,3,FALSE))+IF(K405="",0,VLOOKUP(K405,Affiliation_Table,3,FALSE))+IF(L405="",0,VLOOKUP(L405,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>65540</v>
       </c>
       <c r="F405">
@@ -15572,11 +15391,11 @@
         <v>12</v>
       </c>
       <c r="D406">
-        <f>COUNTIF(G406:L406,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E406">
-        <f>IF(G406="",0,VLOOKUP(G406,Affiliation_Table,3,FALSE))+IF(H406="",0,VLOOKUP(H406,Affiliation_Table,3,FALSE))+IF(I406="",0,VLOOKUP(I406,Affiliation_Table,3,FALSE))+IF(J406="",0,VLOOKUP(J406,Affiliation_Table,3,FALSE))+IF(K406="",0,VLOOKUP(K406,Affiliation_Table,3,FALSE))+IF(L406="",0,VLOOKUP(L406,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>65540</v>
       </c>
       <c r="F406">
@@ -15604,11 +15423,11 @@
         <v>9</v>
       </c>
       <c r="D407">
-        <f>COUNTIF(G407:L407,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E407">
-        <f>IF(G407="",0,VLOOKUP(G407,Affiliation_Table,3,FALSE))+IF(H407="",0,VLOOKUP(H407,Affiliation_Table,3,FALSE))+IF(I407="",0,VLOOKUP(I407,Affiliation_Table,3,FALSE))+IF(J407="",0,VLOOKUP(J407,Affiliation_Table,3,FALSE))+IF(K407="",0,VLOOKUP(K407,Affiliation_Table,3,FALSE))+IF(L407="",0,VLOOKUP(L407,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>65540</v>
       </c>
       <c r="F407">
@@ -15636,11 +15455,11 @@
         <v>11</v>
       </c>
       <c r="D408">
-        <f>COUNTIF(G408:L408,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E408">
-        <f>IF(G408="",0,VLOOKUP(G408,Affiliation_Table,3,FALSE))+IF(H408="",0,VLOOKUP(H408,Affiliation_Table,3,FALSE))+IF(I408="",0,VLOOKUP(I408,Affiliation_Table,3,FALSE))+IF(J408="",0,VLOOKUP(J408,Affiliation_Table,3,FALSE))+IF(K408="",0,VLOOKUP(K408,Affiliation_Table,3,FALSE))+IF(L408="",0,VLOOKUP(L408,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>32785</v>
       </c>
       <c r="F408">
@@ -15670,11 +15489,11 @@
         <v>15</v>
       </c>
       <c r="D409">
-        <f>COUNTIF(G409:L409,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E409">
-        <f>IF(G409="",0,VLOOKUP(G409,Affiliation_Table,3,FALSE))+IF(H409="",0,VLOOKUP(H409,Affiliation_Table,3,FALSE))+IF(I409="",0,VLOOKUP(I409,Affiliation_Table,3,FALSE))+IF(J409="",0,VLOOKUP(J409,Affiliation_Table,3,FALSE))+IF(K409="",0,VLOOKUP(K409,Affiliation_Table,3,FALSE))+IF(L409="",0,VLOOKUP(L409,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>262145</v>
       </c>
       <c r="F409">
@@ -15702,11 +15521,11 @@
         <v>10</v>
       </c>
       <c r="D410">
-        <f>COUNTIF(G410:L410,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E410">
-        <f>IF(G410="",0,VLOOKUP(G410,Affiliation_Table,3,FALSE))+IF(H410="",0,VLOOKUP(H410,Affiliation_Table,3,FALSE))+IF(I410="",0,VLOOKUP(I410,Affiliation_Table,3,FALSE))+IF(J410="",0,VLOOKUP(J410,Affiliation_Table,3,FALSE))+IF(K410="",0,VLOOKUP(K410,Affiliation_Table,3,FALSE))+IF(L410="",0,VLOOKUP(L410,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>32785</v>
       </c>
       <c r="F410">
@@ -15736,11 +15555,11 @@
         <v>11</v>
       </c>
       <c r="D411">
-        <f>COUNTIF(G411:L411,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="E411">
-        <f>IF(G411="",0,VLOOKUP(G411,Affiliation_Table,3,FALSE))+IF(H411="",0,VLOOKUP(H411,Affiliation_Table,3,FALSE))+IF(I411="",0,VLOOKUP(I411,Affiliation_Table,3,FALSE))+IF(J411="",0,VLOOKUP(J411,Affiliation_Table,3,FALSE))+IF(K411="",0,VLOOKUP(K411,Affiliation_Table,3,FALSE))+IF(L411="",0,VLOOKUP(L411,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>36874</v>
       </c>
       <c r="F411">
@@ -15772,11 +15591,11 @@
         <v>8</v>
       </c>
       <c r="D412">
-        <f>COUNTIF(G412:L412,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E412">
-        <f>IF(G412="",0,VLOOKUP(G412,Affiliation_Table,3,FALSE))+IF(H412="",0,VLOOKUP(H412,Affiliation_Table,3,FALSE))+IF(I412="",0,VLOOKUP(I412,Affiliation_Table,3,FALSE))+IF(J412="",0,VLOOKUP(J412,Affiliation_Table,3,FALSE))+IF(K412="",0,VLOOKUP(K412,Affiliation_Table,3,FALSE))+IF(L412="",0,VLOOKUP(L412,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>36866</v>
       </c>
       <c r="F412">
@@ -15806,11 +15625,11 @@
         <v>13</v>
       </c>
       <c r="D413">
-        <f>COUNTIF(G413:L413,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E413">
-        <f>IF(G413="",0,VLOOKUP(G413,Affiliation_Table,3,FALSE))+IF(H413="",0,VLOOKUP(H413,Affiliation_Table,3,FALSE))+IF(I413="",0,VLOOKUP(I413,Affiliation_Table,3,FALSE))+IF(J413="",0,VLOOKUP(J413,Affiliation_Table,3,FALSE))+IF(K413="",0,VLOOKUP(K413,Affiliation_Table,3,FALSE))+IF(L413="",0,VLOOKUP(L413,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>786433</v>
       </c>
       <c r="F413">
@@ -15840,11 +15659,11 @@
         <v>11</v>
       </c>
       <c r="D414">
-        <f>COUNTIF(G414:L414,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E414">
-        <f>IF(G414="",0,VLOOKUP(G414,Affiliation_Table,3,FALSE))+IF(H414="",0,VLOOKUP(H414,Affiliation_Table,3,FALSE))+IF(I414="",0,VLOOKUP(I414,Affiliation_Table,3,FALSE))+IF(J414="",0,VLOOKUP(J414,Affiliation_Table,3,FALSE))+IF(K414="",0,VLOOKUP(K414,Affiliation_Table,3,FALSE))+IF(L414="",0,VLOOKUP(L414,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>32769</v>
       </c>
       <c r="F414">
@@ -15872,11 +15691,11 @@
         <v>8</v>
       </c>
       <c r="D415">
-        <f>COUNTIF(G415:L415,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E415">
-        <f>IF(G415="",0,VLOOKUP(G415,Affiliation_Table,3,FALSE))+IF(H415="",0,VLOOKUP(H415,Affiliation_Table,3,FALSE))+IF(I415="",0,VLOOKUP(I415,Affiliation_Table,3,FALSE))+IF(J415="",0,VLOOKUP(J415,Affiliation_Table,3,FALSE))+IF(K415="",0,VLOOKUP(K415,Affiliation_Table,3,FALSE))+IF(L415="",0,VLOOKUP(L415,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>36865</v>
       </c>
       <c r="F415">
@@ -15906,11 +15725,11 @@
         <v>19</v>
       </c>
       <c r="D416">
-        <f>COUNTIF(G416:L416,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E416">
-        <f>IF(G416="",0,VLOOKUP(G416,Affiliation_Table,3,FALSE))+IF(H416="",0,VLOOKUP(H416,Affiliation_Table,3,FALSE))+IF(I416="",0,VLOOKUP(I416,Affiliation_Table,3,FALSE))+IF(J416="",0,VLOOKUP(J416,Affiliation_Table,3,FALSE))+IF(K416="",0,VLOOKUP(K416,Affiliation_Table,3,FALSE))+IF(L416="",0,VLOOKUP(L416,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="F416">
@@ -15936,11 +15755,11 @@
         <v>8</v>
       </c>
       <c r="D417">
-        <f>COUNTIF(G417:L417,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E417">
-        <f>IF(G417="",0,VLOOKUP(G417,Affiliation_Table,3,FALSE))+IF(H417="",0,VLOOKUP(H417,Affiliation_Table,3,FALSE))+IF(I417="",0,VLOOKUP(I417,Affiliation_Table,3,FALSE))+IF(J417="",0,VLOOKUP(J417,Affiliation_Table,3,FALSE))+IF(K417="",0,VLOOKUP(K417,Affiliation_Table,3,FALSE))+IF(L417="",0,VLOOKUP(L417,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>65537</v>
       </c>
       <c r="F417">
@@ -15968,11 +15787,11 @@
         <v>10</v>
       </c>
       <c r="D418">
-        <f>COUNTIF(G418:L418,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E418">
-        <f>IF(G418="",0,VLOOKUP(G418,Affiliation_Table,3,FALSE))+IF(H418="",0,VLOOKUP(H418,Affiliation_Table,3,FALSE))+IF(I418="",0,VLOOKUP(I418,Affiliation_Table,3,FALSE))+IF(J418="",0,VLOOKUP(J418,Affiliation_Table,3,FALSE))+IF(K418="",0,VLOOKUP(K418,Affiliation_Table,3,FALSE))+IF(L418="",0,VLOOKUP(L418,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>32785</v>
       </c>
       <c r="F418">
@@ -16002,11 +15821,11 @@
         <v>12</v>
       </c>
       <c r="D419">
-        <f>COUNTIF(G419:L419,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E419">
-        <f>IF(G419="",0,VLOOKUP(G419,Affiliation_Table,3,FALSE))+IF(H419="",0,VLOOKUP(H419,Affiliation_Table,3,FALSE))+IF(I419="",0,VLOOKUP(I419,Affiliation_Table,3,FALSE))+IF(J419="",0,VLOOKUP(J419,Affiliation_Table,3,FALSE))+IF(K419="",0,VLOOKUP(K419,Affiliation_Table,3,FALSE))+IF(L419="",0,VLOOKUP(L419,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>16388</v>
       </c>
       <c r="F419">
@@ -16034,11 +15853,11 @@
         <v>12</v>
       </c>
       <c r="D420">
-        <f>COUNTIF(G420:L420,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E420">
-        <f>IF(G420="",0,VLOOKUP(G420,Affiliation_Table,3,FALSE))+IF(H420="",0,VLOOKUP(H420,Affiliation_Table,3,FALSE))+IF(I420="",0,VLOOKUP(I420,Affiliation_Table,3,FALSE))+IF(J420="",0,VLOOKUP(J420,Affiliation_Table,3,FALSE))+IF(K420="",0,VLOOKUP(K420,Affiliation_Table,3,FALSE))+IF(L420="",0,VLOOKUP(L420,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>32772</v>
       </c>
       <c r="F420">
@@ -16066,11 +15885,11 @@
         <v>13</v>
       </c>
       <c r="D421">
-        <f>COUNTIF(G421:L421,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E421">
-        <f>IF(G421="",0,VLOOKUP(G421,Affiliation_Table,3,FALSE))+IF(H421="",0,VLOOKUP(H421,Affiliation_Table,3,FALSE))+IF(I421="",0,VLOOKUP(I421,Affiliation_Table,3,FALSE))+IF(J421="",0,VLOOKUP(J421,Affiliation_Table,3,FALSE))+IF(K421="",0,VLOOKUP(K421,Affiliation_Table,3,FALSE))+IF(L421="",0,VLOOKUP(L421,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>32772</v>
       </c>
       <c r="F421">
@@ -16098,11 +15917,11 @@
         <v>12</v>
       </c>
       <c r="D422">
-        <f>COUNTIF(G422:L422,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E422">
-        <f>IF(G422="",0,VLOOKUP(G422,Affiliation_Table,3,FALSE))+IF(H422="",0,VLOOKUP(H422,Affiliation_Table,3,FALSE))+IF(I422="",0,VLOOKUP(I422,Affiliation_Table,3,FALSE))+IF(J422="",0,VLOOKUP(J422,Affiliation_Table,3,FALSE))+IF(K422="",0,VLOOKUP(K422,Affiliation_Table,3,FALSE))+IF(L422="",0,VLOOKUP(L422,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>16388</v>
       </c>
       <c r="F422">
@@ -16130,11 +15949,11 @@
         <v>7</v>
       </c>
       <c r="D423">
-        <f>COUNTIF(G423:L423,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E423">
-        <f>IF(G423="",0,VLOOKUP(G423,Affiliation_Table,3,FALSE))+IF(H423="",0,VLOOKUP(H423,Affiliation_Table,3,FALSE))+IF(I423="",0,VLOOKUP(I423,Affiliation_Table,3,FALSE))+IF(J423="",0,VLOOKUP(J423,Affiliation_Table,3,FALSE))+IF(K423="",0,VLOOKUP(K423,Affiliation_Table,3,FALSE))+IF(L423="",0,VLOOKUP(L423,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>786688</v>
       </c>
       <c r="F423">
@@ -16164,11 +15983,11 @@
         <v>10</v>
       </c>
       <c r="D424">
-        <f>COUNTIF(G424:L424,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E424">
-        <f>IF(G424="",0,VLOOKUP(G424,Affiliation_Table,3,FALSE))+IF(H424="",0,VLOOKUP(H424,Affiliation_Table,3,FALSE))+IF(I424="",0,VLOOKUP(I424,Affiliation_Table,3,FALSE))+IF(J424="",0,VLOOKUP(J424,Affiliation_Table,3,FALSE))+IF(K424="",0,VLOOKUP(K424,Affiliation_Table,3,FALSE))+IF(L424="",0,VLOOKUP(L424,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>8388609</v>
       </c>
       <c r="F424">
@@ -16192,11 +16011,11 @@
         <v>13</v>
       </c>
       <c r="D425">
-        <f>COUNTIF(G425:L425,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E425">
-        <f>IF(G425="",0,VLOOKUP(G425,Affiliation_Table,3,FALSE))+IF(H425="",0,VLOOKUP(H425,Affiliation_Table,3,FALSE))+IF(I425="",0,VLOOKUP(I425,Affiliation_Table,3,FALSE))+IF(J425="",0,VLOOKUP(J425,Affiliation_Table,3,FALSE))+IF(K425="",0,VLOOKUP(K425,Affiliation_Table,3,FALSE))+IF(L425="",0,VLOOKUP(L425,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>8193</v>
       </c>
       <c r="F425">
@@ -16224,11 +16043,11 @@
         <v>16</v>
       </c>
       <c r="D426">
-        <f>COUNTIF(G426:L426,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E426">
-        <f>IF(G426="",0,VLOOKUP(G426,Affiliation_Table,3,FALSE))+IF(H426="",0,VLOOKUP(H426,Affiliation_Table,3,FALSE))+IF(I426="",0,VLOOKUP(I426,Affiliation_Table,3,FALSE))+IF(J426="",0,VLOOKUP(J426,Affiliation_Table,3,FALSE))+IF(K426="",0,VLOOKUP(K426,Affiliation_Table,3,FALSE))+IF(L426="",0,VLOOKUP(L426,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>256</v>
       </c>
       <c r="F426">
@@ -16254,11 +16073,11 @@
         <v>10</v>
       </c>
       <c r="D427">
-        <f>COUNTIF(G427:L427,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E427">
-        <f>IF(G427="",0,VLOOKUP(G427,Affiliation_Table,3,FALSE))+IF(H427="",0,VLOOKUP(H427,Affiliation_Table,3,FALSE))+IF(I427="",0,VLOOKUP(I427,Affiliation_Table,3,FALSE))+IF(J427="",0,VLOOKUP(J427,Affiliation_Table,3,FALSE))+IF(K427="",0,VLOOKUP(K427,Affiliation_Table,3,FALSE))+IF(L427="",0,VLOOKUP(L427,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>2097153</v>
       </c>
       <c r="F427">
@@ -16286,11 +16105,11 @@
         <v>12</v>
       </c>
       <c r="D428">
-        <f>COUNTIF(G428:L428,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E428">
-        <f>IF(G428="",0,VLOOKUP(G428,Affiliation_Table,3,FALSE))+IF(H428="",0,VLOOKUP(H428,Affiliation_Table,3,FALSE))+IF(I428="",0,VLOOKUP(I428,Affiliation_Table,3,FALSE))+IF(J428="",0,VLOOKUP(J428,Affiliation_Table,3,FALSE))+IF(K428="",0,VLOOKUP(K428,Affiliation_Table,3,FALSE))+IF(L428="",0,VLOOKUP(L428,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>36865</v>
       </c>
       <c r="F428">
@@ -16320,11 +16139,11 @@
         <v>10</v>
       </c>
       <c r="D429">
-        <f>COUNTIF(G429:L429,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E429">
-        <f>IF(G429="",0,VLOOKUP(G429,Affiliation_Table,3,FALSE))+IF(H429="",0,VLOOKUP(H429,Affiliation_Table,3,FALSE))+IF(I429="",0,VLOOKUP(I429,Affiliation_Table,3,FALSE))+IF(J429="",0,VLOOKUP(J429,Affiliation_Table,3,FALSE))+IF(K429="",0,VLOOKUP(K429,Affiliation_Table,3,FALSE))+IF(L429="",0,VLOOKUP(L429,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>65537</v>
       </c>
       <c r="F429">
@@ -16352,11 +16171,11 @@
         <v>9</v>
       </c>
       <c r="D430">
-        <f>COUNTIF(G430:L430,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E430">
-        <f>IF(G430="",0,VLOOKUP(G430,Affiliation_Table,3,FALSE))+IF(H430="",0,VLOOKUP(H430,Affiliation_Table,3,FALSE))+IF(I430="",0,VLOOKUP(I430,Affiliation_Table,3,FALSE))+IF(J430="",0,VLOOKUP(J430,Affiliation_Table,3,FALSE))+IF(K430="",0,VLOOKUP(K430,Affiliation_Table,3,FALSE))+IF(L430="",0,VLOOKUP(L430,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>16385</v>
       </c>
       <c r="F430">
@@ -16384,11 +16203,11 @@
         <v>9</v>
       </c>
       <c r="D431">
-        <f>COUNTIF(G431:L431,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E431">
-        <f>IF(G431="",0,VLOOKUP(G431,Affiliation_Table,3,FALSE))+IF(H431="",0,VLOOKUP(H431,Affiliation_Table,3,FALSE))+IF(I431="",0,VLOOKUP(I431,Affiliation_Table,3,FALSE))+IF(J431="",0,VLOOKUP(J431,Affiliation_Table,3,FALSE))+IF(K431="",0,VLOOKUP(K431,Affiliation_Table,3,FALSE))+IF(L431="",0,VLOOKUP(L431,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>16385</v>
       </c>
       <c r="F431">
@@ -16416,11 +16235,11 @@
         <v>10</v>
       </c>
       <c r="D432">
-        <f>COUNTIF(G432:L432,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E432">
-        <f>IF(G432="",0,VLOOKUP(G432,Affiliation_Table,3,FALSE))+IF(H432="",0,VLOOKUP(H432,Affiliation_Table,3,FALSE))+IF(I432="",0,VLOOKUP(I432,Affiliation_Table,3,FALSE))+IF(J432="",0,VLOOKUP(J432,Affiliation_Table,3,FALSE))+IF(K432="",0,VLOOKUP(K432,Affiliation_Table,3,FALSE))+IF(L432="",0,VLOOKUP(L432,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>65540</v>
       </c>
       <c r="F432">
@@ -16448,11 +16267,11 @@
         <v>11</v>
       </c>
       <c r="D433">
-        <f>COUNTIF(G433:L433,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E433">
-        <f>IF(G433="",0,VLOOKUP(G433,Affiliation_Table,3,FALSE))+IF(H433="",0,VLOOKUP(H433,Affiliation_Table,3,FALSE))+IF(I433="",0,VLOOKUP(I433,Affiliation_Table,3,FALSE))+IF(J433="",0,VLOOKUP(J433,Affiliation_Table,3,FALSE))+IF(K433="",0,VLOOKUP(K433,Affiliation_Table,3,FALSE))+IF(L433="",0,VLOOKUP(L433,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>8388609</v>
       </c>
       <c r="F433">
@@ -16480,11 +16299,11 @@
         <v>8</v>
       </c>
       <c r="D434">
-        <f>COUNTIF(G434:L434,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E434">
-        <f>IF(G434="",0,VLOOKUP(G434,Affiliation_Table,3,FALSE))+IF(H434="",0,VLOOKUP(H434,Affiliation_Table,3,FALSE))+IF(I434="",0,VLOOKUP(I434,Affiliation_Table,3,FALSE))+IF(J434="",0,VLOOKUP(J434,Affiliation_Table,3,FALSE))+IF(K434="",0,VLOOKUP(K434,Affiliation_Table,3,FALSE))+IF(L434="",0,VLOOKUP(L434,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>32785</v>
       </c>
       <c r="F434">
@@ -16514,11 +16333,11 @@
         <v>11</v>
       </c>
       <c r="D435">
-        <f>COUNTIF(G435:L435,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E435">
-        <f>IF(G435="",0,VLOOKUP(G435,Affiliation_Table,3,FALSE))+IF(H435="",0,VLOOKUP(H435,Affiliation_Table,3,FALSE))+IF(I435="",0,VLOOKUP(I435,Affiliation_Table,3,FALSE))+IF(J435="",0,VLOOKUP(J435,Affiliation_Table,3,FALSE))+IF(K435="",0,VLOOKUP(K435,Affiliation_Table,3,FALSE))+IF(L435="",0,VLOOKUP(L435,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>32786</v>
       </c>
       <c r="F435">
@@ -16548,11 +16367,11 @@
         <v>12</v>
       </c>
       <c r="D436">
-        <f>COUNTIF(G436:L436,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E436">
-        <f>IF(G436="",0,VLOOKUP(G436,Affiliation_Table,3,FALSE))+IF(H436="",0,VLOOKUP(H436,Affiliation_Table,3,FALSE))+IF(I436="",0,VLOOKUP(I436,Affiliation_Table,3,FALSE))+IF(J436="",0,VLOOKUP(J436,Affiliation_Table,3,FALSE))+IF(K436="",0,VLOOKUP(K436,Affiliation_Table,3,FALSE))+IF(L436="",0,VLOOKUP(L436,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>16385</v>
       </c>
       <c r="F436">
@@ -16576,11 +16395,11 @@
         <v>11</v>
       </c>
       <c r="D437">
-        <f>COUNTIF(G437:L437,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E437">
-        <f>IF(G437="",0,VLOOKUP(G437,Affiliation_Table,3,FALSE))+IF(H437="",0,VLOOKUP(H437,Affiliation_Table,3,FALSE))+IF(I437="",0,VLOOKUP(I437,Affiliation_Table,3,FALSE))+IF(J437="",0,VLOOKUP(J437,Affiliation_Table,3,FALSE))+IF(K437="",0,VLOOKUP(K437,Affiliation_Table,3,FALSE))+IF(L437="",0,VLOOKUP(L437,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>32770</v>
       </c>
       <c r="F437">
@@ -16608,11 +16427,11 @@
         <v>9</v>
       </c>
       <c r="D438">
-        <f>COUNTIF(G438:L438,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E438">
-        <f>IF(G438="",0,VLOOKUP(G438,Affiliation_Table,3,FALSE))+IF(H438="",0,VLOOKUP(H438,Affiliation_Table,3,FALSE))+IF(I438="",0,VLOOKUP(I438,Affiliation_Table,3,FALSE))+IF(J438="",0,VLOOKUP(J438,Affiliation_Table,3,FALSE))+IF(K438="",0,VLOOKUP(K438,Affiliation_Table,3,FALSE))+IF(L438="",0,VLOOKUP(L438,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>16385</v>
       </c>
       <c r="F438">
@@ -16640,11 +16459,11 @@
         <v>21</v>
       </c>
       <c r="D439">
-        <f>COUNTIF(G439:L439,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E439">
-        <f>IF(G439="",0,VLOOKUP(G439,Affiliation_Table,3,FALSE))+IF(H439="",0,VLOOKUP(H439,Affiliation_Table,3,FALSE))+IF(I439="",0,VLOOKUP(I439,Affiliation_Table,3,FALSE))+IF(J439="",0,VLOOKUP(J439,Affiliation_Table,3,FALSE))+IF(K439="",0,VLOOKUP(K439,Affiliation_Table,3,FALSE))+IF(L439="",0,VLOOKUP(L439,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>32786</v>
       </c>
       <c r="F439">
@@ -16674,11 +16493,11 @@
         <v>9</v>
       </c>
       <c r="D440">
-        <f>COUNTIF(G440:L440,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E440">
-        <f>IF(G440="",0,VLOOKUP(G440,Affiliation_Table,3,FALSE))+IF(H440="",0,VLOOKUP(H440,Affiliation_Table,3,FALSE))+IF(I440="",0,VLOOKUP(I440,Affiliation_Table,3,FALSE))+IF(J440="",0,VLOOKUP(J440,Affiliation_Table,3,FALSE))+IF(K440="",0,VLOOKUP(K440,Affiliation_Table,3,FALSE))+IF(L440="",0,VLOOKUP(L440,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>16385</v>
       </c>
       <c r="F440">
@@ -16706,11 +16525,11 @@
         <v>8</v>
       </c>
       <c r="D441">
-        <f>COUNTIF(G441:L441,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E441">
-        <f>IF(G441="",0,VLOOKUP(G441,Affiliation_Table,3,FALSE))+IF(H441="",0,VLOOKUP(H441,Affiliation_Table,3,FALSE))+IF(I441="",0,VLOOKUP(I441,Affiliation_Table,3,FALSE))+IF(J441="",0,VLOOKUP(J441,Affiliation_Table,3,FALSE))+IF(K441="",0,VLOOKUP(K441,Affiliation_Table,3,FALSE))+IF(L441="",0,VLOOKUP(L441,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>16385</v>
       </c>
       <c r="F441">
@@ -16738,11 +16557,11 @@
         <v>10</v>
       </c>
       <c r="D442">
-        <f>COUNTIF(G442:L442,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E442">
-        <f>IF(G442="",0,VLOOKUP(G442,Affiliation_Table,3,FALSE))+IF(H442="",0,VLOOKUP(H442,Affiliation_Table,3,FALSE))+IF(I442="",0,VLOOKUP(I442,Affiliation_Table,3,FALSE))+IF(J442="",0,VLOOKUP(J442,Affiliation_Table,3,FALSE))+IF(K442="",0,VLOOKUP(K442,Affiliation_Table,3,FALSE))+IF(L442="",0,VLOOKUP(L442,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>16385</v>
       </c>
       <c r="F442">
@@ -16770,11 +16589,11 @@
         <v>8</v>
       </c>
       <c r="D443">
-        <f>COUNTIF(G443:L443,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E443">
-        <f>IF(G443="",0,VLOOKUP(G443,Affiliation_Table,3,FALSE))+IF(H443="",0,VLOOKUP(H443,Affiliation_Table,3,FALSE))+IF(I443="",0,VLOOKUP(I443,Affiliation_Table,3,FALSE))+IF(J443="",0,VLOOKUP(J443,Affiliation_Table,3,FALSE))+IF(K443="",0,VLOOKUP(K443,Affiliation_Table,3,FALSE))+IF(L443="",0,VLOOKUP(L443,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>32770</v>
       </c>
       <c r="F443">
@@ -16802,11 +16621,11 @@
         <v>10</v>
       </c>
       <c r="D444">
-        <f>COUNTIF(G444:L444,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E444">
-        <f>IF(G444="",0,VLOOKUP(G444,Affiliation_Table,3,FALSE))+IF(H444="",0,VLOOKUP(H444,Affiliation_Table,3,FALSE))+IF(I444="",0,VLOOKUP(I444,Affiliation_Table,3,FALSE))+IF(J444="",0,VLOOKUP(J444,Affiliation_Table,3,FALSE))+IF(K444="",0,VLOOKUP(K444,Affiliation_Table,3,FALSE))+IF(L444="",0,VLOOKUP(L444,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>513</v>
       </c>
       <c r="F444">
@@ -16834,11 +16653,11 @@
         <v>14</v>
       </c>
       <c r="D445">
-        <f>COUNTIF(G445:L445,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E445">
-        <f>IF(G445="",0,VLOOKUP(G445,Affiliation_Table,3,FALSE))+IF(H445="",0,VLOOKUP(H445,Affiliation_Table,3,FALSE))+IF(I445="",0,VLOOKUP(I445,Affiliation_Table,3,FALSE))+IF(J445="",0,VLOOKUP(J445,Affiliation_Table,3,FALSE))+IF(K445="",0,VLOOKUP(K445,Affiliation_Table,3,FALSE))+IF(L445="",0,VLOOKUP(L445,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>8193</v>
       </c>
       <c r="F445">
@@ -16866,11 +16685,11 @@
         <v>9</v>
       </c>
       <c r="D446">
-        <f>COUNTIF(G446:L446,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E446">
-        <f>IF(G446="",0,VLOOKUP(G446,Affiliation_Table,3,FALSE))+IF(H446="",0,VLOOKUP(H446,Affiliation_Table,3,FALSE))+IF(I446="",0,VLOOKUP(I446,Affiliation_Table,3,FALSE))+IF(J446="",0,VLOOKUP(J446,Affiliation_Table,3,FALSE))+IF(K446="",0,VLOOKUP(K446,Affiliation_Table,3,FALSE))+IF(L446="",0,VLOOKUP(L446,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>262145</v>
       </c>
       <c r="F446">
@@ -16898,11 +16717,11 @@
         <v>9</v>
       </c>
       <c r="D447">
-        <f>COUNTIF(G447:L447,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="E447">
-        <f>IF(G447="",0,VLOOKUP(G447,Affiliation_Table,3,FALSE))+IF(H447="",0,VLOOKUP(H447,Affiliation_Table,3,FALSE))+IF(I447="",0,VLOOKUP(I447,Affiliation_Table,3,FALSE))+IF(J447="",0,VLOOKUP(J447,Affiliation_Table,3,FALSE))+IF(K447="",0,VLOOKUP(K447,Affiliation_Table,3,FALSE))+IF(L447="",0,VLOOKUP(L447,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>16388</v>
       </c>
       <c r="F447">
@@ -16930,11 +16749,11 @@
         <v>14</v>
       </c>
       <c r="D448">
-        <f>COUNTIF(G448:L448,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="E448">
-        <f>IF(G448="",0,VLOOKUP(G448,Affiliation_Table,3,FALSE))+IF(H448="",0,VLOOKUP(H448,Affiliation_Table,3,FALSE))+IF(I448="",0,VLOOKUP(I448,Affiliation_Table,3,FALSE))+IF(J448="",0,VLOOKUP(J448,Affiliation_Table,3,FALSE))+IF(K448="",0,VLOOKUP(K448,Affiliation_Table,3,FALSE))+IF(L448="",0,VLOOKUP(L448,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>786433</v>
       </c>
       <c r="F448">
@@ -16964,11 +16783,11 @@
         <v>7</v>
       </c>
       <c r="D449">
-        <f>COUNTIF(G449:L449,"&lt;&gt;")</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E449">
-        <f>IF(G449="",0,VLOOKUP(G449,Affiliation_Table,3,FALSE))+IF(H449="",0,VLOOKUP(H449,Affiliation_Table,3,FALSE))+IF(I449="",0,VLOOKUP(I449,Affiliation_Table,3,FALSE))+IF(J449="",0,VLOOKUP(J449,Affiliation_Table,3,FALSE))+IF(K449="",0,VLOOKUP(K449,Affiliation_Table,3,FALSE))+IF(L449="",0,VLOOKUP(L449,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="13"/>
         <v>256</v>
       </c>
       <c r="F449">
@@ -16994,11 +16813,11 @@
         <v>7</v>
       </c>
       <c r="D450">
-        <f>COUNTIF(G450:L450,"&lt;&gt;")</f>
+        <f t="shared" ref="D450:D513" si="14">COUNTIF(G450:L450,"&lt;&gt;")</f>
         <v>2</v>
       </c>
       <c r="E450">
-        <f>IF(G450="",0,VLOOKUP(G450,Affiliation_Table,3,FALSE))+IF(H450="",0,VLOOKUP(H450,Affiliation_Table,3,FALSE))+IF(I450="",0,VLOOKUP(I450,Affiliation_Table,3,FALSE))+IF(J450="",0,VLOOKUP(J450,Affiliation_Table,3,FALSE))+IF(K450="",0,VLOOKUP(K450,Affiliation_Table,3,FALSE))+IF(L450="",0,VLOOKUP(L450,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" ref="E450:E513" si="15">IF(G450="",0,VLOOKUP(G450,Affiliation_Table,3,FALSE))+IF(H450="",0,VLOOKUP(H450,Affiliation_Table,3,FALSE))+IF(I450="",0,VLOOKUP(I450,Affiliation_Table,3,FALSE))+IF(J450="",0,VLOOKUP(J450,Affiliation_Table,3,FALSE))+IF(K450="",0,VLOOKUP(K450,Affiliation_Table,3,FALSE))+IF(L450="",0,VLOOKUP(L450,Affiliation_Table,3,FALSE))</f>
         <v>65537</v>
       </c>
       <c r="F450">
@@ -17026,11 +16845,11 @@
         <v>6</v>
       </c>
       <c r="D451">
-        <f>COUNTIF(G451:L451,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E451">
-        <f>IF(G451="",0,VLOOKUP(G451,Affiliation_Table,3,FALSE))+IF(H451="",0,VLOOKUP(H451,Affiliation_Table,3,FALSE))+IF(I451="",0,VLOOKUP(I451,Affiliation_Table,3,FALSE))+IF(J451="",0,VLOOKUP(J451,Affiliation_Table,3,FALSE))+IF(K451="",0,VLOOKUP(K451,Affiliation_Table,3,FALSE))+IF(L451="",0,VLOOKUP(L451,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>262145</v>
       </c>
       <c r="F451">
@@ -17058,11 +16877,11 @@
         <v>11</v>
       </c>
       <c r="D452">
-        <f>COUNTIF(G452:L452,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E452">
-        <f>IF(G452="",0,VLOOKUP(G452,Affiliation_Table,3,FALSE))+IF(H452="",0,VLOOKUP(H452,Affiliation_Table,3,FALSE))+IF(I452="",0,VLOOKUP(I452,Affiliation_Table,3,FALSE))+IF(J452="",0,VLOOKUP(J452,Affiliation_Table,3,FALSE))+IF(K452="",0,VLOOKUP(K452,Affiliation_Table,3,FALSE))+IF(L452="",0,VLOOKUP(L452,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>130</v>
       </c>
       <c r="F452">
@@ -17090,11 +16909,11 @@
         <v>14</v>
       </c>
       <c r="D453">
-        <f>COUNTIF(G453:L453,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E453">
-        <f>IF(G453="",0,VLOOKUP(G453,Affiliation_Table,3,FALSE))+IF(H453="",0,VLOOKUP(H453,Affiliation_Table,3,FALSE))+IF(I453="",0,VLOOKUP(I453,Affiliation_Table,3,FALSE))+IF(J453="",0,VLOOKUP(J453,Affiliation_Table,3,FALSE))+IF(K453="",0,VLOOKUP(K453,Affiliation_Table,3,FALSE))+IF(L453="",0,VLOOKUP(L453,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>514</v>
       </c>
       <c r="F453">
@@ -17122,11 +16941,11 @@
         <v>5</v>
       </c>
       <c r="D454">
-        <f>COUNTIF(G454:L454,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E454">
-        <f>IF(G454="",0,VLOOKUP(G454,Affiliation_Table,3,FALSE))+IF(H454="",0,VLOOKUP(H454,Affiliation_Table,3,FALSE))+IF(I454="",0,VLOOKUP(I454,Affiliation_Table,3,FALSE))+IF(J454="",0,VLOOKUP(J454,Affiliation_Table,3,FALSE))+IF(K454="",0,VLOOKUP(K454,Affiliation_Table,3,FALSE))+IF(L454="",0,VLOOKUP(L454,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>132</v>
       </c>
       <c r="F454">
@@ -17150,11 +16969,11 @@
         <v>6</v>
       </c>
       <c r="D455">
-        <f>COUNTIF(G455:L455,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E455">
-        <f>IF(G455="",0,VLOOKUP(G455,Affiliation_Table,3,FALSE))+IF(H455="",0,VLOOKUP(H455,Affiliation_Table,3,FALSE))+IF(I455="",0,VLOOKUP(I455,Affiliation_Table,3,FALSE))+IF(J455="",0,VLOOKUP(J455,Affiliation_Table,3,FALSE))+IF(K455="",0,VLOOKUP(K455,Affiliation_Table,3,FALSE))+IF(L455="",0,VLOOKUP(L455,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>32786</v>
       </c>
       <c r="F455">
@@ -17181,11 +17000,11 @@
         <v>6</v>
       </c>
       <c r="D456">
-        <f>COUNTIF(G456:L456,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E456">
-        <f>IF(G456="",0,VLOOKUP(G456,Affiliation_Table,3,FALSE))+IF(H456="",0,VLOOKUP(H456,Affiliation_Table,3,FALSE))+IF(I456="",0,VLOOKUP(I456,Affiliation_Table,3,FALSE))+IF(J456="",0,VLOOKUP(J456,Affiliation_Table,3,FALSE))+IF(K456="",0,VLOOKUP(K456,Affiliation_Table,3,FALSE))+IF(L456="",0,VLOOKUP(L456,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>32785</v>
       </c>
       <c r="F456">
@@ -17212,11 +17031,11 @@
         <v>3</v>
       </c>
       <c r="D457">
-        <f>COUNTIF(G457:L457,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E457">
-        <f>IF(G457="",0,VLOOKUP(G457,Affiliation_Table,3,FALSE))+IF(H457="",0,VLOOKUP(H457,Affiliation_Table,3,FALSE))+IF(I457="",0,VLOOKUP(I457,Affiliation_Table,3,FALSE))+IF(J457="",0,VLOOKUP(J457,Affiliation_Table,3,FALSE))+IF(K457="",0,VLOOKUP(K457,Affiliation_Table,3,FALSE))+IF(L457="",0,VLOOKUP(L457,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>262145</v>
       </c>
       <c r="F457">
@@ -17240,11 +17059,11 @@
         <v>1</v>
       </c>
       <c r="D458">
-        <f>COUNTIF(G458:L458,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E458">
-        <f>IF(G458="",0,VLOOKUP(G458,Affiliation_Table,3,FALSE))+IF(H458="",0,VLOOKUP(H458,Affiliation_Table,3,FALSE))+IF(I458="",0,VLOOKUP(I458,Affiliation_Table,3,FALSE))+IF(J458="",0,VLOOKUP(J458,Affiliation_Table,3,FALSE))+IF(K458="",0,VLOOKUP(K458,Affiliation_Table,3,FALSE))+IF(L458="",0,VLOOKUP(L458,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>32786</v>
       </c>
       <c r="F458">
@@ -17271,11 +17090,11 @@
         <v>6</v>
       </c>
       <c r="D459">
-        <f>COUNTIF(G459:L459,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E459">
-        <f>IF(G459="",0,VLOOKUP(G459,Affiliation_Table,3,FALSE))+IF(H459="",0,VLOOKUP(H459,Affiliation_Table,3,FALSE))+IF(I459="",0,VLOOKUP(I459,Affiliation_Table,3,FALSE))+IF(J459="",0,VLOOKUP(J459,Affiliation_Table,3,FALSE))+IF(K459="",0,VLOOKUP(K459,Affiliation_Table,3,FALSE))+IF(L459="",0,VLOOKUP(L459,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>129</v>
       </c>
       <c r="F459">
@@ -17299,11 +17118,11 @@
         <v>5</v>
       </c>
       <c r="D460">
-        <f>COUNTIF(G460:L460,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E460">
-        <f>IF(G460="",0,VLOOKUP(G460,Affiliation_Table,3,FALSE))+IF(H460="",0,VLOOKUP(H460,Affiliation_Table,3,FALSE))+IF(I460="",0,VLOOKUP(I460,Affiliation_Table,3,FALSE))+IF(J460="",0,VLOOKUP(J460,Affiliation_Table,3,FALSE))+IF(K460="",0,VLOOKUP(K460,Affiliation_Table,3,FALSE))+IF(L460="",0,VLOOKUP(L460,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>130</v>
       </c>
       <c r="F460">
@@ -17327,11 +17146,11 @@
         <v>10</v>
       </c>
       <c r="D461">
-        <f>COUNTIF(G461:L461,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E461">
-        <f>IF(G461="",0,VLOOKUP(G461,Affiliation_Table,3,FALSE))+IF(H461="",0,VLOOKUP(H461,Affiliation_Table,3,FALSE))+IF(I461="",0,VLOOKUP(I461,Affiliation_Table,3,FALSE))+IF(J461="",0,VLOOKUP(J461,Affiliation_Table,3,FALSE))+IF(K461="",0,VLOOKUP(K461,Affiliation_Table,3,FALSE))+IF(L461="",0,VLOOKUP(L461,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>32777</v>
       </c>
       <c r="F461">
@@ -17358,11 +17177,11 @@
         <v>3</v>
       </c>
       <c r="D462">
-        <f>COUNTIF(G462:L462,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E462">
-        <f>IF(G462="",0,VLOOKUP(G462,Affiliation_Table,3,FALSE))+IF(H462="",0,VLOOKUP(H462,Affiliation_Table,3,FALSE))+IF(I462="",0,VLOOKUP(I462,Affiliation_Table,3,FALSE))+IF(J462="",0,VLOOKUP(J462,Affiliation_Table,3,FALSE))+IF(K462="",0,VLOOKUP(K462,Affiliation_Table,3,FALSE))+IF(L462="",0,VLOOKUP(L462,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>2097156</v>
       </c>
       <c r="F462">
@@ -17386,11 +17205,11 @@
         <v>6</v>
       </c>
       <c r="D463">
-        <f>COUNTIF(G463:L463,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E463">
-        <f>IF(G463="",0,VLOOKUP(G463,Affiliation_Table,3,FALSE))+IF(H463="",0,VLOOKUP(H463,Affiliation_Table,3,FALSE))+IF(I463="",0,VLOOKUP(I463,Affiliation_Table,3,FALSE))+IF(J463="",0,VLOOKUP(J463,Affiliation_Table,3,FALSE))+IF(K463="",0,VLOOKUP(K463,Affiliation_Table,3,FALSE))+IF(L463="",0,VLOOKUP(L463,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>262161</v>
       </c>
       <c r="F463">
@@ -17417,11 +17236,11 @@
         <v>2</v>
       </c>
       <c r="D464">
-        <f>COUNTIF(G464:L464,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E464">
-        <f>IF(G464="",0,VLOOKUP(G464,Affiliation_Table,3,FALSE))+IF(H464="",0,VLOOKUP(H464,Affiliation_Table,3,FALSE))+IF(I464="",0,VLOOKUP(I464,Affiliation_Table,3,FALSE))+IF(J464="",0,VLOOKUP(J464,Affiliation_Table,3,FALSE))+IF(K464="",0,VLOOKUP(K464,Affiliation_Table,3,FALSE))+IF(L464="",0,VLOOKUP(L464,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>262146</v>
       </c>
       <c r="F464">
@@ -17445,11 +17264,11 @@
         <v>1</v>
       </c>
       <c r="D465">
-        <f>COUNTIF(G465:L465,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E465">
-        <f>IF(G465="",0,VLOOKUP(G465,Affiliation_Table,3,FALSE))+IF(H465="",0,VLOOKUP(H465,Affiliation_Table,3,FALSE))+IF(I465="",0,VLOOKUP(I465,Affiliation_Table,3,FALSE))+IF(J465="",0,VLOOKUP(J465,Affiliation_Table,3,FALSE))+IF(K465="",0,VLOOKUP(K465,Affiliation_Table,3,FALSE))+IF(L465="",0,VLOOKUP(L465,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>262146</v>
       </c>
       <c r="F465">
@@ -17473,11 +17292,11 @@
         <v>3</v>
       </c>
       <c r="D466">
-        <f>COUNTIF(G466:L466,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E466">
-        <f>IF(G466="",0,VLOOKUP(G466,Affiliation_Table,3,FALSE))+IF(H466="",0,VLOOKUP(H466,Affiliation_Table,3,FALSE))+IF(I466="",0,VLOOKUP(I466,Affiliation_Table,3,FALSE))+IF(J466="",0,VLOOKUP(J466,Affiliation_Table,3,FALSE))+IF(K466="",0,VLOOKUP(K466,Affiliation_Table,3,FALSE))+IF(L466="",0,VLOOKUP(L466,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>786433</v>
       </c>
       <c r="F466">
@@ -17504,11 +17323,11 @@
         <v>7</v>
       </c>
       <c r="D467">
-        <f>COUNTIF(G467:L467,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="E467">
-        <f>IF(G467="",0,VLOOKUP(G467,Affiliation_Table,3,FALSE))+IF(H467="",0,VLOOKUP(H467,Affiliation_Table,3,FALSE))+IF(I467="",0,VLOOKUP(I467,Affiliation_Table,3,FALSE))+IF(J467="",0,VLOOKUP(J467,Affiliation_Table,3,FALSE))+IF(K467="",0,VLOOKUP(K467,Affiliation_Table,3,FALSE))+IF(L467="",0,VLOOKUP(L467,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>1572993</v>
       </c>
       <c r="F467">
@@ -17538,11 +17357,11 @@
         <v>5</v>
       </c>
       <c r="D468">
-        <f>COUNTIF(G468:L468,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E468">
-        <f>IF(G468="",0,VLOOKUP(G468,Affiliation_Table,3,FALSE))+IF(H468="",0,VLOOKUP(H468,Affiliation_Table,3,FALSE))+IF(I468="",0,VLOOKUP(I468,Affiliation_Table,3,FALSE))+IF(J468="",0,VLOOKUP(J468,Affiliation_Table,3,FALSE))+IF(K468="",0,VLOOKUP(K468,Affiliation_Table,3,FALSE))+IF(L468="",0,VLOOKUP(L468,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>129</v>
       </c>
       <c r="F468">
@@ -17566,11 +17385,11 @@
         <v>5</v>
       </c>
       <c r="D469">
-        <f>COUNTIF(G469:L469,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E469">
-        <f>IF(G469="",0,VLOOKUP(G469,Affiliation_Table,3,FALSE))+IF(H469="",0,VLOOKUP(H469,Affiliation_Table,3,FALSE))+IF(I469="",0,VLOOKUP(I469,Affiliation_Table,3,FALSE))+IF(J469="",0,VLOOKUP(J469,Affiliation_Table,3,FALSE))+IF(K469="",0,VLOOKUP(K469,Affiliation_Table,3,FALSE))+IF(L469="",0,VLOOKUP(L469,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>8322</v>
       </c>
       <c r="F469">
@@ -17597,11 +17416,11 @@
         <v>3</v>
       </c>
       <c r="D470">
-        <f>COUNTIF(G470:L470,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E470">
-        <f>IF(G470="",0,VLOOKUP(G470,Affiliation_Table,3,FALSE))+IF(H470="",0,VLOOKUP(H470,Affiliation_Table,3,FALSE))+IF(I470="",0,VLOOKUP(I470,Affiliation_Table,3,FALSE))+IF(J470="",0,VLOOKUP(J470,Affiliation_Table,3,FALSE))+IF(K470="",0,VLOOKUP(K470,Affiliation_Table,3,FALSE))+IF(L470="",0,VLOOKUP(L470,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>294916</v>
       </c>
       <c r="F470">
@@ -17628,11 +17447,11 @@
         <v>3</v>
       </c>
       <c r="D471">
-        <f>COUNTIF(G471:L471,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E471">
-        <f>IF(G471="",0,VLOOKUP(G471,Affiliation_Table,3,FALSE))+IF(H471="",0,VLOOKUP(H471,Affiliation_Table,3,FALSE))+IF(I471="",0,VLOOKUP(I471,Affiliation_Table,3,FALSE))+IF(J471="",0,VLOOKUP(J471,Affiliation_Table,3,FALSE))+IF(K471="",0,VLOOKUP(K471,Affiliation_Table,3,FALSE))+IF(L471="",0,VLOOKUP(L471,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F471">
@@ -17653,11 +17472,11 @@
         <v>7</v>
       </c>
       <c r="D472">
-        <f>COUNTIF(G472:L472,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E472">
-        <f>IF(G472="",0,VLOOKUP(G472,Affiliation_Table,3,FALSE))+IF(H472="",0,VLOOKUP(H472,Affiliation_Table,3,FALSE))+IF(I472="",0,VLOOKUP(I472,Affiliation_Table,3,FALSE))+IF(J472="",0,VLOOKUP(J472,Affiliation_Table,3,FALSE))+IF(K472="",0,VLOOKUP(K472,Affiliation_Table,3,FALSE))+IF(L472="",0,VLOOKUP(L472,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>8388609</v>
       </c>
       <c r="F472">
@@ -17681,11 +17500,11 @@
         <v>8</v>
       </c>
       <c r="D473">
-        <f>COUNTIF(G473:L473,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E473">
-        <f>IF(G473="",0,VLOOKUP(G473,Affiliation_Table,3,FALSE))+IF(H473="",0,VLOOKUP(H473,Affiliation_Table,3,FALSE))+IF(I473="",0,VLOOKUP(I473,Affiliation_Table,3,FALSE))+IF(J473="",0,VLOOKUP(J473,Affiliation_Table,3,FALSE))+IF(K473="",0,VLOOKUP(K473,Affiliation_Table,3,FALSE))+IF(L473="",0,VLOOKUP(L473,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>4194306</v>
       </c>
       <c r="F473">
@@ -17709,11 +17528,11 @@
         <v>4</v>
       </c>
       <c r="D474">
-        <f>COUNTIF(G474:L474,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E474">
-        <f>IF(G474="",0,VLOOKUP(G474,Affiliation_Table,3,FALSE))+IF(H474="",0,VLOOKUP(H474,Affiliation_Table,3,FALSE))+IF(I474="",0,VLOOKUP(I474,Affiliation_Table,3,FALSE))+IF(J474="",0,VLOOKUP(J474,Affiliation_Table,3,FALSE))+IF(K474="",0,VLOOKUP(K474,Affiliation_Table,3,FALSE))+IF(L474="",0,VLOOKUP(L474,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>8193</v>
       </c>
       <c r="F474">
@@ -17737,11 +17556,11 @@
         <v>2</v>
       </c>
       <c r="D475">
-        <f>COUNTIF(G475:L475,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E475">
-        <f>IF(G475="",0,VLOOKUP(G475,Affiliation_Table,3,FALSE))+IF(H475="",0,VLOOKUP(H475,Affiliation_Table,3,FALSE))+IF(I475="",0,VLOOKUP(I475,Affiliation_Table,3,FALSE))+IF(J475="",0,VLOOKUP(J475,Affiliation_Table,3,FALSE))+IF(K475="",0,VLOOKUP(K475,Affiliation_Table,3,FALSE))+IF(L475="",0,VLOOKUP(L475,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>262146</v>
       </c>
       <c r="F475">
@@ -17765,11 +17584,11 @@
         <v>5</v>
       </c>
       <c r="D476">
-        <f>COUNTIF(G476:L476,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E476">
-        <f>IF(G476="",0,VLOOKUP(G476,Affiliation_Table,3,FALSE))+IF(H476="",0,VLOOKUP(H476,Affiliation_Table,3,FALSE))+IF(I476="",0,VLOOKUP(I476,Affiliation_Table,3,FALSE))+IF(J476="",0,VLOOKUP(J476,Affiliation_Table,3,FALSE))+IF(K476="",0,VLOOKUP(K476,Affiliation_Table,3,FALSE))+IF(L476="",0,VLOOKUP(L476,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>139265</v>
       </c>
       <c r="F476">
@@ -17796,11 +17615,11 @@
         <v>6</v>
       </c>
       <c r="D477">
-        <f>COUNTIF(G477:L477,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="E477">
-        <f>IF(G477="",0,VLOOKUP(G477,Affiliation_Table,3,FALSE))+IF(H477="",0,VLOOKUP(H477,Affiliation_Table,3,FALSE))+IF(I477="",0,VLOOKUP(I477,Affiliation_Table,3,FALSE))+IF(J477="",0,VLOOKUP(J477,Affiliation_Table,3,FALSE))+IF(K477="",0,VLOOKUP(K477,Affiliation_Table,3,FALSE))+IF(L477="",0,VLOOKUP(L477,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>10616833</v>
       </c>
       <c r="F477">
@@ -17830,11 +17649,11 @@
         <v>1</v>
       </c>
       <c r="D478">
-        <f>COUNTIF(G478:L478,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E478">
-        <f>IF(G478="",0,VLOOKUP(G478,Affiliation_Table,3,FALSE))+IF(H478="",0,VLOOKUP(H478,Affiliation_Table,3,FALSE))+IF(I478="",0,VLOOKUP(I478,Affiliation_Table,3,FALSE))+IF(J478="",0,VLOOKUP(J478,Affiliation_Table,3,FALSE))+IF(K478="",0,VLOOKUP(K478,Affiliation_Table,3,FALSE))+IF(L478="",0,VLOOKUP(L478,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>262145</v>
       </c>
       <c r="F478">
@@ -17858,11 +17677,11 @@
         <v>6</v>
       </c>
       <c r="D479">
-        <f>COUNTIF(G479:L479,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E479">
-        <f>IF(G479="",0,VLOOKUP(G479,Affiliation_Table,3,FALSE))+IF(H479="",0,VLOOKUP(H479,Affiliation_Table,3,FALSE))+IF(I479="",0,VLOOKUP(I479,Affiliation_Table,3,FALSE))+IF(J479="",0,VLOOKUP(J479,Affiliation_Table,3,FALSE))+IF(K479="",0,VLOOKUP(K479,Affiliation_Table,3,FALSE))+IF(L479="",0,VLOOKUP(L479,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F479">
@@ -17883,11 +17702,11 @@
         <v>5</v>
       </c>
       <c r="D480">
-        <f>COUNTIF(G480:L480,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E480">
-        <f>IF(G480="",0,VLOOKUP(G480,Affiliation_Table,3,FALSE))+IF(H480="",0,VLOOKUP(H480,Affiliation_Table,3,FALSE))+IF(I480="",0,VLOOKUP(I480,Affiliation_Table,3,FALSE))+IF(J480="",0,VLOOKUP(J480,Affiliation_Table,3,FALSE))+IF(K480="",0,VLOOKUP(K480,Affiliation_Table,3,FALSE))+IF(L480="",0,VLOOKUP(L480,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>36866</v>
       </c>
       <c r="F480">
@@ -17914,11 +17733,11 @@
         <v>6</v>
       </c>
       <c r="D481">
-        <f>COUNTIF(G481:L481,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E481">
-        <f>IF(G481="",0,VLOOKUP(G481,Affiliation_Table,3,FALSE))+IF(H481="",0,VLOOKUP(H481,Affiliation_Table,3,FALSE))+IF(I481="",0,VLOOKUP(I481,Affiliation_Table,3,FALSE))+IF(J481="",0,VLOOKUP(J481,Affiliation_Table,3,FALSE))+IF(K481="",0,VLOOKUP(K481,Affiliation_Table,3,FALSE))+IF(L481="",0,VLOOKUP(L481,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>33</v>
       </c>
       <c r="F481">
@@ -17942,11 +17761,11 @@
         <v>7</v>
       </c>
       <c r="D482">
-        <f>COUNTIF(G482:L482,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E482">
-        <f>IF(G482="",0,VLOOKUP(G482,Affiliation_Table,3,FALSE))+IF(H482="",0,VLOOKUP(H482,Affiliation_Table,3,FALSE))+IF(I482="",0,VLOOKUP(I482,Affiliation_Table,3,FALSE))+IF(J482="",0,VLOOKUP(J482,Affiliation_Table,3,FALSE))+IF(K482="",0,VLOOKUP(K482,Affiliation_Table,3,FALSE))+IF(L482="",0,VLOOKUP(L482,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>16417</v>
       </c>
       <c r="F482">
@@ -17973,11 +17792,11 @@
         <v>2</v>
       </c>
       <c r="D483">
-        <f>COUNTIF(G483:L483,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E483">
-        <f>IF(G483="",0,VLOOKUP(G483,Affiliation_Table,3,FALSE))+IF(H483="",0,VLOOKUP(H483,Affiliation_Table,3,FALSE))+IF(I483="",0,VLOOKUP(I483,Affiliation_Table,3,FALSE))+IF(J483="",0,VLOOKUP(J483,Affiliation_Table,3,FALSE))+IF(K483="",0,VLOOKUP(K483,Affiliation_Table,3,FALSE))+IF(L483="",0,VLOOKUP(L483,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>8193</v>
       </c>
       <c r="F483">
@@ -18001,11 +17820,11 @@
         <v>1</v>
       </c>
       <c r="D484">
-        <f>COUNTIF(G484:L484,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E484">
-        <f>IF(G484="",0,VLOOKUP(G484,Affiliation_Table,3,FALSE))+IF(H484="",0,VLOOKUP(H484,Affiliation_Table,3,FALSE))+IF(I484="",0,VLOOKUP(I484,Affiliation_Table,3,FALSE))+IF(J484="",0,VLOOKUP(J484,Affiliation_Table,3,FALSE))+IF(K484="",0,VLOOKUP(K484,Affiliation_Table,3,FALSE))+IF(L484="",0,VLOOKUP(L484,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>65546</v>
       </c>
       <c r="F484">
@@ -18032,11 +17851,11 @@
         <v>4</v>
       </c>
       <c r="D485">
-        <f>COUNTIF(G485:L485,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E485">
-        <f>IF(G485="",0,VLOOKUP(G485,Affiliation_Table,3,FALSE))+IF(H485="",0,VLOOKUP(H485,Affiliation_Table,3,FALSE))+IF(I485="",0,VLOOKUP(I485,Affiliation_Table,3,FALSE))+IF(J485="",0,VLOOKUP(J485,Affiliation_Table,3,FALSE))+IF(K485="",0,VLOOKUP(K485,Affiliation_Table,3,FALSE))+IF(L485="",0,VLOOKUP(L485,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>262273</v>
       </c>
       <c r="F485">
@@ -18063,11 +17882,11 @@
         <v>5</v>
       </c>
       <c r="D486">
-        <f>COUNTIF(G486:L486,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E486">
-        <f>IF(G486="",0,VLOOKUP(G486,Affiliation_Table,3,FALSE))+IF(H486="",0,VLOOKUP(H486,Affiliation_Table,3,FALSE))+IF(I486="",0,VLOOKUP(I486,Affiliation_Table,3,FALSE))+IF(J486="",0,VLOOKUP(J486,Affiliation_Table,3,FALSE))+IF(K486="",0,VLOOKUP(K486,Affiliation_Table,3,FALSE))+IF(L486="",0,VLOOKUP(L486,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>36866</v>
       </c>
       <c r="F486">
@@ -18094,11 +17913,11 @@
         <v>6</v>
       </c>
       <c r="D487">
-        <f>COUNTIF(G487:L487,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E487">
-        <f>IF(G487="",0,VLOOKUP(G487,Affiliation_Table,3,FALSE))+IF(H487="",0,VLOOKUP(H487,Affiliation_Table,3,FALSE))+IF(I487="",0,VLOOKUP(I487,Affiliation_Table,3,FALSE))+IF(J487="",0,VLOOKUP(J487,Affiliation_Table,3,FALSE))+IF(K487="",0,VLOOKUP(K487,Affiliation_Table,3,FALSE))+IF(L487="",0,VLOOKUP(L487,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>2097153</v>
       </c>
       <c r="F487">
@@ -18122,11 +17941,11 @@
         <v>3</v>
       </c>
       <c r="D488">
-        <f>COUNTIF(G488:L488,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E488">
-        <f>IF(G488="",0,VLOOKUP(G488,Affiliation_Table,3,FALSE))+IF(H488="",0,VLOOKUP(H488,Affiliation_Table,3,FALSE))+IF(I488="",0,VLOOKUP(I488,Affiliation_Table,3,FALSE))+IF(J488="",0,VLOOKUP(J488,Affiliation_Table,3,FALSE))+IF(K488="",0,VLOOKUP(K488,Affiliation_Table,3,FALSE))+IF(L488="",0,VLOOKUP(L488,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F488">
@@ -18147,11 +17966,11 @@
         <v>3</v>
       </c>
       <c r="D489">
-        <f>COUNTIF(G489:L489,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E489">
-        <f>IF(G489="",0,VLOOKUP(G489,Affiliation_Table,3,FALSE))+IF(H489="",0,VLOOKUP(H489,Affiliation_Table,3,FALSE))+IF(I489="",0,VLOOKUP(I489,Affiliation_Table,3,FALSE))+IF(J489="",0,VLOOKUP(J489,Affiliation_Table,3,FALSE))+IF(K489="",0,VLOOKUP(K489,Affiliation_Table,3,FALSE))+IF(L489="",0,VLOOKUP(L489,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>262145</v>
       </c>
       <c r="F489">
@@ -18175,11 +17994,11 @@
         <v>9</v>
       </c>
       <c r="D490">
-        <f>COUNTIF(G490:L490,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E490">
-        <f>IF(G490="",0,VLOOKUP(G490,Affiliation_Table,3,FALSE))+IF(H490="",0,VLOOKUP(H490,Affiliation_Table,3,FALSE))+IF(I490="",0,VLOOKUP(I490,Affiliation_Table,3,FALSE))+IF(J490="",0,VLOOKUP(J490,Affiliation_Table,3,FALSE))+IF(K490="",0,VLOOKUP(K490,Affiliation_Table,3,FALSE))+IF(L490="",0,VLOOKUP(L490,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>4194305</v>
       </c>
       <c r="F490">
@@ -18203,11 +18022,11 @@
         <v>2</v>
       </c>
       <c r="D491">
-        <f>COUNTIF(G491:L491,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E491">
-        <f>IF(G491="",0,VLOOKUP(G491,Affiliation_Table,3,FALSE))+IF(H491="",0,VLOOKUP(H491,Affiliation_Table,3,FALSE))+IF(I491="",0,VLOOKUP(I491,Affiliation_Table,3,FALSE))+IF(J491="",0,VLOOKUP(J491,Affiliation_Table,3,FALSE))+IF(K491="",0,VLOOKUP(K491,Affiliation_Table,3,FALSE))+IF(L491="",0,VLOOKUP(L491,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>16385</v>
       </c>
       <c r="F491">
@@ -18231,11 +18050,11 @@
         <v>4</v>
       </c>
       <c r="D492">
-        <f>COUNTIF(G492:L492,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E492">
-        <f>IF(G492="",0,VLOOKUP(G492,Affiliation_Table,3,FALSE))+IF(H492="",0,VLOOKUP(H492,Affiliation_Table,3,FALSE))+IF(I492="",0,VLOOKUP(I492,Affiliation_Table,3,FALSE))+IF(J492="",0,VLOOKUP(J492,Affiliation_Table,3,FALSE))+IF(K492="",0,VLOOKUP(K492,Affiliation_Table,3,FALSE))+IF(L492="",0,VLOOKUP(L492,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>262146</v>
       </c>
       <c r="F492">
@@ -18259,11 +18078,11 @@
         <v>4</v>
       </c>
       <c r="D493">
-        <f>COUNTIF(G493:L493,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E493">
-        <f>IF(G493="",0,VLOOKUP(G493,Affiliation_Table,3,FALSE))+IF(H493="",0,VLOOKUP(H493,Affiliation_Table,3,FALSE))+IF(I493="",0,VLOOKUP(I493,Affiliation_Table,3,FALSE))+IF(J493="",0,VLOOKUP(J493,Affiliation_Table,3,FALSE))+IF(K493="",0,VLOOKUP(K493,Affiliation_Table,3,FALSE))+IF(L493="",0,VLOOKUP(L493,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>16385</v>
       </c>
       <c r="F493">
@@ -18287,11 +18106,11 @@
         <v>6</v>
       </c>
       <c r="D494">
-        <f>COUNTIF(G494:L494,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E494">
-        <f>IF(G494="",0,VLOOKUP(G494,Affiliation_Table,3,FALSE))+IF(H494="",0,VLOOKUP(H494,Affiliation_Table,3,FALSE))+IF(I494="",0,VLOOKUP(I494,Affiliation_Table,3,FALSE))+IF(J494="",0,VLOOKUP(J494,Affiliation_Table,3,FALSE))+IF(K494="",0,VLOOKUP(K494,Affiliation_Table,3,FALSE))+IF(L494="",0,VLOOKUP(L494,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>8193</v>
       </c>
       <c r="F494">
@@ -18315,11 +18134,11 @@
         <v>2</v>
       </c>
       <c r="D495">
-        <f>COUNTIF(G495:L495,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E495">
-        <f>IF(G495="",0,VLOOKUP(G495,Affiliation_Table,3,FALSE))+IF(H495="",0,VLOOKUP(H495,Affiliation_Table,3,FALSE))+IF(I495="",0,VLOOKUP(I495,Affiliation_Table,3,FALSE))+IF(J495="",0,VLOOKUP(J495,Affiliation_Table,3,FALSE))+IF(K495="",0,VLOOKUP(K495,Affiliation_Table,3,FALSE))+IF(L495="",0,VLOOKUP(L495,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>32777</v>
       </c>
       <c r="F495">
@@ -18346,11 +18165,11 @@
         <v>5</v>
       </c>
       <c r="D496">
-        <f>COUNTIF(G496:L496,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E496">
-        <f>IF(G496="",0,VLOOKUP(G496,Affiliation_Table,3,FALSE))+IF(H496="",0,VLOOKUP(H496,Affiliation_Table,3,FALSE))+IF(I496="",0,VLOOKUP(I496,Affiliation_Table,3,FALSE))+IF(J496="",0,VLOOKUP(J496,Affiliation_Table,3,FALSE))+IF(K496="",0,VLOOKUP(K496,Affiliation_Table,3,FALSE))+IF(L496="",0,VLOOKUP(L496,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>132</v>
       </c>
       <c r="F496">
@@ -18374,11 +18193,11 @@
         <v>4</v>
       </c>
       <c r="D497">
-        <f>COUNTIF(G497:L497,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E497">
-        <f>IF(G497="",0,VLOOKUP(G497,Affiliation_Table,3,FALSE))+IF(H497="",0,VLOOKUP(H497,Affiliation_Table,3,FALSE))+IF(I497="",0,VLOOKUP(I497,Affiliation_Table,3,FALSE))+IF(J497="",0,VLOOKUP(J497,Affiliation_Table,3,FALSE))+IF(K497="",0,VLOOKUP(K497,Affiliation_Table,3,FALSE))+IF(L497="",0,VLOOKUP(L497,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>4098</v>
       </c>
       <c r="F497">
@@ -18402,11 +18221,11 @@
         <v>3</v>
       </c>
       <c r="D498">
-        <f>COUNTIF(G498:L498,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E498">
-        <f>IF(G498="",0,VLOOKUP(G498,Affiliation_Table,3,FALSE))+IF(H498="",0,VLOOKUP(H498,Affiliation_Table,3,FALSE))+IF(I498="",0,VLOOKUP(I498,Affiliation_Table,3,FALSE))+IF(J498="",0,VLOOKUP(J498,Affiliation_Table,3,FALSE))+IF(K498="",0,VLOOKUP(K498,Affiliation_Table,3,FALSE))+IF(L498="",0,VLOOKUP(L498,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>262274</v>
       </c>
       <c r="F498">
@@ -18433,11 +18252,11 @@
         <v>4</v>
       </c>
       <c r="D499">
-        <f>COUNTIF(G499:L499,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E499">
-        <f>IF(G499="",0,VLOOKUP(G499,Affiliation_Table,3,FALSE))+IF(H499="",0,VLOOKUP(H499,Affiliation_Table,3,FALSE))+IF(I499="",0,VLOOKUP(I499,Affiliation_Table,3,FALSE))+IF(J499="",0,VLOOKUP(J499,Affiliation_Table,3,FALSE))+IF(K499="",0,VLOOKUP(K499,Affiliation_Table,3,FALSE))+IF(L499="",0,VLOOKUP(L499,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>262145</v>
       </c>
       <c r="F499">
@@ -18461,11 +18280,11 @@
         <v>8</v>
       </c>
       <c r="D500">
-        <f>COUNTIF(G500:L500,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E500">
-        <f>IF(G500="",0,VLOOKUP(G500,Affiliation_Table,3,FALSE))+IF(H500="",0,VLOOKUP(H500,Affiliation_Table,3,FALSE))+IF(I500="",0,VLOOKUP(I500,Affiliation_Table,3,FALSE))+IF(J500="",0,VLOOKUP(J500,Affiliation_Table,3,FALSE))+IF(K500="",0,VLOOKUP(K500,Affiliation_Table,3,FALSE))+IF(L500="",0,VLOOKUP(L500,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>4194305</v>
       </c>
       <c r="F500">
@@ -18489,11 +18308,11 @@
         <v>9</v>
       </c>
       <c r="D501">
-        <f>COUNTIF(G501:L501,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E501">
-        <f>IF(G501="",0,VLOOKUP(G501,Affiliation_Table,3,FALSE))+IF(H501="",0,VLOOKUP(H501,Affiliation_Table,3,FALSE))+IF(I501="",0,VLOOKUP(I501,Affiliation_Table,3,FALSE))+IF(J501="",0,VLOOKUP(J501,Affiliation_Table,3,FALSE))+IF(K501="",0,VLOOKUP(K501,Affiliation_Table,3,FALSE))+IF(L501="",0,VLOOKUP(L501,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>8194</v>
       </c>
       <c r="F501">
@@ -18517,11 +18336,11 @@
         <v>7</v>
       </c>
       <c r="D502">
-        <f>COUNTIF(G502:L502,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="E502">
-        <f>IF(G502="",0,VLOOKUP(G502,Affiliation_Table,3,FALSE))+IF(H502="",0,VLOOKUP(H502,Affiliation_Table,3,FALSE))+IF(I502="",0,VLOOKUP(I502,Affiliation_Table,3,FALSE))+IF(J502="",0,VLOOKUP(J502,Affiliation_Table,3,FALSE))+IF(K502="",0,VLOOKUP(K502,Affiliation_Table,3,FALSE))+IF(L502="",0,VLOOKUP(L502,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>270353</v>
       </c>
       <c r="F502">
@@ -18551,11 +18370,11 @@
         <v>6</v>
       </c>
       <c r="D503">
-        <f>COUNTIF(G503:L503,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E503">
-        <f>IF(G503="",0,VLOOKUP(G503,Affiliation_Table,3,FALSE))+IF(H503="",0,VLOOKUP(H503,Affiliation_Table,3,FALSE))+IF(I503="",0,VLOOKUP(I503,Affiliation_Table,3,FALSE))+IF(J503="",0,VLOOKUP(J503,Affiliation_Table,3,FALSE))+IF(K503="",0,VLOOKUP(K503,Affiliation_Table,3,FALSE))+IF(L503="",0,VLOOKUP(L503,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>32786</v>
       </c>
       <c r="F503">
@@ -18582,11 +18401,11 @@
         <v>10</v>
       </c>
       <c r="D504">
-        <f>COUNTIF(G504:L504,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E504">
-        <f>IF(G504="",0,VLOOKUP(G504,Affiliation_Table,3,FALSE))+IF(H504="",0,VLOOKUP(H504,Affiliation_Table,3,FALSE))+IF(I504="",0,VLOOKUP(I504,Affiliation_Table,3,FALSE))+IF(J504="",0,VLOOKUP(J504,Affiliation_Table,3,FALSE))+IF(K504="",0,VLOOKUP(K504,Affiliation_Table,3,FALSE))+IF(L504="",0,VLOOKUP(L504,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>32777</v>
       </c>
       <c r="F504">
@@ -18613,11 +18432,11 @@
         <v>8</v>
       </c>
       <c r="D505">
-        <f>COUNTIF(G505:L505,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E505">
-        <f>IF(G505="",0,VLOOKUP(G505,Affiliation_Table,3,FALSE))+IF(H505="",0,VLOOKUP(H505,Affiliation_Table,3,FALSE))+IF(I505="",0,VLOOKUP(I505,Affiliation_Table,3,FALSE))+IF(J505="",0,VLOOKUP(J505,Affiliation_Table,3,FALSE))+IF(K505="",0,VLOOKUP(K505,Affiliation_Table,3,FALSE))+IF(L505="",0,VLOOKUP(L505,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>32785</v>
       </c>
       <c r="F505">
@@ -18644,11 +18463,11 @@
         <v>8</v>
       </c>
       <c r="D506">
-        <f>COUNTIF(G506:L506,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E506">
-        <f>IF(G506="",0,VLOOKUP(G506,Affiliation_Table,3,FALSE))+IF(H506="",0,VLOOKUP(H506,Affiliation_Table,3,FALSE))+IF(I506="",0,VLOOKUP(I506,Affiliation_Table,3,FALSE))+IF(J506="",0,VLOOKUP(J506,Affiliation_Table,3,FALSE))+IF(K506="",0,VLOOKUP(K506,Affiliation_Table,3,FALSE))+IF(L506="",0,VLOOKUP(L506,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>8388610</v>
       </c>
       <c r="F506">
@@ -18672,11 +18491,11 @@
         <v>5</v>
       </c>
       <c r="D507">
-        <f>COUNTIF(G507:L507,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E507">
-        <f>IF(G507="",0,VLOOKUP(G507,Affiliation_Table,3,FALSE))+IF(H507="",0,VLOOKUP(H507,Affiliation_Table,3,FALSE))+IF(I507="",0,VLOOKUP(I507,Affiliation_Table,3,FALSE))+IF(J507="",0,VLOOKUP(J507,Affiliation_Table,3,FALSE))+IF(K507="",0,VLOOKUP(K507,Affiliation_Table,3,FALSE))+IF(L507="",0,VLOOKUP(L507,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>262145</v>
       </c>
       <c r="F507">
@@ -18700,11 +18519,11 @@
         <v>3</v>
       </c>
       <c r="D508">
-        <f>COUNTIF(G508:L508,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E508">
-        <f>IF(G508="",0,VLOOKUP(G508,Affiliation_Table,3,FALSE))+IF(H508="",0,VLOOKUP(H508,Affiliation_Table,3,FALSE))+IF(I508="",0,VLOOKUP(I508,Affiliation_Table,3,FALSE))+IF(J508="",0,VLOOKUP(J508,Affiliation_Table,3,FALSE))+IF(K508="",0,VLOOKUP(K508,Affiliation_Table,3,FALSE))+IF(L508="",0,VLOOKUP(L508,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>262273</v>
       </c>
       <c r="F508">
@@ -18731,11 +18550,11 @@
         <v>2</v>
       </c>
       <c r="D509">
-        <f>COUNTIF(G509:L509,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E509">
-        <f>IF(G509="",0,VLOOKUP(G509,Affiliation_Table,3,FALSE))+IF(H509="",0,VLOOKUP(H509,Affiliation_Table,3,FALSE))+IF(I509="",0,VLOOKUP(I509,Affiliation_Table,3,FALSE))+IF(J509="",0,VLOOKUP(J509,Affiliation_Table,3,FALSE))+IF(K509="",0,VLOOKUP(K509,Affiliation_Table,3,FALSE))+IF(L509="",0,VLOOKUP(L509,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>262145</v>
       </c>
       <c r="F509">
@@ -18759,11 +18578,11 @@
         <v>7</v>
       </c>
       <c r="D510">
-        <f>COUNTIF(G510:L510,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E510">
-        <f>IF(G510="",0,VLOOKUP(G510,Affiliation_Table,3,FALSE))+IF(H510="",0,VLOOKUP(H510,Affiliation_Table,3,FALSE))+IF(I510="",0,VLOOKUP(I510,Affiliation_Table,3,FALSE))+IF(J510="",0,VLOOKUP(J510,Affiliation_Table,3,FALSE))+IF(K510="",0,VLOOKUP(K510,Affiliation_Table,3,FALSE))+IF(L510="",0,VLOOKUP(L510,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>32785</v>
       </c>
       <c r="F510">
@@ -18790,11 +18609,11 @@
         <v>2</v>
       </c>
       <c r="D511">
-        <f>COUNTIF(G511:L511,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E511">
-        <f>IF(G511="",0,VLOOKUP(G511,Affiliation_Table,3,FALSE))+IF(H511="",0,VLOOKUP(H511,Affiliation_Table,3,FALSE))+IF(I511="",0,VLOOKUP(I511,Affiliation_Table,3,FALSE))+IF(J511="",0,VLOOKUP(J511,Affiliation_Table,3,FALSE))+IF(K511="",0,VLOOKUP(K511,Affiliation_Table,3,FALSE))+IF(L511="",0,VLOOKUP(L511,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>262145</v>
       </c>
       <c r="F511">
@@ -18818,11 +18637,11 @@
         <v>5</v>
       </c>
       <c r="D512">
-        <f>COUNTIF(G512:L512,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E512">
-        <f>IF(G512="",0,VLOOKUP(G512,Affiliation_Table,3,FALSE))+IF(H512="",0,VLOOKUP(H512,Affiliation_Table,3,FALSE))+IF(I512="",0,VLOOKUP(I512,Affiliation_Table,3,FALSE))+IF(J512="",0,VLOOKUP(J512,Affiliation_Table,3,FALSE))+IF(K512="",0,VLOOKUP(K512,Affiliation_Table,3,FALSE))+IF(L512="",0,VLOOKUP(L512,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>262145</v>
       </c>
       <c r="F512">
@@ -18846,11 +18665,11 @@
         <v>4</v>
       </c>
       <c r="D513">
-        <f>COUNTIF(G513:L513,"&lt;&gt;")</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="E513">
-        <f>IF(G513="",0,VLOOKUP(G513,Affiliation_Table,3,FALSE))+IF(H513="",0,VLOOKUP(H513,Affiliation_Table,3,FALSE))+IF(I513="",0,VLOOKUP(I513,Affiliation_Table,3,FALSE))+IF(J513="",0,VLOOKUP(J513,Affiliation_Table,3,FALSE))+IF(K513="",0,VLOOKUP(K513,Affiliation_Table,3,FALSE))+IF(L513="",0,VLOOKUP(L513,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="15"/>
         <v>262145</v>
       </c>
       <c r="F513">
@@ -18874,11 +18693,11 @@
         <v>1</v>
       </c>
       <c r="D514">
-        <f>COUNTIF(G514:L514,"&lt;&gt;")</f>
+        <f t="shared" ref="D514:D577" si="16">COUNTIF(G514:L514,"&lt;&gt;")</f>
         <v>3</v>
       </c>
       <c r="E514">
-        <f>IF(G514="",0,VLOOKUP(G514,Affiliation_Table,3,FALSE))+IF(H514="",0,VLOOKUP(H514,Affiliation_Table,3,FALSE))+IF(I514="",0,VLOOKUP(I514,Affiliation_Table,3,FALSE))+IF(J514="",0,VLOOKUP(J514,Affiliation_Table,3,FALSE))+IF(K514="",0,VLOOKUP(K514,Affiliation_Table,3,FALSE))+IF(L514="",0,VLOOKUP(L514,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" ref="E514:E577" si="17">IF(G514="",0,VLOOKUP(G514,Affiliation_Table,3,FALSE))+IF(H514="",0,VLOOKUP(H514,Affiliation_Table,3,FALSE))+IF(I514="",0,VLOOKUP(I514,Affiliation_Table,3,FALSE))+IF(J514="",0,VLOOKUP(J514,Affiliation_Table,3,FALSE))+IF(K514="",0,VLOOKUP(K514,Affiliation_Table,3,FALSE))+IF(L514="",0,VLOOKUP(L514,Affiliation_Table,3,FALSE))</f>
         <v>65545</v>
       </c>
       <c r="F514">
@@ -18905,11 +18724,11 @@
         <v>2</v>
       </c>
       <c r="D515">
-        <f>COUNTIF(G515:L515,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E515">
-        <f>IF(G515="",0,VLOOKUP(G515,Affiliation_Table,3,FALSE))+IF(H515="",0,VLOOKUP(H515,Affiliation_Table,3,FALSE))+IF(I515="",0,VLOOKUP(I515,Affiliation_Table,3,FALSE))+IF(J515="",0,VLOOKUP(J515,Affiliation_Table,3,FALSE))+IF(K515="",0,VLOOKUP(K515,Affiliation_Table,3,FALSE))+IF(L515="",0,VLOOKUP(L515,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>65545</v>
       </c>
       <c r="F515">
@@ -18936,11 +18755,11 @@
         <v>4</v>
       </c>
       <c r="D516">
-        <f>COUNTIF(G516:L516,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E516">
-        <f>IF(G516="",0,VLOOKUP(G516,Affiliation_Table,3,FALSE))+IF(H516="",0,VLOOKUP(H516,Affiliation_Table,3,FALSE))+IF(I516="",0,VLOOKUP(I516,Affiliation_Table,3,FALSE))+IF(J516="",0,VLOOKUP(J516,Affiliation_Table,3,FALSE))+IF(K516="",0,VLOOKUP(K516,Affiliation_Table,3,FALSE))+IF(L516="",0,VLOOKUP(L516,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>36865</v>
       </c>
       <c r="F516">
@@ -18967,11 +18786,11 @@
         <v>7</v>
       </c>
       <c r="D517">
-        <f>COUNTIF(G517:L517,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E517">
-        <f>IF(G517="",0,VLOOKUP(G517,Affiliation_Table,3,FALSE))+IF(H517="",0,VLOOKUP(H517,Affiliation_Table,3,FALSE))+IF(I517="",0,VLOOKUP(I517,Affiliation_Table,3,FALSE))+IF(J517="",0,VLOOKUP(J517,Affiliation_Table,3,FALSE))+IF(K517="",0,VLOOKUP(K517,Affiliation_Table,3,FALSE))+IF(L517="",0,VLOOKUP(L517,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>32785</v>
       </c>
       <c r="F517">
@@ -18998,11 +18817,11 @@
         <v>3</v>
       </c>
       <c r="D518">
-        <f>COUNTIF(G518:L518,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E518">
-        <f>IF(G518="",0,VLOOKUP(G518,Affiliation_Table,3,FALSE))+IF(H518="",0,VLOOKUP(H518,Affiliation_Table,3,FALSE))+IF(I518="",0,VLOOKUP(I518,Affiliation_Table,3,FALSE))+IF(J518="",0,VLOOKUP(J518,Affiliation_Table,3,FALSE))+IF(K518="",0,VLOOKUP(K518,Affiliation_Table,3,FALSE))+IF(L518="",0,VLOOKUP(L518,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>36868</v>
       </c>
       <c r="F518">
@@ -19029,11 +18848,11 @@
         <v>4</v>
       </c>
       <c r="D519">
-        <f>COUNTIF(G519:L519,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E519">
-        <f>IF(G519="",0,VLOOKUP(G519,Affiliation_Table,3,FALSE))+IF(H519="",0,VLOOKUP(H519,Affiliation_Table,3,FALSE))+IF(I519="",0,VLOOKUP(I519,Affiliation_Table,3,FALSE))+IF(J519="",0,VLOOKUP(J519,Affiliation_Table,3,FALSE))+IF(K519="",0,VLOOKUP(K519,Affiliation_Table,3,FALSE))+IF(L519="",0,VLOOKUP(L519,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>36866</v>
       </c>
       <c r="F519">
@@ -19060,11 +18879,11 @@
         <v>3</v>
       </c>
       <c r="D520">
-        <f>COUNTIF(G520:L520,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E520">
-        <f>IF(G520="",0,VLOOKUP(G520,Affiliation_Table,3,FALSE))+IF(H520="",0,VLOOKUP(H520,Affiliation_Table,3,FALSE))+IF(I520="",0,VLOOKUP(I520,Affiliation_Table,3,FALSE))+IF(J520="",0,VLOOKUP(J520,Affiliation_Table,3,FALSE))+IF(K520="",0,VLOOKUP(K520,Affiliation_Table,3,FALSE))+IF(L520="",0,VLOOKUP(L520,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>6146</v>
       </c>
       <c r="F520">
@@ -19091,11 +18910,11 @@
         <v>6</v>
       </c>
       <c r="D521">
-        <f>COUNTIF(G521:L521,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E521">
-        <f>IF(G521="",0,VLOOKUP(G521,Affiliation_Table,3,FALSE))+IF(H521="",0,VLOOKUP(H521,Affiliation_Table,3,FALSE))+IF(I521="",0,VLOOKUP(I521,Affiliation_Table,3,FALSE))+IF(J521="",0,VLOOKUP(J521,Affiliation_Table,3,FALSE))+IF(K521="",0,VLOOKUP(K521,Affiliation_Table,3,FALSE))+IF(L521="",0,VLOOKUP(L521,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>2097154</v>
       </c>
       <c r="F521">
@@ -19119,11 +18938,11 @@
         <v>1</v>
       </c>
       <c r="D522">
-        <f>COUNTIF(G522:L522,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E522">
-        <f>IF(G522="",0,VLOOKUP(G522,Affiliation_Table,3,FALSE))+IF(H522="",0,VLOOKUP(H522,Affiliation_Table,3,FALSE))+IF(I522="",0,VLOOKUP(I522,Affiliation_Table,3,FALSE))+IF(J522="",0,VLOOKUP(J522,Affiliation_Table,3,FALSE))+IF(K522="",0,VLOOKUP(K522,Affiliation_Table,3,FALSE))+IF(L522="",0,VLOOKUP(L522,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>65537</v>
       </c>
       <c r="F522">
@@ -19147,11 +18966,11 @@
         <v>1</v>
       </c>
       <c r="D523">
-        <f>COUNTIF(G523:L523,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E523">
-        <f>IF(G523="",0,VLOOKUP(G523,Affiliation_Table,3,FALSE))+IF(H523="",0,VLOOKUP(H523,Affiliation_Table,3,FALSE))+IF(I523="",0,VLOOKUP(I523,Affiliation_Table,3,FALSE))+IF(J523="",0,VLOOKUP(J523,Affiliation_Table,3,FALSE))+IF(K523="",0,VLOOKUP(K523,Affiliation_Table,3,FALSE))+IF(L523="",0,VLOOKUP(L523,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>65537</v>
       </c>
       <c r="F523">
@@ -19175,11 +18994,11 @@
         <v>4</v>
       </c>
       <c r="D524">
-        <f>COUNTIF(G524:L524,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E524">
-        <f>IF(G524="",0,VLOOKUP(G524,Affiliation_Table,3,FALSE))+IF(H524="",0,VLOOKUP(H524,Affiliation_Table,3,FALSE))+IF(I524="",0,VLOOKUP(I524,Affiliation_Table,3,FALSE))+IF(J524="",0,VLOOKUP(J524,Affiliation_Table,3,FALSE))+IF(K524="",0,VLOOKUP(K524,Affiliation_Table,3,FALSE))+IF(L524="",0,VLOOKUP(L524,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>4097</v>
       </c>
       <c r="F524">
@@ -19203,11 +19022,11 @@
         <v>4</v>
       </c>
       <c r="D525">
-        <f>COUNTIF(G525:L525,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E525">
-        <f>IF(G525="",0,VLOOKUP(G525,Affiliation_Table,3,FALSE))+IF(H525="",0,VLOOKUP(H525,Affiliation_Table,3,FALSE))+IF(I525="",0,VLOOKUP(I525,Affiliation_Table,3,FALSE))+IF(J525="",0,VLOOKUP(J525,Affiliation_Table,3,FALSE))+IF(K525="",0,VLOOKUP(K525,Affiliation_Table,3,FALSE))+IF(L525="",0,VLOOKUP(L525,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>36866</v>
       </c>
       <c r="F525">
@@ -19234,11 +19053,11 @@
         <v>2</v>
       </c>
       <c r="D526">
-        <f>COUNTIF(G526:L526,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E526">
-        <f>IF(G526="",0,VLOOKUP(G526,Affiliation_Table,3,FALSE))+IF(H526="",0,VLOOKUP(H526,Affiliation_Table,3,FALSE))+IF(I526="",0,VLOOKUP(I526,Affiliation_Table,3,FALSE))+IF(J526="",0,VLOOKUP(J526,Affiliation_Table,3,FALSE))+IF(K526="",0,VLOOKUP(K526,Affiliation_Table,3,FALSE))+IF(L526="",0,VLOOKUP(L526,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>65537</v>
       </c>
       <c r="F526">
@@ -19262,11 +19081,11 @@
         <v>6</v>
       </c>
       <c r="D527">
-        <f>COUNTIF(G527:L527,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E527">
-        <f>IF(G527="",0,VLOOKUP(G527,Affiliation_Table,3,FALSE))+IF(H527="",0,VLOOKUP(H527,Affiliation_Table,3,FALSE))+IF(I527="",0,VLOOKUP(I527,Affiliation_Table,3,FALSE))+IF(J527="",0,VLOOKUP(J527,Affiliation_Table,3,FALSE))+IF(K527="",0,VLOOKUP(K527,Affiliation_Table,3,FALSE))+IF(L527="",0,VLOOKUP(L527,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>8388609</v>
       </c>
       <c r="F527">
@@ -19290,11 +19109,11 @@
         <v>2</v>
       </c>
       <c r="D528">
-        <f>COUNTIF(G528:L528,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E528">
-        <f>IF(G528="",0,VLOOKUP(G528,Affiliation_Table,3,FALSE))+IF(H528="",0,VLOOKUP(H528,Affiliation_Table,3,FALSE))+IF(I528="",0,VLOOKUP(I528,Affiliation_Table,3,FALSE))+IF(J528="",0,VLOOKUP(J528,Affiliation_Table,3,FALSE))+IF(K528="",0,VLOOKUP(K528,Affiliation_Table,3,FALSE))+IF(L528="",0,VLOOKUP(L528,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>65</v>
       </c>
       <c r="F528">
@@ -19318,11 +19137,11 @@
         <v>1</v>
       </c>
       <c r="D529">
-        <f>COUNTIF(G529:L529,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E529">
-        <f>IF(G529="",0,VLOOKUP(G529,Affiliation_Table,3,FALSE))+IF(H529="",0,VLOOKUP(H529,Affiliation_Table,3,FALSE))+IF(I529="",0,VLOOKUP(I529,Affiliation_Table,3,FALSE))+IF(J529="",0,VLOOKUP(J529,Affiliation_Table,3,FALSE))+IF(K529="",0,VLOOKUP(K529,Affiliation_Table,3,FALSE))+IF(L529="",0,VLOOKUP(L529,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>262146</v>
       </c>
       <c r="F529">
@@ -19346,11 +19165,11 @@
         <v>2</v>
       </c>
       <c r="D530">
-        <f>COUNTIF(G530:L530,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E530">
-        <f>IF(G530="",0,VLOOKUP(G530,Affiliation_Table,3,FALSE))+IF(H530="",0,VLOOKUP(H530,Affiliation_Table,3,FALSE))+IF(I530="",0,VLOOKUP(I530,Affiliation_Table,3,FALSE))+IF(J530="",0,VLOOKUP(J530,Affiliation_Table,3,FALSE))+IF(K530="",0,VLOOKUP(K530,Affiliation_Table,3,FALSE))+IF(L530="",0,VLOOKUP(L530,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>65538</v>
       </c>
       <c r="F530">
@@ -19374,11 +19193,11 @@
         <v>1</v>
       </c>
       <c r="D531">
-        <f>COUNTIF(G531:L531,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E531">
-        <f>IF(G531="",0,VLOOKUP(G531,Affiliation_Table,3,FALSE))+IF(H531="",0,VLOOKUP(H531,Affiliation_Table,3,FALSE))+IF(I531="",0,VLOOKUP(I531,Affiliation_Table,3,FALSE))+IF(J531="",0,VLOOKUP(J531,Affiliation_Table,3,FALSE))+IF(K531="",0,VLOOKUP(K531,Affiliation_Table,3,FALSE))+IF(L531="",0,VLOOKUP(L531,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>36865</v>
       </c>
       <c r="F531">
@@ -19405,11 +19224,11 @@
         <v>4</v>
       </c>
       <c r="D532">
-        <f>COUNTIF(G532:L532,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E532">
-        <f>IF(G532="",0,VLOOKUP(G532,Affiliation_Table,3,FALSE))+IF(H532="",0,VLOOKUP(H532,Affiliation_Table,3,FALSE))+IF(I532="",0,VLOOKUP(I532,Affiliation_Table,3,FALSE))+IF(J532="",0,VLOOKUP(J532,Affiliation_Table,3,FALSE))+IF(K532="",0,VLOOKUP(K532,Affiliation_Table,3,FALSE))+IF(L532="",0,VLOOKUP(L532,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>32769</v>
       </c>
       <c r="F532">
@@ -19433,11 +19252,11 @@
         <v>4</v>
       </c>
       <c r="D533">
-        <f>COUNTIF(G533:L533,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E533">
-        <f>IF(G533="",0,VLOOKUP(G533,Affiliation_Table,3,FALSE))+IF(H533="",0,VLOOKUP(H533,Affiliation_Table,3,FALSE))+IF(I533="",0,VLOOKUP(I533,Affiliation_Table,3,FALSE))+IF(J533="",0,VLOOKUP(J533,Affiliation_Table,3,FALSE))+IF(K533="",0,VLOOKUP(K533,Affiliation_Table,3,FALSE))+IF(L533="",0,VLOOKUP(L533,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>8193</v>
       </c>
       <c r="F533">
@@ -19461,11 +19280,11 @@
         <v>9</v>
       </c>
       <c r="D534">
-        <f>COUNTIF(G534:L534,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E534">
-        <f>IF(G534="",0,VLOOKUP(G534,Affiliation_Table,3,FALSE))+IF(H534="",0,VLOOKUP(H534,Affiliation_Table,3,FALSE))+IF(I534="",0,VLOOKUP(I534,Affiliation_Table,3,FALSE))+IF(J534="",0,VLOOKUP(J534,Affiliation_Table,3,FALSE))+IF(K534="",0,VLOOKUP(K534,Affiliation_Table,3,FALSE))+IF(L534="",0,VLOOKUP(L534,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>130</v>
       </c>
       <c r="F534">
@@ -19489,11 +19308,11 @@
         <v>5</v>
       </c>
       <c r="D535">
-        <f>COUNTIF(G535:L535,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E535">
-        <f>IF(G535="",0,VLOOKUP(G535,Affiliation_Table,3,FALSE))+IF(H535="",0,VLOOKUP(H535,Affiliation_Table,3,FALSE))+IF(I535="",0,VLOOKUP(I535,Affiliation_Table,3,FALSE))+IF(J535="",0,VLOOKUP(J535,Affiliation_Table,3,FALSE))+IF(K535="",0,VLOOKUP(K535,Affiliation_Table,3,FALSE))+IF(L535="",0,VLOOKUP(L535,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>129</v>
       </c>
       <c r="F535">
@@ -19517,11 +19336,11 @@
         <v>1</v>
       </c>
       <c r="D536">
-        <f>COUNTIF(G536:L536,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E536">
-        <f>IF(G536="",0,VLOOKUP(G536,Affiliation_Table,3,FALSE))+IF(H536="",0,VLOOKUP(H536,Affiliation_Table,3,FALSE))+IF(I536="",0,VLOOKUP(I536,Affiliation_Table,3,FALSE))+IF(J536="",0,VLOOKUP(J536,Affiliation_Table,3,FALSE))+IF(K536="",0,VLOOKUP(K536,Affiliation_Table,3,FALSE))+IF(L536="",0,VLOOKUP(L536,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="F536">
@@ -19542,11 +19361,11 @@
         <v>5</v>
       </c>
       <c r="D537">
-        <f>COUNTIF(G537:L537,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E537">
-        <f>IF(G537="",0,VLOOKUP(G537,Affiliation_Table,3,FALSE))+IF(H537="",0,VLOOKUP(H537,Affiliation_Table,3,FALSE))+IF(I537="",0,VLOOKUP(I537,Affiliation_Table,3,FALSE))+IF(J537="",0,VLOOKUP(J537,Affiliation_Table,3,FALSE))+IF(K537="",0,VLOOKUP(K537,Affiliation_Table,3,FALSE))+IF(L537="",0,VLOOKUP(L537,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>32786</v>
       </c>
       <c r="F537">
@@ -19573,11 +19392,11 @@
         <v>2</v>
       </c>
       <c r="D538">
-        <f>COUNTIF(G538:L538,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E538">
-        <f>IF(G538="",0,VLOOKUP(G538,Affiliation_Table,3,FALSE))+IF(H538="",0,VLOOKUP(H538,Affiliation_Table,3,FALSE))+IF(I538="",0,VLOOKUP(I538,Affiliation_Table,3,FALSE))+IF(J538="",0,VLOOKUP(J538,Affiliation_Table,3,FALSE))+IF(K538="",0,VLOOKUP(K538,Affiliation_Table,3,FALSE))+IF(L538="",0,VLOOKUP(L538,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>8193</v>
       </c>
       <c r="F538">
@@ -19601,11 +19420,11 @@
         <v>1</v>
       </c>
       <c r="D539">
-        <f>COUNTIF(G539:L539,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E539">
-        <f>IF(G539="",0,VLOOKUP(G539,Affiliation_Table,3,FALSE))+IF(H539="",0,VLOOKUP(H539,Affiliation_Table,3,FALSE))+IF(I539="",0,VLOOKUP(I539,Affiliation_Table,3,FALSE))+IF(J539="",0,VLOOKUP(J539,Affiliation_Table,3,FALSE))+IF(K539="",0,VLOOKUP(K539,Affiliation_Table,3,FALSE))+IF(L539="",0,VLOOKUP(L539,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>16385</v>
       </c>
       <c r="F539">
@@ -19629,11 +19448,11 @@
         <v>2</v>
       </c>
       <c r="D540">
-        <f>COUNTIF(G540:L540,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E540">
-        <f>IF(G540="",0,VLOOKUP(G540,Affiliation_Table,3,FALSE))+IF(H540="",0,VLOOKUP(H540,Affiliation_Table,3,FALSE))+IF(I540="",0,VLOOKUP(I540,Affiliation_Table,3,FALSE))+IF(J540="",0,VLOOKUP(J540,Affiliation_Table,3,FALSE))+IF(K540="",0,VLOOKUP(K540,Affiliation_Table,3,FALSE))+IF(L540="",0,VLOOKUP(L540,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>16385</v>
       </c>
       <c r="F540">
@@ -19657,11 +19476,11 @@
         <v>2</v>
       </c>
       <c r="D541">
-        <f>COUNTIF(G541:L541,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E541">
-        <f>IF(G541="",0,VLOOKUP(G541,Affiliation_Table,3,FALSE))+IF(H541="",0,VLOOKUP(H541,Affiliation_Table,3,FALSE))+IF(I541="",0,VLOOKUP(I541,Affiliation_Table,3,FALSE))+IF(J541="",0,VLOOKUP(J541,Affiliation_Table,3,FALSE))+IF(K541="",0,VLOOKUP(K541,Affiliation_Table,3,FALSE))+IF(L541="",0,VLOOKUP(L541,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>16385</v>
       </c>
       <c r="F541">
@@ -19685,11 +19504,11 @@
         <v>1</v>
       </c>
       <c r="D542">
-        <f>COUNTIF(G542:L542,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E542">
-        <f>IF(G542="",0,VLOOKUP(G542,Affiliation_Table,3,FALSE))+IF(H542="",0,VLOOKUP(H542,Affiliation_Table,3,FALSE))+IF(I542="",0,VLOOKUP(I542,Affiliation_Table,3,FALSE))+IF(J542="",0,VLOOKUP(J542,Affiliation_Table,3,FALSE))+IF(K542="",0,VLOOKUP(K542,Affiliation_Table,3,FALSE))+IF(L542="",0,VLOOKUP(L542,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="F542">
@@ -19710,11 +19529,11 @@
         <v>1</v>
       </c>
       <c r="D543">
-        <f>COUNTIF(G543:L543,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E543">
-        <f>IF(G543="",0,VLOOKUP(G543,Affiliation_Table,3,FALSE))+IF(H543="",0,VLOOKUP(H543,Affiliation_Table,3,FALSE))+IF(I543="",0,VLOOKUP(I543,Affiliation_Table,3,FALSE))+IF(J543="",0,VLOOKUP(J543,Affiliation_Table,3,FALSE))+IF(K543="",0,VLOOKUP(K543,Affiliation_Table,3,FALSE))+IF(L543="",0,VLOOKUP(L543,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>32769</v>
       </c>
       <c r="F543">
@@ -19738,11 +19557,11 @@
         <v>3</v>
       </c>
       <c r="D544">
-        <f>COUNTIF(G544:L544,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E544">
-        <f>IF(G544="",0,VLOOKUP(G544,Affiliation_Table,3,FALSE))+IF(H544="",0,VLOOKUP(H544,Affiliation_Table,3,FALSE))+IF(I544="",0,VLOOKUP(I544,Affiliation_Table,3,FALSE))+IF(J544="",0,VLOOKUP(J544,Affiliation_Table,3,FALSE))+IF(K544="",0,VLOOKUP(K544,Affiliation_Table,3,FALSE))+IF(L544="",0,VLOOKUP(L544,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>65</v>
       </c>
       <c r="F544">
@@ -19766,11 +19585,11 @@
         <v>5</v>
       </c>
       <c r="D545">
-        <f>COUNTIF(G545:L545,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E545">
-        <f>IF(G545="",0,VLOOKUP(G545,Affiliation_Table,3,FALSE))+IF(H545="",0,VLOOKUP(H545,Affiliation_Table,3,FALSE))+IF(I545="",0,VLOOKUP(I545,Affiliation_Table,3,FALSE))+IF(J545="",0,VLOOKUP(J545,Affiliation_Table,3,FALSE))+IF(K545="",0,VLOOKUP(K545,Affiliation_Table,3,FALSE))+IF(L545="",0,VLOOKUP(L545,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>32786</v>
       </c>
       <c r="F545">
@@ -19797,11 +19616,11 @@
         <v>3</v>
       </c>
       <c r="D546">
-        <f>COUNTIF(G546:L546,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E546">
-        <f>IF(G546="",0,VLOOKUP(G546,Affiliation_Table,3,FALSE))+IF(H546="",0,VLOOKUP(H546,Affiliation_Table,3,FALSE))+IF(I546="",0,VLOOKUP(I546,Affiliation_Table,3,FALSE))+IF(J546="",0,VLOOKUP(J546,Affiliation_Table,3,FALSE))+IF(K546="",0,VLOOKUP(K546,Affiliation_Table,3,FALSE))+IF(L546="",0,VLOOKUP(L546,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>65</v>
       </c>
       <c r="F546">
@@ -19825,11 +19644,11 @@
         <v>3</v>
       </c>
       <c r="D547">
-        <f>COUNTIF(G547:L547,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E547">
-        <f>IF(G547="",0,VLOOKUP(G547,Affiliation_Table,3,FALSE))+IF(H547="",0,VLOOKUP(H547,Affiliation_Table,3,FALSE))+IF(I547="",0,VLOOKUP(I547,Affiliation_Table,3,FALSE))+IF(J547="",0,VLOOKUP(J547,Affiliation_Table,3,FALSE))+IF(K547="",0,VLOOKUP(K547,Affiliation_Table,3,FALSE))+IF(L547="",0,VLOOKUP(L547,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>65</v>
       </c>
       <c r="F547">
@@ -19853,11 +19672,11 @@
         <v>4</v>
       </c>
       <c r="D548">
-        <f>COUNTIF(G548:L548,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E548">
-        <f>IF(G548="",0,VLOOKUP(G548,Affiliation_Table,3,FALSE))+IF(H548="",0,VLOOKUP(H548,Affiliation_Table,3,FALSE))+IF(I548="",0,VLOOKUP(I548,Affiliation_Table,3,FALSE))+IF(J548="",0,VLOOKUP(J548,Affiliation_Table,3,FALSE))+IF(K548="",0,VLOOKUP(K548,Affiliation_Table,3,FALSE))+IF(L548="",0,VLOOKUP(L548,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>262145</v>
       </c>
       <c r="F548">
@@ -19881,11 +19700,11 @@
         <v>2</v>
       </c>
       <c r="D549">
-        <f>COUNTIF(G549:L549,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E549">
-        <f>IF(G549="",0,VLOOKUP(G549,Affiliation_Table,3,FALSE))+IF(H549="",0,VLOOKUP(H549,Affiliation_Table,3,FALSE))+IF(I549="",0,VLOOKUP(I549,Affiliation_Table,3,FALSE))+IF(J549="",0,VLOOKUP(J549,Affiliation_Table,3,FALSE))+IF(K549="",0,VLOOKUP(K549,Affiliation_Table,3,FALSE))+IF(L549="",0,VLOOKUP(L549,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>262145</v>
       </c>
       <c r="F549">
@@ -19909,11 +19728,11 @@
         <v>4</v>
       </c>
       <c r="D550">
-        <f>COUNTIF(G550:L550,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E550">
-        <f>IF(G550="",0,VLOOKUP(G550,Affiliation_Table,3,FALSE))+IF(H550="",0,VLOOKUP(H550,Affiliation_Table,3,FALSE))+IF(I550="",0,VLOOKUP(I550,Affiliation_Table,3,FALSE))+IF(J550="",0,VLOOKUP(J550,Affiliation_Table,3,FALSE))+IF(K550="",0,VLOOKUP(K550,Affiliation_Table,3,FALSE))+IF(L550="",0,VLOOKUP(L550,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>6145</v>
       </c>
       <c r="F550">
@@ -19940,11 +19759,11 @@
         <v>5</v>
       </c>
       <c r="D551">
-        <f>COUNTIF(G551:L551,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E551">
-        <f>IF(G551="",0,VLOOKUP(G551,Affiliation_Table,3,FALSE))+IF(H551="",0,VLOOKUP(H551,Affiliation_Table,3,FALSE))+IF(I551="",0,VLOOKUP(I551,Affiliation_Table,3,FALSE))+IF(J551="",0,VLOOKUP(J551,Affiliation_Table,3,FALSE))+IF(K551="",0,VLOOKUP(K551,Affiliation_Table,3,FALSE))+IF(L551="",0,VLOOKUP(L551,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>36865</v>
       </c>
       <c r="F551">
@@ -19971,11 +19790,11 @@
         <v>4</v>
       </c>
       <c r="D552">
-        <f>COUNTIF(G552:L552,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E552">
-        <f>IF(G552="",0,VLOOKUP(G552,Affiliation_Table,3,FALSE))+IF(H552="",0,VLOOKUP(H552,Affiliation_Table,3,FALSE))+IF(I552="",0,VLOOKUP(I552,Affiliation_Table,3,FALSE))+IF(J552="",0,VLOOKUP(J552,Affiliation_Table,3,FALSE))+IF(K552="",0,VLOOKUP(K552,Affiliation_Table,3,FALSE))+IF(L552="",0,VLOOKUP(L552,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>36865</v>
       </c>
       <c r="F552">
@@ -20002,11 +19821,11 @@
         <v>3</v>
       </c>
       <c r="D553">
-        <f>COUNTIF(G553:L553,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E553">
-        <f>IF(G553="",0,VLOOKUP(G553,Affiliation_Table,3,FALSE))+IF(H553="",0,VLOOKUP(H553,Affiliation_Table,3,FALSE))+IF(I553="",0,VLOOKUP(I553,Affiliation_Table,3,FALSE))+IF(J553="",0,VLOOKUP(J553,Affiliation_Table,3,FALSE))+IF(K553="",0,VLOOKUP(K553,Affiliation_Table,3,FALSE))+IF(L553="",0,VLOOKUP(L553,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>65</v>
       </c>
       <c r="F553">
@@ -20030,11 +19849,11 @@
         <v>4</v>
       </c>
       <c r="D554">
-        <f>COUNTIF(G554:L554,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E554">
-        <f>IF(G554="",0,VLOOKUP(G554,Affiliation_Table,3,FALSE))+IF(H554="",0,VLOOKUP(H554,Affiliation_Table,3,FALSE))+IF(I554="",0,VLOOKUP(I554,Affiliation_Table,3,FALSE))+IF(J554="",0,VLOOKUP(J554,Affiliation_Table,3,FALSE))+IF(K554="",0,VLOOKUP(K554,Affiliation_Table,3,FALSE))+IF(L554="",0,VLOOKUP(L554,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>262145</v>
       </c>
       <c r="F554">
@@ -20058,11 +19877,11 @@
         <v>1</v>
       </c>
       <c r="D555">
-        <f>COUNTIF(G555:L555,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E555">
-        <f>IF(G555="",0,VLOOKUP(G555,Affiliation_Table,3,FALSE))+IF(H555="",0,VLOOKUP(H555,Affiliation_Table,3,FALSE))+IF(I555="",0,VLOOKUP(I555,Affiliation_Table,3,FALSE))+IF(J555="",0,VLOOKUP(J555,Affiliation_Table,3,FALSE))+IF(K555="",0,VLOOKUP(K555,Affiliation_Table,3,FALSE))+IF(L555="",0,VLOOKUP(L555,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>65537</v>
       </c>
       <c r="F555">
@@ -20086,11 +19905,11 @@
         <v>3</v>
       </c>
       <c r="D556">
-        <f>COUNTIF(G556:L556,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E556">
-        <f>IF(G556="",0,VLOOKUP(G556,Affiliation_Table,3,FALSE))+IF(H556="",0,VLOOKUP(H556,Affiliation_Table,3,FALSE))+IF(I556="",0,VLOOKUP(I556,Affiliation_Table,3,FALSE))+IF(J556="",0,VLOOKUP(J556,Affiliation_Table,3,FALSE))+IF(K556="",0,VLOOKUP(K556,Affiliation_Table,3,FALSE))+IF(L556="",0,VLOOKUP(L556,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>32769</v>
       </c>
       <c r="F556">
@@ -20114,11 +19933,11 @@
         <v>2</v>
       </c>
       <c r="D557">
-        <f>COUNTIF(G557:L557,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E557">
-        <f>IF(G557="",0,VLOOKUP(G557,Affiliation_Table,3,FALSE))+IF(H557="",0,VLOOKUP(H557,Affiliation_Table,3,FALSE))+IF(I557="",0,VLOOKUP(I557,Affiliation_Table,3,FALSE))+IF(J557="",0,VLOOKUP(J557,Affiliation_Table,3,FALSE))+IF(K557="",0,VLOOKUP(K557,Affiliation_Table,3,FALSE))+IF(L557="",0,VLOOKUP(L557,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>270338</v>
       </c>
       <c r="F557">
@@ -20145,11 +19964,11 @@
         <v>4</v>
       </c>
       <c r="D558">
-        <f>COUNTIF(G558:L558,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E558">
-        <f>IF(G558="",0,VLOOKUP(G558,Affiliation_Table,3,FALSE))+IF(H558="",0,VLOOKUP(H558,Affiliation_Table,3,FALSE))+IF(I558="",0,VLOOKUP(I558,Affiliation_Table,3,FALSE))+IF(J558="",0,VLOOKUP(J558,Affiliation_Table,3,FALSE))+IF(K558="",0,VLOOKUP(K558,Affiliation_Table,3,FALSE))+IF(L558="",0,VLOOKUP(L558,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>262145</v>
       </c>
       <c r="F558">
@@ -20173,11 +19992,11 @@
         <v>3</v>
       </c>
       <c r="D559">
-        <f>COUNTIF(G559:L559,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E559">
-        <f>IF(G559="",0,VLOOKUP(G559,Affiliation_Table,3,FALSE))+IF(H559="",0,VLOOKUP(H559,Affiliation_Table,3,FALSE))+IF(I559="",0,VLOOKUP(I559,Affiliation_Table,3,FALSE))+IF(J559="",0,VLOOKUP(J559,Affiliation_Table,3,FALSE))+IF(K559="",0,VLOOKUP(K559,Affiliation_Table,3,FALSE))+IF(L559="",0,VLOOKUP(L559,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>65</v>
       </c>
       <c r="F559">
@@ -20201,11 +20020,11 @@
         <v>5</v>
       </c>
       <c r="D560">
-        <f>COUNTIF(G560:L560,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E560">
-        <f>IF(G560="",0,VLOOKUP(G560,Affiliation_Table,3,FALSE))+IF(H560="",0,VLOOKUP(H560,Affiliation_Table,3,FALSE))+IF(I560="",0,VLOOKUP(I560,Affiliation_Table,3,FALSE))+IF(J560="",0,VLOOKUP(J560,Affiliation_Table,3,FALSE))+IF(K560="",0,VLOOKUP(K560,Affiliation_Table,3,FALSE))+IF(L560="",0,VLOOKUP(L560,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>2097153</v>
       </c>
       <c r="F560">
@@ -20229,11 +20048,11 @@
         <v>4</v>
       </c>
       <c r="D561">
-        <f>COUNTIF(G561:L561,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E561">
-        <f>IF(G561="",0,VLOOKUP(G561,Affiliation_Table,3,FALSE))+IF(H561="",0,VLOOKUP(H561,Affiliation_Table,3,FALSE))+IF(I561="",0,VLOOKUP(I561,Affiliation_Table,3,FALSE))+IF(J561="",0,VLOOKUP(J561,Affiliation_Table,3,FALSE))+IF(K561="",0,VLOOKUP(K561,Affiliation_Table,3,FALSE))+IF(L561="",0,VLOOKUP(L561,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>4194305</v>
       </c>
       <c r="F561">
@@ -20257,11 +20076,11 @@
         <v>4</v>
       </c>
       <c r="D562">
-        <f>COUNTIF(G562:L562,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E562">
-        <f>IF(G562="",0,VLOOKUP(G562,Affiliation_Table,3,FALSE))+IF(H562="",0,VLOOKUP(H562,Affiliation_Table,3,FALSE))+IF(I562="",0,VLOOKUP(I562,Affiliation_Table,3,FALSE))+IF(J562="",0,VLOOKUP(J562,Affiliation_Table,3,FALSE))+IF(K562="",0,VLOOKUP(K562,Affiliation_Table,3,FALSE))+IF(L562="",0,VLOOKUP(L562,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>4194305</v>
       </c>
       <c r="F562">
@@ -20285,11 +20104,11 @@
         <v>4</v>
       </c>
       <c r="D563">
-        <f>COUNTIF(G563:L563,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E563">
-        <f>IF(G563="",0,VLOOKUP(G563,Affiliation_Table,3,FALSE))+IF(H563="",0,VLOOKUP(H563,Affiliation_Table,3,FALSE))+IF(I563="",0,VLOOKUP(I563,Affiliation_Table,3,FALSE))+IF(J563="",0,VLOOKUP(J563,Affiliation_Table,3,FALSE))+IF(K563="",0,VLOOKUP(K563,Affiliation_Table,3,FALSE))+IF(L563="",0,VLOOKUP(L563,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>4194305</v>
       </c>
       <c r="F563">
@@ -20313,11 +20132,11 @@
         <v>5</v>
       </c>
       <c r="D564">
-        <f>COUNTIF(G564:L564,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E564">
-        <f>IF(G564="",0,VLOOKUP(G564,Affiliation_Table,3,FALSE))+IF(H564="",0,VLOOKUP(H564,Affiliation_Table,3,FALSE))+IF(I564="",0,VLOOKUP(I564,Affiliation_Table,3,FALSE))+IF(J564="",0,VLOOKUP(J564,Affiliation_Table,3,FALSE))+IF(K564="",0,VLOOKUP(K564,Affiliation_Table,3,FALSE))+IF(L564="",0,VLOOKUP(L564,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>4194305</v>
       </c>
       <c r="F564">
@@ -20341,11 +20160,11 @@
         <v>3</v>
       </c>
       <c r="D565">
-        <f>COUNTIF(G565:L565,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E565">
-        <f>IF(G565="",0,VLOOKUP(G565,Affiliation_Table,3,FALSE))+IF(H565="",0,VLOOKUP(H565,Affiliation_Table,3,FALSE))+IF(I565="",0,VLOOKUP(I565,Affiliation_Table,3,FALSE))+IF(J565="",0,VLOOKUP(J565,Affiliation_Table,3,FALSE))+IF(K565="",0,VLOOKUP(K565,Affiliation_Table,3,FALSE))+IF(L565="",0,VLOOKUP(L565,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>65</v>
       </c>
       <c r="F565">
@@ -20369,11 +20188,11 @@
         <v>4</v>
       </c>
       <c r="D566">
-        <f>COUNTIF(G566:L566,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E566">
-        <f>IF(G566="",0,VLOOKUP(G566,Affiliation_Table,3,FALSE))+IF(H566="",0,VLOOKUP(H566,Affiliation_Table,3,FALSE))+IF(I566="",0,VLOOKUP(I566,Affiliation_Table,3,FALSE))+IF(J566="",0,VLOOKUP(J566,Affiliation_Table,3,FALSE))+IF(K566="",0,VLOOKUP(K566,Affiliation_Table,3,FALSE))+IF(L566="",0,VLOOKUP(L566,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>6145</v>
       </c>
       <c r="F566">
@@ -20400,11 +20219,11 @@
         <v>2</v>
       </c>
       <c r="D567">
-        <f>COUNTIF(G567:L567,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="E567">
-        <f>IF(G567="",0,VLOOKUP(G567,Affiliation_Table,3,FALSE))+IF(H567="",0,VLOOKUP(H567,Affiliation_Table,3,FALSE))+IF(I567="",0,VLOOKUP(I567,Affiliation_Table,3,FALSE))+IF(J567="",0,VLOOKUP(J567,Affiliation_Table,3,FALSE))+IF(K567="",0,VLOOKUP(K567,Affiliation_Table,3,FALSE))+IF(L567="",0,VLOOKUP(L567,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>786561</v>
       </c>
       <c r="F567">
@@ -20434,11 +20253,11 @@
         <v>1</v>
       </c>
       <c r="D568">
-        <f>COUNTIF(G568:L568,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E568">
-        <f>IF(G568="",0,VLOOKUP(G568,Affiliation_Table,3,FALSE))+IF(H568="",0,VLOOKUP(H568,Affiliation_Table,3,FALSE))+IF(I568="",0,VLOOKUP(I568,Affiliation_Table,3,FALSE))+IF(J568="",0,VLOOKUP(J568,Affiliation_Table,3,FALSE))+IF(K568="",0,VLOOKUP(K568,Affiliation_Table,3,FALSE))+IF(L568="",0,VLOOKUP(L568,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>262145</v>
       </c>
       <c r="F568">
@@ -20462,11 +20281,11 @@
         <v>1</v>
       </c>
       <c r="D569">
-        <f>COUNTIF(G569:L569,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E569">
-        <f>IF(G569="",0,VLOOKUP(G569,Affiliation_Table,3,FALSE))+IF(H569="",0,VLOOKUP(H569,Affiliation_Table,3,FALSE))+IF(I569="",0,VLOOKUP(I569,Affiliation_Table,3,FALSE))+IF(J569="",0,VLOOKUP(J569,Affiliation_Table,3,FALSE))+IF(K569="",0,VLOOKUP(K569,Affiliation_Table,3,FALSE))+IF(L569="",0,VLOOKUP(L569,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>6145</v>
       </c>
       <c r="F569">
@@ -20493,11 +20312,11 @@
         <v>3</v>
       </c>
       <c r="D570">
-        <f>COUNTIF(G570:L570,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E570">
-        <f>IF(G570="",0,VLOOKUP(G570,Affiliation_Table,3,FALSE))+IF(H570="",0,VLOOKUP(H570,Affiliation_Table,3,FALSE))+IF(I570="",0,VLOOKUP(I570,Affiliation_Table,3,FALSE))+IF(J570="",0,VLOOKUP(J570,Affiliation_Table,3,FALSE))+IF(K570="",0,VLOOKUP(K570,Affiliation_Table,3,FALSE))+IF(L570="",0,VLOOKUP(L570,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>32786</v>
       </c>
       <c r="F570">
@@ -20524,11 +20343,11 @@
         <v>4</v>
       </c>
       <c r="D571">
-        <f>COUNTIF(G571:L571,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E571">
-        <f>IF(G571="",0,VLOOKUP(G571,Affiliation_Table,3,FALSE))+IF(H571="",0,VLOOKUP(H571,Affiliation_Table,3,FALSE))+IF(I571="",0,VLOOKUP(I571,Affiliation_Table,3,FALSE))+IF(J571="",0,VLOOKUP(J571,Affiliation_Table,3,FALSE))+IF(K571="",0,VLOOKUP(K571,Affiliation_Table,3,FALSE))+IF(L571="",0,VLOOKUP(L571,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>163841</v>
       </c>
       <c r="F571">
@@ -20555,11 +20374,11 @@
         <v>4</v>
       </c>
       <c r="D572">
-        <f>COUNTIF(G572:L572,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E572">
-        <f>IF(G572="",0,VLOOKUP(G572,Affiliation_Table,3,FALSE))+IF(H572="",0,VLOOKUP(H572,Affiliation_Table,3,FALSE))+IF(I572="",0,VLOOKUP(I572,Affiliation_Table,3,FALSE))+IF(J572="",0,VLOOKUP(J572,Affiliation_Table,3,FALSE))+IF(K572="",0,VLOOKUP(K572,Affiliation_Table,3,FALSE))+IF(L572="",0,VLOOKUP(L572,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>270337</v>
       </c>
       <c r="F572">
@@ -20586,11 +20405,11 @@
         <v>3</v>
       </c>
       <c r="D573">
-        <f>COUNTIF(G573:L573,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E573">
-        <f>IF(G573="",0,VLOOKUP(G573,Affiliation_Table,3,FALSE))+IF(H573="",0,VLOOKUP(H573,Affiliation_Table,3,FALSE))+IF(I573="",0,VLOOKUP(I573,Affiliation_Table,3,FALSE))+IF(J573="",0,VLOOKUP(J573,Affiliation_Table,3,FALSE))+IF(K573="",0,VLOOKUP(K573,Affiliation_Table,3,FALSE))+IF(L573="",0,VLOOKUP(L573,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>32769</v>
       </c>
       <c r="F573">
@@ -20614,11 +20433,11 @@
         <v>2</v>
       </c>
       <c r="D574">
-        <f>COUNTIF(G574:L574,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E574">
-        <f>IF(G574="",0,VLOOKUP(G574,Affiliation_Table,3,FALSE))+IF(H574="",0,VLOOKUP(H574,Affiliation_Table,3,FALSE))+IF(I574="",0,VLOOKUP(I574,Affiliation_Table,3,FALSE))+IF(J574="",0,VLOOKUP(J574,Affiliation_Table,3,FALSE))+IF(K574="",0,VLOOKUP(K574,Affiliation_Table,3,FALSE))+IF(L574="",0,VLOOKUP(L574,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="F574">
@@ -20639,11 +20458,11 @@
         <v>3</v>
       </c>
       <c r="D575">
-        <f>COUNTIF(G575:L575,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E575">
-        <f>IF(G575="",0,VLOOKUP(G575,Affiliation_Table,3,FALSE))+IF(H575="",0,VLOOKUP(H575,Affiliation_Table,3,FALSE))+IF(I575="",0,VLOOKUP(I575,Affiliation_Table,3,FALSE))+IF(J575="",0,VLOOKUP(J575,Affiliation_Table,3,FALSE))+IF(K575="",0,VLOOKUP(K575,Affiliation_Table,3,FALSE))+IF(L575="",0,VLOOKUP(L575,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>8202</v>
       </c>
       <c r="F575">
@@ -20670,11 +20489,11 @@
         <v>2</v>
       </c>
       <c r="D576">
-        <f>COUNTIF(G576:L576,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E576">
-        <f>IF(G576="",0,VLOOKUP(G576,Affiliation_Table,3,FALSE))+IF(H576="",0,VLOOKUP(H576,Affiliation_Table,3,FALSE))+IF(I576="",0,VLOOKUP(I576,Affiliation_Table,3,FALSE))+IF(J576="",0,VLOOKUP(J576,Affiliation_Table,3,FALSE))+IF(K576="",0,VLOOKUP(K576,Affiliation_Table,3,FALSE))+IF(L576="",0,VLOOKUP(L576,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>16385</v>
       </c>
       <c r="F576">
@@ -20698,11 +20517,11 @@
         <v>2</v>
       </c>
       <c r="D577">
-        <f>COUNTIF(G577:L577,"&lt;&gt;")</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E577">
-        <f>IF(G577="",0,VLOOKUP(G577,Affiliation_Table,3,FALSE))+IF(H577="",0,VLOOKUP(H577,Affiliation_Table,3,FALSE))+IF(I577="",0,VLOOKUP(I577,Affiliation_Table,3,FALSE))+IF(J577="",0,VLOOKUP(J577,Affiliation_Table,3,FALSE))+IF(K577="",0,VLOOKUP(K577,Affiliation_Table,3,FALSE))+IF(L577="",0,VLOOKUP(L577,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="17"/>
         <v>16385</v>
       </c>
       <c r="F577">
@@ -20726,11 +20545,11 @@
         <v>2</v>
       </c>
       <c r="D578">
-        <f>COUNTIF(G578:L578,"&lt;&gt;")</f>
+        <f t="shared" ref="D578:D619" si="18">COUNTIF(G578:L578,"&lt;&gt;")</f>
         <v>1</v>
       </c>
       <c r="E578">
-        <f>IF(G578="",0,VLOOKUP(G578,Affiliation_Table,3,FALSE))+IF(H578="",0,VLOOKUP(H578,Affiliation_Table,3,FALSE))+IF(I578="",0,VLOOKUP(I578,Affiliation_Table,3,FALSE))+IF(J578="",0,VLOOKUP(J578,Affiliation_Table,3,FALSE))+IF(K578="",0,VLOOKUP(K578,Affiliation_Table,3,FALSE))+IF(L578="",0,VLOOKUP(L578,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" ref="E578:E619" si="19">IF(G578="",0,VLOOKUP(G578,Affiliation_Table,3,FALSE))+IF(H578="",0,VLOOKUP(H578,Affiliation_Table,3,FALSE))+IF(I578="",0,VLOOKUP(I578,Affiliation_Table,3,FALSE))+IF(J578="",0,VLOOKUP(J578,Affiliation_Table,3,FALSE))+IF(K578="",0,VLOOKUP(K578,Affiliation_Table,3,FALSE))+IF(L578="",0,VLOOKUP(L578,Affiliation_Table,3,FALSE))</f>
         <v>1</v>
       </c>
       <c r="F578">
@@ -20751,11 +20570,11 @@
         <v>1</v>
       </c>
       <c r="D579">
-        <f>COUNTIF(G579:L579,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="E579">
-        <f>IF(G579="",0,VLOOKUP(G579,Affiliation_Table,3,FALSE))+IF(H579="",0,VLOOKUP(H579,Affiliation_Table,3,FALSE))+IF(I579="",0,VLOOKUP(I579,Affiliation_Table,3,FALSE))+IF(J579="",0,VLOOKUP(J579,Affiliation_Table,3,FALSE))+IF(K579="",0,VLOOKUP(K579,Affiliation_Table,3,FALSE))+IF(L579="",0,VLOOKUP(L579,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>65545</v>
       </c>
       <c r="F579">
@@ -20782,11 +20601,11 @@
         <v>2</v>
       </c>
       <c r="D580">
-        <f>COUNTIF(G580:L580,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="E580">
-        <f>IF(G580="",0,VLOOKUP(G580,Affiliation_Table,3,FALSE))+IF(H580="",0,VLOOKUP(H580,Affiliation_Table,3,FALSE))+IF(I580="",0,VLOOKUP(I580,Affiliation_Table,3,FALSE))+IF(J580="",0,VLOOKUP(J580,Affiliation_Table,3,FALSE))+IF(K580="",0,VLOOKUP(K580,Affiliation_Table,3,FALSE))+IF(L580="",0,VLOOKUP(L580,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>786433</v>
       </c>
       <c r="F580">
@@ -20813,11 +20632,11 @@
         <v>3</v>
       </c>
       <c r="D581">
-        <f>COUNTIF(G581:L581,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E581">
-        <f>IF(G581="",0,VLOOKUP(G581,Affiliation_Table,3,FALSE))+IF(H581="",0,VLOOKUP(H581,Affiliation_Table,3,FALSE))+IF(I581="",0,VLOOKUP(I581,Affiliation_Table,3,FALSE))+IF(J581="",0,VLOOKUP(J581,Affiliation_Table,3,FALSE))+IF(K581="",0,VLOOKUP(K581,Affiliation_Table,3,FALSE))+IF(L581="",0,VLOOKUP(L581,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>65</v>
       </c>
       <c r="F581">
@@ -20841,11 +20660,11 @@
         <v>3</v>
       </c>
       <c r="D582">
-        <f>COUNTIF(G582:L582,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E582">
-        <f>IF(G582="",0,VLOOKUP(G582,Affiliation_Table,3,FALSE))+IF(H582="",0,VLOOKUP(H582,Affiliation_Table,3,FALSE))+IF(I582="",0,VLOOKUP(I582,Affiliation_Table,3,FALSE))+IF(J582="",0,VLOOKUP(J582,Affiliation_Table,3,FALSE))+IF(K582="",0,VLOOKUP(K582,Affiliation_Table,3,FALSE))+IF(L582="",0,VLOOKUP(L582,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>65</v>
       </c>
       <c r="F582">
@@ -20869,11 +20688,11 @@
         <v>3</v>
       </c>
       <c r="D583">
-        <f>COUNTIF(G583:L583,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E583">
-        <f>IF(G583="",0,VLOOKUP(G583,Affiliation_Table,3,FALSE))+IF(H583="",0,VLOOKUP(H583,Affiliation_Table,3,FALSE))+IF(I583="",0,VLOOKUP(I583,Affiliation_Table,3,FALSE))+IF(J583="",0,VLOOKUP(J583,Affiliation_Table,3,FALSE))+IF(K583="",0,VLOOKUP(K583,Affiliation_Table,3,FALSE))+IF(L583="",0,VLOOKUP(L583,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>262145</v>
       </c>
       <c r="F583">
@@ -20897,11 +20716,11 @@
         <v>1</v>
       </c>
       <c r="D584">
-        <f>COUNTIF(G584:L584,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="E584">
-        <f>IF(G584="",0,VLOOKUP(G584,Affiliation_Table,3,FALSE))+IF(H584="",0,VLOOKUP(H584,Affiliation_Table,3,FALSE))+IF(I584="",0,VLOOKUP(I584,Affiliation_Table,3,FALSE))+IF(J584="",0,VLOOKUP(J584,Affiliation_Table,3,FALSE))+IF(K584="",0,VLOOKUP(K584,Affiliation_Table,3,FALSE))+IF(L584="",0,VLOOKUP(L584,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="F584">
@@ -20922,11 +20741,11 @@
         <v>4</v>
       </c>
       <c r="D585">
-        <f>COUNTIF(G585:L585,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E585">
-        <f>IF(G585="",0,VLOOKUP(G585,Affiliation_Table,3,FALSE))+IF(H585="",0,VLOOKUP(H585,Affiliation_Table,3,FALSE))+IF(I585="",0,VLOOKUP(I585,Affiliation_Table,3,FALSE))+IF(J585="",0,VLOOKUP(J585,Affiliation_Table,3,FALSE))+IF(K585="",0,VLOOKUP(K585,Affiliation_Table,3,FALSE))+IF(L585="",0,VLOOKUP(L585,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>262145</v>
       </c>
       <c r="F585">
@@ -20950,11 +20769,11 @@
         <v>3</v>
       </c>
       <c r="D586">
-        <f>COUNTIF(G586:L586,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E586">
-        <f>IF(G586="",0,VLOOKUP(G586,Affiliation_Table,3,FALSE))+IF(H586="",0,VLOOKUP(H586,Affiliation_Table,3,FALSE))+IF(I586="",0,VLOOKUP(I586,Affiliation_Table,3,FALSE))+IF(J586="",0,VLOOKUP(J586,Affiliation_Table,3,FALSE))+IF(K586="",0,VLOOKUP(K586,Affiliation_Table,3,FALSE))+IF(L586="",0,VLOOKUP(L586,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>65</v>
       </c>
       <c r="F586">
@@ -20978,11 +20797,11 @@
         <v>3</v>
       </c>
       <c r="D587">
-        <f>COUNTIF(G587:L587,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="E587">
-        <f>IF(G587="",0,VLOOKUP(G587,Affiliation_Table,3,FALSE))+IF(H587="",0,VLOOKUP(H587,Affiliation_Table,3,FALSE))+IF(I587="",0,VLOOKUP(I587,Affiliation_Table,3,FALSE))+IF(J587="",0,VLOOKUP(J587,Affiliation_Table,3,FALSE))+IF(K587="",0,VLOOKUP(K587,Affiliation_Table,3,FALSE))+IF(L587="",0,VLOOKUP(L587,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>32785</v>
       </c>
       <c r="F587">
@@ -21009,11 +20828,11 @@
         <v>3</v>
       </c>
       <c r="D588">
-        <f>COUNTIF(G588:L588,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E588">
-        <f>IF(G588="",0,VLOOKUP(G588,Affiliation_Table,3,FALSE))+IF(H588="",0,VLOOKUP(H588,Affiliation_Table,3,FALSE))+IF(I588="",0,VLOOKUP(I588,Affiliation_Table,3,FALSE))+IF(J588="",0,VLOOKUP(J588,Affiliation_Table,3,FALSE))+IF(K588="",0,VLOOKUP(K588,Affiliation_Table,3,FALSE))+IF(L588="",0,VLOOKUP(L588,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>65537</v>
       </c>
       <c r="F588">
@@ -21037,11 +20856,11 @@
         <v>4</v>
       </c>
       <c r="D589">
-        <f>COUNTIF(G589:L589,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E589">
-        <f>IF(G589="",0,VLOOKUP(G589,Affiliation_Table,3,FALSE))+IF(H589="",0,VLOOKUP(H589,Affiliation_Table,3,FALSE))+IF(I589="",0,VLOOKUP(I589,Affiliation_Table,3,FALSE))+IF(J589="",0,VLOOKUP(J589,Affiliation_Table,3,FALSE))+IF(K589="",0,VLOOKUP(K589,Affiliation_Table,3,FALSE))+IF(L589="",0,VLOOKUP(L589,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>65540</v>
       </c>
       <c r="F589">
@@ -21065,11 +20884,11 @@
         <v>5</v>
       </c>
       <c r="D590">
-        <f>COUNTIF(G590:L590,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="E590">
-        <f>IF(G590="",0,VLOOKUP(G590,Affiliation_Table,3,FALSE))+IF(H590="",0,VLOOKUP(H590,Affiliation_Table,3,FALSE))+IF(I590="",0,VLOOKUP(I590,Affiliation_Table,3,FALSE))+IF(J590="",0,VLOOKUP(J590,Affiliation_Table,3,FALSE))+IF(K590="",0,VLOOKUP(K590,Affiliation_Table,3,FALSE))+IF(L590="",0,VLOOKUP(L590,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>32785</v>
       </c>
       <c r="F590">
@@ -21096,11 +20915,11 @@
         <v>3</v>
       </c>
       <c r="D591">
-        <f>COUNTIF(G591:L591,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="E591">
-        <f>IF(G591="",0,VLOOKUP(G591,Affiliation_Table,3,FALSE))+IF(H591="",0,VLOOKUP(H591,Affiliation_Table,3,FALSE))+IF(I591="",0,VLOOKUP(I591,Affiliation_Table,3,FALSE))+IF(J591="",0,VLOOKUP(J591,Affiliation_Table,3,FALSE))+IF(K591="",0,VLOOKUP(K591,Affiliation_Table,3,FALSE))+IF(L591="",0,VLOOKUP(L591,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>36866</v>
       </c>
       <c r="F591">
@@ -21127,11 +20946,11 @@
         <v>2</v>
       </c>
       <c r="D592">
-        <f>COUNTIF(G592:L592,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E592">
-        <f>IF(G592="",0,VLOOKUP(G592,Affiliation_Table,3,FALSE))+IF(H592="",0,VLOOKUP(H592,Affiliation_Table,3,FALSE))+IF(I592="",0,VLOOKUP(I592,Affiliation_Table,3,FALSE))+IF(J592="",0,VLOOKUP(J592,Affiliation_Table,3,FALSE))+IF(K592="",0,VLOOKUP(K592,Affiliation_Table,3,FALSE))+IF(L592="",0,VLOOKUP(L592,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>4097</v>
       </c>
       <c r="F592">
@@ -21155,11 +20974,11 @@
         <v>1</v>
       </c>
       <c r="D593">
-        <f>COUNTIF(G593:L593,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="E593">
-        <f>IF(G593="",0,VLOOKUP(G593,Affiliation_Table,3,FALSE))+IF(H593="",0,VLOOKUP(H593,Affiliation_Table,3,FALSE))+IF(I593="",0,VLOOKUP(I593,Affiliation_Table,3,FALSE))+IF(J593="",0,VLOOKUP(J593,Affiliation_Table,3,FALSE))+IF(K593="",0,VLOOKUP(K593,Affiliation_Table,3,FALSE))+IF(L593="",0,VLOOKUP(L593,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="F593">
@@ -21180,11 +20999,11 @@
         <v>3</v>
       </c>
       <c r="D594">
-        <f>COUNTIF(G594:L594,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E594">
-        <f>IF(G594="",0,VLOOKUP(G594,Affiliation_Table,3,FALSE))+IF(H594="",0,VLOOKUP(H594,Affiliation_Table,3,FALSE))+IF(I594="",0,VLOOKUP(I594,Affiliation_Table,3,FALSE))+IF(J594="",0,VLOOKUP(J594,Affiliation_Table,3,FALSE))+IF(K594="",0,VLOOKUP(K594,Affiliation_Table,3,FALSE))+IF(L594="",0,VLOOKUP(L594,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>65537</v>
       </c>
       <c r="F594">
@@ -21208,11 +21027,11 @@
         <v>2</v>
       </c>
       <c r="D595">
-        <f>COUNTIF(G595:L595,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E595">
-        <f>IF(G595="",0,VLOOKUP(G595,Affiliation_Table,3,FALSE))+IF(H595="",0,VLOOKUP(H595,Affiliation_Table,3,FALSE))+IF(I595="",0,VLOOKUP(I595,Affiliation_Table,3,FALSE))+IF(J595="",0,VLOOKUP(J595,Affiliation_Table,3,FALSE))+IF(K595="",0,VLOOKUP(K595,Affiliation_Table,3,FALSE))+IF(L595="",0,VLOOKUP(L595,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>262145</v>
       </c>
       <c r="F595">
@@ -21236,11 +21055,11 @@
         <v>2</v>
       </c>
       <c r="D596">
-        <f>COUNTIF(G596:L596,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E596">
-        <f>IF(G596="",0,VLOOKUP(G596,Affiliation_Table,3,FALSE))+IF(H596="",0,VLOOKUP(H596,Affiliation_Table,3,FALSE))+IF(I596="",0,VLOOKUP(I596,Affiliation_Table,3,FALSE))+IF(J596="",0,VLOOKUP(J596,Affiliation_Table,3,FALSE))+IF(K596="",0,VLOOKUP(K596,Affiliation_Table,3,FALSE))+IF(L596="",0,VLOOKUP(L596,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>8388609</v>
       </c>
       <c r="F596">
@@ -21264,11 +21083,11 @@
         <v>1</v>
       </c>
       <c r="D597">
-        <f>COUNTIF(G597:L597,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="E597">
-        <f>IF(G597="",0,VLOOKUP(G597,Affiliation_Table,3,FALSE))+IF(H597="",0,VLOOKUP(H597,Affiliation_Table,3,FALSE))+IF(I597="",0,VLOOKUP(I597,Affiliation_Table,3,FALSE))+IF(J597="",0,VLOOKUP(J597,Affiliation_Table,3,FALSE))+IF(K597="",0,VLOOKUP(K597,Affiliation_Table,3,FALSE))+IF(L597="",0,VLOOKUP(L597,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="F597">
@@ -21289,11 +21108,11 @@
         <v>4</v>
       </c>
       <c r="D598">
-        <f>COUNTIF(G598:L598,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="E598">
-        <f>IF(G598="",0,VLOOKUP(G598,Affiliation_Table,3,FALSE))+IF(H598="",0,VLOOKUP(H598,Affiliation_Table,3,FALSE))+IF(I598="",0,VLOOKUP(I598,Affiliation_Table,3,FALSE))+IF(J598="",0,VLOOKUP(J598,Affiliation_Table,3,FALSE))+IF(K598="",0,VLOOKUP(K598,Affiliation_Table,3,FALSE))+IF(L598="",0,VLOOKUP(L598,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>786688</v>
       </c>
       <c r="F598">
@@ -21320,11 +21139,11 @@
         <v>3</v>
       </c>
       <c r="D599">
-        <f>COUNTIF(G599:L599,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E599">
-        <f>IF(G599="",0,VLOOKUP(G599,Affiliation_Table,3,FALSE))+IF(H599="",0,VLOOKUP(H599,Affiliation_Table,3,FALSE))+IF(I599="",0,VLOOKUP(I599,Affiliation_Table,3,FALSE))+IF(J599="",0,VLOOKUP(J599,Affiliation_Table,3,FALSE))+IF(K599="",0,VLOOKUP(K599,Affiliation_Table,3,FALSE))+IF(L599="",0,VLOOKUP(L599,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>65</v>
       </c>
       <c r="F599">
@@ -21348,11 +21167,11 @@
         <v>4</v>
       </c>
       <c r="D600">
-        <f>COUNTIF(G600:L600,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E600">
-        <f>IF(G600="",0,VLOOKUP(G600,Affiliation_Table,3,FALSE))+IF(H600="",0,VLOOKUP(H600,Affiliation_Table,3,FALSE))+IF(I600="",0,VLOOKUP(I600,Affiliation_Table,3,FALSE))+IF(J600="",0,VLOOKUP(J600,Affiliation_Table,3,FALSE))+IF(K600="",0,VLOOKUP(K600,Affiliation_Table,3,FALSE))+IF(L600="",0,VLOOKUP(L600,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>2097153</v>
       </c>
       <c r="F600">
@@ -21376,11 +21195,11 @@
         <v>2</v>
       </c>
       <c r="D601">
-        <f>COUNTIF(G601:L601,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E601">
-        <f>IF(G601="",0,VLOOKUP(G601,Affiliation_Table,3,FALSE))+IF(H601="",0,VLOOKUP(H601,Affiliation_Table,3,FALSE))+IF(I601="",0,VLOOKUP(I601,Affiliation_Table,3,FALSE))+IF(J601="",0,VLOOKUP(J601,Affiliation_Table,3,FALSE))+IF(K601="",0,VLOOKUP(K601,Affiliation_Table,3,FALSE))+IF(L601="",0,VLOOKUP(L601,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>4097</v>
       </c>
       <c r="F601">
@@ -21404,11 +21223,11 @@
         <v>3</v>
       </c>
       <c r="D602">
-        <f>COUNTIF(G602:L602,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E602">
-        <f>IF(G602="",0,VLOOKUP(G602,Affiliation_Table,3,FALSE))+IF(H602="",0,VLOOKUP(H602,Affiliation_Table,3,FALSE))+IF(I602="",0,VLOOKUP(I602,Affiliation_Table,3,FALSE))+IF(J602="",0,VLOOKUP(J602,Affiliation_Table,3,FALSE))+IF(K602="",0,VLOOKUP(K602,Affiliation_Table,3,FALSE))+IF(L602="",0,VLOOKUP(L602,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>8388609</v>
       </c>
       <c r="F602">
@@ -21432,11 +21251,11 @@
         <v>4</v>
       </c>
       <c r="D603">
-        <f>COUNTIF(G603:L603,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E603">
-        <f>IF(G603="",0,VLOOKUP(G603,Affiliation_Table,3,FALSE))+IF(H603="",0,VLOOKUP(H603,Affiliation_Table,3,FALSE))+IF(I603="",0,VLOOKUP(I603,Affiliation_Table,3,FALSE))+IF(J603="",0,VLOOKUP(J603,Affiliation_Table,3,FALSE))+IF(K603="",0,VLOOKUP(K603,Affiliation_Table,3,FALSE))+IF(L603="",0,VLOOKUP(L603,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>16385</v>
       </c>
       <c r="F603">
@@ -21460,11 +21279,11 @@
         <v>4</v>
       </c>
       <c r="D604">
-        <f>COUNTIF(G604:L604,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E604">
-        <f>IF(G604="",0,VLOOKUP(G604,Affiliation_Table,3,FALSE))+IF(H604="",0,VLOOKUP(H604,Affiliation_Table,3,FALSE))+IF(I604="",0,VLOOKUP(I604,Affiliation_Table,3,FALSE))+IF(J604="",0,VLOOKUP(J604,Affiliation_Table,3,FALSE))+IF(K604="",0,VLOOKUP(K604,Affiliation_Table,3,FALSE))+IF(L604="",0,VLOOKUP(L604,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>16385</v>
       </c>
       <c r="F604">
@@ -21488,11 +21307,11 @@
         <v>4</v>
       </c>
       <c r="D605">
-        <f>COUNTIF(G605:L605,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E605">
-        <f>IF(G605="",0,VLOOKUP(G605,Affiliation_Table,3,FALSE))+IF(H605="",0,VLOOKUP(H605,Affiliation_Table,3,FALSE))+IF(I605="",0,VLOOKUP(I605,Affiliation_Table,3,FALSE))+IF(J605="",0,VLOOKUP(J605,Affiliation_Table,3,FALSE))+IF(K605="",0,VLOOKUP(K605,Affiliation_Table,3,FALSE))+IF(L605="",0,VLOOKUP(L605,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>8388609</v>
       </c>
       <c r="F605">
@@ -21516,11 +21335,11 @@
         <v>3</v>
       </c>
       <c r="D606">
-        <f>COUNTIF(G606:L606,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="E606">
-        <f>IF(G606="",0,VLOOKUP(G606,Affiliation_Table,3,FALSE))+IF(H606="",0,VLOOKUP(H606,Affiliation_Table,3,FALSE))+IF(I606="",0,VLOOKUP(I606,Affiliation_Table,3,FALSE))+IF(J606="",0,VLOOKUP(J606,Affiliation_Table,3,FALSE))+IF(K606="",0,VLOOKUP(K606,Affiliation_Table,3,FALSE))+IF(L606="",0,VLOOKUP(L606,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>32785</v>
       </c>
       <c r="F606">
@@ -21547,11 +21366,11 @@
         <v>4</v>
       </c>
       <c r="D607">
-        <f>COUNTIF(G607:L607,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E607">
-        <f>IF(G607="",0,VLOOKUP(G607,Affiliation_Table,3,FALSE))+IF(H607="",0,VLOOKUP(H607,Affiliation_Table,3,FALSE))+IF(I607="",0,VLOOKUP(I607,Affiliation_Table,3,FALSE))+IF(J607="",0,VLOOKUP(J607,Affiliation_Table,3,FALSE))+IF(K607="",0,VLOOKUP(K607,Affiliation_Table,3,FALSE))+IF(L607="",0,VLOOKUP(L607,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>16385</v>
       </c>
       <c r="F607">
@@ -21575,11 +21394,11 @@
         <v>4</v>
       </c>
       <c r="D608">
-        <f>COUNTIF(G608:L608,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E608">
-        <f>IF(G608="",0,VLOOKUP(G608,Affiliation_Table,3,FALSE))+IF(H608="",0,VLOOKUP(H608,Affiliation_Table,3,FALSE))+IF(I608="",0,VLOOKUP(I608,Affiliation_Table,3,FALSE))+IF(J608="",0,VLOOKUP(J608,Affiliation_Table,3,FALSE))+IF(K608="",0,VLOOKUP(K608,Affiliation_Table,3,FALSE))+IF(L608="",0,VLOOKUP(L608,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>16385</v>
       </c>
       <c r="F608">
@@ -21603,11 +21422,11 @@
         <v>1</v>
       </c>
       <c r="D609">
-        <f>COUNTIF(G609:L609,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="E609">
-        <f>IF(G609="",0,VLOOKUP(G609,Affiliation_Table,3,FALSE))+IF(H609="",0,VLOOKUP(H609,Affiliation_Table,3,FALSE))+IF(I609="",0,VLOOKUP(I609,Affiliation_Table,3,FALSE))+IF(J609="",0,VLOOKUP(J609,Affiliation_Table,3,FALSE))+IF(K609="",0,VLOOKUP(K609,Affiliation_Table,3,FALSE))+IF(L609="",0,VLOOKUP(L609,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="F609">
@@ -21628,11 +21447,11 @@
         <v>2</v>
       </c>
       <c r="D610">
-        <f>COUNTIF(G610:L610,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="E610">
-        <f>IF(G610="",0,VLOOKUP(G610,Affiliation_Table,3,FALSE))+IF(H610="",0,VLOOKUP(H610,Affiliation_Table,3,FALSE))+IF(I610="",0,VLOOKUP(I610,Affiliation_Table,3,FALSE))+IF(J610="",0,VLOOKUP(J610,Affiliation_Table,3,FALSE))+IF(K610="",0,VLOOKUP(K610,Affiliation_Table,3,FALSE))+IF(L610="",0,VLOOKUP(L610,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>794625</v>
       </c>
       <c r="F610">
@@ -21662,11 +21481,11 @@
         <v>3</v>
       </c>
       <c r="D611">
-        <f>COUNTIF(G611:L611,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E611">
-        <f>IF(G611="",0,VLOOKUP(G611,Affiliation_Table,3,FALSE))+IF(H611="",0,VLOOKUP(H611,Affiliation_Table,3,FALSE))+IF(I611="",0,VLOOKUP(I611,Affiliation_Table,3,FALSE))+IF(J611="",0,VLOOKUP(J611,Affiliation_Table,3,FALSE))+IF(K611="",0,VLOOKUP(K611,Affiliation_Table,3,FALSE))+IF(L611="",0,VLOOKUP(L611,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>32770</v>
       </c>
       <c r="F611">
@@ -21690,11 +21509,11 @@
         <v>3</v>
       </c>
       <c r="D612">
-        <f>COUNTIF(G612:L612,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E612">
-        <f>IF(G612="",0,VLOOKUP(G612,Affiliation_Table,3,FALSE))+IF(H612="",0,VLOOKUP(H612,Affiliation_Table,3,FALSE))+IF(I612="",0,VLOOKUP(I612,Affiliation_Table,3,FALSE))+IF(J612="",0,VLOOKUP(J612,Affiliation_Table,3,FALSE))+IF(K612="",0,VLOOKUP(K612,Affiliation_Table,3,FALSE))+IF(L612="",0,VLOOKUP(L612,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>8388609</v>
       </c>
       <c r="F612">
@@ -21718,11 +21537,11 @@
         <v>3</v>
       </c>
       <c r="D613">
-        <f>COUNTIF(G613:L613,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E613">
-        <f>IF(G613="",0,VLOOKUP(G613,Affiliation_Table,3,FALSE))+IF(H613="",0,VLOOKUP(H613,Affiliation_Table,3,FALSE))+IF(I613="",0,VLOOKUP(I613,Affiliation_Table,3,FALSE))+IF(J613="",0,VLOOKUP(J613,Affiliation_Table,3,FALSE))+IF(K613="",0,VLOOKUP(K613,Affiliation_Table,3,FALSE))+IF(L613="",0,VLOOKUP(L613,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>65</v>
       </c>
       <c r="F613">
@@ -21746,11 +21565,11 @@
         <v>2</v>
       </c>
       <c r="D614">
-        <f>COUNTIF(G614:L614,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E614">
-        <f>IF(G614="",0,VLOOKUP(G614,Affiliation_Table,3,FALSE))+IF(H614="",0,VLOOKUP(H614,Affiliation_Table,3,FALSE))+IF(I614="",0,VLOOKUP(I614,Affiliation_Table,3,FALSE))+IF(J614="",0,VLOOKUP(J614,Affiliation_Table,3,FALSE))+IF(K614="",0,VLOOKUP(K614,Affiliation_Table,3,FALSE))+IF(L614="",0,VLOOKUP(L614,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>8193</v>
       </c>
       <c r="F614">
@@ -21774,11 +21593,11 @@
         <v>1</v>
       </c>
       <c r="D615">
-        <f>COUNTIF(G615:L615,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="E615">
-        <f>IF(G615="",0,VLOOKUP(G615,Affiliation_Table,3,FALSE))+IF(H615="",0,VLOOKUP(H615,Affiliation_Table,3,FALSE))+IF(I615="",0,VLOOKUP(I615,Affiliation_Table,3,FALSE))+IF(J615="",0,VLOOKUP(J615,Affiliation_Table,3,FALSE))+IF(K615="",0,VLOOKUP(K615,Affiliation_Table,3,FALSE))+IF(L615="",0,VLOOKUP(L615,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="F615">
@@ -21799,11 +21618,11 @@
         <v>4</v>
       </c>
       <c r="D616">
-        <f>COUNTIF(G616:L616,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E616">
-        <f>IF(G616="",0,VLOOKUP(G616,Affiliation_Table,3,FALSE))+IF(H616="",0,VLOOKUP(H616,Affiliation_Table,3,FALSE))+IF(I616="",0,VLOOKUP(I616,Affiliation_Table,3,FALSE))+IF(J616="",0,VLOOKUP(J616,Affiliation_Table,3,FALSE))+IF(K616="",0,VLOOKUP(K616,Affiliation_Table,3,FALSE))+IF(L616="",0,VLOOKUP(L616,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>262145</v>
       </c>
       <c r="F616">
@@ -21827,11 +21646,11 @@
         <v>4</v>
       </c>
       <c r="D617">
-        <f>COUNTIF(G617:L617,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="E617">
-        <f>IF(G617="",0,VLOOKUP(G617,Affiliation_Table,3,FALSE))+IF(H617="",0,VLOOKUP(H617,Affiliation_Table,3,FALSE))+IF(I617="",0,VLOOKUP(I617,Affiliation_Table,3,FALSE))+IF(J617="",0,VLOOKUP(J617,Affiliation_Table,3,FALSE))+IF(K617="",0,VLOOKUP(K617,Affiliation_Table,3,FALSE))+IF(L617="",0,VLOOKUP(L617,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>256</v>
       </c>
       <c r="F617">
@@ -21852,11 +21671,11 @@
         <v>1</v>
       </c>
       <c r="D618">
-        <f>COUNTIF(G618:L618,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E618">
-        <f>IF(G618="",0,VLOOKUP(G618,Affiliation_Table,3,FALSE))+IF(H618="",0,VLOOKUP(H618,Affiliation_Table,3,FALSE))+IF(I618="",0,VLOOKUP(I618,Affiliation_Table,3,FALSE))+IF(J618="",0,VLOOKUP(J618,Affiliation_Table,3,FALSE))+IF(K618="",0,VLOOKUP(K618,Affiliation_Table,3,FALSE))+IF(L618="",0,VLOOKUP(L618,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>65537</v>
       </c>
       <c r="F618">
@@ -21880,11 +21699,11 @@
         <v>2</v>
       </c>
       <c r="D619">
-        <f>COUNTIF(G619:L619,"&lt;&gt;")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="E619">
-        <f>IF(G619="",0,VLOOKUP(G619,Affiliation_Table,3,FALSE))+IF(H619="",0,VLOOKUP(H619,Affiliation_Table,3,FALSE))+IF(I619="",0,VLOOKUP(I619,Affiliation_Table,3,FALSE))+IF(J619="",0,VLOOKUP(J619,Affiliation_Table,3,FALSE))+IF(K619="",0,VLOOKUP(K619,Affiliation_Table,3,FALSE))+IF(L619="",0,VLOOKUP(L619,Affiliation_Table,3,FALSE))</f>
+        <f t="shared" si="19"/>
         <v>262145</v>
       </c>
       <c r="F619">
@@ -21906,33 +21725,33 @@
     <mergeCell ref="G1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:L1048576">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>IF($A1&lt;&gt;"",IF(MOD(ROW(),2)=1,TRUE,FALSE))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>IF(ROW()=1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>IF($A1&lt;&gt;"",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D610">
-    <cfRule type="expression" dxfId="24" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D611:D619">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E610">
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E611:E619">
-    <cfRule type="expression" dxfId="22" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22995,7 +22814,7 @@
         <v>440</v>
       </c>
       <c r="I30">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -23038,7 +22857,7 @@
         <v>440</v>
       </c>
       <c r="I32">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -23589,7 +23408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E55"/>
     </sheetView>
   </sheetViews>
@@ -23972,7 +23791,7 @@
       </c>
       <c r="E31" t="str">
         <f ca="1">IF('Support Skills'!B31&lt;&gt;"",CONCATENATE('Support Skills'!B31," ",'Support Skills'!C31),CONCATENATE(OFFSET('Support Skills'!I31,-1,0),IF(OFFSET('Support Skills'!J31,-1,0)&lt;&gt;"",CONCATENATE(" ",OFFSET('Support Skills'!J31,-1,0)),""),IF(OFFSET('Support Skills'!K31,-1,0)&lt;&gt;"",CONCATENATE(" ",OFFSET('Support Skills'!K31,-1,0)),""),IF(OFFSET('Support Skills'!L31,-1,0)&lt;&gt;"",CONCATENATE(" ",OFFSET('Support Skills'!L31,-1,0)),""),IF(OFFSET('Support Skills'!M31,-1,0)&lt;&gt;"",CONCATENATE(" ",OFFSET('Support Skills'!M31,-1,0)),"")," ",OFFSET('Support Skills'!D31,-1,0)))</f>
-        <v>8 5</v>
+        <v>7 5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -23996,7 +23815,7 @@
       </c>
       <c r="E33" t="str">
         <f ca="1">IF('Support Skills'!B33&lt;&gt;"",CONCATENATE('Support Skills'!B33," ",'Support Skills'!C33),CONCATENATE(OFFSET('Support Skills'!I33,-1,0),IF(OFFSET('Support Skills'!J33,-1,0)&lt;&gt;"",CONCATENATE(" ",OFFSET('Support Skills'!J33,-1,0)),""),IF(OFFSET('Support Skills'!K33,-1,0)&lt;&gt;"",CONCATENATE(" ",OFFSET('Support Skills'!K33,-1,0)),""),IF(OFFSET('Support Skills'!L33,-1,0)&lt;&gt;"",CONCATENATE(" ",OFFSET('Support Skills'!L33,-1,0)),""),IF(OFFSET('Support Skills'!M33,-1,0)&lt;&gt;"",CONCATENATE(" ",OFFSET('Support Skills'!M33,-1,0)),"")," ",OFFSET('Support Skills'!D33,-1,0)))</f>
-        <v>8 5</v>
+        <v>7 5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
